--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,142 +38,142 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205881595612</t>
+    <t xml:space="preserve">1.80205917358398</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729644775391</t>
+    <t xml:space="preserve">1.87729632854462</t>
   </si>
   <si>
     <t xml:space="preserve">1.91127490997314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90763437747955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90399348735809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8930721282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909378528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394774913788</t>
+    <t xml:space="preserve">1.90763425827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90399384498596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307188987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909354686737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394786834717</t>
   </si>
   <si>
     <t xml:space="preserve">1.88093709945679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86637461185455</t>
+    <t xml:space="preserve">1.86637485027313</t>
   </si>
   <si>
     <t xml:space="preserve">1.84574520587921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84453165531158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210467338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82268869876862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83239638805389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967781066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84089124202728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83482313156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695887565613</t>
+    <t xml:space="preserve">1.84453177452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210455417633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82268857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83239674568176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967757225037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84089112281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83482372760773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695863723755</t>
   </si>
   <si>
     <t xml:space="preserve">1.82511556148529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82875609397888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80934000015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83361005783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86273407936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972378730774</t>
+    <t xml:space="preserve">1.82875621318817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8093398809433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8336101770401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86273443698883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972354888916</t>
   </si>
   <si>
     <t xml:space="preserve">1.86880195140839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86758852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030721664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8615208864212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549911022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8991391658783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700437545776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85363340377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666692256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003813266754</t>
+    <t xml:space="preserve">1.86758828163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030757427216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86152100563049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549887180328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89913964271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700473308563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85363292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003825187683</t>
   </si>
   <si>
     <t xml:space="preserve">1.89610588550568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8779034614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970056056976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94767999649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91734230518341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92340981960297</t>
+    <t xml:space="preserve">1.87790334224701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486922740936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970032215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9476797580719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91734194755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92340970039368</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161248207092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92644333839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93554508686066</t>
+    <t xml:space="preserve">1.92644369602203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9355446100235</t>
   </si>
   <si>
     <t xml:space="preserve">1.93857848644257</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">2.00228786468506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97801768779755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93251085281372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99925374984741</t>
+    <t xml:space="preserve">1.97801733016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97194981575012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93251097202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9992538690567</t>
   </si>
   <si>
     <t xml:space="preserve">1.99015271663666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02352428436279</t>
+    <t xml:space="preserve">2.02352404594421</t>
   </si>
   <si>
     <t xml:space="preserve">2.02959179878235</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">2.00835514068604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02049016952515</t>
+    <t xml:space="preserve">2.02049040794373</t>
   </si>
   <si>
     <t xml:space="preserve">2.01745653152466</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99622023105621</t>
+    <t xml:space="preserve">1.99621999263763</t>
   </si>
   <si>
     <t xml:space="preserve">2.0508279800415</t>
@@ -227,25 +227,25 @@
     <t xml:space="preserve">2.08327770233154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301257133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0540726184845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486824989319</t>
+    <t xml:space="preserve">2.09301280975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407309532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486801147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784799575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07029795646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652234077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976769447327</t>
+    <t xml:space="preserve">2.0702977180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652305603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976745605469</t>
   </si>
   <si>
     <t xml:space="preserve">2.07354283332825</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">2.01188826560974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96645855903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890863895416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215315818787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268377780914</t>
+    <t xml:space="preserve">1.96645832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.998908162117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9826831817627</t>
   </si>
   <si>
     <t xml:space="preserve">2.02811312675476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98592853546143</t>
+    <t xml:space="preserve">1.98592865467072</t>
   </si>
   <si>
     <t xml:space="preserve">2.02162313461304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04109287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04433846473694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05731773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08003282546997</t>
+    <t xml:space="preserve">2.04109334945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05731797218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08003258705139</t>
   </si>
   <si>
     <t xml:space="preserve">2.0605628490448</t>
@@ -296,79 +296,79 @@
     <t xml:space="preserve">2.06705284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12870764732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10599255561829</t>
+    <t xml:space="preserve">2.12870740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10599279403687</t>
   </si>
   <si>
     <t xml:space="preserve">2.09950256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10923790931702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758286476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380796432495</t>
+    <t xml:space="preserve">2.10923767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758310317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380820274353</t>
   </si>
   <si>
     <t xml:space="preserve">2.0767879486084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01513338088989</t>
+    <t xml:space="preserve">2.01513290405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.11248254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13195252418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17413735389709</t>
+    <t xml:space="preserve">2.13195276260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17413759231567</t>
   </si>
   <si>
     <t xml:space="preserve">2.18387222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14168787002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711709976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2357919216156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20658683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062734603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14493227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12546253204346</t>
+    <t xml:space="preserve">2.14168739318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711733818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254704475403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23579168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20658731460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14493250846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12546277046204</t>
   </si>
   <si>
     <t xml:space="preserve">2.17738223075867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23903679847717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22605729103088</t>
+    <t xml:space="preserve">2.23903703689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2260570526123</t>
   </si>
   <si>
     <t xml:space="preserve">2.1644024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16764736175537</t>
+    <t xml:space="preserve">2.16764760017395</t>
   </si>
   <si>
     <t xml:space="preserve">2.12221741676331</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">2.21307706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.219566822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1579122543335</t>
+    <t xml:space="preserve">2.21956729888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685244560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15791249275208</t>
   </si>
   <si>
     <t xml:space="preserve">2.1481773853302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16115736961365</t>
+    <t xml:space="preserve">2.16115713119507</t>
   </si>
   <si>
     <t xml:space="preserve">2.11897277832031</t>
@@ -407,70 +407,70 @@
     <t xml:space="preserve">2.03135848045349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01837801933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241816997528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460288047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746488571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1111478805542</t>
+    <t xml:space="preserve">2.01837825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241840839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746464729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811518669128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11114764213562</t>
   </si>
   <si>
     <t xml:space="preserve">2.10418033599854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09024500846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02753782272339</t>
+    <t xml:space="preserve">2.09024524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02753806114197</t>
   </si>
   <si>
     <t xml:space="preserve">1.99270045757294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98573291301727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578629732132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392812252045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9299932718277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302560806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8394159078598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122081756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244848251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064357280731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154584884644</t>
+    <t xml:space="preserve">1.98573303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786273479462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392800331116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92999291419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302548885345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83941566944122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88122057914734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244860172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7906436920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154608726501</t>
   </si>
   <si>
     <t xml:space="preserve">1.85335087776184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86728549003601</t>
+    <t xml:space="preserve">1.86728584766388</t>
   </si>
   <si>
     <t xml:space="preserve">1.81851327419281</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">1.86031830310822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80457842350006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367590904236</t>
+    <t xml:space="preserve">1.80457830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367602825165</t>
   </si>
   <si>
     <t xml:space="preserve">1.87425327301025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89515566825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.888188123703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212297439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909051895142</t>
+    <t xml:space="preserve">1.89515578746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818800449371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212333202362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909075737</t>
   </si>
   <si>
     <t xml:space="preserve">1.84638345241547</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">1.82548093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79761075973511</t>
+    <t xml:space="preserve">1.79761064052582</t>
   </si>
   <si>
     <t xml:space="preserve">1.77670848369598</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">1.74883854389191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74187088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490333557129</t>
+    <t xml:space="preserve">1.74187123775482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490357398987</t>
   </si>
   <si>
     <t xml:space="preserve">1.75580608844757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72793614864349</t>
+    <t xml:space="preserve">1.7279360294342</t>
   </si>
   <si>
     <t xml:space="preserve">1.76277351379395</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">1.97179782390594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0205705165863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360273361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00663542747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97876536846161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696045875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483027935028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089566707611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974081993103</t>
+    <t xml:space="preserve">2.02057075500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360297203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00663566589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9787654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9369603395462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483016014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76974105834961</t>
   </si>
   <si>
     <t xml:space="preserve">1.64432609081268</t>
@@ -563,145 +563,145 @@
     <t xml:space="preserve">1.51891160011292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72096836566925</t>
+    <t xml:space="preserve">1.72096884250641</t>
   </si>
   <si>
     <t xml:space="preserve">1.67219626903534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53981411457062</t>
+    <t xml:space="preserve">1.53981423377991</t>
   </si>
   <si>
     <t xml:space="preserve">1.56071662902832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47013902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923675060272</t>
+    <t xml:space="preserve">1.47013914585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923651218414</t>
   </si>
   <si>
     <t xml:space="preserve">1.47710657119751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48407423496246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42833399772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44226920604706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43530166149139</t>
+    <t xml:space="preserve">1.48407411575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42833411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44226932525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43530189990997</t>
   </si>
   <si>
     <t xml:space="preserve">1.49104166030884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50497663021088</t>
+    <t xml:space="preserve">1.50497651100159</t>
   </si>
   <si>
     <t xml:space="preserve">1.46317160129547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49800908565521</t>
+    <t xml:space="preserve">1.4980092048645</t>
   </si>
   <si>
     <t xml:space="preserve">1.59555375576019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54678153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55374920368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62342381477356</t>
+    <t xml:space="preserve">1.5467814207077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55374908447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62342369556427</t>
   </si>
   <si>
     <t xml:space="preserve">1.58161890506744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53284668922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465147972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60252141952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60948872566223</t>
+    <t xml:space="preserve">1.53284657001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465136051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60252130031586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60948884487152</t>
   </si>
   <si>
     <t xml:space="preserve">1.58858644962311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7070335149765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768393516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6164562702179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68613123893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605830192566</t>
+    <t xml:space="preserve">1.70703375339508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768381595612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61645615100861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68613111972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605818271637</t>
   </si>
   <si>
     <t xml:space="preserve">2.0683970451355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00887513160706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030831813812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310727119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8228679895401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8005473613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78566670417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846529960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83774840831757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542789936066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262894630432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86006927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87495017051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88983047008514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77078628540039</t>
+    <t xml:space="preserve">2.00887489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84518885612488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8303085565567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310691356659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82286822795868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80054712295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78566682338715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846518039703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83774888515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542801856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262930393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798757076263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8600697517395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87495005130768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88983058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707861661911</t>
   </si>
   <si>
     <t xml:space="preserve">1.73358476161957</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">1.69638335704803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68894302845001</t>
+    <t xml:space="preserve">1.6889431476593</t>
   </si>
   <si>
     <t xml:space="preserve">1.70382344722748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71870410442352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72614443302155</t>
+    <t xml:space="preserve">1.71870422363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72614431381226</t>
   </si>
   <si>
     <t xml:space="preserve">1.71126401424408</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">1.75590538978577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76334595680237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7410249710083</t>
+    <t xml:space="preserve">1.76334583759308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74102509021759</t>
   </si>
   <si>
     <t xml:space="preserve">1.66662240028381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68150281906128</t>
+    <t xml:space="preserve">1.68150269985199</t>
   </si>
   <si>
     <t xml:space="preserve">1.77822649478912</t>
@@ -746,37 +746,37 @@
     <t xml:space="preserve">1.67406249046326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65918219089508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174174308777</t>
+    <t xml:space="preserve">1.6591819524765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174162387848</t>
   </si>
   <si>
     <t xml:space="preserve">1.64430153369904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6368613243103</t>
+    <t xml:space="preserve">1.63686120510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.62942099571228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60710000991821</t>
+    <t xml:space="preserve">1.6071001291275</t>
   </si>
   <si>
     <t xml:space="preserve">1.61454021930695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221947193146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57733881473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51781642436981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48061525821686</t>
+    <t xml:space="preserve">1.59221971035004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57733869552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781666278839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48061537742615</t>
   </si>
   <si>
     <t xml:space="preserve">1.4954959154129</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">1.48805558681488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47317516803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46945488452911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750972270966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9344722032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167384624481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935286045074</t>
+    <t xml:space="preserve">1.47317504882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4694550037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750996112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447244167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167360782623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935262203217</t>
   </si>
   <si>
     <t xml:space="preserve">1.94191241264343</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99399423599243</t>
+    <t xml:space="preserve">1.99399435520172</t>
   </si>
   <si>
     <t xml:space="preserve">1.95679318904877</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">2.00143480300903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03119564056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06095719337463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0758376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09071803092957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10559844970703</t>
+    <t xml:space="preserve">2.03119611740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06095671653748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07583737373352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09071779251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10559868812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.1279194355011</t>
@@ -848,10 +848,7 @@
     <t xml:space="preserve">2.11303877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08327794075012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04607653617859</t>
+    <t xml:space="preserve">2.04607629776001</t>
   </si>
   <si>
     <t xml:space="preserve">2.12047910690308</t>
@@ -863,25 +860,25 @@
     <t xml:space="preserve">2.13535952568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18744158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22464299201965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21720266342163</t>
+    <t xml:space="preserve">2.1874418258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22464323043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21720290184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.2395236492157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20976257324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20232200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2320830821991</t>
+    <t xml:space="preserve">2.20976281166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20232248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23208355903625</t>
   </si>
   <si>
     <t xml:space="preserve">2.24696397781372</t>
@@ -890,10 +887,10 @@
     <t xml:space="preserve">2.25440430641174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27723097801208</t>
+    <t xml:space="preserve">2.26184439659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27723121643066</t>
   </si>
   <si>
     <t xml:space="preserve">2.28492450714111</t>
@@ -902,28 +899,28 @@
     <t xml:space="preserve">2.31569790840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26953768730164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32339119911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29261779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30800437927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34647154808044</t>
+    <t xml:space="preserve">2.26953792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32339143753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29261803627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30800461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34647130966187</t>
   </si>
   <si>
     <t xml:space="preserve">2.36185789108276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41571140289307</t>
+    <t xml:space="preserve">2.41571164131165</t>
   </si>
   <si>
     <t xml:space="preserve">2.39263129234314</t>
@@ -932,70 +929,70 @@
     <t xml:space="preserve">2.44648504257202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45417833328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43879127502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4080183506012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38493824005127</t>
+    <t xml:space="preserve">2.45417809486389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43879151344299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40801811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38493800163269</t>
   </si>
   <si>
     <t xml:space="preserve">2.42340493202209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43109798431396</t>
+    <t xml:space="preserve">2.43109822273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.40032482147217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47725820541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46187162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48495173454285</t>
+    <t xml:space="preserve">2.47725796699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46187138557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48495149612427</t>
   </si>
   <si>
     <t xml:space="preserve">2.49264478683472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50803160667419</t>
+    <t xml:space="preserve">2.50803136825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.51572489738464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52341842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53111171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50033855438232</t>
+    <t xml:space="preserve">2.52341818809509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53111147880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50033807754517</t>
   </si>
   <si>
     <t xml:space="preserve">2.56957840919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59265828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5772716999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58496522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60035181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60804510116577</t>
+    <t xml:space="preserve">2.59265851974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57727146148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58496499061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60035157203674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60804533958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.65420508384705</t>
@@ -1004,7 +1001,7 @@
     <t xml:space="preserve">2.63881874084473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70805859565735</t>
+    <t xml:space="preserve">2.70805883407593</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344541549683</t>
@@ -1013,70 +1010,70 @@
     <t xml:space="preserve">2.80037879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7696053981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77729868888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85423254966736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84653902053833</t>
+    <t xml:space="preserve">2.76960563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77729845046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8542320728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84653878211975</t>
   </si>
   <si>
     <t xml:space="preserve">2.83115220069885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86192584037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80807209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81576538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8388454914093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87731266021729</t>
+    <t xml:space="preserve">2.86192560195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8080723285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81576585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83884572982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87731194496155</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93116593360901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92347240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95424580574036</t>
+    <t xml:space="preserve">2.93116569519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9234721660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95424556732178</t>
   </si>
   <si>
     <t xml:space="preserve">2.94655251502991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91577911376953</t>
+    <t xml:space="preserve">2.91577935218811</t>
   </si>
   <si>
     <t xml:space="preserve">2.93885922431946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90808606147766</t>
+    <t xml:space="preserve">2.9080855846405</t>
   </si>
   <si>
     <t xml:space="preserve">2.9627685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93906664848328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04967641830444</t>
+    <t xml:space="preserve">2.9390664100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227236747742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04967665672302</t>
   </si>
   <si>
     <t xml:space="preserve">3.1049816608429</t>
@@ -1085,7 +1082,7 @@
     <t xml:space="preserve">3.08127951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05757737159729</t>
+    <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
     <t xml:space="preserve">3.04177594184875</t>
@@ -1097,28 +1094,28 @@
     <t xml:space="preserve">3.01807355880737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95486760139465</t>
+    <t xml:space="preserve">2.95486807823181</t>
   </si>
   <si>
     <t xml:space="preserve">2.98647093772888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92326521873474</t>
+    <t xml:space="preserve">2.92326498031616</t>
   </si>
   <si>
     <t xml:space="preserve">2.94696736335754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97857022285461</t>
+    <t xml:space="preserve">2.97856974601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.97066926956177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01017284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06547784805298</t>
+    <t xml:space="preserve">3.01017308235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06547808647156</t>
   </si>
   <si>
     <t xml:space="preserve">3.02597451210022</t>
@@ -1127,13 +1124,13 @@
     <t xml:space="preserve">3.03387498855591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99437141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85215854644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84425759315491</t>
+    <t xml:space="preserve">2.99437165260315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85215830802917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84425783157349</t>
   </si>
   <si>
     <t xml:space="preserve">2.89166235923767</t>
@@ -1145,34 +1142,34 @@
     <t xml:space="preserve">2.8363573551178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77315163612366</t>
+    <t xml:space="preserve">2.77315139770508</t>
   </si>
   <si>
     <t xml:space="preserve">2.74944925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6467399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51242780685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41761922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46502327919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60723662376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61513733863831</t>
+    <t xml:space="preserve">2.64673972129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51242804527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41761898994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46502375602722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60723614692688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61513710021973</t>
   </si>
   <si>
     <t xml:space="preserve">2.76525068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88376188278198</t>
+    <t xml:space="preserve">2.88376140594482</t>
   </si>
   <si>
     <t xml:space="preserve">2.75735020637512</t>
@@ -1187,16 +1184,16 @@
     <t xml:space="preserve">3.14448523521423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20769095420837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19188952445984</t>
+    <t xml:space="preserve">3.20769071578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19188928604126</t>
   </si>
   <si>
     <t xml:space="preserve">3.22349238395691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19979023933411</t>
+    <t xml:space="preserve">3.19979047775269</t>
   </si>
   <si>
     <t xml:space="preserve">3.16028666496277</t>
@@ -1205,43 +1202,43 @@
     <t xml:space="preserve">3.09708094596863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23139309883118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21559190750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13658452033997</t>
+    <t xml:space="preserve">3.2313928604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21559166908264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13658428192139</t>
   </si>
   <si>
     <t xml:space="preserve">3.1523859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31743216514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28417468070984</t>
+    <t xml:space="preserve">3.17608785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31743240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28417491912842</t>
   </si>
   <si>
     <t xml:space="preserve">3.30911779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27586030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24260282516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20103096961975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13451600074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15945911407471</t>
+    <t xml:space="preserve">3.27586054801941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24260306358337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20103120803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1345157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15945935249329</t>
   </si>
   <si>
     <t xml:space="preserve">3.00980043411255</t>
@@ -1250,13 +1247,13 @@
     <t xml:space="preserve">2.893399477005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91002798080444</t>
+    <t xml:space="preserve">2.91002821922302</t>
   </si>
   <si>
     <t xml:space="preserve">2.90171384811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91834259033203</t>
+    <t xml:space="preserve">2.91834235191345</t>
   </si>
   <si>
     <t xml:space="preserve">2.95159983634949</t>
@@ -1265,31 +1262,31 @@
     <t xml:space="preserve">2.92665696144104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95991444587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93497157096863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86014199256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87677097320557</t>
+    <t xml:space="preserve">2.9599142074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93497133255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86014223098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87677073478699</t>
   </si>
   <si>
     <t xml:space="preserve">2.86845636367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84351325035095</t>
+    <t xml:space="preserve">2.84351348876953</t>
   </si>
   <si>
     <t xml:space="preserve">2.8102560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.885085105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83519887924194</t>
+    <t xml:space="preserve">2.88508534431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83519911766052</t>
   </si>
   <si>
     <t xml:space="preserve">2.78531265258789</t>
@@ -1301,7 +1298,7 @@
     <t xml:space="preserve">2.73542642593384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77699828147888</t>
+    <t xml:space="preserve">2.77699851989746</t>
   </si>
   <si>
     <t xml:space="preserve">2.74374079704285</t>
@@ -1310,7 +1307,7 @@
     <t xml:space="preserve">2.76868414878845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76036953926086</t>
+    <t xml:space="preserve">2.76036930084229</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
@@ -1319,16 +1316,16 @@
     <t xml:space="preserve">2.67722582817078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71048355102539</t>
+    <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
     <t xml:space="preserve">2.64396858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66059732437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70216917991638</t>
+    <t xml:space="preserve">2.66059708595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7021689414978</t>
   </si>
   <si>
     <t xml:space="preserve">2.71879768371582</t>
@@ -1343,13 +1340,13 @@
     <t xml:space="preserve">2.69385457038879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94328570365906</t>
+    <t xml:space="preserve">2.94328594207764</t>
   </si>
   <si>
     <t xml:space="preserve">3.02642941474915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04305839538574</t>
+    <t xml:space="preserve">3.04305815696716</t>
   </si>
   <si>
     <t xml:space="preserve">3.05968689918518</t>
@@ -1358,10 +1355,10 @@
     <t xml:space="preserve">3.06800127029419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137228965759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09294438362122</t>
+    <t xml:space="preserve">3.05137252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
     <t xml:space="preserve">3.10957288742065</t>
@@ -1370,7 +1367,7 @@
     <t xml:space="preserve">3.13555812835693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14422035217285</t>
+    <t xml:space="preserve">3.14422011375427</t>
   </si>
   <si>
     <t xml:space="preserve">3.17020535469055</t>
@@ -1394,7 +1391,7 @@
     <t xml:space="preserve">3.19619059562683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11823487281799</t>
+    <t xml:space="preserve">3.11823463439941</t>
   </si>
   <si>
     <t xml:space="preserve">3.15288186073303</t>
@@ -1409,10 +1406,10 @@
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682306289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23083782196045</t>
+    <t xml:space="preserve">3.25682282447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23083758354187</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611703872681</t>
@@ -1421,19 +1418,19 @@
     <t xml:space="preserve">3.35210227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34344053268433</t>
+    <t xml:space="preserve">3.34344077110291</t>
   </si>
   <si>
     <t xml:space="preserve">3.27414655685425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30879330635071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23949956893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280806541443</t>
+    <t xml:space="preserve">3.30879354476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23949933052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280830383301</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1451,7 +1448,7 @@
     <t xml:space="preserve">3.3867495059967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39541149139404</t>
+    <t xml:space="preserve">3.39541125297546</t>
   </si>
   <si>
     <t xml:space="preserve">3.36076426506042</t>
@@ -1463,16 +1460,16 @@
     <t xml:space="preserve">3.36942601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31745529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51667594909668</t>
+    <t xml:space="preserve">3.31745553016663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5166757106781</t>
   </si>
   <si>
     <t xml:space="preserve">3.43871998786926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4300582408905</t>
+    <t xml:space="preserve">3.43005847930908</t>
   </si>
   <si>
     <t xml:space="preserve">3.41273474693298</t>
@@ -1490,16 +1487,16 @@
     <t xml:space="preserve">3.48386192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45650172233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41090154647827</t>
+    <t xml:space="preserve">3.45650196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41090130805969</t>
   </si>
   <si>
     <t xml:space="preserve">3.42002153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43826174736023</t>
+    <t xml:space="preserve">3.43826150894165</t>
   </si>
   <si>
     <t xml:space="preserve">3.38354134559631</t>
@@ -1511,19 +1508,19 @@
     <t xml:space="preserve">3.39266133308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40178155899048</t>
+    <t xml:space="preserve">3.4017813205719</t>
   </si>
   <si>
     <t xml:space="preserve">3.35618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36530137062073</t>
+    <t xml:space="preserve">3.36530113220215</t>
   </si>
   <si>
     <t xml:space="preserve">3.34706115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42914175987244</t>
+    <t xml:space="preserve">3.42914152145386</t>
   </si>
   <si>
     <t xml:space="preserve">3.33794116973877</t>
@@ -1547,13 +1544,13 @@
     <t xml:space="preserve">3.28322052955627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26498031616211</t>
+    <t xml:space="preserve">3.26498055458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.22850036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25586032867432</t>
+    <t xml:space="preserve">3.2558605670929</t>
   </si>
   <si>
     <t xml:space="preserve">3.27410054206848</t>
@@ -1574,13 +1571,13 @@
     <t xml:space="preserve">3.10993981361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10081958770752</t>
+    <t xml:space="preserve">3.1008198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.11905980110168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07345914840698</t>
+    <t xml:space="preserve">3.07345938682556</t>
   </si>
   <si>
     <t xml:space="preserve">3.16465997695923</t>
@@ -1595,10 +1592,10 @@
     <t xml:space="preserve">3.23762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1737802028656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026039123535</t>
+    <t xml:space="preserve">3.17377996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026015281677</t>
   </si>
   <si>
     <t xml:space="preserve">3.21938037872314</t>
@@ -23458,7 +23455,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23484,7 +23481,7 @@
         <v>2.75</v>
       </c>
       <c r="G822" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23510,7 +23507,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23536,7 +23533,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23588,7 +23585,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G826" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23666,7 +23663,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G829" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23770,7 +23767,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G833" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23796,7 +23793,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G834" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23848,7 +23845,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23874,7 +23871,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G837" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23900,7 +23897,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G838" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23926,7 +23923,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G839" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23952,7 +23949,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G840" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23978,7 +23975,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G841" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24004,7 +24001,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G842" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24030,7 +24027,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24056,7 +24053,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G844" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24082,7 +24079,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24108,7 +24105,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G846" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24134,7 +24131,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G847" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24160,7 +24157,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G848" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24186,7 +24183,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G849" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24212,7 +24209,7 @@
         <v>3</v>
       </c>
       <c r="G850" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24238,7 +24235,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24264,7 +24261,7 @@
         <v>3</v>
       </c>
       <c r="G852" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24290,7 +24287,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G853" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24316,7 +24313,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G854" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24342,7 +24339,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24368,7 +24365,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G856" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24394,7 +24391,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G857" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24420,7 +24417,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G858" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24446,7 +24443,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G859" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24472,7 +24469,7 @@
         <v>3</v>
       </c>
       <c r="G860" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24498,7 +24495,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G861" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24524,7 +24521,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24550,7 +24547,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24576,7 +24573,7 @@
         <v>3</v>
       </c>
       <c r="G864" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24602,7 +24599,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24628,7 +24625,7 @@
         <v>3</v>
       </c>
       <c r="G866" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24654,7 +24651,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G867" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24680,7 +24677,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24706,7 +24703,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G869" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24732,7 +24729,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24758,7 +24755,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G871" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24784,7 +24781,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G872" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24810,7 +24807,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24836,7 +24833,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G874" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24862,7 +24859,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G875" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24888,7 +24885,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G876" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24914,7 +24911,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G877" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24940,7 +24937,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24966,7 +24963,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G879" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24992,7 +24989,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25018,7 +25015,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G881" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25044,7 +25041,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25070,7 +25067,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25096,7 +25093,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G884" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25122,7 +25119,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G885" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25148,7 +25145,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25174,7 +25171,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G887" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25200,7 +25197,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G888" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25226,7 +25223,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G889" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25252,7 +25249,7 @@
         <v>3</v>
       </c>
       <c r="G890" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25278,7 +25275,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25304,7 +25301,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G892" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25330,7 +25327,7 @@
         <v>3</v>
       </c>
       <c r="G893" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25356,7 +25353,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G894" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25382,7 +25379,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G895" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25408,7 +25405,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G896" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25434,7 +25431,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25460,7 +25457,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G898" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25486,7 +25483,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G899" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25512,7 +25509,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G900" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25538,7 +25535,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G901" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25564,7 +25561,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G902" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25590,7 +25587,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G903" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25616,7 +25613,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25642,7 +25639,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G905" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25668,7 +25665,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G906" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25694,7 +25691,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G907" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25720,7 +25717,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G908" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25746,7 +25743,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G909" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25772,7 +25769,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G910" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25798,7 +25795,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25824,7 +25821,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G912" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25850,7 +25847,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G913" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25876,7 +25873,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G914" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25902,7 +25899,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G915" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25928,7 +25925,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G916" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25954,7 +25951,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G917" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25980,7 +25977,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G918" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26006,7 +26003,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G919" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26032,7 +26029,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G920" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26058,7 +26055,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G921" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26084,7 +26081,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G922" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26110,7 +26107,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G923" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26136,7 +26133,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G924" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26162,7 +26159,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G925" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26188,7 +26185,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G926" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26214,7 +26211,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26240,7 +26237,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G928" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26266,7 +26263,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26292,7 +26289,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26318,7 +26315,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G931" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26344,7 +26341,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G932" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26370,7 +26367,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G933" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26396,7 +26393,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G934" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26422,7 +26419,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G935" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26448,7 +26445,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26474,7 +26471,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G937" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26500,7 +26497,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G938" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26526,7 +26523,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G939" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26552,7 +26549,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G940" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26578,7 +26575,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G941" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26604,7 +26601,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G942" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26630,7 +26627,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26656,7 +26653,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26682,7 +26679,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26708,7 +26705,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G946" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26734,7 +26731,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26760,7 +26757,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G948" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26786,7 +26783,7 @@
         <v>3.25</v>
       </c>
       <c r="G949" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26812,7 +26809,7 @@
         <v>3.25</v>
       </c>
       <c r="G950" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26838,7 +26835,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G951" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26864,7 +26861,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G952" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26890,7 +26887,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G953" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26916,7 +26913,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G954" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26942,7 +26939,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G955" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26968,7 +26965,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G956" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26994,7 +26991,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G957" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27020,7 +27017,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G958" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27046,7 +27043,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G959" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27072,7 +27069,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G960" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27098,7 +27095,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G961" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27124,7 +27121,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G962" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27150,7 +27147,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27176,7 +27173,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G964" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27202,7 +27199,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G965" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27228,7 +27225,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G966" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27254,7 +27251,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27280,7 +27277,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G968" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27306,7 +27303,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G969" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27332,7 +27329,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G970" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27358,7 +27355,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G971" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27384,7 +27381,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G972" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27410,7 +27407,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27436,7 +27433,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G974" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27462,7 +27459,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G975" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27488,7 +27485,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G976" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27514,7 +27511,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G977" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27540,7 +27537,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G978" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27566,7 +27563,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G979" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27592,7 +27589,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G980" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27618,7 +27615,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27644,7 +27641,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G982" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27670,7 +27667,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G983" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27696,7 +27693,7 @@
         <v>3.75</v>
       </c>
       <c r="G984" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27722,7 +27719,7 @@
         <v>3.75</v>
       </c>
       <c r="G985" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27748,7 +27745,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G986" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27774,7 +27771,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G987" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27800,7 +27797,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G988" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27826,7 +27823,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G989" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27852,7 +27849,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G990" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27878,7 +27875,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27904,7 +27901,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27930,7 +27927,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27956,7 +27953,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27982,7 +27979,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28008,7 +28005,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28034,7 +28031,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28060,7 +28057,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G998" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28086,7 +28083,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28112,7 +28109,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1000" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28138,7 +28135,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1001" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28164,7 +28161,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1002" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28190,7 +28187,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1003" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28216,7 +28213,7 @@
         <v>3.75</v>
       </c>
       <c r="G1004" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28242,7 +28239,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28268,7 +28265,7 @@
         <v>3.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28294,7 +28291,7 @@
         <v>3.75</v>
       </c>
       <c r="G1007" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28320,7 +28317,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1008" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28346,7 +28343,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1009" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28372,7 +28369,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28398,7 +28395,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1011" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28424,7 +28421,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1012" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28450,7 +28447,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1013" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28476,7 +28473,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28502,7 +28499,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1015" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28528,7 +28525,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1016" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28554,7 +28551,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1017" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28580,7 +28577,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1018" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28606,7 +28603,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1019" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28632,7 +28629,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28658,7 +28655,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1021" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28684,7 +28681,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1022" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28710,7 +28707,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1023" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28736,7 +28733,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1024" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28762,7 +28759,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1025" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28788,7 +28785,7 @@
         <v>3.75</v>
       </c>
       <c r="G1026" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28814,7 +28811,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1027" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28840,7 +28837,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1028" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28866,7 +28863,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1029" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28892,7 +28889,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1030" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28918,7 +28915,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28944,7 +28941,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1032" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28970,7 +28967,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28996,7 +28993,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1034" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29022,7 +29019,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1035" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29048,7 +29045,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1036" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29074,7 +29071,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1037" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29100,7 +29097,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1038" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29126,7 +29123,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1039" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29152,7 +29149,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29178,7 +29175,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1041" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29204,7 +29201,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1042" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29230,7 +29227,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1043" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29256,7 +29253,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1044" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29282,7 +29279,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1045" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29308,7 +29305,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1046" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29334,7 +29331,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29360,7 +29357,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1048" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29386,7 +29383,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29412,7 +29409,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1050" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29438,7 +29435,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1051" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29464,7 +29461,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29490,7 +29487,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29516,7 +29513,7 @@
         <v>3.75</v>
       </c>
       <c r="G1054" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29542,7 +29539,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1055" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29568,7 +29565,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1056" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29594,7 +29591,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1057" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29620,7 +29617,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1058" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29646,7 +29643,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29672,7 +29669,7 @@
         <v>3.75</v>
       </c>
       <c r="G1060" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29698,7 +29695,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1061" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29724,7 +29721,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1062" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29750,7 +29747,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1063" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29776,7 +29773,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1064" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29802,7 +29799,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1065" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29828,7 +29825,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29854,7 +29851,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29880,7 +29877,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1068" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29906,7 +29903,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1069" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29932,7 +29929,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1070" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29958,7 +29955,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1071" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29984,7 +29981,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1072" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30010,7 +30007,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1073" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30036,7 +30033,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1074" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30062,7 +30059,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1075" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30088,7 +30085,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1076" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30114,7 +30111,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1077" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30140,7 +30137,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1078" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30166,7 +30163,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1079" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30192,7 +30189,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30218,7 +30215,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1081" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30244,7 +30241,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1082" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30270,7 +30267,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1083" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30296,7 +30293,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1084" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30322,7 +30319,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1085" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30348,7 +30345,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1086" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30374,7 +30371,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1087" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30400,7 +30397,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1088" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30426,7 +30423,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1089" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30452,7 +30449,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1090" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30478,7 +30475,7 @@
         <v>3.5</v>
       </c>
       <c r="G1091" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30504,7 +30501,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1092" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30530,7 +30527,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1093" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30556,7 +30553,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1094" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30582,7 +30579,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30608,7 +30605,7 @@
         <v>3.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30634,7 +30631,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1097" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30660,7 +30657,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1098" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30686,7 +30683,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1099" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30712,7 +30709,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30738,7 +30735,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30764,7 +30761,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30790,7 +30787,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30816,7 +30813,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30842,7 +30839,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30868,7 +30865,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30894,7 +30891,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30920,7 +30917,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30946,7 +30943,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30972,7 +30969,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30998,7 +30995,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31024,7 +31021,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31050,7 +31047,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31076,7 +31073,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31102,7 +31099,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31128,7 +31125,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31154,7 +31151,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31180,7 +31177,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31206,7 +31203,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31232,7 +31229,7 @@
         <v>4</v>
       </c>
       <c r="G1120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31258,7 +31255,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31284,7 +31281,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31310,7 +31307,7 @@
         <v>4</v>
       </c>
       <c r="G1123" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31336,7 +31333,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31362,7 +31359,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31388,7 +31385,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1126" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31414,7 +31411,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31440,7 +31437,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31466,7 +31463,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31492,7 +31489,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31518,7 +31515,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31544,7 +31541,7 @@
         <v>4</v>
       </c>
       <c r="G1132" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31570,7 +31567,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31596,7 +31593,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31622,7 +31619,7 @@
         <v>4</v>
       </c>
       <c r="G1135" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31648,7 +31645,7 @@
         <v>4</v>
       </c>
       <c r="G1136" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31674,7 +31671,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31700,7 +31697,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31726,7 +31723,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1139" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31752,7 +31749,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31778,7 +31775,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31804,7 +31801,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1142" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31830,7 +31827,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31856,7 +31853,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1144" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31882,7 +31879,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31908,7 +31905,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31934,7 +31931,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31960,7 +31957,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1148" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31986,7 +31983,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32012,7 +32009,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1150" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32038,7 +32035,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1151" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32064,7 +32061,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32090,7 +32087,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1153" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32116,7 +32113,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32142,7 +32139,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32168,7 +32165,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32194,7 +32191,7 @@
         <v>3.5</v>
       </c>
       <c r="G1157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32220,7 +32217,7 @@
         <v>3.5</v>
       </c>
       <c r="G1158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32246,7 +32243,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32272,7 +32269,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1160" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32298,7 +32295,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1161" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32324,7 +32321,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1162" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32350,7 +32347,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32376,7 +32373,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32402,7 +32399,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1165" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32428,7 +32425,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1166" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32454,7 +32451,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1167" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32480,7 +32477,7 @@
         <v>3.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32506,7 +32503,7 @@
         <v>3.5</v>
       </c>
       <c r="G1169" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32532,7 +32529,7 @@
         <v>3.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32558,7 +32555,7 @@
         <v>3.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32584,7 +32581,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1172" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32610,7 +32607,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32636,7 +32633,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1174" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32662,7 +32659,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1175" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32688,7 +32685,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32714,7 +32711,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32740,7 +32737,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1178" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32766,7 +32763,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32792,7 +32789,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32818,7 +32815,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32844,7 +32841,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1182" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32870,7 +32867,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1183" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32896,7 +32893,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32922,7 +32919,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1185" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32948,7 +32945,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1186" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32974,7 +32971,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1187" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33000,7 +32997,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33026,7 +33023,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1189" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33052,7 +33049,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33078,7 +33075,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1191" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33104,7 +33101,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1192" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33130,7 +33127,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33156,7 +33153,7 @@
         <v>3.5</v>
       </c>
       <c r="G1194" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33182,7 +33179,7 @@
         <v>3.5</v>
       </c>
       <c r="G1195" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33208,7 +33205,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1196" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33234,7 +33231,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33260,7 +33257,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1198" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33286,7 +33283,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1199" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33312,7 +33309,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33338,7 +33335,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33364,7 +33361,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33390,7 +33387,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1203" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33416,7 +33413,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1204" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33442,7 +33439,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33468,7 +33465,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1206" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33494,7 +33491,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1207" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33520,7 +33517,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1208" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33546,7 +33543,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33572,7 +33569,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33598,7 +33595,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1211" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33624,7 +33621,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33650,7 +33647,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1213" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33676,7 +33673,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33702,7 +33699,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1215" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33728,7 +33725,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1216" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33754,7 +33751,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1217" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33780,7 +33777,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1218" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33806,7 +33803,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33832,7 +33829,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1220" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33858,7 +33855,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33884,7 +33881,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1222" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33910,7 +33907,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1223" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33936,7 +33933,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1224" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33962,7 +33959,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1225" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33988,7 +33985,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1226" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34014,7 +34011,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1227" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34040,7 +34037,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1228" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34066,7 +34063,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34092,7 +34089,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34118,7 +34115,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34144,7 +34141,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1232" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34170,7 +34167,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1233" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34196,7 +34193,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34222,7 +34219,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34248,7 +34245,7 @@
         <v>3.25</v>
       </c>
       <c r="G1236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34274,7 +34271,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34300,7 +34297,7 @@
         <v>3.25</v>
       </c>
       <c r="G1238" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34326,7 +34323,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34352,7 +34349,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34378,7 +34375,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1241" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34404,7 +34401,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1242" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34430,7 +34427,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1243" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34456,7 +34453,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34482,7 +34479,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1245" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34508,7 +34505,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34534,7 +34531,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34560,7 +34557,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1248" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34586,7 +34583,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1249" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34612,7 +34609,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1250" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34638,7 +34635,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34664,7 +34661,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34690,7 +34687,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1253" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34716,7 +34713,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34742,7 +34739,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1255" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34768,7 +34765,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1256" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34794,7 +34791,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1257" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34820,7 +34817,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1258" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34846,7 +34843,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1259" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34872,7 +34869,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1260" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34898,7 +34895,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1261" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34924,7 +34921,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34950,7 +34947,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1263" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34976,7 +34973,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1264" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35002,7 +34999,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1265" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35028,7 +35025,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1266" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35054,7 +35051,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1267" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35080,7 +35077,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1268" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35106,7 +35103,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1269" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35132,7 +35129,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1270" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35158,7 +35155,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1271" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35184,7 +35181,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1272" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35210,7 +35207,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1273" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35236,7 +35233,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1274" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35262,7 +35259,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1275" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35288,7 +35285,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1276" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35314,7 +35311,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35340,7 +35337,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1278" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35366,7 +35363,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1279" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35392,7 +35389,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1280" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35418,7 +35415,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35444,7 +35441,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1282" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35470,7 +35467,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1283" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35496,7 +35493,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35522,7 +35519,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1285" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35548,7 +35545,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35574,7 +35571,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35600,7 +35597,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1288" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35626,7 +35623,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1289" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35652,7 +35649,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35678,7 +35675,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35704,7 +35701,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1292" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35730,7 +35727,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1293" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35756,7 +35753,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35782,7 +35779,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1295" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35808,7 +35805,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1296" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35834,7 +35831,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35860,7 +35857,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35886,7 +35883,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35912,7 +35909,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35938,7 +35935,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35964,7 +35961,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35990,7 +35987,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36016,7 +36013,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36042,7 +36039,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36068,7 +36065,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36094,7 +36091,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36120,7 +36117,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36146,7 +36143,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36172,7 +36169,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36198,7 +36195,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36224,7 +36221,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36250,7 +36247,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36276,7 +36273,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36302,7 +36299,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36328,7 +36325,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1316" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36354,7 +36351,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36380,7 +36377,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36406,7 +36403,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36432,7 +36429,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36458,7 +36455,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36484,7 +36481,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36510,7 +36507,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36536,7 +36533,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36562,7 +36559,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36588,7 +36585,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36614,7 +36611,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36640,7 +36637,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36666,7 +36663,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36692,7 +36689,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36718,7 +36715,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36744,7 +36741,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36770,7 +36767,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36796,7 +36793,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36822,7 +36819,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36848,7 +36845,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36874,7 +36871,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36900,7 +36897,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36926,7 +36923,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36952,7 +36949,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36978,7 +36975,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37004,7 +37001,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37030,7 +37027,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37056,7 +37053,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37082,7 +37079,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37108,7 +37105,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37134,7 +37131,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37160,7 +37157,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1348" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37186,7 +37183,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37212,7 +37209,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37238,7 +37235,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37264,7 +37261,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37290,7 +37287,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37316,7 +37313,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37342,7 +37339,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37368,7 +37365,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37394,7 +37391,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37420,7 +37417,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37446,7 +37443,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37472,7 +37469,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37498,7 +37495,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37524,7 +37521,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37550,7 +37547,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37576,7 +37573,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37602,7 +37599,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37628,7 +37625,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37654,7 +37651,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37680,7 +37677,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37706,7 +37703,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37732,7 +37729,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37758,7 +37755,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37784,7 +37781,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37810,7 +37807,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37836,7 +37833,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37862,7 +37859,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37888,7 +37885,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37914,7 +37911,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37940,7 +37937,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37966,7 +37963,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37992,7 +37989,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38018,7 +38015,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38044,7 +38041,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38070,7 +38067,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38096,7 +38093,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38122,7 +38119,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38148,7 +38145,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38174,7 +38171,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38200,7 +38197,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38226,7 +38223,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38252,7 +38249,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38278,7 +38275,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38304,7 +38301,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38330,7 +38327,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38356,7 +38353,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38382,7 +38379,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38408,7 +38405,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38434,7 +38431,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38460,7 +38457,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38486,7 +38483,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38512,7 +38509,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38538,7 +38535,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38564,7 +38561,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38590,7 +38587,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38616,7 +38613,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38642,7 +38639,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38668,7 +38665,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38694,7 +38691,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38720,7 +38717,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38746,7 +38743,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38772,7 +38769,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38798,7 +38795,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38824,7 +38821,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38850,7 +38847,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38876,7 +38873,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38902,7 +38899,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38928,7 +38925,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38954,7 +38951,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38980,7 +38977,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39006,7 +39003,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39032,7 +39029,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39058,7 +39055,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39084,7 +39081,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39110,7 +39107,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39136,7 +39133,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39162,7 +39159,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39188,7 +39185,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39214,7 +39211,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39240,7 +39237,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39266,7 +39263,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39292,7 +39289,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39318,7 +39315,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39344,7 +39341,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39370,7 +39367,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39396,7 +39393,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39422,7 +39419,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39448,7 +39445,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39474,7 +39471,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39500,7 +39497,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39526,7 +39523,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39552,7 +39549,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39578,7 +39575,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39604,7 +39601,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39630,7 +39627,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39656,7 +39653,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39682,7 +39679,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39708,7 +39705,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39734,7 +39731,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39760,7 +39757,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39786,7 +39783,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39812,7 +39809,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39838,7 +39835,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39864,7 +39861,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39890,7 +39887,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39916,7 +39913,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39942,7 +39939,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39968,7 +39965,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39994,7 +39991,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40017,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40046,7 +40043,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40072,7 +40069,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40098,7 +40095,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40124,7 +40121,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40150,7 +40147,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40176,7 +40173,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40202,7 +40199,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40228,7 +40225,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40254,7 +40251,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40280,7 +40277,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40306,7 +40303,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40332,7 +40329,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40358,7 +40355,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40384,7 +40381,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40410,7 +40407,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40436,7 +40433,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40462,7 +40459,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40488,7 +40485,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40514,7 +40511,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40540,7 +40537,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40566,7 +40563,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40592,7 +40589,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40618,7 +40615,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40644,7 +40641,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40670,7 +40667,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40696,7 +40693,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40722,7 +40719,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40748,7 +40745,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40774,7 +40771,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40800,7 +40797,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40826,7 +40823,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40852,7 +40849,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40878,7 +40875,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40904,7 +40901,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40930,7 +40927,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40956,7 +40953,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40982,7 +40979,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41008,7 +41005,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41034,7 +41031,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41060,7 +41057,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41086,7 +41083,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41112,7 +41109,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41138,7 +41135,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41164,7 +41161,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41190,7 +41187,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41216,7 +41213,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41242,7 +41239,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41268,7 +41265,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41294,7 +41291,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41320,7 +41317,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41346,7 +41343,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41372,7 +41369,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41398,7 +41395,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41424,7 +41421,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41450,7 +41447,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41476,7 +41473,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41502,7 +41499,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41528,7 +41525,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41554,7 +41551,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41580,7 +41577,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41606,7 +41603,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41632,7 +41629,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41658,7 +41655,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41684,7 +41681,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41710,7 +41707,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41736,7 +41733,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41762,7 +41759,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41788,7 +41785,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41814,7 +41811,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41840,7 +41837,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41866,7 +41863,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41892,7 +41889,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41918,7 +41915,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41944,7 +41941,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41967,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41996,7 +41993,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42022,7 +42019,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42048,7 +42045,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42074,7 +42071,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42100,7 +42097,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42126,7 +42123,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42152,7 +42149,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42178,7 +42175,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42204,7 +42201,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42230,7 +42227,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42256,7 +42253,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42282,7 +42279,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42308,7 +42305,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42334,7 +42331,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42360,7 +42357,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42386,7 +42383,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42412,7 +42409,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42438,7 +42435,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42464,7 +42461,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42490,7 +42487,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42516,7 +42513,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42542,7 +42539,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42568,7 +42565,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42594,7 +42591,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42620,7 +42617,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42646,7 +42643,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42672,7 +42669,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42698,7 +42695,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42724,7 +42721,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42750,7 +42747,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42776,7 +42773,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42802,7 +42799,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42828,7 +42825,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42854,7 +42851,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42880,7 +42877,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42906,7 +42903,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42932,7 +42929,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42958,7 +42955,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42984,7 +42981,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43010,7 +43007,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43036,7 +43033,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43062,7 +43059,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43088,7 +43085,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43114,7 +43111,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43140,7 +43137,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43166,7 +43163,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43192,7 +43189,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43218,7 +43215,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43244,7 +43241,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43270,7 +43267,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43296,7 +43293,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43322,7 +43319,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43348,7 +43345,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43374,7 +43371,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43400,7 +43397,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43426,7 +43423,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43452,7 +43449,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43478,7 +43475,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43504,7 +43501,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43530,7 +43527,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43556,7 +43553,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43582,7 +43579,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43608,7 +43605,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43634,7 +43631,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43660,7 +43657,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43686,7 +43683,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43712,7 +43709,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43738,7 +43735,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43764,7 +43761,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43790,7 +43787,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43816,7 +43813,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43842,7 +43839,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43868,7 +43865,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43894,7 +43891,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43920,7 +43917,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43946,7 +43943,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43972,7 +43969,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43998,7 +43995,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44024,7 +44021,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44050,7 +44047,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44076,7 +44073,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44102,7 +44099,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44128,7 +44125,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44154,7 +44151,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44180,7 +44177,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44206,7 +44203,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44232,7 +44229,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44258,7 +44255,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44284,7 +44281,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44310,7 +44307,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44336,7 +44333,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44362,7 +44359,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44388,7 +44385,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44414,7 +44411,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44440,7 +44437,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44466,7 +44463,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44492,7 +44489,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44518,7 +44515,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44544,7 +44541,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44570,7 +44567,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44596,7 +44593,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44622,7 +44619,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44648,7 +44645,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44674,7 +44671,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44700,7 +44697,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44726,7 +44723,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44752,7 +44749,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44778,7 +44775,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44804,7 +44801,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44830,7 +44827,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44856,7 +44853,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44882,7 +44879,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44908,7 +44905,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44934,7 +44931,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44960,7 +44957,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44986,7 +44983,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45012,7 +45009,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45038,7 +45035,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45064,7 +45061,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45090,7 +45087,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45116,7 +45113,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45142,7 +45139,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45168,7 +45165,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45194,7 +45191,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45202,7 +45199,7 @@
     </row>
     <row r="1658">
       <c r="A1658" s="1" t="n">
-        <v>45446.6496412037</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B1658" t="n">
         <v>17273</v>
@@ -45220,9 +45217,35 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1658" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="1" t="n">
+        <v>45447.6495949074</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>21897</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>3.83999991416931</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>3.89000010490417</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1659" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205893516541</t>
+    <t xml:space="preserve">1.80205905437469</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8772965669632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127490997314</t>
+    <t xml:space="preserve">1.87729644775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127479076385</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763401985168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89307177066803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394774913788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8809369802475</t>
+    <t xml:space="preserve">1.90399372577667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307188987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909378528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093709945679</t>
   </si>
   <si>
     <t xml:space="preserve">1.86637496948242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84574496746063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84453177452087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210479259491</t>
+    <t xml:space="preserve">1.84574508666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84453165531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210443496704</t>
   </si>
   <si>
     <t xml:space="preserve">1.82268857955933</t>
@@ -86,112 +86,112 @@
     <t xml:space="preserve">1.83239674568176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83967781066895</t>
+    <t xml:space="preserve">1.83967757225037</t>
   </si>
   <si>
     <t xml:space="preserve">1.84089088439941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83482360839844</t>
+    <t xml:space="preserve">1.83482372760773</t>
   </si>
   <si>
     <t xml:space="preserve">1.84695851802826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82511556148529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82875621318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80933976173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83361041545868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86273467540741</t>
+    <t xml:space="preserve">1.82511568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8287558555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80934011936188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83360993862152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86273455619812</t>
   </si>
   <si>
     <t xml:space="preserve">1.87972366809845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86880195140839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758840084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030721664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86152100563049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549911022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89913976192474</t>
+    <t xml:space="preserve">1.8688018321991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758863925934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030745506287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8615208864212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89913964271545</t>
   </si>
   <si>
     <t xml:space="preserve">1.88700461387634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8536331653595</t>
+    <t xml:space="preserve">1.85363304615021</t>
   </si>
   <si>
     <t xml:space="preserve">1.85666680335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89003837108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87790298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970032215118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94767999649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91734218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92340981960297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161236286163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644333839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93554496765137</t>
+    <t xml:space="preserve">1.89003825187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89610588550568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486922740936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970056056976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94767963886261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91734230518341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92340970039368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9416127204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644321918488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9355446100235</t>
   </si>
   <si>
     <t xml:space="preserve">1.93857836723328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00228786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97801721096039</t>
+    <t xml:space="preserve">2.00228762626648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97801744937897</t>
   </si>
   <si>
     <t xml:space="preserve">1.97194981575012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93251073360443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99925374984741</t>
+    <t xml:space="preserve">1.93251097202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9992538690567</t>
   </si>
   <si>
     <t xml:space="preserve">1.99015259742737</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">2.02049040794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01745653152466</t>
+    <t xml:space="preserve">2.01745676994324</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
@@ -218,64 +218,64 @@
     <t xml:space="preserve">1.99621999263763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0508279800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0832781791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.093013048172</t>
+    <t xml:space="preserve">2.05082821846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10274767875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327794075012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09301280975342</t>
   </si>
   <si>
     <t xml:space="preserve">2.05407285690308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02486777305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784799575806</t>
+    <t xml:space="preserve">2.02486801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784847259521</t>
   </si>
   <si>
     <t xml:space="preserve">2.0702977180481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652257919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976769447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354307174683</t>
+    <t xml:space="preserve">2.08652281761169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976793289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354283332825</t>
   </si>
   <si>
     <t xml:space="preserve">2.09625768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01188850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645855903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890840053558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9826831817627</t>
+    <t xml:space="preserve">2.01188826560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645843982697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215291976929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268330097198</t>
   </si>
   <si>
     <t xml:space="preserve">2.02811336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98592853546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0216236114502</t>
+    <t xml:space="preserve">1.98592829704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162337303162</t>
   </si>
   <si>
     <t xml:space="preserve">2.04109311103821</t>
@@ -287,34 +287,34 @@
     <t xml:space="preserve">2.05731797218323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08003258705139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0605628490448</t>
+    <t xml:space="preserve">2.08003282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06056308746338</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12870717048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10599279403687</t>
+    <t xml:space="preserve">2.12870740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10599255561829</t>
   </si>
   <si>
     <t xml:space="preserve">2.09950256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10923743247986</t>
+    <t xml:space="preserve">2.10923767089844</t>
   </si>
   <si>
     <t xml:space="preserve">2.04758310317993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06380820274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07678771018982</t>
+    <t xml:space="preserve">2.06380796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0767879486084</t>
   </si>
   <si>
     <t xml:space="preserve">2.01513290405273</t>
@@ -323,37 +323,37 @@
     <t xml:space="preserve">2.11248278617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13195252418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17413759231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18387222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1416871547699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711733818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2357919216156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20658731460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062710762024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14493274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12546300888062</t>
+    <t xml:space="preserve">2.1319522857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17413711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18387198448181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14168763160706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711709976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254704475403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23579168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20658755302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062734603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14493227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12546277046204</t>
   </si>
   <si>
     <t xml:space="preserve">2.17738223075867</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">2.23903703689575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22605729103088</t>
+    <t xml:space="preserve">2.2260570526123</t>
   </si>
   <si>
     <t xml:space="preserve">2.1644024848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16764760017395</t>
+    <t xml:space="preserve">2.16764736175537</t>
   </si>
   <si>
     <t xml:space="preserve">2.12221741676331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1384425163269</t>
+    <t xml:space="preserve">2.13844275474548</t>
   </si>
   <si>
     <t xml:space="preserve">2.31367182731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30069160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307682991028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21956706047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685220718384</t>
+    <t xml:space="preserve">2.30069184303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.219566822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685196876526</t>
   </si>
   <si>
     <t xml:space="preserve">2.15791249275208</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">2.16115713119507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11897277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03135824203491</t>
+    <t xml:space="preserve">2.11897253990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03135800361633</t>
   </si>
   <si>
     <t xml:space="preserve">2.01837801933289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99241840839386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460311889648</t>
+    <t xml:space="preserve">1.99241852760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460335731506</t>
   </si>
   <si>
     <t xml:space="preserve">2.25746464729309</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">2.11811494827271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11114764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418033599854</t>
+    <t xml:space="preserve">2.1111478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418057441711</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024548530579</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">2.02753806114197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99270021915436</t>
+    <t xml:space="preserve">1.99270045757294</t>
   </si>
   <si>
     <t xml:space="preserve">1.98573291301727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95786273479462</t>
+    <t xml:space="preserve">1.9578629732132</t>
   </si>
   <si>
     <t xml:space="preserve">1.94392812252045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92999291419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302560806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941578865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122069835663</t>
+    <t xml:space="preserve">1.92999279499054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302548885345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88122057914734</t>
   </si>
   <si>
     <t xml:space="preserve">1.83244848251343</t>
@@ -464,79 +464,79 @@
     <t xml:space="preserve">1.79064357280731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81154584884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335075855255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8672856092453</t>
+    <t xml:space="preserve">1.81154608726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335099697113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86728572845459</t>
   </si>
   <si>
     <t xml:space="preserve">1.81851327419281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86031830310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457854270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367590904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425303459167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515566825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.888188123703</t>
+    <t xml:space="preserve">1.86031818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457842350006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367602825165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425315380096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515578746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818800449371</t>
   </si>
   <si>
     <t xml:space="preserve">1.90212321281433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90909075737</t>
+    <t xml:space="preserve">1.90909063816071</t>
   </si>
   <si>
     <t xml:space="preserve">1.84638333320618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82548093795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7976108789444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77670860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74883842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187123775482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490357398987</t>
+    <t xml:space="preserve">1.82548081874847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79761075973511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77670848369598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883830547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187111854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490369319916</t>
   </si>
   <si>
     <t xml:space="preserve">1.75580608844757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7279360294342</t>
+    <t xml:space="preserve">1.72793626785278</t>
   </si>
   <si>
     <t xml:space="preserve">1.76277363300323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97179782390594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0205705165863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360273361206</t>
+    <t xml:space="preserve">1.97179758548737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02057075500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360297203064</t>
   </si>
   <si>
     <t xml:space="preserve">2.00663542747498</t>
@@ -554,58 +554,58 @@
     <t xml:space="preserve">1.95089519023895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76974093914032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432597160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891148090363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7209689617157</t>
+    <t xml:space="preserve">1.76974105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432609081268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51891160011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096872329712</t>
   </si>
   <si>
     <t xml:space="preserve">1.67219626903534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53981423377991</t>
+    <t xml:space="preserve">1.53981411457062</t>
   </si>
   <si>
     <t xml:space="preserve">1.56071650981903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923663139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47710657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407423496246</t>
+    <t xml:space="preserve">1.47013938426971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923651218414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47710645198822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407411575317</t>
   </si>
   <si>
     <t xml:space="preserve">1.42833411693573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44226908683777</t>
+    <t xml:space="preserve">1.44226920604706</t>
   </si>
   <si>
     <t xml:space="preserve">1.43530178070068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49104166030884</t>
+    <t xml:space="preserve">1.49104189872742</t>
   </si>
   <si>
     <t xml:space="preserve">1.50497651100159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46317172050476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4980092048645</t>
+    <t xml:space="preserve">1.46317160129547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49800932407379</t>
   </si>
   <si>
     <t xml:space="preserve">1.59555375576019</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">1.5467814207077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55374896526337</t>
+    <t xml:space="preserve">1.55374908447266</t>
   </si>
   <si>
     <t xml:space="preserve">1.62342369556427</t>
@@ -623,28 +623,28 @@
     <t xml:space="preserve">1.58161890506744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53284645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465136051178</t>
+    <t xml:space="preserve">1.53284657001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465147972107</t>
   </si>
   <si>
     <t xml:space="preserve">1.60252130031586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60948896408081</t>
+    <t xml:space="preserve">1.60948884487152</t>
   </si>
   <si>
     <t xml:space="preserve">1.58858644962311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70703375339508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768393516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61645615100861</t>
+    <t xml:space="preserve">1.70703387260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768381595612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6164562702179</t>
   </si>
   <si>
     <t xml:space="preserve">1.68613123893738</t>
@@ -659,73 +659,73 @@
     <t xml:space="preserve">2.00887513160706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030831813812</t>
+    <t xml:space="preserve">1.84518873691559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83030843734741</t>
   </si>
   <si>
     <t xml:space="preserve">1.79310691356659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8228679895401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80054712295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78566682338715</t>
+    <t xml:space="preserve">1.82286822795868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80054724216461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78566670417786</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846506118774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83774888515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542789936066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262894630432</t>
+    <t xml:space="preserve">1.83774900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542778015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262906551361</t>
   </si>
   <si>
     <t xml:space="preserve">1.80798745155334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8600697517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87495005130768</t>
+    <t xml:space="preserve">1.86006951332092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87495017051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.88983058929443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77078592777252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73358476161957</t>
+    <t xml:space="preserve">1.77078580856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73358452320099</t>
   </si>
   <si>
     <t xml:space="preserve">1.69638335704803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6889431476593</t>
+    <t xml:space="preserve">1.68894302845001</t>
   </si>
   <si>
     <t xml:space="preserve">1.70382356643677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71870422363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72614431381226</t>
+    <t xml:space="preserve">1.7187043428421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72614443302155</t>
   </si>
   <si>
     <t xml:space="preserve">1.71126389503479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75590527057648</t>
+    <t xml:space="preserve">1.75590538978577</t>
   </si>
   <si>
     <t xml:space="preserve">1.76334583759308</t>
@@ -734,43 +734,43 @@
     <t xml:space="preserve">1.7410249710083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66662240028381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6815025806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77822649478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67406249046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65918183326721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174150466919</t>
+    <t xml:space="preserve">1.66662228107452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150269985199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77822637557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67406237125397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65918207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174162387848</t>
   </si>
   <si>
     <t xml:space="preserve">1.64430153369904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63686108589172</t>
+    <t xml:space="preserve">1.63686120510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.62942099571228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6071001291275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61454045772552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221971035004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57733881473541</t>
+    <t xml:space="preserve">1.60710000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61454033851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221959114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5773389339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.51781666278839</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">1.48061537742615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4954959154129</t>
+    <t xml:space="preserve">1.49549579620361</t>
   </si>
   <si>
     <t xml:space="preserve">1.48805558681488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47317516803741</t>
+    <t xml:space="preserve">1.47317504882812</t>
   </si>
   <si>
     <t xml:space="preserve">1.4694550037384</t>
@@ -794,19 +794,19 @@
     <t xml:space="preserve">1.86750972270966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93447232246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167372703552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935250282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94191241264343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9270316362381</t>
+    <t xml:space="preserve">1.93447244167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167360782623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935286045074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94191229343414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92703175544739</t>
   </si>
   <si>
     <t xml:space="preserve">1.9642333984375</t>
@@ -815,64 +815,64 @@
     <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99399435520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95679354667664</t>
+    <t xml:space="preserve">1.99399447441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95679318904877</t>
   </si>
   <si>
     <t xml:space="preserve">2.00143480300903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03119611740112</t>
+    <t xml:space="preserve">2.03119587898254</t>
   </si>
   <si>
     <t xml:space="preserve">2.06095671653748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07583737373352</t>
+    <t xml:space="preserve">2.0758376121521</t>
   </si>
   <si>
     <t xml:space="preserve">2.09071803092957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10559868812561</t>
+    <t xml:space="preserve">2.10559892654419</t>
   </si>
   <si>
     <t xml:space="preserve">2.1279194355011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14279985427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11303877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327794075012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04607605934143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1204788684845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09815812110901</t>
+    <t xml:space="preserve">2.14280009269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11303853988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04607629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12047910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09815835952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.13535952568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1874418258667</t>
+    <t xml:space="preserve">2.18744158744812</t>
   </si>
   <si>
     <t xml:space="preserve">2.22464323043823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21720266342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23952388763428</t>
+    <t xml:space="preserve">2.21720290184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2395236492157</t>
   </si>
   <si>
     <t xml:space="preserve">2.20976257324219</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">2.20232224464417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23208355903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24696397781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25440430641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26184463500977</t>
+    <t xml:space="preserve">2.2320830821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2469642162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25440406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
     <t xml:space="preserve">2.27723121643066</t>
@@ -902,22 +902,22 @@
     <t xml:space="preserve">2.31569790840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26953816413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32339119911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29261779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031156539917</t>
+    <t xml:space="preserve">2.26953792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32339143753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29261803627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031132698059</t>
   </si>
   <si>
     <t xml:space="preserve">2.30800437927246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34647107124329</t>
+    <t xml:space="preserve">2.34647130966187</t>
   </si>
   <si>
     <t xml:space="preserve">2.36185789108276</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">2.39263129234314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44648480415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45417833328247</t>
+    <t xml:space="preserve">2.44648504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45417785644531</t>
   </si>
   <si>
     <t xml:space="preserve">2.43879151344299</t>
@@ -950,58 +950,58 @@
     <t xml:space="preserve">2.43109822273254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40032458305359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47725820541382</t>
+    <t xml:space="preserve">2.40032482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47725796699524</t>
   </si>
   <si>
     <t xml:space="preserve">2.46187138557434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48495173454285</t>
+    <t xml:space="preserve">2.48495149612427</t>
   </si>
   <si>
     <t xml:space="preserve">2.49264478683472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50803160667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51572513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52341818809509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53111171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50033831596375</t>
+    <t xml:space="preserve">2.50803136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51572489738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52341842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53111147880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50033807754517</t>
   </si>
   <si>
     <t xml:space="preserve">2.56957864761353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59265851974487</t>
+    <t xml:space="preserve">2.59265875816345</t>
   </si>
   <si>
     <t xml:space="preserve">2.5772716999054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58496522903442</t>
+    <t xml:space="preserve">2.58496499061584</t>
   </si>
   <si>
     <t xml:space="preserve">2.60035181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60804510116577</t>
+    <t xml:space="preserve">2.60804557800293</t>
   </si>
   <si>
     <t xml:space="preserve">2.65420508384705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63881850242615</t>
+    <t xml:space="preserve">2.63881874084473</t>
   </si>
   <si>
     <t xml:space="preserve">2.70805859565735</t>
@@ -1010,28 +1010,28 @@
     <t xml:space="preserve">2.72344541549683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80037879943848</t>
+    <t xml:space="preserve">2.80037903785706</t>
   </si>
   <si>
     <t xml:space="preserve">2.7696053981781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77729868888855</t>
+    <t xml:space="preserve">2.77729845046997</t>
   </si>
   <si>
     <t xml:space="preserve">2.8542320728302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84653925895691</t>
+    <t xml:space="preserve">2.84653878211975</t>
   </si>
   <si>
     <t xml:space="preserve">2.83115220069885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86192584037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8080723285675</t>
+    <t xml:space="preserve">2.86192560195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80807209014893</t>
   </si>
   <si>
     <t xml:space="preserve">2.81576585769653</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.83884572982788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87731242179871</t>
+    <t xml:space="preserve">2.87731218338013</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">2.93116569519043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9234721660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95424556732178</t>
+    <t xml:space="preserve">2.92347240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95424580574036</t>
   </si>
   <si>
     <t xml:space="preserve">2.94655251502991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91577911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93885898590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9080855846405</t>
+    <t xml:space="preserve">2.91577935218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93885922431946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90808582305908</t>
   </si>
   <si>
     <t xml:space="preserve">2.9627685546875</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.9390664100647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00227212905884</t>
+    <t xml:space="preserve">3.00227236747742</t>
   </si>
   <si>
     <t xml:space="preserve">3.04967665672302</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177570343018</t>
+    <t xml:space="preserve">3.04177594184875</t>
   </si>
   <si>
     <t xml:space="preserve">3.07337880134583</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">3.01807355880737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95486783981323</t>
+    <t xml:space="preserve">2.95486807823181</t>
   </si>
   <si>
     <t xml:space="preserve">2.98647093772888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92326521873474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94696712493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97856998443604</t>
+    <t xml:space="preserve">2.92326498031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94696736335754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97856974601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.97066926956177</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">3.06547808647156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0259747505188</t>
+    <t xml:space="preserve">3.02597451210022</t>
   </si>
   <si>
     <t xml:space="preserve">3.03387498855591</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.99437165260315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85215854644775</t>
+    <t xml:space="preserve">2.85215830802917</t>
   </si>
   <si>
     <t xml:space="preserve">2.84425783157349</t>
@@ -1142,25 +1142,25 @@
     <t xml:space="preserve">3.11288237571716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83635711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77315163612366</t>
+    <t xml:space="preserve">2.8363573551178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77315139770508</t>
   </si>
   <si>
     <t xml:space="preserve">2.74944925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6467399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51242780685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41761922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46502351760864</t>
+    <t xml:space="preserve">2.64673972129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51242804527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41761898994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46502375602722</t>
   </si>
   <si>
     <t xml:space="preserve">2.60723614692688</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.89956307411194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12868404388428</t>
+    <t xml:space="preserve">3.1286838054657</t>
   </si>
   <si>
     <t xml:space="preserve">3.14448523521423</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">3.22349238395691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19979023933411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16028642654419</t>
+    <t xml:space="preserve">3.19979047775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16028666496277</t>
   </si>
   <si>
     <t xml:space="preserve">3.09708094596863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23139309883118</t>
+    <t xml:space="preserve">3.2313928604126</t>
   </si>
   <si>
     <t xml:space="preserve">3.21559166908264</t>
@@ -1217,31 +1217,31 @@
     <t xml:space="preserve">3.1523859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1760880947113</t>
+    <t xml:space="preserve">3.17608785629272</t>
   </si>
   <si>
     <t xml:space="preserve">3.31743240356445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28417468070984</t>
+    <t xml:space="preserve">3.28417491912842</t>
   </si>
   <si>
     <t xml:space="preserve">3.30911779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27586030960083</t>
+    <t xml:space="preserve">3.27586054801941</t>
   </si>
   <si>
     <t xml:space="preserve">3.24260306358337</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20103096961975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13451600074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15945911407471</t>
+    <t xml:space="preserve">3.20103120803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1345157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15945935249329</t>
   </si>
   <si>
     <t xml:space="preserve">3.00980043411255</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">2.90171384811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91834259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95160007476807</t>
+    <t xml:space="preserve">2.91834235191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95159983634949</t>
   </si>
   <si>
     <t xml:space="preserve">2.92665696144104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95991444587708</t>
+    <t xml:space="preserve">2.9599142074585</t>
   </si>
   <si>
     <t xml:space="preserve">2.93497133255005</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">2.87677073478699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86845660209656</t>
+    <t xml:space="preserve">2.86845636367798</t>
   </si>
   <si>
     <t xml:space="preserve">2.84351348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81025576591492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.885085105896</t>
+    <t xml:space="preserve">2.8102560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88508534431458</t>
   </si>
   <si>
     <t xml:space="preserve">2.83519911766052</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">2.73542642593384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77699828147888</t>
+    <t xml:space="preserve">2.77699851989746</t>
   </si>
   <si>
     <t xml:space="preserve">2.74374079704285</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.76868414878845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76036953926086</t>
+    <t xml:space="preserve">2.76036930084229</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">2.64396858215332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66059732437134</t>
+    <t xml:space="preserve">2.66059708595276</t>
   </si>
   <si>
     <t xml:space="preserve">2.7021689414978</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.71879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68554019927979</t>
+    <t xml:space="preserve">2.68554043769836</t>
   </si>
   <si>
     <t xml:space="preserve">2.66891169548035</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">2.69385457038879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94328570365906</t>
+    <t xml:space="preserve">2.94328594207764</t>
   </si>
   <si>
     <t xml:space="preserve">3.02642941474915</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">3.05968689918518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06800103187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05137276649475</t>
+    <t xml:space="preserve">3.06800127029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05137252807617</t>
   </si>
   <si>
     <t xml:space="preserve">3.09294414520264</t>
@@ -45254,7 +45254,7 @@
     </row>
     <row r="1660">
       <c r="A1660" s="1" t="n">
-        <v>45448.6494444444</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B1660" t="n">
         <v>228142</v>
@@ -45275,6 +45275,32 @@
         <v>583</v>
       </c>
       <c r="H1660" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="1" t="n">
+        <v>45449.6494097222</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>92751</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>3.9300000667572</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>3.80999994277954</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>3.89000010490417</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>3.85999989509583</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1661" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205905437469</t>
+    <t xml:space="preserve">1.80205917358398</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729644775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127479076385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90763401985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90399372577667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89307188987732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909378528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88093709945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86637496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84574508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84453165531158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210443496704</t>
+    <t xml:space="preserve">1.87729680538177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90763437747955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90399384498596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307200908661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394774913788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093721866608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86637485027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8457453250885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84453189373016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8421049118042</t>
   </si>
   <si>
     <t xml:space="preserve">1.82268857955933</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1.83967757225037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84089088439941</t>
+    <t xml:space="preserve">1.84089124202728</t>
   </si>
   <si>
     <t xml:space="preserve">1.83482372760773</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">1.84695851802826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82511568069458</t>
+    <t xml:space="preserve">1.825115442276</t>
   </si>
   <si>
     <t xml:space="preserve">1.8287558555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80934011936188</t>
+    <t xml:space="preserve">1.80934023857117</t>
   </si>
   <si>
     <t xml:space="preserve">1.83360993862152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86273455619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972366809845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8688018321991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758863925934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030745506287</t>
+    <t xml:space="preserve">1.86273431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86880195140839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758852005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030733585358</t>
   </si>
   <si>
     <t xml:space="preserve">1.8615208864212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89549875259399</t>
+    <t xml:space="preserve">1.89549934864044</t>
   </si>
   <si>
     <t xml:space="preserve">1.89913964271545</t>
@@ -143,40 +143,40 @@
     <t xml:space="preserve">1.85666680335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89003825187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610588550568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87790322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486922740936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970056056976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94767963886261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91734230518341</t>
+    <t xml:space="preserve">1.89003837108612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89610600471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790310382843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486958503723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970032215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9476797580719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91734206676483</t>
   </si>
   <si>
     <t xml:space="preserve">1.92340970039368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9416127204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644321918488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9355446100235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857836723328</t>
+    <t xml:space="preserve">1.94161212444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644345760345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93554449081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857872486115</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228762626648</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">1.97194981575012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93251097202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9992538690567</t>
+    <t xml:space="preserve">1.93251132965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99925410747528</t>
   </si>
   <si>
     <t xml:space="preserve">1.99015259742737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02352404594421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02959179878235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02049040794373</t>
+    <t xml:space="preserve">2.02352380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835561752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02048993110657</t>
   </si>
   <si>
     <t xml:space="preserve">2.01745676994324</t>
@@ -215,499 +215,502 @@
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99621999263763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082821846008</t>
+    <t xml:space="preserve">1.99622023105621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0508279800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.10274767875671</t>
   </si>
   <si>
+    <t xml:space="preserve">2.08327770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09301280975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407285690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486824989319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784799575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07029795646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652257919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976769447327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625744819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01188826560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645843982697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268353939056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02811312675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98592829704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04109287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04433798789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05731773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08003258705139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0605628490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12870740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10599279403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09950256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10923767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758310317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380772590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07678771018982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01513338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11248302459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13195252418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17413735389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18387198448181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14168739318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711686134338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254704475403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23579168319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20658683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062710762024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14493250846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12546253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17738199234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23903679847717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2260570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440224647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16764712333679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12221765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13844227790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31367158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307682991028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.219566822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685220718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15791249275208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1481773853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16115736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11897253990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03135824203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01837801933289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241805076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460288047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11114764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418057441711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09024548530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02753806114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99270021915436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98573267459869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786273479462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392788410187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92999303340912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302560806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83941602706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8812210559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244860172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064357280731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154572963715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86728572845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81851351261139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86031854152679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457806587219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367590904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425315380096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818824291229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212309360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909051895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638321399689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82548093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7976108789444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77670836448669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883854389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187123775482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490345478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75580608844757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793614864349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76277339458466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97179806232452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0205705165863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360321044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00663566589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97876560688019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696081638336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483051776886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089566707611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76974093914032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432597160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5189117193222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096860408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219626903534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981411457062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56071639060974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47013914585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923663139343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407423496246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42833411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44226932525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43530166149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104177951813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50497663021088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46317160129547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49800908565521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59555375576019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54678165912628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55374896526337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62342357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58161890506744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53284657001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465147972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60252130031586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60948884487152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5885865688324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70703375339508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768405437469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6164562702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68613135814667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605818271637</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301280975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407285690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784847259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0702977180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652281761169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354283332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01188826560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645843982697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215291976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268330097198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02811336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98592829704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162337303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04109311103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04433822631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05731797218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08003282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06056308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12870740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10599255561829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09950256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10923767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758310317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01513290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11248278617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1319522857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17413711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18387198448181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14168763160706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711709976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254704475403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23579168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20658755302429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062734603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14493227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12546277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17738223075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23903703689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2260570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1644024848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16764736175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12221741676331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13844275474548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31367182731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069184303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.219566822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685196876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15791249275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1481773853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16115713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11897253990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03135800361633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01837801933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241852760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460335731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746464729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1111478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418057441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024548530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02753806114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99270045757294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98573291301727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578629732132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392812252045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92999279499054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302548885345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941555023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122057914734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244848251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064357280731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154608726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335099697113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86728572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81851327419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86031818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457842350006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367602825165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425315380096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515578746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818800449371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212321281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909063816071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638333320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82548081874847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79761075973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77670848369598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74883830547333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187111854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490369319916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75580608844757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76277363300323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97179758548737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02057075500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360297203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00663542747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97876560688019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696057796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483027935028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089519023895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432609081268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891160011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219626903534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981411457062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56071650981903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47013938426971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923651218414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47710645198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407411575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42833411693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44226920604706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43530178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104189872742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50497651100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46317160129547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49800932407379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59555375576019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5467814207077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55374908447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62342369556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58161890506744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53284657001495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465147972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60252130031586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60948884487152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58858644962311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70703387260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768381595612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6164562702179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68613123893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605806350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0683970451355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00887513160706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84518873691559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310691356659</t>
+    <t xml:space="preserve">2.06839728355408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00887537002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84518897533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83030819892883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310715198517</t>
   </si>
   <si>
     <t xml:space="preserve">1.82286822795868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80054724216461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78566670417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846506118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83774900436401</t>
+    <t xml:space="preserve">1.80054748058319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78566682338715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846529960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83774864673615</t>
   </si>
   <si>
     <t xml:space="preserve">1.81542778015137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85262906551361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798745155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86006951332092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87495017051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88983058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77078580856323</t>
+    <t xml:space="preserve">1.85262894630432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798757076263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86006963253021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87495005130768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88983047008514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707861661911</t>
   </si>
   <si>
     <t xml:space="preserve">1.73358452320099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69638335704803</t>
+    <t xml:space="preserve">1.69638347625732</t>
   </si>
   <si>
     <t xml:space="preserve">1.68894302845001</t>
@@ -716,7 +719,7 @@
     <t xml:space="preserve">1.70382356643677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7187043428421</t>
+    <t xml:space="preserve">1.71870422363281</t>
   </si>
   <si>
     <t xml:space="preserve">1.72614443302155</t>
@@ -725,31 +728,31 @@
     <t xml:space="preserve">1.71126389503479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75590538978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76334583759308</t>
+    <t xml:space="preserve">1.75590515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76334571838379</t>
   </si>
   <si>
     <t xml:space="preserve">1.7410249710083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66662228107452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68150269985199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77822637557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67406237125397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65918207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174162387848</t>
+    <t xml:space="preserve">1.66662216186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150281906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77822649478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67406260967255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6591819524765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174186229706</t>
   </si>
   <si>
     <t xml:space="preserve">1.64430153369904</t>
@@ -758,22 +761,22 @@
     <t xml:space="preserve">1.63686120510101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62942099571228</t>
+    <t xml:space="preserve">1.62942087650299</t>
   </si>
   <si>
     <t xml:space="preserve">1.60710000991821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61454033851624</t>
+    <t xml:space="preserve">1.61454021930695</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221959114075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5773389339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51781666278839</t>
+    <t xml:space="preserve">1.57733881473541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5178165435791</t>
   </si>
   <si>
     <t xml:space="preserve">1.48061537742615</t>
@@ -788,13 +791,13 @@
     <t xml:space="preserve">1.47317504882812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4694550037384</t>
+    <t xml:space="preserve">1.46945476531982</t>
   </si>
   <si>
     <t xml:space="preserve">1.86750972270966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93447244167328</t>
+    <t xml:space="preserve">1.93447196483612</t>
   </si>
   <si>
     <t xml:space="preserve">1.97167360782623</t>
@@ -803,22 +806,22 @@
     <t xml:space="preserve">1.94935286045074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94191229343414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92703175544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98655426502228</t>
+    <t xml:space="preserve">1.94191265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92703151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96423363685608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98655450344086</t>
   </si>
   <si>
     <t xml:space="preserve">1.99399447441101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95679318904877</t>
+    <t xml:space="preserve">1.95679342746735</t>
   </si>
   <si>
     <t xml:space="preserve">2.00143480300903</t>
@@ -827,34 +830,31 @@
     <t xml:space="preserve">2.03119587898254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06095671653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0758376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09071803092957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10559892654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1279194355011</t>
+    <t xml:space="preserve">2.06095695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07583737373352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09071779251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10559868812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12791919708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.14280009269714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11303853988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04607629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12047910690308</t>
+    <t xml:space="preserve">2.11303901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04607653617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1204788684845</t>
   </si>
   <si>
     <t xml:space="preserve">2.09815835952759</t>
@@ -863,25 +863,25 @@
     <t xml:space="preserve">2.13535952568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18744158744812</t>
+    <t xml:space="preserve">2.1874418258667</t>
   </si>
   <si>
     <t xml:space="preserve">2.22464323043823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21720290184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2395236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20976257324219</t>
+    <t xml:space="preserve">2.21720266342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23952341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20976281166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.20232224464417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2320830821991</t>
+    <t xml:space="preserve">2.23208332061768</t>
   </si>
   <si>
     <t xml:space="preserve">2.2469642162323</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">2.25440406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184439659119</t>
+    <t xml:space="preserve">2.26184463500977</t>
   </si>
   <si>
     <t xml:space="preserve">2.27723121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28492450714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31569790840149</t>
+    <t xml:space="preserve">2.28492474555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31569766998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.26953792572021</t>
@@ -908,31 +908,31 @@
     <t xml:space="preserve">2.32339143753052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29261803627014</t>
+    <t xml:space="preserve">2.29261779785156</t>
   </si>
   <si>
     <t xml:space="preserve">2.30031132698059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30800437927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34647130966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36185789108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41571164131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39263129234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44648504257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45417785644531</t>
+    <t xml:space="preserve">2.30800461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34647154808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36185765266418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41571140289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39263105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44648480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
     <t xml:space="preserve">2.43879151344299</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">2.38493800163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42340493202209</t>
+    <t xml:space="preserve">2.42340469360352</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109822273254</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">2.40032482147217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47725796699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46187138557434</t>
+    <t xml:space="preserve">2.47725820541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46187114715576</t>
   </si>
   <si>
     <t xml:space="preserve">2.48495149612427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49264478683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50803136825562</t>
+    <t xml:space="preserve">2.4926450252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50803160667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.51572489738464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52341842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53111147880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50033807754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56957864761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59265875816345</t>
+    <t xml:space="preserve">2.52341818809509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5311119556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50033855438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56957840919495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59265804290771</t>
   </si>
   <si>
     <t xml:space="preserve">2.5772716999054</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">2.58496499061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60035181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60804557800293</t>
+    <t xml:space="preserve">2.6003520488739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60804533958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.65420508384705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63881874084473</t>
+    <t xml:space="preserve">2.63881850242615</t>
   </si>
   <si>
     <t xml:space="preserve">2.70805859565735</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">2.80037903785706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7696053981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77729845046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8542320728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84653878211975</t>
+    <t xml:space="preserve">2.76960563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77729868888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85423231124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84653902053833</t>
   </si>
   <si>
     <t xml:space="preserve">2.83115220069885</t>
@@ -1031,49 +1031,49 @@
     <t xml:space="preserve">2.86192560195923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80807209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81576585769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83884572982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87731218338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88500571250916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93116569519043</t>
+    <t xml:space="preserve">2.8080723285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81576561927795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8388454914093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87731242179871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.885005235672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93116593360901</t>
   </si>
   <si>
     <t xml:space="preserve">2.92347240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95424580574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94655251502991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91577935218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93885922431946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90808582305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9627685546875</t>
+    <t xml:space="preserve">2.95424604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94655227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91577887535095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9388587474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9080855846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96276831626892</t>
   </si>
   <si>
     <t xml:space="preserve">2.9390664100647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00227236747742</t>
+    <t xml:space="preserve">3.00227212905884</t>
   </si>
   <si>
     <t xml:space="preserve">3.04967665672302</t>
@@ -1085,55 +1085,55 @@
     <t xml:space="preserve">3.08127951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05757713317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177594184875</t>
+    <t xml:space="preserve">3.05757737159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177570343018</t>
   </si>
   <si>
     <t xml:space="preserve">3.07337880134583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01807355880737</t>
+    <t xml:space="preserve">3.01807332038879</t>
   </si>
   <si>
     <t xml:space="preserve">2.95486807823181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98647093772888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92326498031616</t>
+    <t xml:space="preserve">2.9864706993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92326521873474</t>
   </si>
   <si>
     <t xml:space="preserve">2.94696736335754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97856974601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97066926956177</t>
+    <t xml:space="preserve">2.97856998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97066950798035</t>
   </si>
   <si>
     <t xml:space="preserve">3.01017308235168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06547808647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02597451210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03387498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99437165260315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85215830802917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84425783157349</t>
+    <t xml:space="preserve">3.06547784805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02597427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03387522697449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99437141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85215854644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84425806999207</t>
   </si>
   <si>
     <t xml:space="preserve">2.89166235923767</t>
@@ -1145,37 +1145,37 @@
     <t xml:space="preserve">2.8363573551178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77315139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74944925308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64673972129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51242804527283</t>
+    <t xml:space="preserve">2.77315163612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7494490146637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51242780685425</t>
   </si>
   <si>
     <t xml:space="preserve">2.41761898994446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46502375602722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60723614692688</t>
+    <t xml:space="preserve">2.46502351760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60723638534546</t>
   </si>
   <si>
     <t xml:space="preserve">2.61513710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76525068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88376140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75735020637512</t>
+    <t xml:space="preserve">2.76525044441223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8837616443634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75734996795654</t>
   </si>
   <si>
     <t xml:space="preserve">2.89956307411194</t>
@@ -1187,25 +1187,25 @@
     <t xml:space="preserve">3.14448523521423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20769071578979</t>
+    <t xml:space="preserve">3.20769095420837</t>
   </si>
   <si>
     <t xml:space="preserve">3.19188928604126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22349238395691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19979047775269</t>
+    <t xml:space="preserve">3.22349214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19979023933411</t>
   </si>
   <si>
     <t xml:space="preserve">3.16028666496277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09708094596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2313928604126</t>
+    <t xml:space="preserve">3.09708118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23139309883118</t>
   </si>
   <si>
     <t xml:space="preserve">3.21559166908264</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">3.31743240356445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28417491912842</t>
+    <t xml:space="preserve">3.28417468070984</t>
   </si>
   <si>
     <t xml:space="preserve">3.30911779403687</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">3.24260306358337</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20103120803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1345157623291</t>
+    <t xml:space="preserve">3.20103096961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13451600074768</t>
   </si>
   <si>
     <t xml:space="preserve">3.15945935249329</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">2.893399477005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91002821922302</t>
+    <t xml:space="preserve">2.91002798080444</t>
   </si>
   <si>
     <t xml:space="preserve">2.90171384811401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91834235191345</t>
+    <t xml:space="preserve">2.91834259033203</t>
   </si>
   <si>
     <t xml:space="preserve">2.95159983634949</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">2.9599142074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93497133255005</t>
+    <t xml:space="preserve">2.93497109413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.86014223098755</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">2.88508534431458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83519911766052</t>
+    <t xml:space="preserve">2.83519887924194</t>
   </si>
   <si>
     <t xml:space="preserve">2.78531265258789</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">2.75205516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73542642593384</t>
+    <t xml:space="preserve">2.73542666435242</t>
   </si>
   <si>
     <t xml:space="preserve">2.77699851989746</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">2.74374079704285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76868414878845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76036930084229</t>
+    <t xml:space="preserve">2.76868391036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76036953926086</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67722582817078</t>
+    <t xml:space="preserve">2.67722606658936</t>
   </si>
   <si>
     <t xml:space="preserve">2.71048331260681</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">2.94328594207764</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02642941474915</t>
+    <t xml:space="preserve">3.02642965316772</t>
   </si>
   <si>
     <t xml:space="preserve">3.04305815696716</t>
@@ -1364,40 +1364,43 @@
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
+    <t xml:space="preserve">3.10957312583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13555812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14422011375427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17020535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16154360771179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12689661979675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20485258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21351432800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22217583656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19619059562683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11823463439941</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13555812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14422011375427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17020535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16154360771179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12689638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21351408958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22217583656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19619059562683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11823463439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15288186073303</t>
+    <t xml:space="preserve">3.15288209915161</t>
   </si>
   <si>
     <t xml:space="preserve">3.18752884864807</t>
@@ -1409,7 +1412,7 @@
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682282447815</t>
+    <t xml:space="preserve">3.25682306289673</t>
   </si>
   <si>
     <t xml:space="preserve">3.23083758354187</t>
@@ -1424,16 +1427,16 @@
     <t xml:space="preserve">3.34344077110291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27414655685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30879354476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23949933052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280830383301</t>
+    <t xml:space="preserve">3.27414631843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30879330635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23949956893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280806541443</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1442,7 +1445,7 @@
     <t xml:space="preserve">3.37808775901794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33477878570557</t>
+    <t xml:space="preserve">3.33477854728699</t>
   </si>
   <si>
     <t xml:space="preserve">3.30013179779053</t>
@@ -1454,19 +1457,19 @@
     <t xml:space="preserve">3.39541125297546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36076426506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42139649391174</t>
+    <t xml:space="preserve">3.36076402664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42139625549316</t>
   </si>
   <si>
     <t xml:space="preserve">3.36942601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31745553016663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5166757106781</t>
+    <t xml:space="preserve">3.31745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.43871998786926</t>
@@ -18726,7 +18729,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18752,7 +18755,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G640" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18778,7 +18781,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G641" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18804,7 +18807,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18830,7 +18833,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G643" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18856,7 +18859,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G644" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18882,7 +18885,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18908,7 +18911,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18934,7 +18937,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G647" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18960,7 +18963,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G648" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18986,7 +18989,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19012,7 +19015,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G650" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19038,7 +19041,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19064,7 +19067,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G652" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19090,7 +19093,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19116,7 +19119,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G655" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19168,7 +19171,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G656" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G657" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19220,7 +19223,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G658" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19246,7 +19249,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G659" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19272,7 +19275,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G660" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19298,7 +19301,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G661" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19324,7 +19327,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G662" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19350,7 +19353,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G663" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19376,7 +19379,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G664" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19402,7 +19405,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G665" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19428,7 +19431,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G666" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19454,7 +19457,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G667" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19480,7 +19483,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19506,7 +19509,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G669" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19532,7 +19535,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <v>2.5</v>
       </c>
       <c r="G671" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19584,7 +19587,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19610,7 +19613,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G673" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19636,7 +19639,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19662,7 +19665,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19688,7 +19691,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G676" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19714,7 +19717,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G677" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19740,7 +19743,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G678" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19766,7 +19769,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G679" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19792,7 +19795,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G680" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19818,7 +19821,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19844,7 +19847,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G682" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19870,7 +19873,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G683" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19896,7 +19899,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19922,7 +19925,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19948,7 +19951,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G686" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19974,7 +19977,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20000,7 +20003,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20026,7 +20029,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G689" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20052,7 +20055,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G690" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20078,7 +20081,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G691" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20104,7 +20107,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20130,7 +20133,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G693" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20156,7 +20159,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G694" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20182,7 +20185,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G695" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20208,7 +20211,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20234,7 +20237,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G697" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20260,7 +20263,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G698" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20286,7 +20289,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G699" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20338,7 +20341,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G701" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20364,7 +20367,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G702" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20390,7 +20393,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20416,7 +20419,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G704" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20442,7 +20445,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20468,7 +20471,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20494,7 +20497,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G707" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20520,7 +20523,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G708" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20546,7 +20549,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G709" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20572,7 +20575,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20598,7 +20601,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G711" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20624,7 +20627,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G712" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20650,7 +20653,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G713" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G714" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20702,7 +20705,7 @@
         <v>2.25</v>
       </c>
       <c r="G715" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20728,7 +20731,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G716" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20754,7 +20757,7 @@
         <v>2.25</v>
       </c>
       <c r="G717" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20780,7 +20783,7 @@
         <v>2.25</v>
       </c>
       <c r="G718" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20806,7 +20809,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G719" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20832,7 +20835,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G721" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20884,7 +20887,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G722" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G724" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20962,7 +20965,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G725" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20988,7 +20991,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G726" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21014,7 +21017,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G727" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21040,7 +21043,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21066,7 +21069,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G729" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21092,7 +21095,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G730" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21118,7 +21121,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G731" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21144,7 +21147,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21170,7 +21173,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21196,7 +21199,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G734" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G735" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21248,7 +21251,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G738" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21326,7 +21329,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G739" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21352,7 +21355,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G740" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21430,7 +21433,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G743" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21456,7 +21459,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G744" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21482,7 +21485,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G745" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>2</v>
       </c>
       <c r="G746" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21534,7 +21537,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G747" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21560,7 +21563,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G748" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21586,7 +21589,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G749" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21612,7 +21615,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G750" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21638,7 +21641,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21664,7 +21667,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G752" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21690,7 +21693,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21742,7 +21745,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21768,7 +21771,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21794,7 +21797,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G757" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21820,7 +21823,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G758" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21846,7 +21849,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G759" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21872,7 +21875,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G760" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21898,7 +21901,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G761" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21924,7 +21927,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G762" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21950,7 +21953,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G763" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21976,7 +21979,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22002,7 +22005,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G765" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22028,7 +22031,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G766" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22054,7 +22057,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G767" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22080,7 +22083,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G768" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22106,7 +22109,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22132,7 +22135,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G770" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22158,7 +22161,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G771" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22184,7 +22187,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22210,7 +22213,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22236,7 +22239,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G774" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22262,7 +22265,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22288,7 +22291,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22314,7 +22317,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G777" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22340,7 +22343,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G778" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22366,7 +22369,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22392,7 +22395,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G780" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22418,7 +22421,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G781" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22444,7 +22447,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22470,7 +22473,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G783" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22496,7 +22499,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G784" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22522,7 +22525,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22548,7 +22551,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G786" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22574,7 +22577,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G787" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22600,7 +22603,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G788" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22626,7 +22629,7 @@
         <v>2.5</v>
       </c>
       <c r="G789" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22652,7 +22655,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22678,7 +22681,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G791" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22704,7 +22707,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G792" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22730,7 +22733,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G793" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22756,7 +22759,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G794" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22782,7 +22785,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G795" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22808,7 +22811,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G796" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22834,7 +22837,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22860,7 +22863,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G798" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22886,7 +22889,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22912,7 +22915,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G800" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G801" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22964,7 +22967,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22990,7 +22993,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23016,7 +23019,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G804" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23042,7 +23045,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G805" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23068,7 +23071,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23094,7 +23097,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23120,7 +23123,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G808" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23146,7 +23149,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23172,7 +23175,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23198,7 +23201,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23224,7 +23227,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23250,7 +23253,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G813" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23276,7 +23279,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G814" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23302,7 +23305,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23328,7 +23331,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G816" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23354,7 +23357,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G817" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23380,7 +23383,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G818" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23406,7 +23409,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23432,7 +23435,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23562,7 +23565,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G825" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23614,7 +23617,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G827" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23640,7 +23643,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G828" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23692,7 +23695,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G830" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23718,7 +23721,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G831" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23744,7 +23747,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G832" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23822,7 +23825,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G835" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -35496,7 +35499,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35548,7 +35551,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35574,7 +35577,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35652,7 +35655,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35756,7 +35759,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35834,7 +35837,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35912,7 +35915,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35938,7 +35941,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35964,7 +35967,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35990,7 +35993,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36016,7 +36019,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36042,7 +36045,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36068,7 +36071,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36094,7 +36097,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36120,7 +36123,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36172,7 +36175,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36198,7 +36201,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36224,7 +36227,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36250,7 +36253,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36276,7 +36279,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36380,7 +36383,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36406,7 +36409,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36432,7 +36435,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36458,7 +36461,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36484,7 +36487,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36510,7 +36513,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36536,7 +36539,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36562,7 +36565,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36588,7 +36591,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36614,7 +36617,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36640,7 +36643,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36666,7 +36669,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36692,7 +36695,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36718,7 +36721,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36744,7 +36747,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36770,7 +36773,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36796,7 +36799,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36822,7 +36825,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36848,7 +36851,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36874,7 +36877,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36900,7 +36903,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36926,7 +36929,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36952,7 +36955,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36978,7 +36981,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37004,7 +37007,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37030,7 +37033,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37056,7 +37059,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37082,7 +37085,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37108,7 +37111,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37134,7 +37137,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37186,7 +37189,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37212,7 +37215,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37238,7 +37241,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37264,7 +37267,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37290,7 +37293,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37316,7 +37319,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37342,7 +37345,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37368,7 +37371,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37394,7 +37397,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37420,7 +37423,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37446,7 +37449,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37472,7 +37475,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37498,7 +37501,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37524,7 +37527,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37550,7 +37553,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37576,7 +37579,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37602,7 +37605,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37628,7 +37631,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37654,7 +37657,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37680,7 +37683,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37706,7 +37709,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37732,7 +37735,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37758,7 +37761,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37784,7 +37787,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37810,7 +37813,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37836,7 +37839,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37862,7 +37865,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37888,7 +37891,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37914,7 +37917,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37940,7 +37943,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37966,7 +37969,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37992,7 +37995,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38018,7 +38021,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38044,7 +38047,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38070,7 +38073,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38096,7 +38099,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38122,7 +38125,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38148,7 +38151,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38174,7 +38177,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38200,7 +38203,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38226,7 +38229,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38252,7 +38255,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38278,7 +38281,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38304,7 +38307,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38330,7 +38333,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38356,7 +38359,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38382,7 +38385,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38408,7 +38411,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38434,7 +38437,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38460,7 +38463,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38486,7 +38489,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38512,7 +38515,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38538,7 +38541,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38564,7 +38567,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38590,7 +38593,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38616,7 +38619,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38642,7 +38645,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38668,7 +38671,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38694,7 +38697,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38720,7 +38723,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38746,7 +38749,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38772,7 +38775,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38798,7 +38801,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38824,7 +38827,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38850,7 +38853,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38876,7 +38879,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38902,7 +38905,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38928,7 +38931,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38954,7 +38957,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38980,7 +38983,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39006,7 +39009,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39032,7 +39035,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39058,7 +39061,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39084,7 +39087,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39110,7 +39113,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39136,7 +39139,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39162,7 +39165,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39188,7 +39191,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39214,7 +39217,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39240,7 +39243,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39266,7 +39269,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39292,7 +39295,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39318,7 +39321,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39344,7 +39347,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39370,7 +39373,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39396,7 +39399,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39422,7 +39425,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39448,7 +39451,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39474,7 +39477,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39500,7 +39503,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39526,7 +39529,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39552,7 +39555,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39578,7 +39581,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39604,7 +39607,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39630,7 +39633,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39656,7 +39659,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39682,7 +39685,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39708,7 +39711,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39734,7 +39737,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39760,7 +39763,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39786,7 +39789,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39812,7 +39815,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39838,7 +39841,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39864,7 +39867,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39890,7 +39893,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39916,7 +39919,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39942,7 +39945,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39968,7 +39971,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39994,7 +39997,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40023,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40046,7 +40049,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40072,7 +40075,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40098,7 +40101,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40124,7 +40127,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40150,7 +40153,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40176,7 +40179,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40202,7 +40205,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40228,7 +40231,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40254,7 +40257,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40280,7 +40283,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40306,7 +40309,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40332,7 +40335,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40358,7 +40361,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40384,7 +40387,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40410,7 +40413,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40436,7 +40439,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40462,7 +40465,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40488,7 +40491,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40514,7 +40517,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40540,7 +40543,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40566,7 +40569,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40592,7 +40595,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40618,7 +40621,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40644,7 +40647,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40670,7 +40673,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40696,7 +40699,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40722,7 +40725,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40748,7 +40751,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40774,7 +40777,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40800,7 +40803,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40826,7 +40829,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40852,7 +40855,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40878,7 +40881,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40904,7 +40907,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40930,7 +40933,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40956,7 +40959,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40982,7 +40985,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41008,7 +41011,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41034,7 +41037,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41060,7 +41063,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41086,7 +41089,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41112,7 +41115,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41138,7 +41141,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41164,7 +41167,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41190,7 +41193,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41216,7 +41219,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41242,7 +41245,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41268,7 +41271,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41294,7 +41297,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41320,7 +41323,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41346,7 +41349,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41372,7 +41375,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41398,7 +41401,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41424,7 +41427,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41450,7 +41453,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41476,7 +41479,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41502,7 +41505,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41528,7 +41531,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41554,7 +41557,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41580,7 +41583,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41606,7 +41609,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41632,7 +41635,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41658,7 +41661,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41684,7 +41687,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41710,7 +41713,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41736,7 +41739,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41762,7 +41765,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41788,7 +41791,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41814,7 +41817,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41840,7 +41843,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41866,7 +41869,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41892,7 +41895,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41918,7 +41921,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41944,7 +41947,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41973,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41996,7 +41999,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42022,7 +42025,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42048,7 +42051,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42074,7 +42077,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42100,7 +42103,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42126,7 +42129,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42152,7 +42155,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42178,7 +42181,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42204,7 +42207,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42230,7 +42233,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42256,7 +42259,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42282,7 +42285,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42308,7 +42311,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42334,7 +42337,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42360,7 +42363,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42386,7 +42389,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42412,7 +42415,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42438,7 +42441,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42464,7 +42467,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42490,7 +42493,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42516,7 +42519,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42542,7 +42545,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42568,7 +42571,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42594,7 +42597,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42620,7 +42623,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42646,7 +42649,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42672,7 +42675,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42698,7 +42701,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42724,7 +42727,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42750,7 +42753,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42776,7 +42779,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42802,7 +42805,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42828,7 +42831,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42854,7 +42857,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42880,7 +42883,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42906,7 +42909,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42932,7 +42935,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42958,7 +42961,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42984,7 +42987,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43010,7 +43013,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43036,7 +43039,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43062,7 +43065,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43088,7 +43091,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43114,7 +43117,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43140,7 +43143,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43166,7 +43169,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43192,7 +43195,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43218,7 +43221,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43244,7 +43247,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43270,7 +43273,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43296,7 +43299,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43322,7 +43325,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43348,7 +43351,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43374,7 +43377,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43400,7 +43403,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43426,7 +43429,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43452,7 +43455,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43478,7 +43481,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43504,7 +43507,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43530,7 +43533,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43556,7 +43559,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43582,7 +43585,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43634,7 +43637,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43660,7 +43663,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43712,7 +43715,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43738,7 +43741,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43764,7 +43767,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43790,7 +43793,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43816,7 +43819,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43842,7 +43845,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43894,7 +43897,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43920,7 +43923,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43946,7 +43949,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43972,7 +43975,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43998,7 +44001,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44076,7 +44079,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44102,7 +44105,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44128,7 +44131,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44154,7 +44157,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44752,7 +44755,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45090,7 +45093,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45246,7 +45249,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45280,7 +45283,7 @@
     </row>
     <row r="1661">
       <c r="A1661" s="1" t="n">
-        <v>45449.6494097222</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B1661" t="n">
         <v>92751</v>
@@ -45298,9 +45301,35 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1661" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="1" t="n">
+        <v>45450.6495601852</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>72630</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>3.8199999332428</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>3.89000010490417</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>3.86999988555908</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1662" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205917358398</t>
+    <t xml:space="preserve">1.80205893516541</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729680538177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127490997314</t>
+    <t xml:space="preserve">1.87729632854462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127479076385</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763437747955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399384498596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89307200908661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909366607666</t>
+    <t xml:space="preserve">1.90399372577667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307188987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909390449524</t>
   </si>
   <si>
     <t xml:space="preserve">1.86394774913788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88093721866608</t>
+    <t xml:space="preserve">1.88093674182892</t>
   </si>
   <si>
     <t xml:space="preserve">1.86637485027313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8457453250885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84453189373016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8421049118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82268857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83239674568176</t>
+    <t xml:space="preserve">1.84574496746063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84453165531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210479259491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82268869876862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83239686489105</t>
   </si>
   <si>
     <t xml:space="preserve">1.83967757225037</t>
@@ -92,235 +92,238 @@
     <t xml:space="preserve">1.84089124202728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83482372760773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695851802826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.825115442276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8287558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80934023857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83360993862152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86273431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86880195140839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030733585358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8615208864212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549934864044</t>
+    <t xml:space="preserve">1.83482360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82511568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82875609397888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80934000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8336101770401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86273407936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972331047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8688018321991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758840084076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.860307097435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86152100563049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549899101257</t>
   </si>
   <si>
     <t xml:space="preserve">1.89913964271545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88700461387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85363304615021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666680335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003837108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610600471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87790310382843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486958503723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970032215118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9476797580719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91734206676483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92340970039368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161212444305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644345760345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93554449081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857872486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228762626648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97801744937897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97194981575012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93251132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99925410747528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99015259742737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02352380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02959156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835561752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02048993110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01745676994324</t>
+    <t xml:space="preserve">1.88700437545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85363292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8566666841507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003825187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89610576629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790334224701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486946582794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970044136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94767999649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91734218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92340922355652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161236286163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644357681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93554508686066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857848644257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97801733016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97195053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93251097202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99925398826599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99015247821808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02352428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02959179878235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02049016952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01745653152466</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99622023105621</t>
+    <t xml:space="preserve">1.99622011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05082821846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10274791717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327794075012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09301257133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407309532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784799575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07029819488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652257919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976793289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354283332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625768661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01188802719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645843982697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268330097198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02811312675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98592829704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04109311103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05731749534607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08003282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06056308746338</t>
   </si>
   <si>
     <t xml:space="preserve">2.0508279800415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10274767875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09301280975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407285690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486824989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784799575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07029795646667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652257919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976769447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625744819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01188826560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645843982697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268353939056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02811312675476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98592829704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04109287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04433798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05731773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08003258705139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0605628490448</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.06705284118652</t>
   </si>
   <si>
     <t xml:space="preserve">2.12870740890503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10599279403687</t>
+    <t xml:space="preserve">2.10599255561829</t>
   </si>
   <si>
     <t xml:space="preserve">2.09950256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10923767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758310317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380772590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07678771018982</t>
+    <t xml:space="preserve">2.1092381477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758334159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0767879486084</t>
   </si>
   <si>
     <t xml:space="preserve">2.01513338088989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11248302459717</t>
+    <t xml:space="preserve">2.11248230934143</t>
   </si>
   <si>
     <t xml:space="preserve">2.13195252418518</t>
@@ -329,22 +332,22 @@
     <t xml:space="preserve">2.17413735389709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18387198448181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14168739318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711686134338</t>
+    <t xml:space="preserve">2.18387222290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14168763160706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711733818054</t>
   </si>
   <si>
     <t xml:space="preserve">2.23254704475403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23579168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20658683776855</t>
+    <t xml:space="preserve">2.2357919216156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20658707618713</t>
   </si>
   <si>
     <t xml:space="preserve">2.18062710762024</t>
@@ -362,10 +365,10 @@
     <t xml:space="preserve">2.23903679847717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2260570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440224647522</t>
+    <t xml:space="preserve">2.22605729103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1644024848938</t>
   </si>
   <si>
     <t xml:space="preserve">2.16764712333679</t>
@@ -374,34 +377,34 @@
     <t xml:space="preserve">2.12221765518188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13844227790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31367158889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307682991028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.219566822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15791249275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1481773853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16115736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11897253990173</t>
+    <t xml:space="preserve">2.1384425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31367135047913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069136619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307730674744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21956706047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685244560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1579122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16115713119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11897230148315</t>
   </si>
   <si>
     <t xml:space="preserve">2.03135824203491</t>
@@ -413,97 +416,97 @@
     <t xml:space="preserve">1.99241805076599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03460288047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746488571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11114764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418057441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024548530579</t>
+    <t xml:space="preserve">2.03460335731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746512413025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811518669128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1111478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10417985916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09024524688721</t>
   </si>
   <si>
     <t xml:space="preserve">2.02753806114197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99270021915436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98573267459869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95786273479462</t>
+    <t xml:space="preserve">1.99270033836365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98573303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786309242249</t>
   </si>
   <si>
     <t xml:space="preserve">1.94392788410187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92999303340912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302560806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941602706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8812210559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244860172272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064357280731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154572963715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335063934326</t>
+    <t xml:space="preserve">1.9299932718277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302525043488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83941614627838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88122057914734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244824409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064333438873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154561042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335099697113</t>
   </si>
   <si>
     <t xml:space="preserve">1.86728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81851351261139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86031854152679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457806587219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367590904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425315380096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515566825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818824291229</t>
+    <t xml:space="preserve">1.8185133934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8603184223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367578983307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515578746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818848133087</t>
   </si>
   <si>
     <t xml:space="preserve">1.90212309360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90909051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638321399689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82548093795776</t>
+    <t xml:space="preserve">1.90909087657928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638345241547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82548081874847</t>
   </si>
   <si>
     <t xml:space="preserve">1.7976108789444</t>
@@ -512,88 +515,88 @@
     <t xml:space="preserve">1.77670836448669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74883854389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187123775482</t>
+    <t xml:space="preserve">1.7488386631012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187099933624</t>
   </si>
   <si>
     <t xml:space="preserve">1.73490345478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75580608844757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793614864349</t>
+    <t xml:space="preserve">1.75580596923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793626785278</t>
   </si>
   <si>
     <t xml:space="preserve">1.76277339458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97179806232452</t>
+    <t xml:space="preserve">1.97179794311523</t>
   </si>
   <si>
     <t xml:space="preserve">2.0205705165863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01360321044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00663566589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97876560688019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696081638336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483051776886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089566707611</t>
+    <t xml:space="preserve">2.01360273361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00663542747498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97876572608948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696057796478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483016014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089554786682</t>
   </si>
   <si>
     <t xml:space="preserve">1.76974093914032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64432597160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5189117193222</t>
+    <t xml:space="preserve">1.64432632923126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51891160011292</t>
   </si>
   <si>
     <t xml:space="preserve">1.72096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67219626903534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981411457062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56071639060974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47013914585114</t>
+    <t xml:space="preserve">1.67219638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981387615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56071650981903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47013902664185</t>
   </si>
   <si>
     <t xml:space="preserve">1.44923663139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47710657119751</t>
+    <t xml:space="preserve">1.47710645198822</t>
   </si>
   <si>
     <t xml:space="preserve">1.48407423496246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42833411693573</t>
+    <t xml:space="preserve">1.42833423614502</t>
   </si>
   <si>
     <t xml:space="preserve">1.44226932525635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43530166149139</t>
+    <t xml:space="preserve">1.43530178070068</t>
   </si>
   <si>
     <t xml:space="preserve">1.49104177951813</t>
@@ -602,7 +605,7 @@
     <t xml:space="preserve">1.50497663021088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46317160129547</t>
+    <t xml:space="preserve">1.46317148208618</t>
   </si>
   <si>
     <t xml:space="preserve">1.49800908565521</t>
@@ -611,70 +614,67 @@
     <t xml:space="preserve">1.59555375576019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54678165912628</t>
+    <t xml:space="preserve">1.5467814207077</t>
   </si>
   <si>
     <t xml:space="preserve">1.55374896526337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62342357635498</t>
+    <t xml:space="preserve">1.62342393398285</t>
   </si>
   <si>
     <t xml:space="preserve">1.58161890506744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53284657001495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465147972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60252130031586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60948884487152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5885865688324</t>
+    <t xml:space="preserve">1.53284645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465136051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60252118110657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60948872566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58858644962311</t>
   </si>
   <si>
     <t xml:space="preserve">1.70703375339508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56768405437469</t>
+    <t xml:space="preserve">1.56768381595612</t>
   </si>
   <si>
     <t xml:space="preserve">1.6164562702179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68613135814667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605818271637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327794075012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06839728355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00887537002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030819892883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310715198517</t>
+    <t xml:space="preserve">1.68613123893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605794429779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0683970451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00887489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84518909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83030831813812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310703277588</t>
   </si>
   <si>
     <t xml:space="preserve">1.82286822795868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80054748058319</t>
+    <t xml:space="preserve">1.8005473613739</t>
   </si>
   <si>
     <t xml:space="preserve">1.78566682338715</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">1.81542778015137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85262894630432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798757076263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86006963253021</t>
+    <t xml:space="preserve">1.85262906551361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8079879283905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86006939411163</t>
   </si>
   <si>
     <t xml:space="preserve">1.87495005130768</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">1.7707861661911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73358452320099</t>
+    <t xml:space="preserve">1.73358488082886</t>
   </si>
   <si>
     <t xml:space="preserve">1.69638347625732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68894302845001</t>
+    <t xml:space="preserve">1.68894290924072</t>
   </si>
   <si>
     <t xml:space="preserve">1.70382356643677</t>
@@ -722,61 +722,61 @@
     <t xml:space="preserve">1.71870422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72614443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71126389503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75590515136719</t>
+    <t xml:space="preserve">1.72614455223083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7112637758255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75590562820435</t>
   </si>
   <si>
     <t xml:space="preserve">1.76334571838379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7410249710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66662216186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68150281906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77822649478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67406260967255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6591819524765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174186229706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64430153369904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63686120510101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62942087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60710000991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61454021930695</t>
+    <t xml:space="preserve">1.74102473258972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66662228107452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150269985199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77822637557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67406237125397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65918183326721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174162387848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64430129528046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63686108589172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6294207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6071001291275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61454045772552</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221959114075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57733881473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5178165435791</t>
+    <t xml:space="preserve">1.57733869552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781666278839</t>
   </si>
   <si>
     <t xml:space="preserve">1.48061537742615</t>
@@ -791,37 +791,37 @@
     <t xml:space="preserve">1.47317504882812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46945476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750972270966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93447196483612</t>
+    <t xml:space="preserve">1.4694550037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750996112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447208404541</t>
   </si>
   <si>
     <t xml:space="preserve">1.97167360782623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94935286045074</t>
+    <t xml:space="preserve">1.94935274124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.94191265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92703151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96423363685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98655450344086</t>
+    <t xml:space="preserve">1.92703187465668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96423351764679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
     <t xml:space="preserve">1.99399447441101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95679342746735</t>
+    <t xml:space="preserve">1.9567928314209</t>
   </si>
   <si>
     <t xml:space="preserve">2.00143480300903</t>
@@ -833,31 +833,31 @@
     <t xml:space="preserve">2.06095695495605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07583737373352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09071779251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10559868812561</t>
+    <t xml:space="preserve">2.07583713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09071826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10559844970703</t>
   </si>
   <si>
     <t xml:space="preserve">2.12791919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14280009269714</t>
+    <t xml:space="preserve">2.14280033111572</t>
   </si>
   <si>
     <t xml:space="preserve">2.11303901672363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04607653617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1204788684845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09815835952759</t>
+    <t xml:space="preserve">2.04607629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12047910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09815812110901</t>
   </si>
   <si>
     <t xml:space="preserve">2.13535952568054</t>
@@ -872,52 +872,52 @@
     <t xml:space="preserve">2.21720266342163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23952341079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20976281166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20232224464417</t>
+    <t xml:space="preserve">2.2395236492157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20976233482361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20232248306274</t>
   </si>
   <si>
     <t xml:space="preserve">2.23208332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2469642162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25440406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26184463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27723121643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28492474555969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31569766998291</t>
+    <t xml:space="preserve">2.24696373939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25440430641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26184439659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27723145484924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28492450714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31569814682007</t>
   </si>
   <si>
     <t xml:space="preserve">2.26953792572021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32339143753052</t>
+    <t xml:space="preserve">2.32339096069336</t>
   </si>
   <si>
     <t xml:space="preserve">2.29261779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30031132698059</t>
+    <t xml:space="preserve">2.30031156539917</t>
   </si>
   <si>
     <t xml:space="preserve">2.30800461769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34647154808044</t>
+    <t xml:space="preserve">2.34647107124329</t>
   </si>
   <si>
     <t xml:space="preserve">2.36185765266418</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">2.38493800163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42340469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109822273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40032482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47725820541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46187114715576</t>
+    <t xml:space="preserve">2.42340493202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40032458305359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4772584438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46187138557434</t>
   </si>
   <si>
     <t xml:space="preserve">2.48495149612427</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">2.50803160667419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51572489738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52341818809509</t>
+    <t xml:space="preserve">2.51572465896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52341842651367</t>
   </si>
   <si>
     <t xml:space="preserve">2.5311119556427</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.50033855438232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56957840919495</t>
+    <t xml:space="preserve">2.56957817077637</t>
   </si>
   <si>
     <t xml:space="preserve">2.59265804290771</t>
@@ -995,28 +995,28 @@
     <t xml:space="preserve">2.6003520488739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60804533958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65420508384705</t>
+    <t xml:space="preserve">2.60804510116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65420532226562</t>
   </si>
   <si>
     <t xml:space="preserve">2.63881850242615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70805859565735</t>
+    <t xml:space="preserve">2.70805883407593</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344541549683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80037903785706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76960563659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77729868888855</t>
+    <t xml:space="preserve">2.8003785610199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7696053981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77729892730713</t>
   </si>
   <si>
     <t xml:space="preserve">2.85423231124878</t>
@@ -1025,49 +1025,49 @@
     <t xml:space="preserve">2.84653902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83115220069885</t>
+    <t xml:space="preserve">2.83115243911743</t>
   </si>
   <si>
     <t xml:space="preserve">2.86192560195923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8080723285675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81576561927795</t>
+    <t xml:space="preserve">2.80807209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81576538085938</t>
   </si>
   <si>
     <t xml:space="preserve">2.8388454914093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87731242179871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.885005235672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93116593360901</t>
+    <t xml:space="preserve">2.87731218338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88500571250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93116569519043</t>
   </si>
   <si>
     <t xml:space="preserve">2.92347240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95424604415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94655227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91577887535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9388587474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9080855846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96276831626892</t>
+    <t xml:space="preserve">2.95424580574036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94655251502991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91577911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93885898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90808582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9627685546875</t>
   </si>
   <si>
     <t xml:space="preserve">2.9390664100647</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">3.00227212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04967665672302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1049816608429</t>
+    <t xml:space="preserve">3.04967641830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10498142242432</t>
   </si>
   <si>
     <t xml:space="preserve">3.08127951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05757737159729</t>
+    <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
     <t xml:space="preserve">3.04177570343018</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">3.07337880134583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01807332038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95486807823181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9864706993103</t>
+    <t xml:space="preserve">3.01807355880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95486783981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98647093772888</t>
   </si>
   <si>
     <t xml:space="preserve">2.92326521873474</t>
@@ -1109,70 +1109,70 @@
     <t xml:space="preserve">2.94696736335754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97856998443604</t>
+    <t xml:space="preserve">2.97857022285461</t>
   </si>
   <si>
     <t xml:space="preserve">2.97066950798035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01017308235168</t>
+    <t xml:space="preserve">3.01017284393311</t>
   </si>
   <si>
     <t xml:space="preserve">3.06547784805298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02597427368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03387522697449</t>
+    <t xml:space="preserve">3.02597451210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03387498855591</t>
   </si>
   <si>
     <t xml:space="preserve">2.99437141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85215854644775</t>
+    <t xml:space="preserve">2.85215878486633</t>
   </si>
   <si>
     <t xml:space="preserve">2.84425806999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89166235923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11288237571716</t>
+    <t xml:space="preserve">2.89166212081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11288213729858</t>
   </si>
   <si>
     <t xml:space="preserve">2.8363573551178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77315163612366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7494490146637</t>
+    <t xml:space="preserve">2.77315139770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74944925308228</t>
   </si>
   <si>
     <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51242780685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41761898994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46502351760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60723638534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61513710021973</t>
+    <t xml:space="preserve">2.51242756843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41761922836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46502327919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60723662376404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61513733863831</t>
   </si>
   <si>
     <t xml:space="preserve">2.76525044441223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8837616443634</t>
+    <t xml:space="preserve">2.88376140594482</t>
   </si>
   <si>
     <t xml:space="preserve">2.75734996795654</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">3.19188928604126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22349214553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19979023933411</t>
+    <t xml:space="preserve">3.22349238395691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19979047775269</t>
   </si>
   <si>
     <t xml:space="preserve">3.16028666496277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09708118438721</t>
+    <t xml:space="preserve">3.09708094596863</t>
   </si>
   <si>
     <t xml:space="preserve">3.23139309883118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21559166908264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13658428192139</t>
+    <t xml:space="preserve">3.21559190750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13658452033997</t>
   </si>
   <si>
     <t xml:space="preserve">3.1523859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17608785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31743240356445</t>
+    <t xml:space="preserve">3.1760880947113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31743216514587</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417468070984</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">3.30911779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27586054801941</t>
+    <t xml:space="preserve">3.27586007118225</t>
   </si>
   <si>
     <t xml:space="preserve">3.24260306358337</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">3.20103096961975</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13451600074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15945935249329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00980043411255</t>
+    <t xml:space="preserve">3.13451623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15945911407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00980067253113</t>
   </si>
   <si>
     <t xml:space="preserve">2.893399477005</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">2.91834259033203</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95159983634949</t>
+    <t xml:space="preserve">2.95160007476807</t>
   </si>
   <si>
     <t xml:space="preserve">2.92665696144104</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">2.9599142074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93497109413147</t>
+    <t xml:space="preserve">2.93497133255005</t>
   </si>
   <si>
     <t xml:space="preserve">2.86014223098755</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">2.86845636367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84351348876953</t>
+    <t xml:space="preserve">2.84351325035095</t>
   </si>
   <si>
     <t xml:space="preserve">2.8102560043335</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">2.78531265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75205516815186</t>
+    <t xml:space="preserve">2.75205540657043</t>
   </si>
   <si>
     <t xml:space="preserve">2.73542666435242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77699851989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74374079704285</t>
+    <t xml:space="preserve">2.7769980430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74374103546143</t>
   </si>
   <si>
     <t xml:space="preserve">2.76868391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76036953926086</t>
+    <t xml:space="preserve">2.76036977767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64396858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66059708595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7021689414978</t>
+    <t xml:space="preserve">2.64396834373474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66059732437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70216917991638</t>
   </si>
   <si>
     <t xml:space="preserve">2.71879768371582</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">2.68554043769836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66891169548035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69385457038879</t>
+    <t xml:space="preserve">2.66891145706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69385480880737</t>
   </si>
   <si>
     <t xml:space="preserve">2.94328594207764</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02642965316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04305815696716</t>
+    <t xml:space="preserve">3.02642917633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04305791854858</t>
   </si>
   <si>
     <t xml:space="preserve">3.05968689918518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06800127029419</t>
+    <t xml:space="preserve">3.06800103187561</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137252807617</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10957312583923</t>
+    <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
     <t xml:space="preserve">3.13555812835693</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">3.16154360771179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12689661979675</t>
+    <t xml:space="preserve">3.12689638137817</t>
   </si>
   <si>
     <t xml:space="preserve">3.20485258102417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21351432800293</t>
+    <t xml:space="preserve">3.21351408958435</t>
   </si>
   <si>
     <t xml:space="preserve">3.22217583656311</t>
@@ -1397,22 +1397,19 @@
     <t xml:space="preserve">3.11823463439941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10957288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15288209915161</t>
+    <t xml:space="preserve">3.15288186073303</t>
   </si>
   <si>
     <t xml:space="preserve">3.18752884864807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17886734008789</t>
+    <t xml:space="preserve">3.17886710166931</t>
   </si>
   <si>
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682306289673</t>
+    <t xml:space="preserve">3.25682282447815</t>
   </si>
   <si>
     <t xml:space="preserve">3.23083758354187</t>
@@ -1424,19 +1421,19 @@
     <t xml:space="preserve">3.35210227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34344077110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27414631843567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30879330635071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23949956893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280806541443</t>
+    <t xml:space="preserve">3.34344053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27414655685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30879354476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23949933052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280854225159</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1445,7 +1442,7 @@
     <t xml:space="preserve">3.37808775901794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33477854728699</t>
+    <t xml:space="preserve">3.33477878570557</t>
   </si>
   <si>
     <t xml:space="preserve">3.30013179779053</t>
@@ -1454,22 +1451,22 @@
     <t xml:space="preserve">3.3867495059967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39541125297546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36076402664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42139625549316</t>
+    <t xml:space="preserve">3.39541149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36076426506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42139649391174</t>
   </si>
   <si>
     <t xml:space="preserve">3.36942601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31745529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51667594909668</t>
+    <t xml:space="preserve">3.31745553016663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5166757106781</t>
   </si>
   <si>
     <t xml:space="preserve">3.43871998786926</t>
@@ -5937,7 +5934,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5989,7 +5986,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G149" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6145,7 +6142,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6171,7 +6168,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G156" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6223,7 +6220,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G158" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6249,7 +6246,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G159" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6431,7 +6428,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6483,7 +6480,7 @@
         <v>3.25</v>
       </c>
       <c r="G168" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6509,7 +6506,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6665,7 +6662,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6691,7 +6688,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G176" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6743,7 +6740,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G178" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6769,7 +6766,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G179" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6795,7 +6792,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G180" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6821,7 +6818,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G181" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6847,7 +6844,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6873,7 +6870,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6899,7 +6896,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G184" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6951,7 +6948,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G186" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6977,7 +6974,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G187" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7003,7 +7000,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7029,7 +7026,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7055,7 +7052,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G190" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7107,7 +7104,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G192" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7263,7 +7260,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G198" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7367,7 +7364,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G202" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7393,7 +7390,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G203" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7445,7 +7442,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G205" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7497,7 +7494,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G207" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7523,7 +7520,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7549,7 +7546,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7575,7 +7572,7 @@
         <v>3.25</v>
       </c>
       <c r="G210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7627,7 +7624,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7653,7 +7650,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G213" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7679,7 +7676,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G214" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7705,7 +7702,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G215" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7731,7 +7728,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G216" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7757,7 +7754,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G217" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7783,7 +7780,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G218" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7809,7 +7806,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G219" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7835,7 +7832,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G220" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7861,7 +7858,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G221" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7887,7 +7884,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G222" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7913,7 +7910,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G223" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7939,7 +7936,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7965,7 +7962,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G225" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7991,7 +7988,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G226" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8017,7 +8014,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8043,7 +8040,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G228" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8069,7 +8066,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G229" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8095,7 +8092,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G230" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8121,7 +8118,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G231" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8147,7 +8144,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G232" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8173,7 +8170,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G233" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8199,7 +8196,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G234" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8225,7 +8222,7 @@
         <v>3.25</v>
       </c>
       <c r="G235" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8251,7 +8248,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8277,7 +8274,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G237" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8303,7 +8300,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G238" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8329,7 +8326,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G239" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8355,7 +8352,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8381,7 +8378,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G241" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8407,7 +8404,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G242" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8433,7 +8430,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G243" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8459,7 +8456,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G244" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8485,7 +8482,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G245" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8511,7 +8508,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G246" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8537,7 +8534,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G247" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8563,7 +8560,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G248" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8589,7 +8586,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G249" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8615,7 +8612,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G250" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8641,7 +8638,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G251" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8667,7 +8664,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G252" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8693,7 +8690,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8719,7 +8716,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G254" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8745,7 +8742,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8771,7 +8768,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G256" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8797,7 +8794,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G257" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8823,7 +8820,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G258" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8849,7 +8846,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G259" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8875,7 +8872,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G260" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8901,7 +8898,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G261" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8927,7 +8924,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G262" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8953,7 +8950,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G263" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8979,7 +8976,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G264" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9005,7 +9002,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G265" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9031,7 +9028,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G266" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9057,7 +9054,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G267" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9083,7 +9080,7 @@
         <v>3.25</v>
       </c>
       <c r="G268" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9109,7 +9106,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G269" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9135,7 +9132,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G270" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9161,7 +9158,7 @@
         <v>3.25</v>
       </c>
       <c r="G271" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9187,7 +9184,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G272" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9213,7 +9210,7 @@
         <v>3.25</v>
       </c>
       <c r="G273" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9291,7 +9288,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G276" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9317,7 +9314,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9473,7 +9470,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G283" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9811,7 +9808,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9837,7 +9834,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9863,7 +9860,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9993,7 +9990,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G303" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10045,7 +10042,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G305" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10123,7 +10120,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G308" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10175,7 +10172,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G310" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10201,7 +10198,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G311" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10253,7 +10250,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G313" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10305,7 +10302,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G315" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10331,7 +10328,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G316" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10357,7 +10354,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G317" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10383,7 +10380,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G318" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10513,7 +10510,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G323" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10539,7 +10536,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10565,7 +10562,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10591,7 +10588,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G326" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10643,7 +10640,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G328" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10695,7 +10692,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G330" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10721,7 +10718,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G331" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10773,7 +10770,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G333" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10799,7 +10796,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G334" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10825,7 +10822,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G335" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10851,7 +10848,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G336" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10903,7 +10900,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G338" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10929,7 +10926,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G339" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10981,7 +10978,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G341" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11033,7 +11030,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G343" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11137,7 +11134,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G347" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11189,7 +11186,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11241,7 +11238,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G351" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11267,7 +11264,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G352" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11293,7 +11290,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11319,7 +11316,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G354" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11345,7 +11342,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G355" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11397,7 +11394,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G357" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11423,7 +11420,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G358" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11475,7 +11472,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G360" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11501,7 +11498,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G361" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11553,7 +11550,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G363" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11579,7 +11576,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G364" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11605,7 +11602,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G365" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11631,7 +11628,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11657,7 +11654,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11683,7 +11680,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G368" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11709,7 +11706,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G369" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11735,7 +11732,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G370" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11761,7 +11758,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G371" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11787,7 +11784,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G372" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11813,7 +11810,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G373" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11839,7 +11836,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G374" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11865,7 +11862,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G375" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11891,7 +11888,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G376" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11917,7 +11914,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G377" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11943,7 +11940,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G378" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11969,7 +11966,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G379" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11995,7 +11992,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G380" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12021,7 +12018,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G381" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12047,7 +12044,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G382" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12073,7 +12070,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G383" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12099,7 +12096,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G384" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12125,7 +12122,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G385" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12151,7 +12148,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G386" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12177,7 +12174,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G387" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12203,7 +12200,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G388" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12229,7 +12226,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12255,7 +12252,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G390" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12281,7 +12278,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G391" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12307,7 +12304,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G392" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12333,7 +12330,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G393" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12359,7 +12356,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G394" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12385,7 +12382,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G395" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12411,7 +12408,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G396" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12437,7 +12434,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12463,7 +12460,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G398" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12489,7 +12486,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G399" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12515,7 +12512,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G400" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12541,7 +12538,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G401" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12567,7 +12564,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G402" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12593,7 +12590,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G403" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12619,7 +12616,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12645,7 +12642,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G405" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12671,7 +12668,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G406" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12697,7 +12694,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G407" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12723,7 +12720,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G408" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12749,7 +12746,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12775,7 +12772,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G410" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12801,7 +12798,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G411" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12827,7 +12824,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G412" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12853,7 +12850,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G413" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12879,7 +12876,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G414" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12905,7 +12902,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G415" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12931,7 +12928,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G416" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12957,7 +12954,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G417" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12983,7 +12980,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13009,7 +13006,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G419" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13035,7 +13032,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G420" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13061,7 +13058,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13087,7 +13084,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G422" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13113,7 +13110,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G423" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13139,7 +13136,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G424" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13165,7 +13162,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G425" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13191,7 +13188,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G426" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13217,7 +13214,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G427" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13243,7 +13240,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G428" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13269,7 +13266,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G429" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13295,7 +13292,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G430" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13321,7 +13318,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G431" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13347,7 +13344,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G432" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13373,7 +13370,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G433" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13399,7 +13396,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G434" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13425,7 +13422,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G435" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13451,7 +13448,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G436" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13477,7 +13474,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G437" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13503,7 +13500,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G438" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13529,7 +13526,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G439" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13555,7 +13552,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G440" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13581,7 +13578,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G441" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13607,7 +13604,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G442" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13633,7 +13630,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G443" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13659,7 +13656,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G444" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13685,7 +13682,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G445" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13711,7 +13708,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13737,7 +13734,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G447" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13763,7 +13760,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G448" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13789,7 +13786,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G449" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13815,7 +13812,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G450" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13841,7 +13838,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G451" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13867,7 +13864,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13893,7 +13890,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G453" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13919,7 +13916,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G454" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13945,7 +13942,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G455" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13971,7 +13968,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G456" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13997,7 +13994,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G457" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14023,7 +14020,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G458" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14049,7 +14046,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14075,7 +14072,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G460" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14101,7 +14098,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G461" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14127,7 +14124,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14153,7 +14150,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G463" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14179,7 +14176,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G464" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14205,7 +14202,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14231,7 +14228,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G466" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14257,7 +14254,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14283,7 +14280,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G468" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14309,7 +14306,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G469" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14335,7 +14332,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G470" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14361,7 +14358,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14387,7 +14384,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G472" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14413,7 +14410,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G473" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14439,7 +14436,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14465,7 +14462,7 @@
         <v>2.5</v>
       </c>
       <c r="G475" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14491,7 +14488,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G476" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14517,7 +14514,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G477" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14543,7 +14540,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G478" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14569,7 +14566,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G479" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14595,7 +14592,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G480" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14621,7 +14618,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G481" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14647,7 +14644,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G482" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14673,7 +14670,7 @@
         <v>2.5</v>
       </c>
       <c r="G483" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14699,7 +14696,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G484" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14725,7 +14722,7 @@
         <v>2.5</v>
       </c>
       <c r="G485" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14751,7 +14748,7 @@
         <v>2.5</v>
       </c>
       <c r="G486" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14777,7 +14774,7 @@
         <v>2.5</v>
       </c>
       <c r="G487" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14803,7 +14800,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G488" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14829,7 +14826,7 @@
         <v>2.5</v>
       </c>
       <c r="G489" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14855,7 +14852,7 @@
         <v>2.5</v>
       </c>
       <c r="G490" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14881,7 +14878,7 @@
         <v>2.5</v>
       </c>
       <c r="G491" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14907,7 +14904,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G492" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14933,7 +14930,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G493" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14959,7 +14956,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G494" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14985,7 +14982,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G495" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15011,7 +15008,7 @@
         <v>2.5</v>
       </c>
       <c r="G496" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15037,7 +15034,7 @@
         <v>2.5</v>
       </c>
       <c r="G497" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15063,7 +15060,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G498" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15089,7 +15086,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G499" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15115,7 +15112,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G500" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15141,7 +15138,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G501" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15167,7 +15164,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G502" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15193,7 +15190,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G503" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15219,7 +15216,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G504" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15245,7 +15242,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15271,7 +15268,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15297,7 +15294,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G507" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15323,7 +15320,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G508" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15349,7 +15346,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G509" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15375,7 +15372,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G510" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15401,7 +15398,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15427,7 +15424,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15453,7 +15450,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G513" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15479,7 +15476,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15505,7 +15502,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15531,7 +15528,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G516" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15557,7 +15554,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G517" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15583,7 +15580,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G518" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15609,7 +15606,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15635,7 +15632,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15661,7 +15658,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G521" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15687,7 +15684,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G522" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15713,7 +15710,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G523" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15739,7 +15736,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G524" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15765,7 +15762,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G525" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15791,7 +15788,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G526" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15817,7 +15814,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G527" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15843,7 +15840,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15869,7 +15866,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15895,7 +15892,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G530" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15921,7 +15918,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G531" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15947,7 +15944,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G532" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15973,7 +15970,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G533" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15999,7 +15996,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16025,7 +16022,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G535" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16051,7 +16048,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G536" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16077,7 +16074,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G537" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16103,7 +16100,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G538" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16129,7 +16126,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G539" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16155,7 +16152,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G540" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16181,7 +16178,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G541" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16207,7 +16204,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16233,7 +16230,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G543" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16259,7 +16256,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16285,7 +16282,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G545" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16311,7 +16308,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G546" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16337,7 +16334,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G547" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16363,7 +16360,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G548" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16389,7 +16386,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G549" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16415,7 +16412,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G550" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16441,7 +16438,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G551" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16467,7 +16464,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G552" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16493,7 +16490,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G553" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16519,7 +16516,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G554" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16545,7 +16542,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G555" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16571,7 +16568,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G556" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16597,7 +16594,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G557" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16623,7 +16620,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G558" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16649,7 +16646,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G559" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16675,7 +16672,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G560" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16701,7 +16698,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16727,7 +16724,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G562" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16753,7 +16750,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G563" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16779,7 +16776,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G564" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16805,7 +16802,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G565" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16831,7 +16828,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G566" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16857,7 +16854,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G567" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16883,7 +16880,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16909,7 +16906,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G569" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16935,7 +16932,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G570" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16961,7 +16958,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16987,7 +16984,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17013,7 +17010,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G573" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17039,7 +17036,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G574" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17065,7 +17062,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G575" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17091,7 +17088,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17117,7 +17114,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17143,7 +17140,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G578" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17169,7 +17166,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G579" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17195,7 +17192,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G580" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17221,7 +17218,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17247,7 +17244,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G582" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17273,7 +17270,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17299,7 +17296,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17325,7 +17322,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G585" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17351,7 +17348,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G586" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17377,7 +17374,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17403,7 +17400,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G588" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17429,7 +17426,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G589" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17455,7 +17452,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G590" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17481,7 +17478,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G591" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17507,7 +17504,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G592" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17533,7 +17530,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G593" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17559,7 +17556,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G594" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17585,7 +17582,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17611,7 +17608,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G596" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17637,7 +17634,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G597" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17663,7 +17660,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G598" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17689,7 +17686,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G599" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17715,7 +17712,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G600" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17741,7 +17738,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17767,7 +17764,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G602" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17793,7 +17790,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17819,7 +17816,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G604" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17845,7 +17842,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17871,7 +17868,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G606" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17897,7 +17894,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17923,7 +17920,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G608" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17949,7 +17946,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G609" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17975,7 +17972,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18001,7 +17998,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18027,7 +18024,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G612" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18053,7 +18050,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G613" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18079,7 +18076,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G614" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18105,7 +18102,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G615" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18131,7 +18128,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G616" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18157,7 +18154,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G617" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18183,7 +18180,7 @@
         <v>2.25</v>
       </c>
       <c r="G618" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18209,7 +18206,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G619" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18235,7 +18232,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G620" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18261,7 +18258,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G621" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18287,7 +18284,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G622" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18313,7 +18310,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18339,7 +18336,7 @@
         <v>2.25</v>
       </c>
       <c r="G624" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18365,7 +18362,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18391,7 +18388,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18417,7 +18414,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G627" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18443,7 +18440,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G628" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18469,7 +18466,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G629" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18495,7 +18492,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G630" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18521,7 +18518,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G631" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18547,7 +18544,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18573,7 +18570,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G633" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18599,7 +18596,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G634" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18625,7 +18622,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G635" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18651,7 +18648,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18677,7 +18674,7 @@
         <v>2.75</v>
       </c>
       <c r="G637" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18703,7 +18700,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18729,7 +18726,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -23461,7 +23458,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23513,7 +23510,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23539,7 +23536,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -35499,7 +35496,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35551,7 +35548,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35577,7 +35574,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35655,7 +35652,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35759,7 +35756,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35837,7 +35834,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35915,7 +35912,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35941,7 +35938,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35967,7 +35964,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35993,7 +35990,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36019,7 +36016,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36045,7 +36042,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36071,7 +36068,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36097,7 +36094,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36123,7 +36120,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36175,7 +36172,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36201,7 +36198,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36227,7 +36224,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36253,7 +36250,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36279,7 +36276,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36383,7 +36380,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36409,7 +36406,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36435,7 +36432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36461,7 +36458,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36487,7 +36484,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36513,7 +36510,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36539,7 +36536,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36565,7 +36562,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36591,7 +36588,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36617,7 +36614,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36643,7 +36640,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36669,7 +36666,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36695,7 +36692,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36721,7 +36718,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36747,7 +36744,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36773,7 +36770,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36799,7 +36796,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36825,7 +36822,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36851,7 +36848,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36877,7 +36874,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36903,7 +36900,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36929,7 +36926,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36955,7 +36952,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36981,7 +36978,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37007,7 +37004,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37033,7 +37030,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37059,7 +37056,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37085,7 +37082,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37111,7 +37108,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37137,7 +37134,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37189,7 +37186,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37215,7 +37212,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37241,7 +37238,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37267,7 +37264,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37293,7 +37290,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37319,7 +37316,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37345,7 +37342,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37371,7 +37368,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37397,7 +37394,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37423,7 +37420,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37449,7 +37446,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37475,7 +37472,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37501,7 +37498,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37527,7 +37524,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37553,7 +37550,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37579,7 +37576,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37605,7 +37602,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37631,7 +37628,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37657,7 +37654,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37683,7 +37680,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37709,7 +37706,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37735,7 +37732,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37761,7 +37758,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37787,7 +37784,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37813,7 +37810,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37839,7 +37836,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37865,7 +37862,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37891,7 +37888,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37917,7 +37914,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37943,7 +37940,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37969,7 +37966,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37995,7 +37992,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38021,7 +38018,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38047,7 +38044,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38073,7 +38070,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38099,7 +38096,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38125,7 +38122,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38151,7 +38148,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38177,7 +38174,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38203,7 +38200,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38229,7 +38226,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38255,7 +38252,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38281,7 +38278,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38307,7 +38304,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38333,7 +38330,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38359,7 +38356,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38385,7 +38382,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38411,7 +38408,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38437,7 +38434,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38463,7 +38460,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38489,7 +38486,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38515,7 +38512,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38541,7 +38538,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38567,7 +38564,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38593,7 +38590,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38619,7 +38616,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38645,7 +38642,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38671,7 +38668,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38697,7 +38694,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38723,7 +38720,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38749,7 +38746,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38775,7 +38772,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38801,7 +38798,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38827,7 +38824,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38853,7 +38850,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38879,7 +38876,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38905,7 +38902,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38931,7 +38928,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38957,7 +38954,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38983,7 +38980,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39009,7 +39006,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39035,7 +39032,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39061,7 +39058,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39087,7 +39084,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39113,7 +39110,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39139,7 +39136,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39165,7 +39162,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39191,7 +39188,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39217,7 +39214,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39243,7 +39240,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39269,7 +39266,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39295,7 +39292,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39321,7 +39318,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39347,7 +39344,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39373,7 +39370,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39399,7 +39396,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39425,7 +39422,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39451,7 +39448,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39477,7 +39474,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39503,7 +39500,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39529,7 +39526,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39555,7 +39552,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39581,7 +39578,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39607,7 +39604,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39633,7 +39630,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39659,7 +39656,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39685,7 +39682,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39711,7 +39708,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39737,7 +39734,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39763,7 +39760,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39789,7 +39786,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39815,7 +39812,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39841,7 +39838,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39867,7 +39864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39893,7 +39890,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39919,7 +39916,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39945,7 +39942,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39971,7 +39968,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39997,7 +39994,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40023,7 +40020,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40049,7 +40046,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40075,7 +40072,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40101,7 +40098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40127,7 +40124,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40153,7 +40150,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40179,7 +40176,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40205,7 +40202,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40231,7 +40228,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40257,7 +40254,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40283,7 +40280,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40309,7 +40306,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40335,7 +40332,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40361,7 +40358,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40387,7 +40384,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40413,7 +40410,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40439,7 +40436,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40465,7 +40462,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40491,7 +40488,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40517,7 +40514,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40543,7 +40540,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40569,7 +40566,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40595,7 +40592,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40621,7 +40618,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40647,7 +40644,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40673,7 +40670,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40699,7 +40696,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40725,7 +40722,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40751,7 +40748,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40777,7 +40774,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40803,7 +40800,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40829,7 +40826,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40855,7 +40852,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40881,7 +40878,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40907,7 +40904,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40933,7 +40930,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40959,7 +40956,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40985,7 +40982,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41011,7 +41008,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41037,7 +41034,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41063,7 +41060,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41089,7 +41086,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41115,7 +41112,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41141,7 +41138,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41167,7 +41164,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41193,7 +41190,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41219,7 +41216,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41245,7 +41242,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41271,7 +41268,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41297,7 +41294,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41323,7 +41320,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41349,7 +41346,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41375,7 +41372,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41401,7 +41398,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41427,7 +41424,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41453,7 +41450,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41479,7 +41476,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41505,7 +41502,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41531,7 +41528,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41557,7 +41554,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41583,7 +41580,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41609,7 +41606,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41635,7 +41632,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41661,7 +41658,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41687,7 +41684,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41713,7 +41710,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41739,7 +41736,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41765,7 +41762,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41791,7 +41788,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41817,7 +41814,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41843,7 +41840,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41869,7 +41866,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41895,7 +41892,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41921,7 +41918,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41947,7 +41944,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41973,7 +41970,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41999,7 +41996,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42025,7 +42022,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42051,7 +42048,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42077,7 +42074,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42103,7 +42100,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42129,7 +42126,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42155,7 +42152,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42181,7 +42178,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42207,7 +42204,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42233,7 +42230,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42259,7 +42256,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42285,7 +42282,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42311,7 +42308,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42337,7 +42334,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42363,7 +42360,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42389,7 +42386,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42415,7 +42412,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42441,7 +42438,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42467,7 +42464,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42493,7 +42490,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42519,7 +42516,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42545,7 +42542,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42571,7 +42568,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42597,7 +42594,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42623,7 +42620,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42649,7 +42646,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42675,7 +42672,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42701,7 +42698,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42727,7 +42724,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42753,7 +42750,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42779,7 +42776,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42805,7 +42802,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42831,7 +42828,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42857,7 +42854,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42883,7 +42880,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42909,7 +42906,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42935,7 +42932,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42961,7 +42958,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42987,7 +42984,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43013,7 +43010,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43039,7 +43036,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43065,7 +43062,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43091,7 +43088,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43117,7 +43114,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43143,7 +43140,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43169,7 +43166,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43195,7 +43192,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43221,7 +43218,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43247,7 +43244,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43273,7 +43270,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43299,7 +43296,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43325,7 +43322,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43351,7 +43348,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43377,7 +43374,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43403,7 +43400,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43429,7 +43426,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43455,7 +43452,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43481,7 +43478,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43507,7 +43504,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43533,7 +43530,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43559,7 +43556,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43585,7 +43582,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43611,7 +43608,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43637,7 +43634,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43663,7 +43660,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43689,7 +43686,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43715,7 +43712,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43741,7 +43738,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43767,7 +43764,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43793,7 +43790,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43819,7 +43816,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43845,7 +43842,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43871,7 +43868,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43897,7 +43894,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43923,7 +43920,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43949,7 +43946,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43975,7 +43972,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44001,7 +43998,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44027,7 +44024,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44053,7 +44050,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44079,7 +44076,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44105,7 +44102,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44131,7 +44128,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44157,7 +44154,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44183,7 +44180,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44209,7 +44206,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44235,7 +44232,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44755,7 +44752,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45093,7 +45090,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45119,7 +45116,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45249,7 +45246,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45275,7 +45272,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45301,7 +45298,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45309,7 +45306,7 @@
     </row>
     <row r="1662">
       <c r="A1662" s="1" t="n">
-        <v>45450.6495601852</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B1662" t="n">
         <v>72630</v>
@@ -45321,15 +45318,41 @@
         <v>3.8199999332428</v>
       </c>
       <c r="E1662" t="n">
-        <v>3.89000010490417</v>
+        <v>3.8199999332428</v>
       </c>
       <c r="F1662" t="n">
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1662" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="1" t="n">
+        <v>45453.6496180556</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>32398</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>3.82999992370605</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>3.85999989509583</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>3.85999989509583</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1663" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,67 +38,67 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205893516541</t>
+    <t xml:space="preserve">1.80205917358398</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729632854462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127479076385</t>
+    <t xml:space="preserve">1.87729668617249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127455234528</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763437747955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399372577667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89307188987732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909390449524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394774913788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88093674182892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86637485027313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84574496746063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84453165531158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210479259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82268869876862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83239686489105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967757225037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84089124202728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83482360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82511568069458</t>
+    <t xml:space="preserve">1.90399360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307200908661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394762992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8809369802475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86637496948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84574520587921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84453153610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210467338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82268857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83239662647247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967769145966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8408910036087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83482336997986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695875644684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82511532306671</t>
   </si>
   <si>
     <t xml:space="preserve">1.82875609397888</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">1.8336101770401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86273407936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972331047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8688018321991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758840084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.860307097435</t>
+    <t xml:space="preserve">1.86273455619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86880159378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758863925934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030745506287</t>
   </si>
   <si>
     <t xml:space="preserve">1.86152100563049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89549899101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89913964271545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700437545776</t>
+    <t xml:space="preserve">1.89549911022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89913976192474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700449466705</t>
   </si>
   <si>
     <t xml:space="preserve">1.85363292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8566666841507</t>
+    <t xml:space="preserve">1.85666704177856</t>
   </si>
   <si>
     <t xml:space="preserve">1.89003825187683</t>
@@ -149,43 +149,43 @@
     <t xml:space="preserve">1.89610576629639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87790334224701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486946582794</t>
+    <t xml:space="preserve">1.8779034614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486910820007</t>
   </si>
   <si>
     <t xml:space="preserve">1.85970044136047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94767999649048</t>
+    <t xml:space="preserve">1.94768023490906</t>
   </si>
   <si>
     <t xml:space="preserve">1.91734218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92340922355652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161236286163</t>
+    <t xml:space="preserve">1.92340981960297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161248207092</t>
   </si>
   <si>
     <t xml:space="preserve">1.92644357681274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93554508686066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857848644257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00228786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97801733016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97195053100586</t>
+    <t xml:space="preserve">1.93554484844208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857884407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228762626648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97801792621613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97195017337799</t>
   </si>
   <si>
     <t xml:space="preserve">1.93251097202301</t>
@@ -194,52 +194,52 @@
     <t xml:space="preserve">1.99925398826599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99015247821808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02352428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02959179878235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835490226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02049016952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01745653152466</t>
+    <t xml:space="preserve">1.99015271663666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02352404594421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835537910461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02049040794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01745629310608</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99622011184692</t>
+    <t xml:space="preserve">1.99621999263763</t>
   </si>
   <si>
     <t xml:space="preserve">2.05082821846008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10274791717529</t>
+    <t xml:space="preserve">2.10274767875671</t>
   </si>
   <si>
     <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301257133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407309532166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486801147461</t>
+    <t xml:space="preserve">2.09301280975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407285690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486824989319</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784799575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07029819488525</t>
+    <t xml:space="preserve">2.0702977180481</t>
   </si>
   <si>
     <t xml:space="preserve">2.08652257919312</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">2.08976793289185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07354283332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01188802719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645843982697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890828132629</t>
+    <t xml:space="preserve">2.07354331016541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625792503357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01188826560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.998908162117</t>
   </si>
   <si>
     <t xml:space="preserve">2.00215339660645</t>
@@ -272,79 +272,76 @@
     <t xml:space="preserve">2.02811312675476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98592829704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04109311103821</t>
+    <t xml:space="preserve">1.98592853546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04109334945679</t>
   </si>
   <si>
     <t xml:space="preserve">2.04433822631836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05731749534607</t>
+    <t xml:space="preserve">2.05731821060181</t>
   </si>
   <si>
     <t xml:space="preserve">2.08003282546997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06056308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0508279800415</t>
+    <t xml:space="preserve">2.0605628490448</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705284118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12870740890503</t>
+    <t xml:space="preserve">2.12870764732361</t>
   </si>
   <si>
     <t xml:space="preserve">2.10599255561829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09950256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1092381477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758334159851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380796432495</t>
+    <t xml:space="preserve">2.09950280189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10923767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758310317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380820274353</t>
   </si>
   <si>
     <t xml:space="preserve">2.0767879486084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01513338088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11248230934143</t>
+    <t xml:space="preserve">2.01513314247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11248254776001</t>
   </si>
   <si>
     <t xml:space="preserve">2.13195252418518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17413735389709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18387222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14168763160706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711733818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254704475403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2357919216156</t>
+    <t xml:space="preserve">2.17413711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18387198448181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14168739318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711686134338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254680633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23579168319702</t>
   </si>
   <si>
     <t xml:space="preserve">2.20658707618713</t>
@@ -356,19 +353,19 @@
     <t xml:space="preserve">2.14493250846863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12546253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17738199234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23903679847717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22605729103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1644024848938</t>
+    <t xml:space="preserve">2.12546277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17738223075867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23903656005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2260570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440224647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.16764712333679</t>
@@ -380,154 +377,154 @@
     <t xml:space="preserve">2.1384425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31367135047913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069136619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307730674744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21956706047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685244560242</t>
+    <t xml:space="preserve">2.31367158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.219566822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685220718384</t>
   </si>
   <si>
     <t xml:space="preserve">2.1579122543335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16115713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11897230148315</t>
+    <t xml:space="preserve">2.14817762374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16115736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11897277832031</t>
   </si>
   <si>
     <t xml:space="preserve">2.03135824203491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01837801933289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241805076599</t>
+    <t xml:space="preserve">2.01837825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241852760315</t>
   </si>
   <si>
     <t xml:space="preserve">2.03460335731506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25746512413025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811518669128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1111478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10417985916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024524688721</t>
+    <t xml:space="preserve">2.25746488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11114764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09024548530579</t>
   </si>
   <si>
     <t xml:space="preserve">2.02753806114197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99270033836365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98573303222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95786309242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392788410187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9299932718277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302525043488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941614627838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122057914734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244824409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064333438873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154561042786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335099697113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86728572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8185133934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8603184223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457830429077</t>
+    <t xml:space="preserve">1.99270045757294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98573291301727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9578629732132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392824172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92999303340912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302548885345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8394159078598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88122069835663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244848251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064345359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154608726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86728632450104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81851315498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86031818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457842350006</t>
   </si>
   <si>
     <t xml:space="preserve">1.78367578983307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87425327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515578746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818848133087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212309360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909087657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638345241547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82548081874847</t>
+    <t xml:space="preserve">1.87425315380096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818824291229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212333202362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909051895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638321399689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82548069953918</t>
   </si>
   <si>
     <t xml:space="preserve">1.7976108789444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77670836448669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7488386631012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187099933624</t>
+    <t xml:space="preserve">1.77670860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883854389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187123775482</t>
   </si>
   <si>
     <t xml:space="preserve">1.73490345478058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75580596923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793626785278</t>
+    <t xml:space="preserve">1.75580620765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793591022491</t>
   </si>
   <si>
     <t xml:space="preserve">1.76277339458466</t>
@@ -536,58 +533,58 @@
     <t xml:space="preserve">1.97179794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0205705165863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360273361206</t>
+    <t xml:space="preserve">2.02057027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360297203064</t>
   </si>
   <si>
     <t xml:space="preserve">2.00663542747498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97876572608948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696057796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483016014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089554786682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974093914032</t>
+    <t xml:space="preserve">1.9787654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696069717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483051776886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76974081993103</t>
   </si>
   <si>
     <t xml:space="preserve">1.64432632923126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51891160011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096860408783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981387615204</t>
+    <t xml:space="preserve">1.51891136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096872329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219603061676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981399536133</t>
   </si>
   <si>
     <t xml:space="preserve">1.56071650981903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47013902664185</t>
+    <t xml:space="preserve">1.47013914585114</t>
   </si>
   <si>
     <t xml:space="preserve">1.44923663139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47710645198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407423496246</t>
+    <t xml:space="preserve">1.47710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407411575317</t>
   </si>
   <si>
     <t xml:space="preserve">1.42833423614502</t>
@@ -596,19 +593,19 @@
     <t xml:space="preserve">1.44226932525635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43530178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104177951813</t>
+    <t xml:space="preserve">1.43530166149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104166030884</t>
   </si>
   <si>
     <t xml:space="preserve">1.50497663021088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46317148208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49800908565521</t>
+    <t xml:space="preserve">1.46317172050476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4980092048645</t>
   </si>
   <si>
     <t xml:space="preserve">1.59555375576019</t>
@@ -620,43 +617,46 @@
     <t xml:space="preserve">1.55374896526337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62342393398285</t>
+    <t xml:space="preserve">1.62342369556427</t>
   </si>
   <si>
     <t xml:space="preserve">1.58161890506744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53284645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465136051178</t>
+    <t xml:space="preserve">1.53284657001495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465147972107</t>
   </si>
   <si>
     <t xml:space="preserve">1.60252118110657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60948872566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58858644962311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70703375339508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768381595612</t>
+    <t xml:space="preserve">1.60948896408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58858633041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7070335149765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768393516541</t>
   </si>
   <si>
     <t xml:space="preserve">1.6164562702179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68613123893738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605794429779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0683970451355</t>
+    <t xml:space="preserve">1.68613159656525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605830192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06839752197266</t>
   </si>
   <si>
     <t xml:space="preserve">2.00887489318848</t>
@@ -665,154 +665,154 @@
     <t xml:space="preserve">1.84518909454346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83030831813812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310703277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82286822795868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8005473613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78566682338715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846529960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83774864673615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262906551361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8079879283905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86006939411163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87495005130768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88983047008514</t>
+    <t xml:space="preserve">1.83030843734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310691356659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8228679895401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80054712295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78566658496857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846518039703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83774876594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542789936066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262930393219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798745155334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86006951332092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87494993209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88983082771301</t>
   </si>
   <si>
     <t xml:space="preserve">1.7707861661911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73358488082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69638347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68894290924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70382356643677</t>
+    <t xml:space="preserve">1.73358464241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69638335704803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68894326686859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70382368564606</t>
   </si>
   <si>
     <t xml:space="preserve">1.71870422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72614455223083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7112637758255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75590562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76334571838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74102473258972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66662228107452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68150269985199</t>
+    <t xml:space="preserve">1.72614419460297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71126401424408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75590538978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7633455991745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7410249710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66662240028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150293827057</t>
   </si>
   <si>
     <t xml:space="preserve">1.77822637557983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67406237125397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65918183326721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174162387848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64430129528046</t>
+    <t xml:space="preserve">1.67406260967255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65918207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174150466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64430141448975</t>
   </si>
   <si>
     <t xml:space="preserve">1.63686108589172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6294207572937</t>
+    <t xml:space="preserve">1.62942087650299</t>
   </si>
   <si>
     <t xml:space="preserve">1.6071001291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61454045772552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221959114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57733869552612</t>
+    <t xml:space="preserve">1.61454033851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221947193146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57733881473541</t>
   </si>
   <si>
     <t xml:space="preserve">1.51781666278839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48061537742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49549579620361</t>
+    <t xml:space="preserve">1.48061525821686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4954959154129</t>
   </si>
   <si>
     <t xml:space="preserve">1.48805558681488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47317504882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4694550037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750996112823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93447208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167360782623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935274124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94191265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92703187465668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96423351764679</t>
+    <t xml:space="preserve">1.47317516803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46945488452911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750972270966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447244167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167384624481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935250282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94191241264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92703211307526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9642333984375</t>
   </si>
   <si>
     <t xml:space="preserve">1.98655426502228</t>
@@ -821,28 +821,28 @@
     <t xml:space="preserve">1.99399447441101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9567928314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00143480300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03119587898254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06095695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07583713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09071826934814</t>
+    <t xml:space="preserve">1.95679306983948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00143456459045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03119564056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06095719337463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07583737373352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09071803092957</t>
   </si>
   <si>
     <t xml:space="preserve">2.10559844970703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12791919708252</t>
+    <t xml:space="preserve">2.1279194355011</t>
   </si>
   <si>
     <t xml:space="preserve">2.14280033111572</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">2.04607629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12047910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09815812110901</t>
+    <t xml:space="preserve">2.12047934532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09815835952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.13535952568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1874418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22464323043823</t>
+    <t xml:space="preserve">2.18744158744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22464299201965</t>
   </si>
   <si>
     <t xml:space="preserve">2.21720266342163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2395236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20976233482361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20232248306274</t>
+    <t xml:space="preserve">2.23952341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20976257324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20232224464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.23208332061768</t>
@@ -887,67 +887,67 @@
     <t xml:space="preserve">2.24696373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25440430641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26184439659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27723145484924</t>
+    <t xml:space="preserve">2.25440406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27723121643066</t>
   </si>
   <si>
     <t xml:space="preserve">2.28492450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31569814682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26953792572021</t>
+    <t xml:space="preserve">2.31569790840149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26953768730164</t>
   </si>
   <si>
     <t xml:space="preserve">2.32339096069336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29261779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031156539917</t>
+    <t xml:space="preserve">2.29261755943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031108856201</t>
   </si>
   <si>
     <t xml:space="preserve">2.30800461769104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34647107124329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36185765266418</t>
+    <t xml:space="preserve">2.34647130966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36185812950134</t>
   </si>
   <si>
     <t xml:space="preserve">2.41571140289307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39263105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44648480415344</t>
+    <t xml:space="preserve">2.39263129234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44648504257202</t>
   </si>
   <si>
     <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43879151344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40801811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38493800163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42340493202209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109798431396</t>
+    <t xml:space="preserve">2.43879175186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4080183506012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38493824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42340469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109846115112</t>
   </si>
   <si>
     <t xml:space="preserve">2.40032458305359</t>
@@ -956,34 +956,34 @@
     <t xml:space="preserve">2.4772584438324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46187138557434</t>
+    <t xml:space="preserve">2.46187162399292</t>
   </si>
   <si>
     <t xml:space="preserve">2.48495149612427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4926450252533</t>
+    <t xml:space="preserve">2.49264454841614</t>
   </si>
   <si>
     <t xml:space="preserve">2.50803160667419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51572465896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52341842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5311119556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50033855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56957817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59265804290771</t>
+    <t xml:space="preserve">2.51572489738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52341818809509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53111171722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50033807754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56957840919495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59265828132629</t>
   </si>
   <si>
     <t xml:space="preserve">2.5772716999054</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.6003520488739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60804510116577</t>
+    <t xml:space="preserve">2.60804533958435</t>
   </si>
   <si>
     <t xml:space="preserve">2.65420532226562</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">2.63881850242615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70805883407593</t>
+    <t xml:space="preserve">2.70805859565735</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344541549683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8003785610199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7696053981781</t>
+    <t xml:space="preserve">2.80037903785706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76960515975952</t>
   </si>
   <si>
     <t xml:space="preserve">2.77729892730713</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">2.80807209014893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81576538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8388454914093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87731218338013</t>
+    <t xml:space="preserve">2.81576561927795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83884572982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87731242179871</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.93116569519043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92347240447998</t>
+    <t xml:space="preserve">2.92347264289856</t>
   </si>
   <si>
     <t xml:space="preserve">2.95424580574036</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">2.94655251502991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91577911376953</t>
+    <t xml:space="preserve">2.91577935218811</t>
   </si>
   <si>
     <t xml:space="preserve">2.93885898590088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90808582305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9627685546875</t>
+    <t xml:space="preserve">2.9080855846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96276879310608</t>
   </si>
   <si>
     <t xml:space="preserve">2.9390664100647</t>
@@ -1076,28 +1076,28 @@
     <t xml:space="preserve">3.00227212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04967641830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10498142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08127951622009</t>
+    <t xml:space="preserve">3.04967617988586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1049816608429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08127927780151</t>
   </si>
   <si>
     <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177570343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07337880134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01807355880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95486783981323</t>
+    <t xml:space="preserve">3.04177594184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07337856292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01807379722595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95486807823181</t>
   </si>
   <si>
     <t xml:space="preserve">2.98647093772888</t>
@@ -1109,82 +1109,82 @@
     <t xml:space="preserve">2.94696736335754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97857022285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97066950798035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01017284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06547784805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02597451210022</t>
+    <t xml:space="preserve">2.97856998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97066926956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01017308235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06547808647156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02597427368164</t>
   </si>
   <si>
     <t xml:space="preserve">3.03387498855591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99437141418457</t>
+    <t xml:space="preserve">2.99437165260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.85215878486633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84425806999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89166212081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11288213729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8363573551178</t>
+    <t xml:space="preserve">2.84425783157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89166235923767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11288237571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83635687828064</t>
   </si>
   <si>
     <t xml:space="preserve">2.77315139770508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74944925308228</t>
+    <t xml:space="preserve">2.74944949150085</t>
   </si>
   <si>
     <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51242756843567</t>
+    <t xml:space="preserve">2.51242804527283</t>
   </si>
   <si>
     <t xml:space="preserve">2.41761922836304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46502327919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60723662376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61513733863831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76525044441223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88376140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75734996795654</t>
+    <t xml:space="preserve">2.46502351760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60723638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61513710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76525068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8837616443634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75735020637512</t>
   </si>
   <si>
     <t xml:space="preserve">2.89956307411194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1286838054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14448523521423</t>
+    <t xml:space="preserve">3.12868356704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14448499679565</t>
   </si>
   <si>
     <t xml:space="preserve">3.20769095420837</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">3.16028666496277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09708094596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23139309883118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21559190750122</t>
+    <t xml:space="preserve">3.09708070755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23139333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21559166908264</t>
   </si>
   <si>
     <t xml:space="preserve">3.13658452033997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1523859500885</t>
+    <t xml:space="preserve">3.15238571166992</t>
   </si>
   <si>
     <t xml:space="preserve">3.1760880947113</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">3.30911779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27586007118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24260306358337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20103096961975</t>
+    <t xml:space="preserve">3.27586030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24260282516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20103120803833</t>
   </si>
   <si>
     <t xml:space="preserve">3.13451623916626</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.893399477005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91002798080444</t>
+    <t xml:space="preserve">2.91002821922302</t>
   </si>
   <si>
     <t xml:space="preserve">2.90171384811401</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">2.9599142074585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93497133255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86014223098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87677073478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86845636367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84351325035095</t>
+    <t xml:space="preserve">2.93497157096863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86014199256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87677097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86845660209656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84351348876953</t>
   </si>
   <si>
     <t xml:space="preserve">2.8102560043335</t>
@@ -1295,52 +1295,52 @@
     <t xml:space="preserve">2.78531265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75205540657043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73542666435242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7769980430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74374103546143</t>
+    <t xml:space="preserve">2.75205516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73542642593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77699828147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74374079704285</t>
   </si>
   <si>
     <t xml:space="preserve">2.76868391036987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76036977767944</t>
+    <t xml:space="preserve">2.76036953926086</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67722606658936</t>
+    <t xml:space="preserve">2.67722630500793</t>
   </si>
   <si>
     <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64396834373474</t>
+    <t xml:space="preserve">2.64396858215332</t>
   </si>
   <si>
     <t xml:space="preserve">2.66059732437134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70216917991638</t>
+    <t xml:space="preserve">2.7021689414978</t>
   </si>
   <si>
     <t xml:space="preserve">2.71879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68554043769836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66891145706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69385480880737</t>
+    <t xml:space="preserve">2.68554019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66891169548035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69385457038879</t>
   </si>
   <si>
     <t xml:space="preserve">2.94328594207764</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">3.02642917633057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04305791854858</t>
+    <t xml:space="preserve">3.04305815696716</t>
   </si>
   <si>
     <t xml:space="preserve">3.05968689918518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06800103187561</t>
+    <t xml:space="preserve">3.06800127029419</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137252807617</t>
@@ -1364,39 +1364,42 @@
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
+    <t xml:space="preserve">3.10957312583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13555812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14422011375427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17020535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16154360771179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12689638137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20485258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21351408958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22217583656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19619083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11823463439941</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13555812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14422011375427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17020535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16154360771179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12689638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21351408958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22217583656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19619059562683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11823463439941</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.15288186073303</t>
   </si>
   <si>
@@ -1409,10 +1412,10 @@
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682282447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23083758354187</t>
+    <t xml:space="preserve">3.25682306289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23083782196045</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611703872681</t>
@@ -1421,7 +1424,7 @@
     <t xml:space="preserve">3.35210227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34344053268433</t>
+    <t xml:space="preserve">3.34344029426575</t>
   </si>
   <si>
     <t xml:space="preserve">3.27414655685425</t>
@@ -1430,10 +1433,10 @@
     <t xml:space="preserve">3.30879354476929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23949933052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280854225159</t>
+    <t xml:space="preserve">3.23949956893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280830383301</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1451,7 +1454,7 @@
     <t xml:space="preserve">3.3867495059967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39541149139404</t>
+    <t xml:space="preserve">3.39541125297546</t>
   </si>
   <si>
     <t xml:space="preserve">3.36076426506042</t>
@@ -1460,7 +1463,7 @@
     <t xml:space="preserve">3.42139649391174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36942601203918</t>
+    <t xml:space="preserve">3.36942577362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.31745553016663</t>
@@ -1472,13 +1475,13 @@
     <t xml:space="preserve">3.43871998786926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43005847930908</t>
+    <t xml:space="preserve">3.4300582408905</t>
   </si>
   <si>
     <t xml:space="preserve">3.41273474693298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40407299995422</t>
+    <t xml:space="preserve">3.40407276153564</t>
   </si>
   <si>
     <t xml:space="preserve">3.44738173484802</t>
@@ -1490,16 +1493,16 @@
     <t xml:space="preserve">3.48386192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45650196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41090130805969</t>
+    <t xml:space="preserve">3.45650172233582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41090154647827</t>
   </si>
   <si>
     <t xml:space="preserve">3.42002153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43826150894165</t>
+    <t xml:space="preserve">3.43826174736023</t>
   </si>
   <si>
     <t xml:space="preserve">3.38354134559631</t>
@@ -1511,19 +1514,19 @@
     <t xml:space="preserve">3.39266133308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4017813205719</t>
+    <t xml:space="preserve">3.40178155899048</t>
   </si>
   <si>
     <t xml:space="preserve">3.35618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36530113220215</t>
+    <t xml:space="preserve">3.36530137062073</t>
   </si>
   <si>
     <t xml:space="preserve">3.34706115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42914152145386</t>
+    <t xml:space="preserve">3.42914175987244</t>
   </si>
   <si>
     <t xml:space="preserve">3.33794116973877</t>
@@ -1547,13 +1550,13 @@
     <t xml:space="preserve">3.28322052955627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26498055458069</t>
+    <t xml:space="preserve">3.26498031616211</t>
   </si>
   <si>
     <t xml:space="preserve">3.22850036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2558605670929</t>
+    <t xml:space="preserve">3.25586032867432</t>
   </si>
   <si>
     <t xml:space="preserve">3.27410054206848</t>
@@ -1574,13 +1577,13 @@
     <t xml:space="preserve">3.10993981361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1008198261261</t>
+    <t xml:space="preserve">3.10081958770752</t>
   </si>
   <si>
     <t xml:space="preserve">3.11905980110168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07345938682556</t>
+    <t xml:space="preserve">3.07345914840698</t>
   </si>
   <si>
     <t xml:space="preserve">3.16465997695923</t>
@@ -1595,10 +1598,10 @@
     <t xml:space="preserve">3.23762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17377996444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026015281677</t>
+    <t xml:space="preserve">3.1737802028656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026039123535</t>
   </si>
   <si>
     <t xml:space="preserve">3.21938037872314</t>
@@ -5934,7 +5937,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G147" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5986,7 +5989,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6142,7 +6145,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6168,7 +6171,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6220,7 +6223,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6246,7 +6249,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6428,7 +6431,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6480,7 +6483,7 @@
         <v>3.25</v>
       </c>
       <c r="G168" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6506,7 +6509,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6662,7 +6665,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G175" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6688,7 +6691,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6740,7 +6743,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6766,7 +6769,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G179" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6792,7 +6795,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G180" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6818,7 +6821,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6844,7 +6847,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6870,7 +6873,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6896,7 +6899,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G184" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6948,7 +6951,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6974,7 +6977,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7000,7 +7003,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7026,7 +7029,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G189" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7052,7 +7055,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G190" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7104,7 +7107,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G192" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7260,7 +7263,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7364,7 +7367,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7390,7 +7393,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G203" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7442,7 +7445,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7494,7 +7497,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G207" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7520,7 +7523,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G208" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7546,7 +7549,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G209" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7572,7 +7575,7 @@
         <v>3.25</v>
       </c>
       <c r="G210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7624,7 +7627,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7650,7 +7653,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G213" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7676,7 +7679,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G214" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7702,7 +7705,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7728,7 +7731,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7754,7 +7757,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G217" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7780,7 +7783,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G218" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7806,7 +7809,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G219" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7832,7 +7835,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7858,7 +7861,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7884,7 +7887,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G222" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7910,7 +7913,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G223" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7936,7 +7939,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7962,7 +7965,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7988,7 +7991,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G226" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8014,7 +8017,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8040,7 +8043,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G228" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8066,7 +8069,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8092,7 +8095,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8118,7 +8121,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G231" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8144,7 +8147,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G232" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8170,7 +8173,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G233" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8196,7 +8199,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G234" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8222,7 +8225,7 @@
         <v>3.25</v>
       </c>
       <c r="G235" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8248,7 +8251,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G236" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8274,7 +8277,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G237" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8300,7 +8303,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G238" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8326,7 +8329,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8352,7 +8355,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8378,7 +8381,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G241" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8404,7 +8407,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G242" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8430,7 +8433,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8456,7 +8459,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8482,7 +8485,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G245" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8508,7 +8511,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G246" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8534,7 +8537,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G247" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8560,7 +8563,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G248" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8586,7 +8589,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G249" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8612,7 +8615,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G250" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8638,7 +8641,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G251" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8664,7 +8667,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G252" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8690,7 +8693,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8716,7 +8719,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8742,7 +8745,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8768,7 +8771,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8794,7 +8797,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G257" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8820,7 +8823,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G258" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8846,7 +8849,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G259" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8872,7 +8875,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G260" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8898,7 +8901,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G261" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8924,7 +8927,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G262" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8950,7 +8953,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G263" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8976,7 +8979,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G264" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9002,7 +9005,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G265" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9028,7 +9031,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9054,7 +9057,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G267" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9080,7 +9083,7 @@
         <v>3.25</v>
       </c>
       <c r="G268" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9106,7 +9109,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9132,7 +9135,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G270" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9158,7 +9161,7 @@
         <v>3.25</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9184,7 +9187,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G272" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9210,7 +9213,7 @@
         <v>3.25</v>
       </c>
       <c r="G273" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9288,7 +9291,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G276" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9314,7 +9317,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9470,7 +9473,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9808,7 +9811,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9834,7 +9837,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G297" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9860,7 +9863,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9990,7 +9993,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G303" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10042,7 +10045,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G305" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10120,7 +10123,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G308" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10172,7 +10175,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G310" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10198,7 +10201,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G311" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10250,7 +10253,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G313" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10302,7 +10305,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G315" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10328,7 +10331,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G316" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10354,7 +10357,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G317" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10380,7 +10383,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G318" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10510,7 +10513,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G323" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10536,7 +10539,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10562,7 +10565,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10588,7 +10591,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G326" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10640,7 +10643,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G328" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10692,7 +10695,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G330" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10718,7 +10721,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G331" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10770,7 +10773,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G333" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10796,7 +10799,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G334" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10822,7 +10825,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G335" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10848,7 +10851,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10900,7 +10903,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G338" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10926,7 +10929,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G339" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10978,7 +10981,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G341" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11030,7 +11033,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G343" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11134,7 +11137,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G347" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11186,7 +11189,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11238,7 +11241,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G351" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11264,7 +11267,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G352" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11290,7 +11293,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G353" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11316,7 +11319,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G354" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11342,7 +11345,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G355" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11394,7 +11397,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G357" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11420,7 +11423,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G358" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11472,7 +11475,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G360" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G361" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11550,7 +11553,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G363" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11576,7 +11579,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G364" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11602,7 +11605,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G365" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11628,7 +11631,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11654,7 +11657,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11680,7 +11683,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G368" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11706,7 +11709,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G369" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11732,7 +11735,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G370" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G371" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11784,7 +11787,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G372" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11810,7 +11813,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G373" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G374" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11862,7 +11865,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G375" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11888,7 +11891,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G376" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11914,7 +11917,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G377" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11940,7 +11943,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G378" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G379" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11992,7 +11995,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G380" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12018,7 +12021,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G381" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12044,7 +12047,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G382" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12070,7 +12073,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G383" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12096,7 +12099,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G384" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12122,7 +12125,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G385" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12148,7 +12151,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G386" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12174,7 +12177,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G387" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12200,7 +12203,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G388" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12226,7 +12229,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12252,7 +12255,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G390" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12278,7 +12281,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G391" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12304,7 +12307,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G392" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12330,7 +12333,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G393" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12356,7 +12359,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G394" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12382,7 +12385,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G395" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12408,7 +12411,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G396" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12434,7 +12437,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12460,7 +12463,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G398" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12486,7 +12489,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G399" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12512,7 +12515,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G400" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12538,7 +12541,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G401" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12564,7 +12567,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G402" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12590,7 +12593,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G403" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12616,7 +12619,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12642,7 +12645,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G405" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G406" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12694,7 +12697,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G407" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12720,7 +12723,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G408" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12746,7 +12749,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12772,7 +12775,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G410" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12798,7 +12801,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G411" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12824,7 +12827,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G412" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12850,7 +12853,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G413" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12876,7 +12879,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G414" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12902,7 +12905,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G415" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12928,7 +12931,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G416" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12954,7 +12957,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G417" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12980,7 +12983,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13006,7 +13009,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G419" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13032,7 +13035,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G420" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13058,7 +13061,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13084,7 +13087,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G422" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13110,7 +13113,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G423" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13136,7 +13139,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13162,7 +13165,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G425" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13188,7 +13191,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G426" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13214,7 +13217,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G427" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13240,7 +13243,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G428" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13266,7 +13269,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G429" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13292,7 +13295,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G430" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13318,7 +13321,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G431" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13344,7 +13347,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G432" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13370,7 +13373,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G433" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13396,7 +13399,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G434" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13422,7 +13425,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G435" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13448,7 +13451,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G436" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13474,7 +13477,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G437" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13500,7 +13503,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G438" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13526,7 +13529,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G439" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13552,7 +13555,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G440" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13578,7 +13581,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G441" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13604,7 +13607,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G442" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13630,7 +13633,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G443" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13656,7 +13659,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G444" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13682,7 +13685,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G445" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13708,7 +13711,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G447" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13760,7 +13763,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G448" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13786,7 +13789,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G449" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13812,7 +13815,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G450" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13838,7 +13841,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G451" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13864,7 +13867,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13890,7 +13893,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G453" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13916,7 +13919,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G454" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13942,7 +13945,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G455" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13968,7 +13971,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G456" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13994,7 +13997,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G457" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14020,7 +14023,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G458" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14046,7 +14049,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14072,7 +14075,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G460" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14098,7 +14101,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G461" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14124,7 +14127,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14150,7 +14153,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G463" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G464" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14202,7 +14205,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14228,7 +14231,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G466" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14254,7 +14257,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14280,7 +14283,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G468" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14306,7 +14309,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G469" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14332,7 +14335,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G470" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14358,7 +14361,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14384,7 +14387,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G472" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14410,7 +14413,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G473" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14436,7 +14439,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14462,7 +14465,7 @@
         <v>2.5</v>
       </c>
       <c r="G475" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14488,7 +14491,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G476" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14514,7 +14517,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G477" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14540,7 +14543,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G478" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14566,7 +14569,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G479" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14592,7 +14595,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G480" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14618,7 +14621,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G481" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14644,7 +14647,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G482" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14670,7 +14673,7 @@
         <v>2.5</v>
       </c>
       <c r="G483" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14696,7 +14699,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G484" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14722,7 +14725,7 @@
         <v>2.5</v>
       </c>
       <c r="G485" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14748,7 +14751,7 @@
         <v>2.5</v>
       </c>
       <c r="G486" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14774,7 +14777,7 @@
         <v>2.5</v>
       </c>
       <c r="G487" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14800,7 +14803,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G488" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14826,7 +14829,7 @@
         <v>2.5</v>
       </c>
       <c r="G489" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14852,7 +14855,7 @@
         <v>2.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14878,7 +14881,7 @@
         <v>2.5</v>
       </c>
       <c r="G491" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14904,7 +14907,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G492" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14930,7 +14933,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G493" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14956,7 +14959,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G494" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14982,7 +14985,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G495" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15008,7 +15011,7 @@
         <v>2.5</v>
       </c>
       <c r="G496" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15034,7 +15037,7 @@
         <v>2.5</v>
       </c>
       <c r="G497" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15060,7 +15063,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G498" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15086,7 +15089,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G499" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15112,7 +15115,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G500" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15138,7 +15141,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G501" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15164,7 +15167,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G502" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15190,7 +15193,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G503" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15216,7 +15219,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G504" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15242,7 +15245,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15268,7 +15271,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15294,7 +15297,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G507" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15320,7 +15323,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G508" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15346,7 +15349,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G509" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15372,7 +15375,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G510" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15398,7 +15401,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15424,7 +15427,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15450,7 +15453,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G513" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15476,7 +15479,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15502,7 +15505,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15528,7 +15531,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G516" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15554,7 +15557,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G517" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15580,7 +15583,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G518" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15606,7 +15609,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15632,7 +15635,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15658,7 +15661,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G521" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G522" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15710,7 +15713,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G523" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15736,7 +15739,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G524" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15762,7 +15765,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G525" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15788,7 +15791,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G526" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15814,7 +15817,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G527" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15840,7 +15843,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15892,7 +15895,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G530" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15918,7 +15921,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G531" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15944,7 +15947,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G532" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15970,7 +15973,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G533" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15996,7 +15999,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16022,7 +16025,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G535" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16048,7 +16051,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G536" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16074,7 +16077,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G537" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16100,7 +16103,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G538" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16126,7 +16129,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G539" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16152,7 +16155,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G540" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16178,7 +16181,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G541" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16204,7 +16207,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16230,7 +16233,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G543" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16256,7 +16259,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16282,7 +16285,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G545" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G546" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16334,7 +16337,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G547" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16360,7 +16363,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G548" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16386,7 +16389,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G549" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16412,7 +16415,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G550" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16438,7 +16441,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G551" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16464,7 +16467,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G552" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16490,7 +16493,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G553" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16516,7 +16519,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G554" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16542,7 +16545,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G555" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16568,7 +16571,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G556" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16594,7 +16597,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G557" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16620,7 +16623,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G558" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16646,7 +16649,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G559" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16672,7 +16675,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G560" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16698,7 +16701,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16724,7 +16727,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G562" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16750,7 +16753,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G563" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16776,7 +16779,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G564" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16802,7 +16805,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G565" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16828,7 +16831,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G566" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16854,7 +16857,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G567" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16880,7 +16883,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16906,7 +16909,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G569" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16932,7 +16935,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G570" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16958,7 +16961,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16984,7 +16987,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17010,7 +17013,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G573" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17036,7 +17039,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G574" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17062,7 +17065,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G575" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17088,7 +17091,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17114,7 +17117,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17140,7 +17143,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G578" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17166,7 +17169,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G579" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17192,7 +17195,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G580" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17218,7 +17221,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17244,7 +17247,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G582" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17270,7 +17273,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17296,7 +17299,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17322,7 +17325,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G585" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17348,7 +17351,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G586" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17374,7 +17377,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17400,7 +17403,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G588" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17426,7 +17429,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G589" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17452,7 +17455,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G590" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17478,7 +17481,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G591" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17504,7 +17507,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G592" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17530,7 +17533,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G593" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17556,7 +17559,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G594" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17582,7 +17585,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G595" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17608,7 +17611,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G596" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17634,7 +17637,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G597" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17660,7 +17663,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G598" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17686,7 +17689,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G599" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17712,7 +17715,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G600" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17738,7 +17741,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17764,7 +17767,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G602" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17790,7 +17793,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17816,7 +17819,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G604" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17842,7 +17845,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G605" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17868,7 +17871,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G606" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17894,7 +17897,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17920,7 +17923,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G608" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17946,7 +17949,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G609" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17972,7 +17975,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17998,7 +18001,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18024,7 +18027,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G612" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18050,7 +18053,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G613" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18076,7 +18079,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G614" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18102,7 +18105,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G615" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18128,7 +18131,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G616" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18154,7 +18157,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G617" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18180,7 +18183,7 @@
         <v>2.25</v>
       </c>
       <c r="G618" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18206,7 +18209,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G619" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18232,7 +18235,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G620" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18258,7 +18261,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G621" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18284,7 +18287,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G622" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18310,7 +18313,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18336,7 +18339,7 @@
         <v>2.25</v>
       </c>
       <c r="G624" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18362,7 +18365,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18388,7 +18391,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18414,7 +18417,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G627" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18440,7 +18443,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G628" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18466,7 +18469,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G629" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18492,7 +18495,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G630" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18518,7 +18521,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G631" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18544,7 +18547,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18570,7 +18573,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G633" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18596,7 +18599,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G634" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18622,7 +18625,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G635" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18648,7 +18651,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18674,7 +18677,7 @@
         <v>2.75</v>
       </c>
       <c r="G637" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18700,7 +18703,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18726,7 +18729,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -35496,7 +35499,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35548,7 +35551,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35574,7 +35577,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35652,7 +35655,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35756,7 +35759,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35834,7 +35837,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35912,7 +35915,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35938,7 +35941,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35964,7 +35967,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35990,7 +35993,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36016,7 +36019,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36042,7 +36045,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36068,7 +36071,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36094,7 +36097,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36120,7 +36123,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36172,7 +36175,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36198,7 +36201,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36224,7 +36227,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36250,7 +36253,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36276,7 +36279,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36380,7 +36383,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36406,7 +36409,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36432,7 +36435,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36458,7 +36461,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36484,7 +36487,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36510,7 +36513,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36536,7 +36539,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36562,7 +36565,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36588,7 +36591,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36614,7 +36617,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36640,7 +36643,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36666,7 +36669,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36692,7 +36695,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36718,7 +36721,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36744,7 +36747,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36770,7 +36773,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36796,7 +36799,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36822,7 +36825,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36848,7 +36851,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36874,7 +36877,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36900,7 +36903,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36926,7 +36929,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36952,7 +36955,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36978,7 +36981,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37004,7 +37007,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37030,7 +37033,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37056,7 +37059,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37082,7 +37085,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37108,7 +37111,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37134,7 +37137,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37186,7 +37189,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37212,7 +37215,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37238,7 +37241,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37264,7 +37267,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37290,7 +37293,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37316,7 +37319,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37342,7 +37345,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37368,7 +37371,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37394,7 +37397,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37420,7 +37423,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37446,7 +37449,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37472,7 +37475,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37498,7 +37501,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37524,7 +37527,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37550,7 +37553,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37576,7 +37579,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37602,7 +37605,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37628,7 +37631,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37654,7 +37657,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37680,7 +37683,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37706,7 +37709,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37732,7 +37735,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37758,7 +37761,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37784,7 +37787,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37810,7 +37813,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37836,7 +37839,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37862,7 +37865,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37888,7 +37891,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37914,7 +37917,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37940,7 +37943,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37966,7 +37969,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37992,7 +37995,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38018,7 +38021,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38044,7 +38047,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38070,7 +38073,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38096,7 +38099,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38122,7 +38125,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38148,7 +38151,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38174,7 +38177,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38200,7 +38203,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38226,7 +38229,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38252,7 +38255,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38278,7 +38281,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38304,7 +38307,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38330,7 +38333,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38356,7 +38359,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38382,7 +38385,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38408,7 +38411,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38434,7 +38437,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38460,7 +38463,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38486,7 +38489,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38512,7 +38515,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38538,7 +38541,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38564,7 +38567,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38590,7 +38593,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38616,7 +38619,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38642,7 +38645,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38668,7 +38671,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38694,7 +38697,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38720,7 +38723,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38746,7 +38749,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38772,7 +38775,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38798,7 +38801,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38824,7 +38827,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38850,7 +38853,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38876,7 +38879,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38902,7 +38905,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38928,7 +38931,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38954,7 +38957,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38980,7 +38983,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39006,7 +39009,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39032,7 +39035,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39058,7 +39061,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39084,7 +39087,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39110,7 +39113,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39136,7 +39139,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39162,7 +39165,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39188,7 +39191,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39214,7 +39217,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39240,7 +39243,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39266,7 +39269,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39292,7 +39295,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39318,7 +39321,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39344,7 +39347,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39370,7 +39373,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39396,7 +39399,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39422,7 +39425,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39448,7 +39451,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39474,7 +39477,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39500,7 +39503,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39526,7 +39529,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39552,7 +39555,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39578,7 +39581,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39604,7 +39607,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39630,7 +39633,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39656,7 +39659,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39682,7 +39685,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39708,7 +39711,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39734,7 +39737,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39760,7 +39763,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39786,7 +39789,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39812,7 +39815,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39838,7 +39841,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39864,7 +39867,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39890,7 +39893,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39916,7 +39919,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39942,7 +39945,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39968,7 +39971,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39994,7 +39997,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40023,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40046,7 +40049,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40072,7 +40075,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40098,7 +40101,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40124,7 +40127,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40150,7 +40153,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40176,7 +40179,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40202,7 +40205,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40228,7 +40231,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40254,7 +40257,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40280,7 +40283,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40306,7 +40309,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40332,7 +40335,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40358,7 +40361,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40384,7 +40387,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40410,7 +40413,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40436,7 +40439,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40462,7 +40465,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40488,7 +40491,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40514,7 +40517,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40540,7 +40543,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40566,7 +40569,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40592,7 +40595,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40618,7 +40621,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40644,7 +40647,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40670,7 +40673,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40696,7 +40699,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40722,7 +40725,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40748,7 +40751,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40774,7 +40777,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40800,7 +40803,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40826,7 +40829,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40852,7 +40855,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40878,7 +40881,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40904,7 +40907,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40930,7 +40933,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40956,7 +40959,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40982,7 +40985,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41008,7 +41011,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41034,7 +41037,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41060,7 +41063,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41086,7 +41089,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41112,7 +41115,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41138,7 +41141,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41164,7 +41167,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41190,7 +41193,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41216,7 +41219,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41242,7 +41245,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41268,7 +41271,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41294,7 +41297,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41320,7 +41323,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41346,7 +41349,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41372,7 +41375,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41398,7 +41401,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41424,7 +41427,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41450,7 +41453,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41476,7 +41479,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41502,7 +41505,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41528,7 +41531,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41554,7 +41557,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41580,7 +41583,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41606,7 +41609,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41632,7 +41635,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41658,7 +41661,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41684,7 +41687,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41710,7 +41713,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41736,7 +41739,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41762,7 +41765,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41788,7 +41791,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41814,7 +41817,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41840,7 +41843,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41866,7 +41869,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41892,7 +41895,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41918,7 +41921,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41944,7 +41947,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41973,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41996,7 +41999,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42022,7 +42025,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42048,7 +42051,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42074,7 +42077,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42100,7 +42103,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42126,7 +42129,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42152,7 +42155,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42178,7 +42181,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42204,7 +42207,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42230,7 +42233,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42256,7 +42259,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42282,7 +42285,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42308,7 +42311,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42334,7 +42337,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42360,7 +42363,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42386,7 +42389,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42412,7 +42415,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42438,7 +42441,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42464,7 +42467,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42490,7 +42493,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42516,7 +42519,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42542,7 +42545,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42568,7 +42571,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42594,7 +42597,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42620,7 +42623,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42646,7 +42649,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42672,7 +42675,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42698,7 +42701,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42724,7 +42727,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42750,7 +42753,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42776,7 +42779,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42802,7 +42805,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42828,7 +42831,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42854,7 +42857,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42880,7 +42883,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42906,7 +42909,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42932,7 +42935,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42958,7 +42961,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42984,7 +42987,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43010,7 +43013,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43036,7 +43039,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43062,7 +43065,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43088,7 +43091,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43114,7 +43117,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43140,7 +43143,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43166,7 +43169,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43192,7 +43195,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43218,7 +43221,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43244,7 +43247,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43270,7 +43273,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43296,7 +43299,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43322,7 +43325,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43348,7 +43351,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43374,7 +43377,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43400,7 +43403,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43426,7 +43429,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43452,7 +43455,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43478,7 +43481,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43504,7 +43507,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43530,7 +43533,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43556,7 +43559,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43582,7 +43585,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43634,7 +43637,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43660,7 +43663,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43712,7 +43715,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43738,7 +43741,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43764,7 +43767,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43790,7 +43793,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43816,7 +43819,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43842,7 +43845,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43894,7 +43897,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43920,7 +43923,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43946,7 +43949,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43972,7 +43975,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43998,7 +44001,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44076,7 +44079,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44102,7 +44105,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44128,7 +44131,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44154,7 +44157,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44752,7 +44755,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45090,7 +45093,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45246,7 +45249,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45298,7 +45301,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45324,7 +45327,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45332,7 +45335,7 @@
     </row>
     <row r="1663">
       <c r="A1663" s="1" t="n">
-        <v>45453.6496180556</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B1663" t="n">
         <v>32398</v>
@@ -45350,9 +45353,35 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1663" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="1" t="n">
+        <v>45455.6496412037</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>28157</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>3.85999989509583</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>3.85999989509583</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1664" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,148 +44,148 @@
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729668617249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127455234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90763437747955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90399360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89307200908661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85909414291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394762992859</t>
+    <t xml:space="preserve">1.8772965669632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127479076385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9076339006424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90399372577667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89307188987732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85909342765808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394798755646</t>
   </si>
   <si>
     <t xml:space="preserve">1.8809369802475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86637496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84574520587921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84453153610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210467338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82268857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83239662647247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967769145966</t>
+    <t xml:space="preserve">1.86637485027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8457453250885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84453165531158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210479259491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82268846035004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83239686489105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967781066895</t>
   </si>
   <si>
     <t xml:space="preserve">1.8408910036087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83482336997986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695875644684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82511532306671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82875609397888</t>
+    <t xml:space="preserve">1.83482384681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.825115442276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82875621318817</t>
   </si>
   <si>
     <t xml:space="preserve">1.80934000015259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8336101770401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86273455619812</t>
+    <t xml:space="preserve">1.83360993862152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86273431777954</t>
   </si>
   <si>
     <t xml:space="preserve">1.87972354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86880159378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758863925934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030745506287</t>
+    <t xml:space="preserve">1.8688018321991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758816242218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030733585358</t>
   </si>
   <si>
     <t xml:space="preserve">1.86152100563049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89549911022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89913976192474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700449466705</t>
+    <t xml:space="preserve">1.89549887180328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89913940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700413703918</t>
   </si>
   <si>
     <t xml:space="preserve">1.85363292694092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85666704177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003825187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8779034614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486910820007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970044136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94768023490906</t>
+    <t xml:space="preserve">1.8566666841507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89610600471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790334224701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486946582794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970067977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94767999649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.91734218597412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92340981960297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161248207092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644357681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93554484844208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857884407043</t>
+    <t xml:space="preserve">1.9234094619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644381523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9355446100235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857848644257</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228762626648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97801792621613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97195017337799</t>
+    <t xml:space="preserve">1.97801756858826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9719500541687</t>
   </si>
   <si>
     <t xml:space="preserve">1.93251097202301</t>
@@ -200,43 +200,43 @@
     <t xml:space="preserve">2.02352404594421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02959156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835537910461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02049040794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01745629310608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01442265510559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99621999263763</t>
+    <t xml:space="preserve">2.02959179878235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0204906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01745653152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01442289352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99622011184692</t>
   </si>
   <si>
     <t xml:space="preserve">2.05082821846008</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10274767875671</t>
+    <t xml:space="preserve">2.10274744033813</t>
   </si>
   <si>
     <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301280975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407285690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486824989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784799575806</t>
+    <t xml:space="preserve">2.09301257133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407309532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784823417664</t>
   </si>
   <si>
     <t xml:space="preserve">2.0702977180481</t>
@@ -245,52 +245,55 @@
     <t xml:space="preserve">2.08652257919312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08976793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354331016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625792503357</t>
+    <t xml:space="preserve">2.08976769447327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354283332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625768661499</t>
   </si>
   <si>
     <t xml:space="preserve">2.01188826560974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96645832061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.998908162117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215339660645</t>
+    <t xml:space="preserve">1.96645867824554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215315818787</t>
   </si>
   <si>
     <t xml:space="preserve">1.98268330097198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02811312675476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98592853546143</t>
+    <t xml:space="preserve">2.02811336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98592829704285</t>
   </si>
   <si>
     <t xml:space="preserve">2.02162337303162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04109334945679</t>
+    <t xml:space="preserve">2.04109287261963</t>
   </si>
   <si>
     <t xml:space="preserve">2.04433822631836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05731821060181</t>
+    <t xml:space="preserve">2.05731773376465</t>
   </si>
   <si>
     <t xml:space="preserve">2.08003282546997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0605628490448</t>
+    <t xml:space="preserve">2.06056332588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0508279800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705284118652</t>
@@ -299,22 +302,22 @@
     <t xml:space="preserve">2.12870764732361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10599255561829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09950280189514</t>
+    <t xml:space="preserve">2.10599303245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09950304031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.10923767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04758310317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380820274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0767879486084</t>
+    <t xml:space="preserve">2.04758286476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380772590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07678771018982</t>
   </si>
   <si>
     <t xml:space="preserve">2.01513314247131</t>
@@ -323,31 +326,31 @@
     <t xml:space="preserve">2.11248254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13195252418518</t>
+    <t xml:space="preserve">2.13195300102234</t>
   </si>
   <si>
     <t xml:space="preserve">2.17413711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18387198448181</t>
+    <t xml:space="preserve">2.18387222290039</t>
   </si>
   <si>
     <t xml:space="preserve">2.14168739318848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18711686134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254680633545</t>
+    <t xml:space="preserve">2.18711733818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254704475403</t>
   </si>
   <si>
     <t xml:space="preserve">2.23579168319702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20658707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062710762024</t>
+    <t xml:space="preserve">2.20658731460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062734603882</t>
   </si>
   <si>
     <t xml:space="preserve">2.14493250846863</t>
@@ -359,7 +362,7 @@
     <t xml:space="preserve">2.17738223075867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23903656005859</t>
+    <t xml:space="preserve">2.23903703689575</t>
   </si>
   <si>
     <t xml:space="preserve">2.2260570526123</t>
@@ -368,82 +371,82 @@
     <t xml:space="preserve">2.16440224647522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16764712333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12221765518188</t>
+    <t xml:space="preserve">2.16764736175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12221741676331</t>
   </si>
   <si>
     <t xml:space="preserve">2.1384425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31367158889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.219566822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685220718384</t>
+    <t xml:space="preserve">2.31367182731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069184303284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307730674744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21956706047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685196876526</t>
   </si>
   <si>
     <t xml:space="preserve">2.1579122543335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14817762374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16115736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11897277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03135824203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01837825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241852760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460335731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746488571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11114764213562</t>
+    <t xml:space="preserve">2.1481773853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16115760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11897253990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03135800361633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01837778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746464729309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811518669128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1111478805542</t>
   </si>
   <si>
     <t xml:space="preserve">2.10418033599854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09024548530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02753806114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99270045757294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98573291301727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578629732132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392824172974</t>
+    <t xml:space="preserve">2.09024524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02753829956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99270033836365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98573303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786285400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392764568329</t>
   </si>
   <si>
     <t xml:space="preserve">1.92999303340912</t>
@@ -452,7 +455,7 @@
     <t xml:space="preserve">1.92302548885345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8394159078598</t>
+    <t xml:space="preserve">1.83941602706909</t>
   </si>
   <si>
     <t xml:space="preserve">1.88122069835663</t>
@@ -461,46 +464,46 @@
     <t xml:space="preserve">1.83244848251343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79064345359802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154608726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86728632450104</t>
+    <t xml:space="preserve">1.79064333438873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154572963715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335087776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8672856092453</t>
   </si>
   <si>
     <t xml:space="preserve">1.81851315498352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86031818389893</t>
+    <t xml:space="preserve">1.86031830310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.80457842350006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78367578983307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425315380096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515590667725</t>
+    <t xml:space="preserve">1.78367590904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425339221954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515578746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.88818824291229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90212333202362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638321399689</t>
+    <t xml:space="preserve">1.90212309360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909063816071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638333320618</t>
   </si>
   <si>
     <t xml:space="preserve">1.82548069953918</t>
@@ -509,31 +512,31 @@
     <t xml:space="preserve">1.7976108789444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77670860290527</t>
+    <t xml:space="preserve">1.77670836448669</t>
   </si>
   <si>
     <t xml:space="preserve">1.74883854389191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74187123775482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490345478058</t>
+    <t xml:space="preserve">1.74187111854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490357398987</t>
   </si>
   <si>
     <t xml:space="preserve">1.75580620765686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72793591022491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76277339458466</t>
+    <t xml:space="preserve">1.72793614864349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76277363300323</t>
   </si>
   <si>
     <t xml:space="preserve">1.97179794311523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02057027816772</t>
+    <t xml:space="preserve">2.0205705165863</t>
   </si>
   <si>
     <t xml:space="preserve">2.01360297203064</t>
@@ -545,37 +548,37 @@
     <t xml:space="preserve">1.9787654876709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93696069717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483051776886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974081993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432632923126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219603061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981399536133</t>
+    <t xml:space="preserve">1.93696057796478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483016014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089542865753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76974093914032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432597160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51891160011292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096884250641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981411457062</t>
   </si>
   <si>
     <t xml:space="preserve">1.56071650981903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47013914585114</t>
+    <t xml:space="preserve">1.47013926506042</t>
   </si>
   <si>
     <t xml:space="preserve">1.44923663139343</t>
@@ -584,22 +587,22 @@
     <t xml:space="preserve">1.47710657119751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48407411575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42833423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44226932525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43530166149139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104166030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50497663021088</t>
+    <t xml:space="preserve">1.48407447338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42833411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44226920604706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4353015422821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104177951813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50497651100159</t>
   </si>
   <si>
     <t xml:space="preserve">1.46317172050476</t>
@@ -608,13 +611,13 @@
     <t xml:space="preserve">1.4980092048645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59555375576019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5467814207077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55374896526337</t>
+    <t xml:space="preserve">1.5955536365509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54678153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55374884605408</t>
   </si>
   <si>
     <t xml:space="preserve">1.62342369556427</t>
@@ -632,76 +635,73 @@
     <t xml:space="preserve">1.60252118110657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60948896408081</t>
+    <t xml:space="preserve">1.60948872566223</t>
   </si>
   <si>
     <t xml:space="preserve">1.58858633041382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7070335149765</t>
+    <t xml:space="preserve">1.70703375339508</t>
   </si>
   <si>
     <t xml:space="preserve">1.56768393516541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6164562702179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68613159656525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605830192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06839752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00887489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84518909454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310691356659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8228679895401</t>
+    <t xml:space="preserve">1.61645615100861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68613111972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605818271637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06839728355408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00887513160706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84518897533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8303085565567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310703277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82286810874939</t>
   </si>
   <si>
     <t xml:space="preserve">1.80054712295532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78566658496857</t>
+    <t xml:space="preserve">1.78566670417786</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846518039703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83774876594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542789936066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262930393219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798745155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86006951332092</t>
+    <t xml:space="preserve">1.83774888515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542766094208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8526291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798733234406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86006963253021</t>
   </si>
   <si>
     <t xml:space="preserve">1.87494993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88983082771301</t>
+    <t xml:space="preserve">1.88983047008514</t>
   </si>
   <si>
     <t xml:space="preserve">1.7707861661911</t>
@@ -710,127 +710,127 @@
     <t xml:space="preserve">1.73358464241028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69638335704803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68894326686859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70382368564606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71870422363281</t>
+    <t xml:space="preserve">1.69638347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68894302845001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70382344722748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71870410442352</t>
   </si>
   <si>
     <t xml:space="preserve">1.72614419460297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71126401424408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75590538978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7633455991745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7410249710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66662240028381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68150293827057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77822637557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67406260967255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65918207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174150466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64430141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63686108589172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62942087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6071001291275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61454033851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221947193146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57733881473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51781666278839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48061525821686</t>
+    <t xml:space="preserve">1.71126365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75590550899506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76334571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74102509021759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66662228107452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150281906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77822661399841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67406249046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65918183326721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174186229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64430165290833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63686120510101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62942099571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60710000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61454021930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221959114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57733869552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781678199768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48061537742615</t>
   </si>
   <si>
     <t xml:space="preserve">1.4954959154129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48805558681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47317516803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46945488452911</t>
+    <t xml:space="preserve">1.48805546760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47317492961884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46945476531982</t>
   </si>
   <si>
     <t xml:space="preserve">1.86750972270966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93447244167328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167384624481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935250282288</t>
+    <t xml:space="preserve">1.93447208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167360782623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935274124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.94191241264343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92703211307526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9642333984375</t>
+    <t xml:space="preserve">1.92703187465668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96423363685608</t>
   </si>
   <si>
     <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99399447441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95679306983948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00143456459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03119564056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06095719337463</t>
+    <t xml:space="preserve">1.99399471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95679330825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00143504142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03119587898254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06095671653748</t>
   </si>
   <si>
     <t xml:space="preserve">2.07583737373352</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">2.10559844970703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1279194355011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14280033111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11303901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04607629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12047934532166</t>
+    <t xml:space="preserve">2.12791895866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14279985427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11303877830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04607653617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12047910690308</t>
   </si>
   <si>
     <t xml:space="preserve">2.09815835952759</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">2.18744158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22464299201965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21720266342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23952341079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20976257324219</t>
+    <t xml:space="preserve">2.22464323043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21720290184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2395236492157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20976281166077</t>
   </si>
   <si>
     <t xml:space="preserve">2.20232224464417</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">2.23208332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24696373939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25440406799316</t>
+    <t xml:space="preserve">2.24696397781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25440454483032</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184463500977</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">2.28492450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31569790840149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26953768730164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32339096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29261755943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031108856201</t>
+    <t xml:space="preserve">2.31569814682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26953792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32339119911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29261803627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031132698059</t>
   </si>
   <si>
     <t xml:space="preserve">2.30800461769104</t>
@@ -923,37 +923,37 @@
     <t xml:space="preserve">2.36185812950134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41571140289307</t>
+    <t xml:space="preserve">2.41571164131165</t>
   </si>
   <si>
     <t xml:space="preserve">2.39263129234314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44648504257202</t>
+    <t xml:space="preserve">2.44648456573486</t>
   </si>
   <si>
     <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43879175186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4080183506012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38493824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42340469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109846115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40032458305359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4772584438324</t>
+    <t xml:space="preserve">2.43879151344299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40801811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38493800163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42340493202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109822273254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40032482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47725820541382</t>
   </si>
   <si>
     <t xml:space="preserve">2.46187162399292</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">2.48495149612427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49264454841614</t>
+    <t xml:space="preserve">2.49264478683472</t>
   </si>
   <si>
     <t xml:space="preserve">2.50803160667419</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">2.53111171722412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50033807754517</t>
+    <t xml:space="preserve">2.50033831596375</t>
   </si>
   <si>
     <t xml:space="preserve">2.56957840919495</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">2.5772716999054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58496499061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6003520488739</t>
+    <t xml:space="preserve">2.58496522903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60035228729248</t>
   </si>
   <si>
     <t xml:space="preserve">2.60804533958435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65420532226562</t>
+    <t xml:space="preserve">2.6542055606842</t>
   </si>
   <si>
     <t xml:space="preserve">2.63881850242615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70805859565735</t>
+    <t xml:space="preserve">2.70805883407593</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344541549683</t>
@@ -1013,34 +1013,34 @@
     <t xml:space="preserve">2.80037903785706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76960515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77729892730713</t>
+    <t xml:space="preserve">2.7696053981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77729868888855</t>
   </si>
   <si>
     <t xml:space="preserve">2.85423231124878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84653902053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83115243911743</t>
+    <t xml:space="preserve">2.84653925895691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83115220069885</t>
   </si>
   <si>
     <t xml:space="preserve">2.86192560195923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80807209014893</t>
+    <t xml:space="preserve">2.8080723285675</t>
   </si>
   <si>
     <t xml:space="preserve">2.81576561927795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83884572982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87731242179871</t>
+    <t xml:space="preserve">2.8388454914093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87731218338013</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.93116569519043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92347264289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95424580574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94655251502991</t>
+    <t xml:space="preserve">2.92347240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95424604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94655275344849</t>
   </si>
   <si>
     <t xml:space="preserve">2.91577935218811</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">2.93885898590088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9080855846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96276879310608</t>
+    <t xml:space="preserve">2.90808582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9627685546875</t>
   </si>
   <si>
     <t xml:space="preserve">2.9390664100647</t>
@@ -1076,28 +1076,28 @@
     <t xml:space="preserve">3.00227212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04967617988586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1049816608429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08127927780151</t>
+    <t xml:space="preserve">3.04967641830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10498142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08127951622009</t>
   </si>
   <si>
     <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177594184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07337856292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01807379722595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95486807823181</t>
+    <t xml:space="preserve">3.04177570343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07337880134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01807355880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95486783981323</t>
   </si>
   <si>
     <t xml:space="preserve">2.98647093772888</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.92326521873474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94696736335754</t>
+    <t xml:space="preserve">2.94696712493896</t>
   </si>
   <si>
     <t xml:space="preserve">2.97856998443604</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">2.97066926956177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01017308235168</t>
+    <t xml:space="preserve">3.01017284393311</t>
   </si>
   <si>
     <t xml:space="preserve">3.06547808647156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02597427368164</t>
+    <t xml:space="preserve">3.02597451210022</t>
   </si>
   <si>
     <t xml:space="preserve">3.03387498855591</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.99437165260315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85215878486633</t>
+    <t xml:space="preserve">2.85215854644775</t>
   </si>
   <si>
     <t xml:space="preserve">2.84425783157349</t>
@@ -1139,28 +1139,28 @@
     <t xml:space="preserve">2.89166235923767</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11288237571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83635687828064</t>
+    <t xml:space="preserve">3.11288213729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83635711669922</t>
   </si>
   <si>
     <t xml:space="preserve">2.77315139770508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74944949150085</t>
+    <t xml:space="preserve">2.74944925308228</t>
   </si>
   <si>
     <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51242804527283</t>
+    <t xml:space="preserve">2.51242756843567</t>
   </si>
   <si>
     <t xml:space="preserve">2.41761922836304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46502351760864</t>
+    <t xml:space="preserve">2.46502327919006</t>
   </si>
   <si>
     <t xml:space="preserve">2.60723638534546</t>
@@ -1175,25 +1175,25 @@
     <t xml:space="preserve">2.8837616443634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75735020637512</t>
+    <t xml:space="preserve">2.75734996795654</t>
   </si>
   <si>
     <t xml:space="preserve">2.89956307411194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12868356704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14448499679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769095420837</t>
+    <t xml:space="preserve">3.1286838054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14448523521423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769071578979</t>
   </si>
   <si>
     <t xml:space="preserve">3.19188928604126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22349238395691</t>
+    <t xml:space="preserve">3.22349214553833</t>
   </si>
   <si>
     <t xml:space="preserve">3.19979047775269</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">3.16028666496277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09708070755005</t>
+    <t xml:space="preserve">3.09708094596863</t>
   </si>
   <si>
     <t xml:space="preserve">3.23139333724976</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">3.13658452033997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15238571166992</t>
+    <t xml:space="preserve">3.1523859500885</t>
   </si>
   <si>
     <t xml:space="preserve">3.1760880947113</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">3.27586030960083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24260282516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20103120803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13451623916626</t>
+    <t xml:space="preserve">3.24260306358337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20103096961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13451600074768</t>
   </si>
   <si>
     <t xml:space="preserve">3.15945911407471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00980067253113</t>
+    <t xml:space="preserve">3.00980043411255</t>
   </si>
   <si>
     <t xml:space="preserve">2.893399477005</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">2.92665696144104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9599142074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93497157096863</t>
+    <t xml:space="preserve">2.95991444587708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93497133255005</t>
   </si>
   <si>
     <t xml:space="preserve">2.86014199256897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87677097320557</t>
+    <t xml:space="preserve">2.87677073478699</t>
   </si>
   <si>
     <t xml:space="preserve">2.86845660209656</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">2.8102560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88508534431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83519887924194</t>
+    <t xml:space="preserve">2.885085105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83519911766052</t>
   </si>
   <si>
     <t xml:space="preserve">2.78531265258789</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.74374079704285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76868391036987</t>
+    <t xml:space="preserve">2.76868414878845</t>
   </si>
   <si>
     <t xml:space="preserve">2.76036953926086</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">2.8185703754425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67722630500793</t>
+    <t xml:space="preserve">2.67722582817078</t>
   </si>
   <si>
     <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64396858215332</t>
+    <t xml:space="preserve">2.64396834373474</t>
   </si>
   <si>
     <t xml:space="preserve">2.66059732437134</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">2.69385457038879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94328594207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02642917633057</t>
+    <t xml:space="preserve">2.94328570365906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02642941474915</t>
   </si>
   <si>
     <t xml:space="preserve">3.04305815696716</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">3.05968689918518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06800127029419</t>
+    <t xml:space="preserve">3.06800103187561</t>
   </si>
   <si>
     <t xml:space="preserve">3.05137252807617</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10957312583923</t>
+    <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
     <t xml:space="preserve">3.13555812835693</t>
@@ -1391,15 +1391,12 @@
     <t xml:space="preserve">3.22217583656311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19619083404541</t>
+    <t xml:space="preserve">3.19619059562683</t>
   </si>
   <si>
     <t xml:space="preserve">3.11823463439941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10957288742065</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.15288186073303</t>
   </si>
   <si>
@@ -1412,10 +1409,10 @@
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682306289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23083782196045</t>
+    <t xml:space="preserve">3.25682282447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23083758354187</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611703872681</t>
@@ -1424,7 +1421,7 @@
     <t xml:space="preserve">3.35210227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34344029426575</t>
+    <t xml:space="preserve">3.34344053268433</t>
   </si>
   <si>
     <t xml:space="preserve">3.27414655685425</t>
@@ -1433,10 +1430,10 @@
     <t xml:space="preserve">3.30879354476929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23949956893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280830383301</t>
+    <t xml:space="preserve">3.23949933052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280854225159</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1454,7 +1451,7 @@
     <t xml:space="preserve">3.3867495059967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39541125297546</t>
+    <t xml:space="preserve">3.39541149139404</t>
   </si>
   <si>
     <t xml:space="preserve">3.36076426506042</t>
@@ -1463,7 +1460,7 @@
     <t xml:space="preserve">3.42139649391174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36942577362061</t>
+    <t xml:space="preserve">3.36942601203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.31745553016663</t>
@@ -1475,13 +1472,13 @@
     <t xml:space="preserve">3.43871998786926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4300582408905</t>
+    <t xml:space="preserve">3.43005847930908</t>
   </si>
   <si>
     <t xml:space="preserve">3.41273474693298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40407276153564</t>
+    <t xml:space="preserve">3.40407299995422</t>
   </si>
   <si>
     <t xml:space="preserve">3.44738173484802</t>
@@ -1493,16 +1490,16 @@
     <t xml:space="preserve">3.48386192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45650172233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41090154647827</t>
+    <t xml:space="preserve">3.45650196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41090130805969</t>
   </si>
   <si>
     <t xml:space="preserve">3.42002153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43826174736023</t>
+    <t xml:space="preserve">3.43826150894165</t>
   </si>
   <si>
     <t xml:space="preserve">3.38354134559631</t>
@@ -1514,19 +1511,19 @@
     <t xml:space="preserve">3.39266133308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40178155899048</t>
+    <t xml:space="preserve">3.4017813205719</t>
   </si>
   <si>
     <t xml:space="preserve">3.35618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36530137062073</t>
+    <t xml:space="preserve">3.36530113220215</t>
   </si>
   <si>
     <t xml:space="preserve">3.34706115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42914175987244</t>
+    <t xml:space="preserve">3.42914152145386</t>
   </si>
   <si>
     <t xml:space="preserve">3.33794116973877</t>
@@ -1550,13 +1547,13 @@
     <t xml:space="preserve">3.28322052955627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26498031616211</t>
+    <t xml:space="preserve">3.26498055458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.22850036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25586032867432</t>
+    <t xml:space="preserve">3.2558605670929</t>
   </si>
   <si>
     <t xml:space="preserve">3.27410054206848</t>
@@ -1577,13 +1574,13 @@
     <t xml:space="preserve">3.10993981361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10081958770752</t>
+    <t xml:space="preserve">3.1008198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.11905980110168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07345914840698</t>
+    <t xml:space="preserve">3.07345938682556</t>
   </si>
   <si>
     <t xml:space="preserve">3.16465997695923</t>
@@ -1598,10 +1595,10 @@
     <t xml:space="preserve">3.23762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1737802028656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026039123535</t>
+    <t xml:space="preserve">3.17377996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026015281677</t>
   </si>
   <si>
     <t xml:space="preserve">3.21938037872314</t>
@@ -5937,7 +5934,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5989,7 +5986,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G149" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6145,7 +6142,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6171,7 +6168,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G156" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6223,7 +6220,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G158" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6249,7 +6246,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G159" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6431,7 +6428,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6483,7 +6480,7 @@
         <v>3.25</v>
       </c>
       <c r="G168" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6509,7 +6506,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G169" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6665,7 +6662,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6691,7 +6688,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G176" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6743,7 +6740,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G178" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6769,7 +6766,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G179" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6795,7 +6792,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G180" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6821,7 +6818,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G181" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6847,7 +6844,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G182" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6873,7 +6870,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G183" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6899,7 +6896,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G184" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6951,7 +6948,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G186" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6977,7 +6974,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G187" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7003,7 +7000,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7029,7 +7026,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7055,7 +7052,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G190" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7107,7 +7104,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G192" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7263,7 +7260,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G198" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7367,7 +7364,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G202" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7393,7 +7390,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G203" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7445,7 +7442,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G205" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7497,7 +7494,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G207" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7523,7 +7520,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7549,7 +7546,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7575,7 +7572,7 @@
         <v>3.25</v>
       </c>
       <c r="G210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7627,7 +7624,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7653,7 +7650,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G213" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7679,7 +7676,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G214" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7705,7 +7702,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G215" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7731,7 +7728,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G216" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7757,7 +7754,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G217" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7783,7 +7780,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G218" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7809,7 +7806,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G219" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7835,7 +7832,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G220" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7861,7 +7858,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G221" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7887,7 +7884,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G222" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7913,7 +7910,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G223" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7939,7 +7936,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7965,7 +7962,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G225" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7991,7 +7988,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G226" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8017,7 +8014,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8043,7 +8040,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G228" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8069,7 +8066,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G229" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8095,7 +8092,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G230" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8121,7 +8118,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G231" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8147,7 +8144,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G232" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8173,7 +8170,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G233" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8199,7 +8196,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G234" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8225,7 +8222,7 @@
         <v>3.25</v>
       </c>
       <c r="G235" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8251,7 +8248,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8277,7 +8274,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G237" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8303,7 +8300,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G238" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8329,7 +8326,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G239" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8355,7 +8352,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8381,7 +8378,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G241" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8407,7 +8404,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G242" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8433,7 +8430,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G243" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8459,7 +8456,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G244" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8485,7 +8482,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G245" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8511,7 +8508,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G246" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8537,7 +8534,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G247" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8563,7 +8560,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G248" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8589,7 +8586,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G249" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8615,7 +8612,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G250" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8641,7 +8638,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G251" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8667,7 +8664,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G252" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8693,7 +8690,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8719,7 +8716,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G254" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8745,7 +8742,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8771,7 +8768,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G256" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8797,7 +8794,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G257" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8823,7 +8820,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G258" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8849,7 +8846,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G259" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8875,7 +8872,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G260" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8901,7 +8898,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G261" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8927,7 +8924,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G262" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8953,7 +8950,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G263" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8979,7 +8976,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G264" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9005,7 +9002,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G265" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9031,7 +9028,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G266" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9057,7 +9054,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G267" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9083,7 +9080,7 @@
         <v>3.25</v>
       </c>
       <c r="G268" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9109,7 +9106,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G269" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9135,7 +9132,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G270" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9161,7 +9158,7 @@
         <v>3.25</v>
       </c>
       <c r="G271" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9187,7 +9184,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G272" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9213,7 +9210,7 @@
         <v>3.25</v>
       </c>
       <c r="G273" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9291,7 +9288,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G276" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9317,7 +9314,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9473,7 +9470,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G283" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9811,7 +9808,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9837,7 +9834,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G297" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9863,7 +9860,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9993,7 +9990,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G303" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10045,7 +10042,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G305" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10123,7 +10120,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G308" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10175,7 +10172,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G310" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10201,7 +10198,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G311" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10253,7 +10250,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G313" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10305,7 +10302,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G315" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10331,7 +10328,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G316" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10357,7 +10354,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G317" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10383,7 +10380,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G318" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10513,7 +10510,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G323" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10539,7 +10536,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10565,7 +10562,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10591,7 +10588,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G326" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10643,7 +10640,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G328" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10695,7 +10692,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G330" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10721,7 +10718,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G331" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10773,7 +10770,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G333" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10799,7 +10796,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G334" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10825,7 +10822,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G335" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10851,7 +10848,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G336" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10903,7 +10900,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G338" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10929,7 +10926,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G339" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10981,7 +10978,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G341" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11033,7 +11030,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G343" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11137,7 +11134,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G347" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11189,7 +11186,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11241,7 +11238,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G351" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11267,7 +11264,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G352" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11293,7 +11290,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11319,7 +11316,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G354" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11345,7 +11342,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G355" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11397,7 +11394,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G357" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11423,7 +11420,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G358" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11475,7 +11472,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G360" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11501,7 +11498,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G361" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11553,7 +11550,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G363" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11579,7 +11576,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G364" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11605,7 +11602,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G365" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11631,7 +11628,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11657,7 +11654,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11683,7 +11680,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G368" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11709,7 +11706,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G369" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11735,7 +11732,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G370" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11761,7 +11758,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G371" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11787,7 +11784,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G372" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11813,7 +11810,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G373" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11839,7 +11836,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G374" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11865,7 +11862,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G375" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11891,7 +11888,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G376" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11917,7 +11914,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G377" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11943,7 +11940,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G378" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11969,7 +11966,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G379" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11995,7 +11992,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G380" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12021,7 +12018,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G381" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12047,7 +12044,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G382" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12073,7 +12070,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G383" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12099,7 +12096,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G384" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12125,7 +12122,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G385" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12151,7 +12148,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G386" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12177,7 +12174,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G387" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12203,7 +12200,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G388" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12229,7 +12226,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12255,7 +12252,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G390" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12281,7 +12278,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G391" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12307,7 +12304,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G392" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12333,7 +12330,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G393" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12359,7 +12356,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G394" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12385,7 +12382,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G395" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12411,7 +12408,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G396" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12437,7 +12434,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12463,7 +12460,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G398" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12489,7 +12486,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G399" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12515,7 +12512,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G400" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12541,7 +12538,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G401" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12567,7 +12564,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G402" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12593,7 +12590,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G403" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12619,7 +12616,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12645,7 +12642,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G405" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12671,7 +12668,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G406" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12697,7 +12694,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G407" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12723,7 +12720,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G408" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12749,7 +12746,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12775,7 +12772,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G410" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12801,7 +12798,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G411" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12827,7 +12824,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G412" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12853,7 +12850,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G413" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12879,7 +12876,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G414" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12905,7 +12902,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G415" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12931,7 +12928,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G416" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12957,7 +12954,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G417" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12983,7 +12980,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13009,7 +13006,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G419" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13035,7 +13032,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G420" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13061,7 +13058,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13087,7 +13084,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G422" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13113,7 +13110,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G423" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13139,7 +13136,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G424" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13165,7 +13162,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G425" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13191,7 +13188,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G426" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13217,7 +13214,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G427" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13243,7 +13240,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G428" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13269,7 +13266,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G429" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13295,7 +13292,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G430" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13321,7 +13318,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G431" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13347,7 +13344,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G432" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13373,7 +13370,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G433" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13399,7 +13396,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G434" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13425,7 +13422,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G435" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13451,7 +13448,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G436" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13477,7 +13474,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G437" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13503,7 +13500,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G438" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13529,7 +13526,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G439" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13555,7 +13552,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G440" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13581,7 +13578,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G441" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13607,7 +13604,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G442" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13633,7 +13630,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G443" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13659,7 +13656,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G444" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13685,7 +13682,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G445" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13711,7 +13708,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13737,7 +13734,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G447" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13763,7 +13760,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G448" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13789,7 +13786,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G449" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13815,7 +13812,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G450" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13841,7 +13838,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G451" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13867,7 +13864,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13893,7 +13890,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G453" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13919,7 +13916,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G454" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13945,7 +13942,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G455" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13971,7 +13968,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G456" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13997,7 +13994,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G457" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14023,7 +14020,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G458" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14049,7 +14046,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14075,7 +14072,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G460" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14101,7 +14098,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G461" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14127,7 +14124,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14153,7 +14150,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G463" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14179,7 +14176,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G464" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14205,7 +14202,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14231,7 +14228,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G466" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14257,7 +14254,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14283,7 +14280,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G468" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14309,7 +14306,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G469" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14335,7 +14332,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G470" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14361,7 +14358,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14387,7 +14384,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G472" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14413,7 +14410,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G473" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14439,7 +14436,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14465,7 +14462,7 @@
         <v>2.5</v>
       </c>
       <c r="G475" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14491,7 +14488,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G476" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14517,7 +14514,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G477" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14543,7 +14540,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G478" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14569,7 +14566,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G479" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14595,7 +14592,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G480" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14621,7 +14618,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G481" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14647,7 +14644,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G482" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14673,7 +14670,7 @@
         <v>2.5</v>
       </c>
       <c r="G483" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14699,7 +14696,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G484" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14725,7 +14722,7 @@
         <v>2.5</v>
       </c>
       <c r="G485" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14751,7 +14748,7 @@
         <v>2.5</v>
       </c>
       <c r="G486" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14777,7 +14774,7 @@
         <v>2.5</v>
       </c>
       <c r="G487" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14803,7 +14800,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G488" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14829,7 +14826,7 @@
         <v>2.5</v>
       </c>
       <c r="G489" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14855,7 +14852,7 @@
         <v>2.5</v>
       </c>
       <c r="G490" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14881,7 +14878,7 @@
         <v>2.5</v>
       </c>
       <c r="G491" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14907,7 +14904,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G492" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14933,7 +14930,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G493" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14959,7 +14956,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G494" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14985,7 +14982,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G495" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15011,7 +15008,7 @@
         <v>2.5</v>
       </c>
       <c r="G496" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15037,7 +15034,7 @@
         <v>2.5</v>
       </c>
       <c r="G497" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15063,7 +15060,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G498" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15089,7 +15086,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G499" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15115,7 +15112,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G500" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15141,7 +15138,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G501" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15167,7 +15164,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G502" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15193,7 +15190,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G503" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15219,7 +15216,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G504" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15245,7 +15242,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15271,7 +15268,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15297,7 +15294,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G507" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15323,7 +15320,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G508" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15349,7 +15346,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G509" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15375,7 +15372,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G510" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15401,7 +15398,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15427,7 +15424,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15453,7 +15450,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G513" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15479,7 +15476,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15505,7 +15502,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15531,7 +15528,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G516" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15557,7 +15554,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G517" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15583,7 +15580,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G518" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15609,7 +15606,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15635,7 +15632,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15661,7 +15658,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G521" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15687,7 +15684,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G522" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15713,7 +15710,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G523" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15739,7 +15736,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G524" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15765,7 +15762,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G525" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15791,7 +15788,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G526" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15817,7 +15814,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G527" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15843,7 +15840,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15869,7 +15866,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15895,7 +15892,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G530" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15921,7 +15918,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G531" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15947,7 +15944,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G532" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15973,7 +15970,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G533" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15999,7 +15996,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16025,7 +16022,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G535" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16051,7 +16048,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G536" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16077,7 +16074,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G537" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16103,7 +16100,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G538" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16129,7 +16126,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G539" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16155,7 +16152,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G540" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16181,7 +16178,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G541" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16207,7 +16204,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16233,7 +16230,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G543" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16259,7 +16256,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16285,7 +16282,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G545" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16311,7 +16308,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G546" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16337,7 +16334,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G547" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16363,7 +16360,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G548" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16389,7 +16386,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G549" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16415,7 +16412,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G550" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16441,7 +16438,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G551" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16467,7 +16464,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G552" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16493,7 +16490,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G553" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16519,7 +16516,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G554" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16545,7 +16542,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G555" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16571,7 +16568,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G556" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16597,7 +16594,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G557" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16623,7 +16620,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G558" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16649,7 +16646,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G559" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16675,7 +16672,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G560" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16701,7 +16698,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16727,7 +16724,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G562" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16753,7 +16750,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G563" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16779,7 +16776,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G564" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16805,7 +16802,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G565" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16831,7 +16828,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G566" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16857,7 +16854,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G567" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16883,7 +16880,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16909,7 +16906,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G569" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16935,7 +16932,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G570" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16961,7 +16958,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16987,7 +16984,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17013,7 +17010,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G573" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17039,7 +17036,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G574" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17065,7 +17062,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G575" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17091,7 +17088,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17117,7 +17114,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17143,7 +17140,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G578" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17169,7 +17166,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G579" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17195,7 +17192,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G580" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17221,7 +17218,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17247,7 +17244,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G582" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17273,7 +17270,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17299,7 +17296,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17325,7 +17322,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G585" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17351,7 +17348,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G586" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17377,7 +17374,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17403,7 +17400,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G588" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17429,7 +17426,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G589" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17455,7 +17452,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G590" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17481,7 +17478,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G591" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17507,7 +17504,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G592" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17533,7 +17530,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G593" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17559,7 +17556,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G594" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17585,7 +17582,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G595" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17611,7 +17608,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G596" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17637,7 +17634,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G597" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17663,7 +17660,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G598" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17689,7 +17686,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G599" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17715,7 +17712,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G600" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17741,7 +17738,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17767,7 +17764,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G602" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17793,7 +17790,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17819,7 +17816,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G604" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17845,7 +17842,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G605" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17871,7 +17868,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G606" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17897,7 +17894,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17923,7 +17920,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G608" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17949,7 +17946,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G609" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17975,7 +17972,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18001,7 +17998,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18027,7 +18024,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G612" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18053,7 +18050,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G613" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18079,7 +18076,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G614" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18105,7 +18102,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G615" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18131,7 +18128,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G616" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18157,7 +18154,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G617" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18183,7 +18180,7 @@
         <v>2.25</v>
       </c>
       <c r="G618" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18209,7 +18206,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G619" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18235,7 +18232,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G620" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18261,7 +18258,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G621" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18287,7 +18284,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G622" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18313,7 +18310,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18339,7 +18336,7 @@
         <v>2.25</v>
       </c>
       <c r="G624" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18365,7 +18362,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18391,7 +18388,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18417,7 +18414,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G627" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18443,7 +18440,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G628" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18469,7 +18466,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G629" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18495,7 +18492,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G630" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18521,7 +18518,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G631" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18547,7 +18544,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18573,7 +18570,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G633" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18599,7 +18596,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G634" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18625,7 +18622,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G635" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18651,7 +18648,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18677,7 +18674,7 @@
         <v>2.75</v>
       </c>
       <c r="G637" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18703,7 +18700,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18729,7 +18726,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -23461,7 +23458,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23513,7 +23510,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23539,7 +23536,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -35499,7 +35496,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35551,7 +35548,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35577,7 +35574,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35655,7 +35652,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35759,7 +35756,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35837,7 +35834,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35915,7 +35912,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35941,7 +35938,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35967,7 +35964,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35993,7 +35990,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36019,7 +36016,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36045,7 +36042,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36071,7 +36068,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36097,7 +36094,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36123,7 +36120,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36175,7 +36172,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36201,7 +36198,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36227,7 +36224,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36253,7 +36250,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36279,7 +36276,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36383,7 +36380,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36409,7 +36406,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36435,7 +36432,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36461,7 +36458,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36487,7 +36484,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36513,7 +36510,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36539,7 +36536,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36565,7 +36562,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36591,7 +36588,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36617,7 +36614,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36643,7 +36640,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36669,7 +36666,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36695,7 +36692,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36721,7 +36718,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36747,7 +36744,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36773,7 +36770,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36799,7 +36796,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36825,7 +36822,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36851,7 +36848,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36877,7 +36874,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36903,7 +36900,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36929,7 +36926,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36955,7 +36952,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36981,7 +36978,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37007,7 +37004,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37033,7 +37030,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37059,7 +37056,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37085,7 +37082,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37111,7 +37108,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37137,7 +37134,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37189,7 +37186,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37215,7 +37212,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37241,7 +37238,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37267,7 +37264,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37293,7 +37290,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37319,7 +37316,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37345,7 +37342,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37371,7 +37368,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37397,7 +37394,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37423,7 +37420,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37449,7 +37446,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37475,7 +37472,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37501,7 +37498,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37527,7 +37524,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37553,7 +37550,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37579,7 +37576,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37605,7 +37602,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37631,7 +37628,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37657,7 +37654,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37683,7 +37680,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37709,7 +37706,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37735,7 +37732,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37761,7 +37758,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37787,7 +37784,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37813,7 +37810,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37839,7 +37836,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37865,7 +37862,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37891,7 +37888,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37917,7 +37914,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37943,7 +37940,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37969,7 +37966,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37995,7 +37992,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38021,7 +38018,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38047,7 +38044,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38073,7 +38070,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38099,7 +38096,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38125,7 +38122,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38151,7 +38148,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38177,7 +38174,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38203,7 +38200,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38229,7 +38226,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38255,7 +38252,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38281,7 +38278,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38307,7 +38304,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38333,7 +38330,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38359,7 +38356,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38385,7 +38382,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38411,7 +38408,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38437,7 +38434,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38463,7 +38460,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38489,7 +38486,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38515,7 +38512,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38541,7 +38538,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38567,7 +38564,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38593,7 +38590,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38619,7 +38616,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38645,7 +38642,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38671,7 +38668,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38697,7 +38694,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38723,7 +38720,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38749,7 +38746,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38775,7 +38772,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38801,7 +38798,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38827,7 +38824,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38853,7 +38850,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38879,7 +38876,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38905,7 +38902,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38931,7 +38928,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38957,7 +38954,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38983,7 +38980,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39009,7 +39006,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39035,7 +39032,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39061,7 +39058,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39087,7 +39084,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39113,7 +39110,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39139,7 +39136,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39165,7 +39162,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39191,7 +39188,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39217,7 +39214,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39243,7 +39240,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39269,7 +39266,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39295,7 +39292,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39321,7 +39318,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39347,7 +39344,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39373,7 +39370,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39399,7 +39396,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39425,7 +39422,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39451,7 +39448,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39477,7 +39474,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39503,7 +39500,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39529,7 +39526,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39555,7 +39552,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39581,7 +39578,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39607,7 +39604,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39633,7 +39630,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39659,7 +39656,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39685,7 +39682,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39711,7 +39708,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39737,7 +39734,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39763,7 +39760,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39789,7 +39786,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39815,7 +39812,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39841,7 +39838,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39867,7 +39864,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39893,7 +39890,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39919,7 +39916,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39945,7 +39942,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39971,7 +39968,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39997,7 +39994,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40023,7 +40020,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40049,7 +40046,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40075,7 +40072,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40101,7 +40098,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40127,7 +40124,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40153,7 +40150,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40179,7 +40176,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40205,7 +40202,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40231,7 +40228,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40257,7 +40254,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40283,7 +40280,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40309,7 +40306,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40335,7 +40332,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40361,7 +40358,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40387,7 +40384,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40413,7 +40410,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40439,7 +40436,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40465,7 +40462,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40491,7 +40488,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40517,7 +40514,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40543,7 +40540,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40569,7 +40566,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40595,7 +40592,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40621,7 +40618,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40647,7 +40644,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40673,7 +40670,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40699,7 +40696,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40725,7 +40722,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40751,7 +40748,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40777,7 +40774,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40803,7 +40800,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40829,7 +40826,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40855,7 +40852,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40881,7 +40878,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40907,7 +40904,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40933,7 +40930,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40959,7 +40956,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40985,7 +40982,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41011,7 +41008,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41037,7 +41034,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41063,7 +41060,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41089,7 +41086,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41115,7 +41112,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41141,7 +41138,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41167,7 +41164,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41193,7 +41190,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41219,7 +41216,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41245,7 +41242,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41271,7 +41268,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41297,7 +41294,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41323,7 +41320,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41349,7 +41346,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41375,7 +41372,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41401,7 +41398,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41427,7 +41424,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41453,7 +41450,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41479,7 +41476,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41505,7 +41502,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41531,7 +41528,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41557,7 +41554,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41583,7 +41580,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41609,7 +41606,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41635,7 +41632,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41661,7 +41658,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41687,7 +41684,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41713,7 +41710,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41739,7 +41736,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41765,7 +41762,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41791,7 +41788,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41817,7 +41814,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41843,7 +41840,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41869,7 +41866,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41895,7 +41892,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41921,7 +41918,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41947,7 +41944,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41973,7 +41970,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41999,7 +41996,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42025,7 +42022,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42051,7 +42048,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42077,7 +42074,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42103,7 +42100,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42129,7 +42126,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42155,7 +42152,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42181,7 +42178,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42207,7 +42204,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42233,7 +42230,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42259,7 +42256,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42285,7 +42282,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42311,7 +42308,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42337,7 +42334,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42363,7 +42360,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42389,7 +42386,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42415,7 +42412,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42441,7 +42438,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42467,7 +42464,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42493,7 +42490,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42519,7 +42516,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42545,7 +42542,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42571,7 +42568,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42597,7 +42594,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42623,7 +42620,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42649,7 +42646,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42675,7 +42672,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42701,7 +42698,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42727,7 +42724,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42753,7 +42750,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42779,7 +42776,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42805,7 +42802,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42831,7 +42828,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42857,7 +42854,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42883,7 +42880,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42909,7 +42906,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42935,7 +42932,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42961,7 +42958,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42987,7 +42984,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43013,7 +43010,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43039,7 +43036,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43065,7 +43062,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43091,7 +43088,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43117,7 +43114,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43143,7 +43140,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43169,7 +43166,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43195,7 +43192,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43221,7 +43218,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43247,7 +43244,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43273,7 +43270,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43299,7 +43296,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43325,7 +43322,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43351,7 +43348,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43377,7 +43374,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43403,7 +43400,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43429,7 +43426,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43455,7 +43452,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43481,7 +43478,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43507,7 +43504,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43533,7 +43530,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43559,7 +43556,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43585,7 +43582,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43611,7 +43608,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43637,7 +43634,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43663,7 +43660,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43689,7 +43686,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43715,7 +43712,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43741,7 +43738,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43767,7 +43764,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43793,7 +43790,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43819,7 +43816,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43845,7 +43842,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43871,7 +43868,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43897,7 +43894,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43923,7 +43920,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43949,7 +43946,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43975,7 +43972,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44001,7 +43998,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44027,7 +44024,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44053,7 +44050,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44079,7 +44076,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44105,7 +44102,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44131,7 +44128,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44157,7 +44154,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44183,7 +44180,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44209,7 +44206,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44235,7 +44232,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44755,7 +44752,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45093,7 +45090,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45119,7 +45116,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45249,7 +45246,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45275,7 +45272,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45301,7 +45298,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45327,7 +45324,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45353,7 +45350,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45379,7 +45376,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="591">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205917358398</t>
+    <t xml:space="preserve">1.80205881595612</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
@@ -47,67 +47,67 @@
     <t xml:space="preserve">1.8772965669632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91127479076385</t>
+    <t xml:space="preserve">1.91127467155457</t>
   </si>
   <si>
     <t xml:space="preserve">1.9076339006424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399372577667</t>
+    <t xml:space="preserve">1.90399348735809</t>
   </si>
   <si>
     <t xml:space="preserve">1.89307188987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85909342765808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394798755646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8809369802475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86637485027313</t>
+    <t xml:space="preserve">1.85909402370453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394774913788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093709945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86637496948242</t>
   </si>
   <si>
     <t xml:space="preserve">1.8457453250885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84453165531158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210479259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82268846035004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83239686489105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967781066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8408910036087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83482384681702</t>
+    <t xml:space="preserve">1.84453189373016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210467338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82268857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83239662647247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967792987823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84089112281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83482360839844</t>
   </si>
   <si>
     <t xml:space="preserve">1.84695863723755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.825115442276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82875621318817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80934000015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83360993862152</t>
+    <t xml:space="preserve">1.82511591911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82875597476959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8093398809433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83361029624939</t>
   </si>
   <si>
     <t xml:space="preserve">1.86273431777954</t>
@@ -116,31 +116,31 @@
     <t xml:space="preserve">1.87972354888916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8688018321991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758816242218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030733585358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86152100563049</t>
+    <t xml:space="preserve">1.86880195140839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758840084076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030721664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86152052879333</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549887180328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89913940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700413703918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85363292694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8566666841507</t>
+    <t xml:space="preserve">1.89913964271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700449466705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85363328456879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85666680335999</t>
   </si>
   <si>
     <t xml:space="preserve">1.89003849029541</t>
@@ -149,40 +149,40 @@
     <t xml:space="preserve">1.89610600471497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87790334224701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486946582794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970067977905</t>
+    <t xml:space="preserve">1.87790322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486958503723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970044136047</t>
   </si>
   <si>
     <t xml:space="preserve">1.94767999649048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91734218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9234094619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644381523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9355446100235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857848644257</t>
+    <t xml:space="preserve">1.91734230518341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92340981960297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161260128021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644333839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93554472923279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857836723328</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228762626648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97801756858826</t>
+    <t xml:space="preserve">1.97801768779755</t>
   </si>
   <si>
     <t xml:space="preserve">1.9719500541687</t>
@@ -194,478 +194,478 @@
     <t xml:space="preserve">1.99925398826599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99015271663666</t>
+    <t xml:space="preserve">1.99015259742737</t>
   </si>
   <si>
     <t xml:space="preserve">2.02352404594421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02959179878235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0204906463623</t>
+    <t xml:space="preserve">2.02959132194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835537910461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02049040794373</t>
   </si>
   <si>
     <t xml:space="preserve">2.01745653152466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01442289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99622011184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082821846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10274744033813</t>
+    <t xml:space="preserve">2.01442265510559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99622046947479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0508279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10274767875671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09301257133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05407309532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784799575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0702977180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652281761169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976769447327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354307174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625768661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01188826560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645855903625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890840053558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215363502502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268342018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02811336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98592805862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04109311103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05731797218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08003282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0605628490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705284118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12870740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10599231719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09950232505798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10923767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758286476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06380820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0767879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01513338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11248278617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13195252418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17413735389709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18387246131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1416871547699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18711709976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23254704475403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2357919216156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20658731460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062734603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14493274688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12546277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17738223075867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23903703689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2260570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1644024848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16764736175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12221741676331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1384425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31367158889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.219566822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685220718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1579122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1481773853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16115736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11897277832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03135800361633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01837825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241840839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460288047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11114764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09024524688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02753806114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99270069599152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98573291301727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786321163177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392788410187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92999291419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302572727203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83941578865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88122057914734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244848251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064321517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154584884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335087776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86728596687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81851351261139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8603184223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457818508148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367602825165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425303459167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515578746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818824291229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212309360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909063816071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638345241547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82548046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7976108789444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7767082452774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883878231049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187111854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490357398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75580620765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7279360294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76277339458466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97179806232452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02057027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360297203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00663542747498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97876536846161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696057796478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483027935028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089519023895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76974105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432621002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51891148090363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096848487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219626903534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981411457062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56071639060974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47013914585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923663139343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4771066904068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407423496246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42833411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44226920604706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43530166149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104154109955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50497674942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46317172050476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49800896644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59555387496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5467814207077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55374884605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62342369556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58161902427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53284668922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465147972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60252130031586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60948872566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58858633041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70703363418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768405437469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6164562702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68613135814667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605818271637</t>
   </si>
   <si>
     <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301257133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407309532166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784823417664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0702977180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652257919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976769447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354283332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01188826560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645867824554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215315818787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268330097198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02811336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98592829704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162337303162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04109287261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04433822631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05731773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08003282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06056332588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0508279800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12870764732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10599303245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09950304031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10923767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758286476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06380772590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07678771018982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01513314247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11248254776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13195300102234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17413711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18387222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14168739318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18711733818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23254704475403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23579168319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20658731460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062734603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14493250846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12546277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17738223075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23903703689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2260570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440224647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16764736175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12221741676331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1384425163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31367182731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069184303284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307730674744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21956706047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685196876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1579122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1481773853302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16115760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11897253990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03135800361633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01837778091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746464729309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811518669128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1111478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024524688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02753829956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99270033836365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98573303222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95786285400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392764568329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92999303340912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302548885345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941602706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122069835663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244848251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064333438873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154572963715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335087776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8672856092453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81851315498352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86031830310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457842350006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367590904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425339221954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515578746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818824291229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212309360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909063816071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638333320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82548069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7976108789444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77670836448669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74883854389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187111854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490357398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75580620765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793614864349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76277363300323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97179794311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0205705165863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360297203064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00663542747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9787654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696057796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483016014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089542865753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974093914032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432597160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891160011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096884250641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981411457062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56071650981903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923663139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47710657119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407447338104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42833411693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44226920604706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4353015422821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104177951813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50497651100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46317172050476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4980092048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5955536365509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54678153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55374884605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62342369556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58161890506744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53284657001495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465147972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60252118110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60948872566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58858633041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70703375339508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768393516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61645615100861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68613111972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605818271637</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.06839728355408</t>
   </si>
   <si>
     <t xml:space="preserve">2.00887513160706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8303085565567</t>
+    <t xml:space="preserve">1.84518849849701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83030843734741</t>
   </si>
   <si>
     <t xml:space="preserve">1.79310703277588</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">1.80054712295532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78566670417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846518039703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83774888515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542766094208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8526291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798733234406</t>
+    <t xml:space="preserve">1.78566694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846506118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83774876594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542789936066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262906551361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798757076263</t>
   </si>
   <si>
     <t xml:space="preserve">1.86006963253021</t>
@@ -701,64 +701,64 @@
     <t xml:space="preserve">1.87494993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88983047008514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7707861661911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73358464241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69638347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68894302845001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70382344722748</t>
+    <t xml:space="preserve">1.88983035087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77078592777252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73358476161957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69638323783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6889431476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70382380485535</t>
   </si>
   <si>
     <t xml:space="preserve">1.71870410442352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72614419460297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71126365661621</t>
+    <t xml:space="preserve">1.72614443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71126389503479</t>
   </si>
   <si>
     <t xml:space="preserve">1.75590550899506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76334571838379</t>
+    <t xml:space="preserve">1.7633455991745</t>
   </si>
   <si>
     <t xml:space="preserve">1.74102509021759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66662228107452</t>
+    <t xml:space="preserve">1.66662216186523</t>
   </si>
   <si>
     <t xml:space="preserve">1.68150281906128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77822661399841</t>
+    <t xml:space="preserve">1.77822649478912</t>
   </si>
   <si>
     <t xml:space="preserve">1.67406249046326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65918183326721</t>
+    <t xml:space="preserve">1.6591819524765</t>
   </si>
   <si>
     <t xml:space="preserve">1.65174186229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64430165290833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63686120510101</t>
+    <t xml:space="preserve">1.64430141448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6368613243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.62942099571228</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">1.60710000991821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61454021930695</t>
+    <t xml:space="preserve">1.61454033851624</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221959114075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57733869552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51781678199768</t>
+    <t xml:space="preserve">1.57733881473541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781666278839</t>
   </si>
   <si>
     <t xml:space="preserve">1.48061537742615</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">1.4954959154129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48805546760559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47317492961884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46945476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750972270966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93447208404541</t>
+    <t xml:space="preserve">1.48805558681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47317504882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4694550037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447184562683</t>
   </si>
   <si>
     <t xml:space="preserve">1.97167360782623</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">1.94935274124146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94191241264343</t>
+    <t xml:space="preserve">1.94191265106201</t>
   </si>
   <si>
     <t xml:space="preserve">1.92703187465668</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">1.96423363685608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98655426502228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99399471282959</t>
+    <t xml:space="preserve">1.9865540266037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9939945936203</t>
   </si>
   <si>
     <t xml:space="preserve">1.95679330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00143504142761</t>
+    <t xml:space="preserve">2.00143480300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.03119587898254</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">2.09071803092957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10559844970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12791895866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14279985427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11303877830505</t>
+    <t xml:space="preserve">2.10559868812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12791919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14279961585999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11303853988647</t>
   </si>
   <si>
     <t xml:space="preserve">2.04607653617859</t>
@@ -857,25 +857,25 @@
     <t xml:space="preserve">2.12047910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09815835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13535952568054</t>
+    <t xml:space="preserve">2.09815812110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13535976409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.18744158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22464323043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21720290184021</t>
+    <t xml:space="preserve">2.22464299201965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21720266342163</t>
   </si>
   <si>
     <t xml:space="preserve">2.2395236492157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20976281166077</t>
+    <t xml:space="preserve">2.20976257324219</t>
   </si>
   <si>
     <t xml:space="preserve">2.20232224464417</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">2.23208332061768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24696397781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25440454483032</t>
+    <t xml:space="preserve">2.24696373939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25440430641174</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184463500977</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.28492450714111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31569814682007</t>
+    <t xml:space="preserve">2.31569790840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.26953792572021</t>
@@ -908,67 +908,67 @@
     <t xml:space="preserve">2.32339119911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29261803627014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031132698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30800461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34647130966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36185812950134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41571164131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39263129234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44648456573486</t>
+    <t xml:space="preserve">2.29261779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031108856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30800437927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34647107124329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36185789108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41571140289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39263153076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44648480415344</t>
   </si>
   <si>
     <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43879151344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40801811218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38493800163269</t>
+    <t xml:space="preserve">2.43879175186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40801787376404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38493824005127</t>
   </si>
   <si>
     <t xml:space="preserve">2.42340493202209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43109822273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40032482147217</t>
+    <t xml:space="preserve">2.43109798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40032458305359</t>
   </si>
   <si>
     <t xml:space="preserve">2.47725820541382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46187162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48495149612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49264478683472</t>
+    <t xml:space="preserve">2.46187114715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48495173454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4926450252533</t>
   </si>
   <si>
     <t xml:space="preserve">2.50803160667419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51572489738464</t>
+    <t xml:space="preserve">2.51572513580322</t>
   </si>
   <si>
     <t xml:space="preserve">2.52341818809509</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">2.5772716999054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58496522903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60035228729248</t>
+    <t xml:space="preserve">2.58496475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6003520488739</t>
   </si>
   <si>
     <t xml:space="preserve">2.60804533958435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6542055606842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63881850242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70805883407593</t>
+    <t xml:space="preserve">2.65420532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63881826400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70805859565735</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344541549683</t>
@@ -1019,46 +1019,46 @@
     <t xml:space="preserve">2.77729868888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85423231124878</t>
+    <t xml:space="preserve">2.8542320728302</t>
   </si>
   <si>
     <t xml:space="preserve">2.84653925895691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83115220069885</t>
+    <t xml:space="preserve">2.83115243911743</t>
   </si>
   <si>
     <t xml:space="preserve">2.86192560195923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8080723285675</t>
+    <t xml:space="preserve">2.80807209014893</t>
   </si>
   <si>
     <t xml:space="preserve">2.81576561927795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8388454914093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87731218338013</t>
+    <t xml:space="preserve">2.83884572982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87731242179871</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93116569519043</t>
+    <t xml:space="preserve">2.93116593360901</t>
   </si>
   <si>
     <t xml:space="preserve">2.92347240447998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95424604415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94655275344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91577935218811</t>
+    <t xml:space="preserve">2.95424556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94655227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91577887535095</t>
   </si>
   <si>
     <t xml:space="preserve">2.93885898590088</t>
@@ -1079,25 +1079,25 @@
     <t xml:space="preserve">3.04967641830444</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10498142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08127951622009</t>
+    <t xml:space="preserve">3.1049816608429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08127927780151</t>
   </si>
   <si>
     <t xml:space="preserve">3.05757713317871</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04177570343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07337880134583</t>
+    <t xml:space="preserve">3.04177594184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07337856292725</t>
   </si>
   <si>
     <t xml:space="preserve">3.01807355880737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95486783981323</t>
+    <t xml:space="preserve">2.95486807823181</t>
   </si>
   <si>
     <t xml:space="preserve">2.98647093772888</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">2.92326521873474</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94696712493896</t>
+    <t xml:space="preserve">2.94696736335754</t>
   </si>
   <si>
     <t xml:space="preserve">2.97856998443604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97066926956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01017284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06547808647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02597451210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03387498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99437165260315</t>
+    <t xml:space="preserve">2.97066950798035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01017308235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06547832489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02597427368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03387475013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99437141418457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85215854644775</t>
@@ -1136,16 +1136,16 @@
     <t xml:space="preserve">2.84425783157349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89166235923767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11288213729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83635711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77315139770508</t>
+    <t xml:space="preserve">2.89166212081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11288237571716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83635687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77315163612366</t>
   </si>
   <si>
     <t xml:space="preserve">2.74944925308228</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51242756843567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41761922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46502327919006</t>
+    <t xml:space="preserve">2.51242804527283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41761898994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46502351760864</t>
   </si>
   <si>
     <t xml:space="preserve">2.60723638534546</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">2.76525068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8837616443634</t>
+    <t xml:space="preserve">2.88376140594482</t>
   </si>
   <si>
     <t xml:space="preserve">2.75734996795654</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">3.14448523521423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20769071578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19188928604126</t>
+    <t xml:space="preserve">3.20769095420837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19188952445984</t>
   </si>
   <si>
     <t xml:space="preserve">3.22349214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19979047775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16028666496277</t>
+    <t xml:space="preserve">3.19979000091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">3.09708094596863</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">3.1523859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31743216514587</t>
+    <t xml:space="preserve">3.17608785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31743240356445</t>
   </si>
   <si>
     <t xml:space="preserve">3.28417468070984</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">3.20103096961975</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13451600074768</t>
+    <t xml:space="preserve">3.13451623916626</t>
   </si>
   <si>
     <t xml:space="preserve">3.15945911407471</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.893399477005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91002821922302</t>
+    <t xml:space="preserve">2.91002798080444</t>
   </si>
   <si>
     <t xml:space="preserve">2.90171384811401</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.93497133255005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86014199256897</t>
+    <t xml:space="preserve">2.86014223098755</t>
   </si>
   <si>
     <t xml:space="preserve">2.87677073478699</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">2.885085105896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83519911766052</t>
+    <t xml:space="preserve">2.83519887924194</t>
   </si>
   <si>
     <t xml:space="preserve">2.78531265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75205516815186</t>
+    <t xml:space="preserve">2.75205540657043</t>
   </si>
   <si>
     <t xml:space="preserve">2.73542642593384</t>
@@ -1307,37 +1307,37 @@
     <t xml:space="preserve">2.74374079704285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76868414878845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76036953926086</t>
+    <t xml:space="preserve">2.76868391036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76036977767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67722582817078</t>
+    <t xml:space="preserve">2.67722606658936</t>
   </si>
   <si>
     <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64396834373474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66059732437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7021689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71879768371582</t>
+    <t xml:space="preserve">2.6439688205719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66059708595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70216917991638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71879744529724</t>
   </si>
   <si>
     <t xml:space="preserve">2.68554019927979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66891169548035</t>
+    <t xml:space="preserve">2.66891193389893</t>
   </si>
   <si>
     <t xml:space="preserve">2.69385457038879</t>
@@ -1358,61 +1358,64 @@
     <t xml:space="preserve">3.06800103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137252807617</t>
+    <t xml:space="preserve">3.05137276649475</t>
   </si>
   <si>
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
+    <t xml:space="preserve">3.10957312583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13555812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14422035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17020535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16154360771179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12689638137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20485258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21351408958435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22217583656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19619059562683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11823487281799</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13555812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14422011375427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17020535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16154360771179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12689638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21351408958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22217583656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19619059562683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11823463439941</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.15288186073303</t>
   </si>
   <si>
     <t xml:space="preserve">3.18752884864807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17886710166931</t>
+    <t xml:space="preserve">3.17886734008789</t>
   </si>
   <si>
     <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25682282447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23083758354187</t>
+    <t xml:space="preserve">3.25682306289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23083782196045</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611703872681</t>
@@ -1427,13 +1430,13 @@
     <t xml:space="preserve">3.27414655685425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30879354476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23949933052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28280854225159</t>
+    <t xml:space="preserve">3.30879330635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23949956893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28280806541443</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1463,16 +1466,16 @@
     <t xml:space="preserve">3.36942601203918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31745553016663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5166757106781</t>
+    <t xml:space="preserve">3.31745529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">3.43871998786926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43005847930908</t>
+    <t xml:space="preserve">3.4300582408905</t>
   </si>
   <si>
     <t xml:space="preserve">3.41273474693298</t>
@@ -1490,16 +1493,16 @@
     <t xml:space="preserve">3.48386192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45650196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41090130805969</t>
+    <t xml:space="preserve">3.45650172233582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41090154647827</t>
   </si>
   <si>
     <t xml:space="preserve">3.42002153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43826150894165</t>
+    <t xml:space="preserve">3.43826174736023</t>
   </si>
   <si>
     <t xml:space="preserve">3.38354134559631</t>
@@ -1511,19 +1514,19 @@
     <t xml:space="preserve">3.39266133308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4017813205719</t>
+    <t xml:space="preserve">3.40178155899048</t>
   </si>
   <si>
     <t xml:space="preserve">3.35618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36530113220215</t>
+    <t xml:space="preserve">3.36530137062073</t>
   </si>
   <si>
     <t xml:space="preserve">3.34706115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42914152145386</t>
+    <t xml:space="preserve">3.42914175987244</t>
   </si>
   <si>
     <t xml:space="preserve">3.33794116973877</t>
@@ -1547,13 +1550,13 @@
     <t xml:space="preserve">3.28322052955627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26498055458069</t>
+    <t xml:space="preserve">3.26498031616211</t>
   </si>
   <si>
     <t xml:space="preserve">3.22850036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2558605670929</t>
+    <t xml:space="preserve">3.25586032867432</t>
   </si>
   <si>
     <t xml:space="preserve">3.27410054206848</t>
@@ -1574,13 +1577,13 @@
     <t xml:space="preserve">3.10993981361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1008198261261</t>
+    <t xml:space="preserve">3.10081958770752</t>
   </si>
   <si>
     <t xml:space="preserve">3.11905980110168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07345938682556</t>
+    <t xml:space="preserve">3.07345914840698</t>
   </si>
   <si>
     <t xml:space="preserve">3.16465997695923</t>
@@ -1595,10 +1598,10 @@
     <t xml:space="preserve">3.23762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17377996444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026015281677</t>
+    <t xml:space="preserve">3.1737802028656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026039123535</t>
   </si>
   <si>
     <t xml:space="preserve">3.21938037872314</t>
@@ -1779,6 +1782,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.86999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83999991416931</t>
   </si>
 </sst>
 </file>
@@ -5934,7 +5940,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G147" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -5986,7 +5992,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6142,7 +6148,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6168,7 +6174,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6220,7 +6226,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6246,7 +6252,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6428,7 +6434,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6480,7 +6486,7 @@
         <v>3.25</v>
       </c>
       <c r="G168" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -6506,7 +6512,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -6662,7 +6668,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G175" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -6688,7 +6694,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -6740,7 +6746,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -6766,7 +6772,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G179" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -6792,7 +6798,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G180" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6818,7 +6824,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -6844,7 +6850,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -6870,7 +6876,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G183" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6896,7 +6902,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G184" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6948,7 +6954,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -6974,7 +6980,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7000,7 +7006,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G188" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7026,7 +7032,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G189" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7052,7 +7058,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G190" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7104,7 +7110,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G192" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7260,7 +7266,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7364,7 +7370,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7390,7 +7396,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G203" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7442,7 +7448,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7494,7 +7500,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G207" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7520,7 +7526,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G208" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7546,7 +7552,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G209" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7572,7 +7578,7 @@
         <v>3.25</v>
       </c>
       <c r="G210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7624,7 +7630,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7650,7 +7656,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G213" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7676,7 +7682,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G214" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7702,7 +7708,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7728,7 +7734,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7754,7 +7760,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G217" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7780,7 +7786,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G218" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7806,7 +7812,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G219" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7832,7 +7838,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7858,7 +7864,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7884,7 +7890,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G222" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7910,7 +7916,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G223" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7936,7 +7942,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7962,7 +7968,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7988,7 +7994,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G226" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8014,7 +8020,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8040,7 +8046,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G228" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8066,7 +8072,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8092,7 +8098,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8118,7 +8124,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G231" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8144,7 +8150,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G232" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8170,7 +8176,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G233" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8196,7 +8202,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G234" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8222,7 +8228,7 @@
         <v>3.25</v>
       </c>
       <c r="G235" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8248,7 +8254,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G236" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8274,7 +8280,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G237" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8300,7 +8306,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G238" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8326,7 +8332,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8352,7 +8358,7 @@
         <v>3.29500007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8378,7 +8384,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G241" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8404,7 +8410,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G242" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8430,7 +8436,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8456,7 +8462,7 @@
         <v>3.56500005722046</v>
       </c>
       <c r="G244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8482,7 +8488,7 @@
         <v>3.54500007629395</v>
       </c>
       <c r="G245" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8508,7 +8514,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G246" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8534,7 +8540,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G247" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8560,7 +8566,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G248" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8586,7 +8592,7 @@
         <v>3.38499999046326</v>
       </c>
       <c r="G249" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8612,7 +8618,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G250" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8638,7 +8644,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G251" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8664,7 +8670,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G252" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8690,7 +8696,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G253" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8716,7 +8722,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8742,7 +8748,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G255" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8768,7 +8774,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8794,7 +8800,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G257" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8820,7 +8826,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G258" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8846,7 +8852,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G259" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8872,7 +8878,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G260" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8898,7 +8904,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G261" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8924,7 +8930,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G262" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8950,7 +8956,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G263" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8976,7 +8982,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G264" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9002,7 +9008,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G265" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9028,7 +9034,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9054,7 +9060,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G267" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9080,7 +9086,7 @@
         <v>3.25</v>
       </c>
       <c r="G268" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9106,7 +9112,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G269" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9132,7 +9138,7 @@
         <v>3.3050000667572</v>
       </c>
       <c r="G270" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9158,7 +9164,7 @@
         <v>3.25</v>
       </c>
       <c r="G271" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9184,7 +9190,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G272" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9210,7 +9216,7 @@
         <v>3.25</v>
       </c>
       <c r="G273" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9288,7 +9294,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G276" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9314,7 +9320,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9470,7 +9476,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9808,7 +9814,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G296" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9834,7 +9840,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G297" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9860,7 +9866,7 @@
         <v>3.23499989509583</v>
       </c>
       <c r="G298" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9990,7 +9996,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G303" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10042,7 +10048,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G305" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10120,7 +10126,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G308" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10172,7 +10178,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G310" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10198,7 +10204,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G311" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10250,7 +10256,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G313" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10302,7 +10308,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G315" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10328,7 +10334,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G316" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10354,7 +10360,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G317" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10380,7 +10386,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G318" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10510,7 +10516,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G323" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10536,7 +10542,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G324" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10562,7 +10568,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G325" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10588,7 +10594,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G326" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10640,7 +10646,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G328" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10692,7 +10698,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G330" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10718,7 +10724,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G331" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10770,7 +10776,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G333" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10796,7 +10802,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G334" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10822,7 +10828,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G335" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10848,7 +10854,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10900,7 +10906,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G338" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10926,7 +10932,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G339" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10978,7 +10984,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G341" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11030,7 +11036,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G343" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11134,7 +11140,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G347" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11186,7 +11192,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11238,7 +11244,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G351" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11264,7 +11270,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G352" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11290,7 +11296,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G353" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11316,7 +11322,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G354" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11342,7 +11348,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G355" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11394,7 +11400,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G357" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11420,7 +11426,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G358" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11472,7 +11478,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G360" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11498,7 +11504,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G361" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11550,7 +11556,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G363" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11576,7 +11582,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G364" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11602,7 +11608,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G365" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11628,7 +11634,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11654,7 +11660,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11680,7 +11686,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G368" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11706,7 +11712,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G369" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11732,7 +11738,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G370" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11758,7 +11764,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G371" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11784,7 +11790,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G372" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11810,7 +11816,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G373" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11836,7 +11842,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G374" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11862,7 +11868,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G375" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11888,7 +11894,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G376" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11914,7 +11920,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G377" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11940,7 +11946,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G378" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11966,7 +11972,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G379" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11992,7 +11998,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G380" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12018,7 +12024,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G381" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12044,7 +12050,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G382" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12070,7 +12076,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G383" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12096,7 +12102,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G384" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12122,7 +12128,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G385" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12148,7 +12154,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G386" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12174,7 +12180,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G387" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12200,7 +12206,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G388" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12226,7 +12232,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G389" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12252,7 +12258,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G390" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12278,7 +12284,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G391" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12304,7 +12310,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G392" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12330,7 +12336,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G393" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12356,7 +12362,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G394" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12382,7 +12388,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G395" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12408,7 +12414,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G396" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12434,7 +12440,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12460,7 +12466,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G398" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12486,7 +12492,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G399" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12512,7 +12518,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G400" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12538,7 +12544,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G401" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12564,7 +12570,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G402" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12590,7 +12596,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G403" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12616,7 +12622,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12642,7 +12648,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G405" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12668,7 +12674,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G406" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12694,7 +12700,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G407" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12720,7 +12726,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G408" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12746,7 +12752,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G409" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12772,7 +12778,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G410" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12798,7 +12804,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G411" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12824,7 +12830,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G412" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12850,7 +12856,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G413" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12876,7 +12882,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G414" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12902,7 +12908,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G415" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12928,7 +12934,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G416" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12954,7 +12960,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G417" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12980,7 +12986,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G418" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13006,7 +13012,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G419" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13032,7 +13038,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G420" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13058,7 +13064,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13084,7 +13090,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G422" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13110,7 +13116,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G423" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13136,7 +13142,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G424" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13162,7 +13168,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G425" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13188,7 +13194,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G426" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13214,7 +13220,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G427" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13240,7 +13246,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G428" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13266,7 +13272,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G429" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13292,7 +13298,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G430" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13318,7 +13324,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G431" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13344,7 +13350,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G432" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13370,7 +13376,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G433" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13396,7 +13402,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G434" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13422,7 +13428,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G435" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13448,7 +13454,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G436" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13474,7 +13480,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G437" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13500,7 +13506,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G438" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13526,7 +13532,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G439" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13552,7 +13558,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G440" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13578,7 +13584,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G441" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13604,7 +13610,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G442" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13630,7 +13636,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G443" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13656,7 +13662,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G444" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13682,7 +13688,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G445" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13708,7 +13714,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G446" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13734,7 +13740,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G447" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13760,7 +13766,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G448" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13786,7 +13792,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G449" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13812,7 +13818,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G450" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13838,7 +13844,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G451" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13864,7 +13870,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G452" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13890,7 +13896,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G453" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13916,7 +13922,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G454" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13942,7 +13948,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G455" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13968,7 +13974,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G456" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13994,7 +14000,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G457" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14020,7 +14026,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G458" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14046,7 +14052,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14072,7 +14078,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G460" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14098,7 +14104,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G461" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14124,7 +14130,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G462" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14150,7 +14156,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G463" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14176,7 +14182,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G464" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14202,7 +14208,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G465" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14228,7 +14234,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G466" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14254,7 +14260,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14280,7 +14286,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G468" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14306,7 +14312,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G469" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14332,7 +14338,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G470" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14358,7 +14364,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G471" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14384,7 +14390,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G472" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14410,7 +14416,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G473" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14436,7 +14442,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14462,7 +14468,7 @@
         <v>2.5</v>
       </c>
       <c r="G475" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14488,7 +14494,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G476" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14514,7 +14520,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G477" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14540,7 +14546,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G478" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14566,7 +14572,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G479" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14592,7 +14598,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G480" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14618,7 +14624,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G481" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14644,7 +14650,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G482" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14670,7 +14676,7 @@
         <v>2.5</v>
       </c>
       <c r="G483" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14696,7 +14702,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G484" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14722,7 +14728,7 @@
         <v>2.5</v>
       </c>
       <c r="G485" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14748,7 +14754,7 @@
         <v>2.5</v>
       </c>
       <c r="G486" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14774,7 +14780,7 @@
         <v>2.5</v>
       </c>
       <c r="G487" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14800,7 +14806,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G488" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14826,7 +14832,7 @@
         <v>2.5</v>
       </c>
       <c r="G489" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14852,7 +14858,7 @@
         <v>2.5</v>
       </c>
       <c r="G490" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14878,7 +14884,7 @@
         <v>2.5</v>
       </c>
       <c r="G491" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14904,7 +14910,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G492" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14930,7 +14936,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G493" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14956,7 +14962,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G494" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14982,7 +14988,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G495" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15008,7 +15014,7 @@
         <v>2.5</v>
       </c>
       <c r="G496" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15034,7 +15040,7 @@
         <v>2.5</v>
       </c>
       <c r="G497" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15060,7 +15066,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G498" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15086,7 +15092,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G499" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15112,7 +15118,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G500" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15138,7 +15144,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G501" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15164,7 +15170,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G502" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15190,7 +15196,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G503" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15216,7 +15222,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G504" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15242,7 +15248,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G505" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15268,7 +15274,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G506" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15294,7 +15300,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G507" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15320,7 +15326,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G508" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15346,7 +15352,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G509" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15372,7 +15378,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G510" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15398,7 +15404,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G511" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15424,7 +15430,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15450,7 +15456,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G513" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15476,7 +15482,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G514" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15502,7 +15508,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15528,7 +15534,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G516" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15554,7 +15560,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G517" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15580,7 +15586,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G518" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15606,7 +15612,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G519" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15632,7 +15638,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15658,7 +15664,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G521" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15684,7 +15690,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G522" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15710,7 +15716,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G523" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -15736,7 +15742,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G524" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15762,7 +15768,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G525" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15788,7 +15794,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G526" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15814,7 +15820,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G527" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15840,7 +15846,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15866,7 +15872,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15892,7 +15898,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G530" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15918,7 +15924,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G531" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15944,7 +15950,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G532" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15970,7 +15976,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G533" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15996,7 +16002,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G534" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16022,7 +16028,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G535" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16048,7 +16054,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G536" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16074,7 +16080,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G537" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16100,7 +16106,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G538" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16126,7 +16132,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G539" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16152,7 +16158,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G540" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16178,7 +16184,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G541" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16204,7 +16210,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16230,7 +16236,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G543" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16256,7 +16262,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G544" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16282,7 +16288,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G545" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16308,7 +16314,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G546" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16334,7 +16340,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G547" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16360,7 +16366,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G548" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16386,7 +16392,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G549" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16412,7 +16418,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G550" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16438,7 +16444,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G551" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16464,7 +16470,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G552" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16490,7 +16496,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G553" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16516,7 +16522,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G554" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16542,7 +16548,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G555" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16568,7 +16574,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G556" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16594,7 +16600,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G557" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16620,7 +16626,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G558" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16646,7 +16652,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G559" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16672,7 +16678,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G560" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16698,7 +16704,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16724,7 +16730,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G562" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16750,7 +16756,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G563" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16776,7 +16782,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G564" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16802,7 +16808,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G565" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -16828,7 +16834,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G566" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16854,7 +16860,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G567" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16880,7 +16886,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G568" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16906,7 +16912,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G569" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16932,7 +16938,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G570" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16958,7 +16964,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G571" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16984,7 +16990,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17010,7 +17016,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G573" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17036,7 +17042,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G574" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17062,7 +17068,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G575" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17088,7 +17094,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17114,7 +17120,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G577" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17140,7 +17146,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G578" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17166,7 +17172,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G579" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17192,7 +17198,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G580" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17218,7 +17224,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G581" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17244,7 +17250,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G582" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17270,7 +17276,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G583" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17296,7 +17302,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17322,7 +17328,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G585" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17348,7 +17354,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G586" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17374,7 +17380,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17400,7 +17406,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G588" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17426,7 +17432,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G589" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17452,7 +17458,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G590" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17478,7 +17484,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G591" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17504,7 +17510,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G592" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17530,7 +17536,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G593" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17556,7 +17562,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G594" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17582,7 +17588,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G595" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17608,7 +17614,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G596" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17634,7 +17640,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G597" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17660,7 +17666,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G598" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17686,7 +17692,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G599" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17712,7 +17718,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G600" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17738,7 +17744,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17764,7 +17770,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G602" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17790,7 +17796,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G603" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17816,7 +17822,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G604" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17842,7 +17848,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G605" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17868,7 +17874,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G606" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17894,7 +17900,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -17920,7 +17926,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G608" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17946,7 +17952,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G609" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17972,7 +17978,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17998,7 +18004,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18024,7 +18030,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G612" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18050,7 +18056,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G613" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18076,7 +18082,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G614" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18102,7 +18108,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G615" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18128,7 +18134,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G616" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18154,7 +18160,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G617" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18180,7 +18186,7 @@
         <v>2.25</v>
       </c>
       <c r="G618" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18206,7 +18212,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G619" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18232,7 +18238,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G620" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18258,7 +18264,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G621" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18284,7 +18290,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G622" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18310,7 +18316,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18336,7 +18342,7 @@
         <v>2.25</v>
       </c>
       <c r="G624" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18362,7 +18368,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18388,7 +18394,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G626" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18414,7 +18420,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G627" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18440,7 +18446,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G628" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18466,7 +18472,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G629" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18492,7 +18498,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G630" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18518,7 +18524,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G631" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18544,7 +18550,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18570,7 +18576,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G633" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18596,7 +18602,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G634" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18622,7 +18628,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G635" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18648,7 +18654,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18674,7 +18680,7 @@
         <v>2.75</v>
       </c>
       <c r="G637" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18700,7 +18706,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18726,7 +18732,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -23458,7 +23464,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23510,7 +23516,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23536,7 +23542,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -35496,7 +35502,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35548,7 +35554,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35574,7 +35580,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35652,7 +35658,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35756,7 +35762,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35834,7 +35840,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35912,7 +35918,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35938,7 +35944,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35964,7 +35970,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35990,7 +35996,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36016,7 +36022,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36042,7 +36048,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36068,7 +36074,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36094,7 +36100,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36120,7 +36126,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36172,7 +36178,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36198,7 +36204,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36224,7 +36230,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36250,7 +36256,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36276,7 +36282,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36380,7 +36386,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36406,7 +36412,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36432,7 +36438,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36458,7 +36464,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36484,7 +36490,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36510,7 +36516,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36536,7 +36542,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36562,7 +36568,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36588,7 +36594,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36614,7 +36620,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36640,7 +36646,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36666,7 +36672,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36692,7 +36698,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36718,7 +36724,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36744,7 +36750,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36770,7 +36776,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36796,7 +36802,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36822,7 +36828,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36848,7 +36854,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36874,7 +36880,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36900,7 +36906,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36926,7 +36932,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36952,7 +36958,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36978,7 +36984,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37004,7 +37010,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37030,7 +37036,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37056,7 +37062,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37082,7 +37088,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37108,7 +37114,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37134,7 +37140,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37186,7 +37192,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37212,7 +37218,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37238,7 +37244,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37264,7 +37270,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37290,7 +37296,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37316,7 +37322,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37342,7 +37348,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37368,7 +37374,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37394,7 +37400,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37420,7 +37426,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37446,7 +37452,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37472,7 +37478,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37498,7 +37504,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37524,7 +37530,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37550,7 +37556,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37576,7 +37582,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37602,7 +37608,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37628,7 +37634,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37654,7 +37660,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37680,7 +37686,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37706,7 +37712,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37732,7 +37738,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37758,7 +37764,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37784,7 +37790,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37810,7 +37816,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37836,7 +37842,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37862,7 +37868,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37888,7 +37894,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37914,7 +37920,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37940,7 +37946,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37966,7 +37972,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37992,7 +37998,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38018,7 +38024,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38044,7 +38050,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38070,7 +38076,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38096,7 +38102,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38122,7 +38128,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38148,7 +38154,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38174,7 +38180,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38200,7 +38206,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38226,7 +38232,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38252,7 +38258,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38278,7 +38284,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38304,7 +38310,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38330,7 +38336,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38356,7 +38362,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38382,7 +38388,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38408,7 +38414,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38434,7 +38440,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38460,7 +38466,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38486,7 +38492,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38512,7 +38518,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38538,7 +38544,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38564,7 +38570,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38590,7 +38596,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38616,7 +38622,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38642,7 +38648,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38668,7 +38674,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38694,7 +38700,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38720,7 +38726,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38746,7 +38752,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38772,7 +38778,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38798,7 +38804,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38824,7 +38830,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38850,7 +38856,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38876,7 +38882,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38902,7 +38908,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38928,7 +38934,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38954,7 +38960,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38980,7 +38986,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39006,7 +39012,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39032,7 +39038,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39058,7 +39064,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39084,7 +39090,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39110,7 +39116,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39136,7 +39142,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39162,7 +39168,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39188,7 +39194,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39214,7 +39220,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39240,7 +39246,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39266,7 +39272,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39292,7 +39298,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39318,7 +39324,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39344,7 +39350,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39370,7 +39376,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39396,7 +39402,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39422,7 +39428,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39448,7 +39454,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39474,7 +39480,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39500,7 +39506,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39526,7 +39532,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39552,7 +39558,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39578,7 +39584,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39604,7 +39610,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39630,7 +39636,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39656,7 +39662,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39682,7 +39688,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39708,7 +39714,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39734,7 +39740,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39760,7 +39766,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39786,7 +39792,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39812,7 +39818,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39838,7 +39844,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39864,7 +39870,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39890,7 +39896,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39916,7 +39922,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39942,7 +39948,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39968,7 +39974,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39994,7 +40000,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40020,7 +40026,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40046,7 +40052,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40072,7 +40078,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40098,7 +40104,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40124,7 +40130,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40150,7 +40156,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40176,7 +40182,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40202,7 +40208,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40228,7 +40234,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40254,7 +40260,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40280,7 +40286,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40306,7 +40312,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40332,7 +40338,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40358,7 +40364,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40384,7 +40390,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40410,7 +40416,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40436,7 +40442,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40462,7 +40468,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40488,7 +40494,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40514,7 +40520,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40540,7 +40546,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40566,7 +40572,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40592,7 +40598,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40618,7 +40624,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40644,7 +40650,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40670,7 +40676,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40696,7 +40702,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40722,7 +40728,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40748,7 +40754,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40774,7 +40780,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40800,7 +40806,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40826,7 +40832,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40852,7 +40858,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40878,7 +40884,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40904,7 +40910,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40930,7 +40936,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40956,7 +40962,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40982,7 +40988,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41008,7 +41014,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41034,7 +41040,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41060,7 +41066,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41086,7 +41092,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41112,7 +41118,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41138,7 +41144,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41164,7 +41170,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41190,7 +41196,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41216,7 +41222,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41242,7 +41248,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41268,7 +41274,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41294,7 +41300,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41320,7 +41326,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41346,7 +41352,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41372,7 +41378,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41398,7 +41404,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41424,7 +41430,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41450,7 +41456,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41476,7 +41482,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41502,7 +41508,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41528,7 +41534,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41554,7 +41560,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41580,7 +41586,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41606,7 +41612,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41632,7 +41638,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41658,7 +41664,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41684,7 +41690,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41710,7 +41716,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41736,7 +41742,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41762,7 +41768,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41788,7 +41794,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41814,7 +41820,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41840,7 +41846,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41866,7 +41872,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41892,7 +41898,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41918,7 +41924,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41944,7 +41950,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41970,7 +41976,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41996,7 +42002,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42022,7 +42028,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42048,7 +42054,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42074,7 +42080,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42100,7 +42106,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42126,7 +42132,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42152,7 +42158,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42178,7 +42184,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42204,7 +42210,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42230,7 +42236,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42256,7 +42262,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42282,7 +42288,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42308,7 +42314,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42334,7 +42340,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42360,7 +42366,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42386,7 +42392,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42412,7 +42418,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42438,7 +42444,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42464,7 +42470,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42490,7 +42496,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42516,7 +42522,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42542,7 +42548,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42568,7 +42574,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42594,7 +42600,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42620,7 +42626,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42646,7 +42652,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42672,7 +42678,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42698,7 +42704,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42724,7 +42730,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42750,7 +42756,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42776,7 +42782,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42802,7 +42808,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42828,7 +42834,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42854,7 +42860,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42880,7 +42886,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42906,7 +42912,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42932,7 +42938,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42958,7 +42964,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42984,7 +42990,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43010,7 +43016,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43036,7 +43042,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43062,7 +43068,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43088,7 +43094,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43114,7 +43120,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43140,7 +43146,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43166,7 +43172,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43192,7 +43198,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43218,7 +43224,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43244,7 +43250,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43270,7 +43276,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43296,7 +43302,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43322,7 +43328,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43348,7 +43354,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43374,7 +43380,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43400,7 +43406,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43426,7 +43432,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43452,7 +43458,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43478,7 +43484,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43504,7 +43510,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43530,7 +43536,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43556,7 +43562,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43582,7 +43588,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43608,7 +43614,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43634,7 +43640,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43660,7 +43666,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43686,7 +43692,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43712,7 +43718,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43738,7 +43744,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43764,7 +43770,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43790,7 +43796,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43816,7 +43822,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43842,7 +43848,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43868,7 +43874,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43894,7 +43900,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43920,7 +43926,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43946,7 +43952,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43972,7 +43978,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43998,7 +44004,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44024,7 +44030,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44050,7 +44056,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44076,7 +44082,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44102,7 +44108,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44128,7 +44134,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44154,7 +44160,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44180,7 +44186,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44206,7 +44212,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44232,7 +44238,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44258,7 +44264,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44284,7 +44290,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44310,7 +44316,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44336,7 +44342,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44362,7 +44368,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44388,7 +44394,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44414,7 +44420,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44440,7 +44446,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44466,7 +44472,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44492,7 +44498,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44518,7 +44524,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44544,7 +44550,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44570,7 +44576,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44596,7 +44602,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44622,7 +44628,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44648,7 +44654,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44674,7 +44680,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44700,7 +44706,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44726,7 +44732,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44752,7 +44758,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44778,7 +44784,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44804,7 +44810,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44830,7 +44836,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44856,7 +44862,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44882,7 +44888,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44908,7 +44914,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44934,7 +44940,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44960,7 +44966,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44986,7 +44992,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45012,7 +45018,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45038,7 +45044,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45064,7 +45070,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45090,7 +45096,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45116,7 +45122,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45142,7 +45148,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45168,7 +45174,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45194,7 +45200,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45220,7 +45226,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45246,7 +45252,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45272,7 +45278,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45298,7 +45304,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45324,7 +45330,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45350,7 +45356,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45358,27 +45364,79 @@
     </row>
     <row r="1664">
       <c r="A1664" s="1" t="n">
-        <v>45455.6496412037</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B1664" t="n">
+        <v>54790</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>3.88000011444092</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>3.83999991416931</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B1665" t="n">
         <v>28157</v>
       </c>
-      <c r="C1664" t="n">
+      <c r="C1665" t="n">
         <v>3.85999989509583</v>
       </c>
-      <c r="D1664" t="n">
+      <c r="D1665" t="n">
         <v>3.79999995231628</v>
       </c>
-      <c r="E1664" t="n">
+      <c r="E1665" t="n">
         <v>3.79999995231628</v>
       </c>
-      <c r="F1664" t="n">
+      <c r="F1665" t="n">
         <v>3.85999989509583</v>
       </c>
-      <c r="G1664" t="s">
+      <c r="G1665" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="1" t="n">
+        <v>45456.6496296296</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>42633</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>3.86999988555908</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>3.83999991416931</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>3.8199999332428</v>
+      </c>
+      <c r="G1666" t="s">
         <v>587</v>
       </c>
-      <c r="H1664" t="s">
+      <c r="H1666" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205917358398</t>
+    <t xml:space="preserve">1.80205893516541</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">1.87729644775391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91127467155457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90763401985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90399372577667</t>
+    <t xml:space="preserve">1.91127479076385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90763425827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90399360656738</t>
   </si>
   <si>
     <t xml:space="preserve">1.89307188987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85909402370453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394762992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8809369802475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86637496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84574544429779</t>
+    <t xml:space="preserve">1.85909366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86637485027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84574520587921</t>
   </si>
   <si>
     <t xml:space="preserve">1.84453153610229</t>
@@ -83,88 +83,88 @@
     <t xml:space="preserve">1.82268857955933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83239650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967792987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84089124202728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83482360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695863723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.825115442276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8287558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80934035778046</t>
+    <t xml:space="preserve">1.83239674568176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967733383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84089136123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83482348918915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695875644684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82511556148529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82875621318817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80934011936188</t>
   </si>
   <si>
     <t xml:space="preserve">1.83361005783081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86273419857025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86880159378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758840084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.860307097435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86152076721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89549922943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89913964271545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700461387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85363280773163</t>
+    <t xml:space="preserve">1.86273431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972366809845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86880218982697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758852005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030769348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8615208864212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89549911022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89913952350616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700425624847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85363304615021</t>
   </si>
   <si>
     <t xml:space="preserve">1.85666680335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89003813266754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610612392426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8779034614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486922740936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970067977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9476797580719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91734194755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92340993881226</t>
+    <t xml:space="preserve">1.89003849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89610588550568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970056056976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94768011569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91734230518341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92340958118439</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161224365234</t>
@@ -176,73 +176,73 @@
     <t xml:space="preserve">1.93554484844208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93857848644257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0022873878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97801756858826</t>
+    <t xml:space="preserve">1.93857860565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00228762626648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97801744937897</t>
   </si>
   <si>
     <t xml:space="preserve">1.9719500541687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93251097202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99925422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99015259742737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02352404594421</t>
+    <t xml:space="preserve">1.93251121044159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99925374984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99015247821808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02352428436279</t>
   </si>
   <si>
     <t xml:space="preserve">2.02959132194519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00835514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02048993110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01745653152466</t>
+    <t xml:space="preserve">2.00835490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02049040794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01745676994324</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99622011184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082821846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10274791717529</t>
+    <t xml:space="preserve">1.9962203502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0508279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10274767875671</t>
   </si>
   <si>
     <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09301280975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05407285690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486801147461</t>
+    <t xml:space="preserve">2.09301257133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0540726184845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486777305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784799575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0702977180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652234077454</t>
+    <t xml:space="preserve">2.07029819488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652281761169</t>
   </si>
   <si>
     <t xml:space="preserve">2.08976769447327</t>
@@ -251,64 +251,64 @@
     <t xml:space="preserve">2.07354283332825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625792503357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01188850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96645879745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.998908162117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215315818787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268353939056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02811336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98592829704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04109287261963</t>
+    <t xml:space="preserve">2.09625816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01188826560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96645843982697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268365859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02811288833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98592841625214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162337303162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04109311103821</t>
   </si>
   <si>
     <t xml:space="preserve">2.04433822631836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05731821060181</t>
+    <t xml:space="preserve">2.05731797218323</t>
   </si>
   <si>
     <t xml:space="preserve">2.08003282546997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0605628490448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12870764732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10599279403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09950280189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10923743247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04758262634277</t>
+    <t xml:space="preserve">2.06056308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0670530796051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12870717048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10599303245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09950256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10923767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04758286476135</t>
   </si>
   <si>
     <t xml:space="preserve">2.06380796432495</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">2.01513314247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11248254776001</t>
+    <t xml:space="preserve">2.11248278617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.13195252418518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17413711547852</t>
+    <t xml:space="preserve">2.17413735389709</t>
   </si>
   <si>
     <t xml:space="preserve">2.18387222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14168739318848</t>
+    <t xml:space="preserve">2.14168763160706</t>
   </si>
   <si>
     <t xml:space="preserve">2.18711733818054</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">2.18062710762024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14493298530579</t>
+    <t xml:space="preserve">2.14493227005005</t>
   </si>
   <si>
     <t xml:space="preserve">2.12546253204346</t>
@@ -359,46 +359,46 @@
     <t xml:space="preserve">2.17738223075867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23903703689575</t>
+    <t xml:space="preserve">2.23903679847717</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605681419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1644024848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16764736175537</t>
+    <t xml:space="preserve">2.16440224647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16764712333679</t>
   </si>
   <si>
     <t xml:space="preserve">2.12221765518188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1384425163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31367158889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307706832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21956729888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685196876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1579122543335</t>
+    <t xml:space="preserve">2.13844227790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31367182731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069136619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307730674744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21956706047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685220718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15791273117065</t>
   </si>
   <si>
     <t xml:space="preserve">2.1481773853302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16115713119507</t>
+    <t xml:space="preserve">2.16115736961365</t>
   </si>
   <si>
     <t xml:space="preserve">2.11897277832031</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">2.03135800361633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01837849617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99241805076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03460288047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25746512413025</t>
+    <t xml:space="preserve">2.01837801933289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99241840839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03460311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25746464729309</t>
   </si>
   <si>
     <t xml:space="preserve">2.11811518669128</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">2.11114764213562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10417985916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09024548530579</t>
+    <t xml:space="preserve">2.10418009757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09024524688721</t>
   </si>
   <si>
     <t xml:space="preserve">2.02753782272339</t>
@@ -437,121 +437,121 @@
     <t xml:space="preserve">1.99270057678223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98573327064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9578629732132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392788410187</t>
+    <t xml:space="preserve">1.98573291301727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95786309242249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392800331116</t>
   </si>
   <si>
     <t xml:space="preserve">1.92999303340912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92302584648132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83941614627838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88122069835663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244836330414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064321517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154561042786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86728584766388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81851327419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86031806468964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80457830429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367602825165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818824291229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212321281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909075737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84638333320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82548069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79761099815369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77670860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74883854389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187111854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490345478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7558057308197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793614864349</t>
+    <t xml:space="preserve">1.92302548885345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8394159078598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8812210559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244872093201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064309597015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154584884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335099697113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86728596687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81851351261139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86031830310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80457842350006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367590904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425339221954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515578746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818800449371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212297439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909028053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84638321399689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82548081874847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79761075973511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77670848369598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187099933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490369319916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75580585002899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793591022491</t>
   </si>
   <si>
     <t xml:space="preserve">1.76277351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97179782390594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02057027816772</t>
+    <t xml:space="preserve">1.9717983007431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0205705165863</t>
   </si>
   <si>
     <t xml:space="preserve">2.01360297203064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00663566589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97876560688019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696057796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96483063697815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95089566707611</t>
+    <t xml:space="preserve">2.0066351890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97876584529877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696069717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96483051776886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95089554786682</t>
   </si>
   <si>
     <t xml:space="preserve">1.76974093914032</t>
@@ -560,31 +560,31 @@
     <t xml:space="preserve">1.64432609081268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5189117193222</t>
+    <t xml:space="preserve">1.51891160011292</t>
   </si>
   <si>
     <t xml:space="preserve">1.72096872329712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67219626903534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981399536133</t>
+    <t xml:space="preserve">1.67219614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981387615204</t>
   </si>
   <si>
     <t xml:space="preserve">1.56071650981903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47013926506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923663139343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47710645198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407423496246</t>
+    <t xml:space="preserve">1.47013902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4771066904068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407411575317</t>
   </si>
   <si>
     <t xml:space="preserve">1.42833423614502</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.44226920604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43530166149139</t>
+    <t xml:space="preserve">1.43530142307281</t>
   </si>
   <si>
     <t xml:space="preserve">1.49104154109955</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">1.59555387496948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54678165912628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55374896526337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62342381477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58161878585815</t>
+    <t xml:space="preserve">1.54678153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55374920368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62342393398285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58161890506744</t>
   </si>
   <si>
     <t xml:space="preserve">1.53284657001495</t>
@@ -629,91 +629,91 @@
     <t xml:space="preserve">1.57465159893036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60252130031586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60948884487152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58858609199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70703363418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768405437469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61645638942719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6861310005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91605818271637</t>
+    <t xml:space="preserve">1.60252118110657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60948872566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58858621120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7070335149765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768393516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6164562702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68613135814667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91605830192566</t>
   </si>
   <si>
     <t xml:space="preserve">2.06839728355408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00887489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84518885612488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310703277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82286822795868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80054712295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78566670417786</t>
+    <t xml:space="preserve">2.00887537002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84518897533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8303085565567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310715198517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82286787033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8005473613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78566682338715</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846518039703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83774864673615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8526291847229</t>
+    <t xml:space="preserve">1.83774888515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542789936066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262930393219</t>
   </si>
   <si>
     <t xml:space="preserve">1.80798768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86006939411163</t>
+    <t xml:space="preserve">1.86006963253021</t>
   </si>
   <si>
     <t xml:space="preserve">1.87494993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88983070850372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7707861661911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73358476161957</t>
+    <t xml:space="preserve">1.88983035087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77078628540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73358464241028</t>
   </si>
   <si>
     <t xml:space="preserve">1.69638323783875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68894302845001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70382368564606</t>
+    <t xml:space="preserve">1.6889431476593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70382356643677</t>
   </si>
   <si>
     <t xml:space="preserve">1.71870410442352</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">1.7112637758255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75590538978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76334583759308</t>
+    <t xml:space="preserve">1.75590550899506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76334547996521</t>
   </si>
   <si>
     <t xml:space="preserve">1.74102473258972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66662228107452</t>
+    <t xml:space="preserve">1.66662240028381</t>
   </si>
   <si>
     <t xml:space="preserve">1.68150281906128</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">1.67406249046326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65918207168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64430129528046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63686120510101</t>
+    <t xml:space="preserve">1.65918219089508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174174308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64430117607117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63686108589172</t>
   </si>
   <si>
     <t xml:space="preserve">1.62942087650299</t>
@@ -764,43 +764,43 @@
     <t xml:space="preserve">1.6071001291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61454010009766</t>
+    <t xml:space="preserve">1.61454033851624</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221947193146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57733881473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5178165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48061537742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49549603462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48805570602417</t>
+    <t xml:space="preserve">1.5773389339447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781666278839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48061549663544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49549579620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48805558681488</t>
   </si>
   <si>
     <t xml:space="preserve">1.47317504882812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46945476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93447208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167384624481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935274124146</t>
+    <t xml:space="preserve">1.46945488452911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750936508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447232246399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167360782623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935262203217</t>
   </si>
   <si>
     <t xml:space="preserve">1.94191265106201</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">1.92703187465668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96423375606537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98655414581299</t>
+    <t xml:space="preserve">1.96423351764679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
     <t xml:space="preserve">1.99399471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95679295063019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00143456459045</t>
+    <t xml:space="preserve">1.95679330825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00143504142761</t>
   </si>
   <si>
     <t xml:space="preserve">2.03119564056396</t>
@@ -833,34 +833,34 @@
     <t xml:space="preserve">2.0758376121521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09071803092957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10559844970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1279194355011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14280009269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11303877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0832781791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04607653617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12047910690308</t>
+    <t xml:space="preserve">2.09071826934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10559868812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12791967391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14279985427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11303901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04607629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1204788684845</t>
   </si>
   <si>
     <t xml:space="preserve">2.09815835952759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13535976409912</t>
+    <t xml:space="preserve">2.13535952568054</t>
   </si>
   <si>
     <t xml:space="preserve">2.1874418258667</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.22464299201965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21720266342163</t>
+    <t xml:space="preserve">2.21720290184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.2395236492157</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">2.20976233482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20232224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23208332061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24696373939514</t>
+    <t xml:space="preserve">2.20232200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23208355903625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24696397781372</t>
   </si>
   <si>
     <t xml:space="preserve">2.25440430641174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27723097801208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28492450714111</t>
+    <t xml:space="preserve">2.26184439659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27723073959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28492426872253</t>
   </si>
   <si>
     <t xml:space="preserve">2.31569790840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26953792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32339096069336</t>
+    <t xml:space="preserve">2.26953768730164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32339119911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.29261779785156</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43879175186157</t>
+    <t xml:space="preserve">2.43879151344299</t>
   </si>
   <si>
     <t xml:space="preserve">2.4080183506012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38493800163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42340469360352</t>
+    <t xml:space="preserve">2.38493776321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42340493202209</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109822273254</t>
@@ -953,25 +953,25 @@
     <t xml:space="preserve">2.40032458305359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47725820541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46187138557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48495125770569</t>
+    <t xml:space="preserve">2.4772584438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46187162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48495173454285</t>
   </si>
   <si>
     <t xml:space="preserve">2.4926450252533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50803184509277</t>
+    <t xml:space="preserve">2.50803160667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.51572489738464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52341818809509</t>
+    <t xml:space="preserve">2.52341794967651</t>
   </si>
   <si>
     <t xml:space="preserve">2.53111171722412</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">2.56957817077637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59265828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57727146148682</t>
+    <t xml:space="preserve">2.59265851974487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5772716999054</t>
   </si>
   <si>
     <t xml:space="preserve">2.58496499061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60035181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60804533958435</t>
+    <t xml:space="preserve">2.60035228729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60804510116577</t>
   </si>
   <si>
     <t xml:space="preserve">2.65420532226562</t>
@@ -1004,34 +1004,34 @@
     <t xml:space="preserve">2.63881850242615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70805883407593</t>
+    <t xml:space="preserve">2.70805859565735</t>
   </si>
   <si>
     <t xml:space="preserve">2.72344517707825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80037903785706</t>
+    <t xml:space="preserve">2.8003785610199</t>
   </si>
   <si>
     <t xml:space="preserve">2.7696053981781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77729845046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85423254966736</t>
+    <t xml:space="preserve">2.77729868888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85423231124878</t>
   </si>
   <si>
     <t xml:space="preserve">2.84653902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83115243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86192584037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8080723285675</t>
+    <t xml:space="preserve">2.83115220069885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86192560195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80807209014893</t>
   </si>
   <si>
     <t xml:space="preserve">2.81576538085938</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.8388454914093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87731218338013</t>
+    <t xml:space="preserve">2.87731266021729</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.93116593360901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9234721660614</t>
+    <t xml:space="preserve">2.92347240447998</t>
   </si>
   <si>
     <t xml:space="preserve">2.95424580574036</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">2.91577911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93885898590088</t>
+    <t xml:space="preserve">2.93885922431946</t>
   </si>
   <si>
     <t xml:space="preserve">2.90808582305908</t>
@@ -1794,6 +1794,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.80999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76999998092651</t>
   </si>
 </sst>
 </file>
@@ -45503,7 +45506,7 @@
     </row>
     <row r="1669">
       <c r="A1669" s="1" t="n">
-        <v>45461.6493287037</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B1669" t="n">
         <v>34682</v>
@@ -45524,6 +45527,32 @@
         <v>593</v>
       </c>
       <c r="H1669" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="1" t="n">
+        <v>45462.6495023148</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>27179</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>3.82999992370605</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>3.72000002861023</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1670" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205893516541</t>
+    <t xml:space="preserve">1.80205881595612</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87729644775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91127479076385</t>
+    <t xml:space="preserve">1.87729668617249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91127490997314</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763425827026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399360656738</t>
+    <t xml:space="preserve">1.90399384498596</t>
   </si>
   <si>
     <t xml:space="preserve">1.89307188987732</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">1.85909366607666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86394786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88093662261963</t>
+    <t xml:space="preserve">1.86394810676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88093709945679</t>
   </si>
   <si>
     <t xml:space="preserve">1.86637485027313</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">1.84574520587921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84453153610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84210479259491</t>
+    <t xml:space="preserve">1.84453177452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84210431575775</t>
   </si>
   <si>
     <t xml:space="preserve">1.82268857955933</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">1.83239674568176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83967733383179</t>
+    <t xml:space="preserve">1.83967757225037</t>
   </si>
   <si>
     <t xml:space="preserve">1.84089136123657</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">1.82511556148529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82875621318817</t>
+    <t xml:space="preserve">1.82875597476959</t>
   </si>
   <si>
     <t xml:space="preserve">1.80934011936188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83361005783081</t>
+    <t xml:space="preserve">1.8336101770401</t>
   </si>
   <si>
     <t xml:space="preserve">1.86273431777954</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">1.87972366809845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86880218982697</t>
+    <t xml:space="preserve">1.86880195140839</t>
   </si>
   <si>
     <t xml:space="preserve">1.86758852005005</t>
@@ -125,19 +125,19 @@
     <t xml:space="preserve">1.86030769348145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8615208864212</t>
+    <t xml:space="preserve">1.86152064800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549911022186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89913952350616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700425624847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85363304615021</t>
+    <t xml:space="preserve">1.89913976192474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700449466705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8536331653595</t>
   </si>
   <si>
     <t xml:space="preserve">1.85666680335999</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">1.89610588550568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87790298461914</t>
+    <t xml:space="preserve">1.87790322303772</t>
   </si>
   <si>
     <t xml:space="preserve">1.87486934661865</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">1.91734230518341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92340958118439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644333839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93554484844208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857860565186</t>
+    <t xml:space="preserve">1.92340981960297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161248207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644357681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9355446100235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857884407043</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228762626648</t>
@@ -185,88 +185,88 @@
     <t xml:space="preserve">1.97801744937897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9719500541687</t>
+    <t xml:space="preserve">1.97195029258728</t>
   </si>
   <si>
     <t xml:space="preserve">1.93251121044159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99925374984741</t>
+    <t xml:space="preserve">1.99925398826599</t>
   </si>
   <si>
     <t xml:space="preserve">1.99015247821808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02352428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02959132194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00835490226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02049040794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01745676994324</t>
+    <t xml:space="preserve">2.02352404594421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00835514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02049016952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01745629310608</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9962203502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0508279800415</t>
+    <t xml:space="preserve">1.99622011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05082821846008</t>
   </si>
   <si>
     <t xml:space="preserve">2.10274767875671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08327794075012</t>
+    <t xml:space="preserve">2.08327770233154</t>
   </si>
   <si>
     <t xml:space="preserve">2.09301257133484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0540726184845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486777305603</t>
+    <t xml:space="preserve">2.05407309532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486824989319</t>
   </si>
   <si>
     <t xml:space="preserve">2.03784799575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07029819488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08652281761169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976769447327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354283332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625816345215</t>
+    <t xml:space="preserve">2.07029795646667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08652257919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976793289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625768661499</t>
   </si>
   <si>
     <t xml:space="preserve">2.01188826560974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96645843982697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268365859985</t>
+    <t xml:space="preserve">1.96645867824554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890804290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215315818787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268353939056</t>
   </si>
   <si>
     <t xml:space="preserve">2.02811288833618</t>
@@ -281,28 +281,28 @@
     <t xml:space="preserve">2.04109311103821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04433822631836</t>
+    <t xml:space="preserve">2.04433798789978</t>
   </si>
   <si>
     <t xml:space="preserve">2.05731797218323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08003282546997</t>
+    <t xml:space="preserve">2.08003306388855</t>
   </si>
   <si>
     <t xml:space="preserve">2.06056308746338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0670530796051</t>
+    <t xml:space="preserve">2.06705284118652</t>
   </si>
   <si>
     <t xml:space="preserve">2.12870717048645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10599303245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09950256347656</t>
+    <t xml:space="preserve">2.10599279403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09950232505798</t>
   </si>
   <si>
     <t xml:space="preserve">2.10923767089844</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">2.04758286476135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06380796432495</t>
+    <t xml:space="preserve">2.06380772590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.07678771018982</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">2.13195252418518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17413735389709</t>
+    <t xml:space="preserve">2.17413711547852</t>
   </si>
   <si>
     <t xml:space="preserve">2.18387222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14168763160706</t>
+    <t xml:space="preserve">2.14168739318848</t>
   </si>
   <si>
     <t xml:space="preserve">2.18711733818054</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">2.20658731460571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18062710762024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14493227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12546253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17738223075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23903679847717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22605681419373</t>
+    <t xml:space="preserve">2.18062734603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14493250846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12546300888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17738246917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23903703689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2260570526123</t>
   </si>
   <si>
     <t xml:space="preserve">2.16440224647522</t>
@@ -374,37 +374,37 @@
     <t xml:space="preserve">2.12221765518188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13844227790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31367182731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30069136619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21307730674744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21956706047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685220718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15791273117065</t>
+    <t xml:space="preserve">2.1384425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31367135047913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3006911277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21307706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.219566822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685244560242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15791249275208</t>
   </si>
   <si>
     <t xml:space="preserve">2.1481773853302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16115736961365</t>
+    <t xml:space="preserve">2.16115713119507</t>
   </si>
   <si>
     <t xml:space="preserve">2.11897277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03135800361633</t>
+    <t xml:space="preserve">2.03135824203491</t>
   </si>
   <si>
     <t xml:space="preserve">2.01837801933289</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">2.03460311889648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25746464729309</t>
+    <t xml:space="preserve">2.25746440887451</t>
   </si>
   <si>
     <t xml:space="preserve">2.11811518669128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11114764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418009757996</t>
+    <t xml:space="preserve">2.11114811897278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418033599854</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024524688721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02753782272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99270057678223</t>
+    <t xml:space="preserve">2.02753758430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99270033836365</t>
   </si>
   <si>
     <t xml:space="preserve">1.98573291301727</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">1.95786309242249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94392800331116</t>
+    <t xml:space="preserve">1.94392824172974</t>
   </si>
   <si>
     <t xml:space="preserve">1.92999303340912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92302548885345</t>
+    <t xml:space="preserve">1.92302572727203</t>
   </si>
   <si>
     <t xml:space="preserve">1.8394159078598</t>
@@ -458,94 +458,94 @@
     <t xml:space="preserve">1.8812210559845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83244872093201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064309597015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154584884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85335099697113</t>
+    <t xml:space="preserve">1.83244824409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064357280731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154572963715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85335075855255</t>
   </si>
   <si>
     <t xml:space="preserve">1.86728596687317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81851351261139</t>
+    <t xml:space="preserve">1.8185133934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.86031830310822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80457842350006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78367590904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87425339221954</t>
+    <t xml:space="preserve">1.80457830429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78367578983307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87425303459167</t>
   </si>
   <si>
     <t xml:space="preserve">1.89515578746796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88818800449371</t>
+    <t xml:space="preserve">1.88818848133087</t>
   </si>
   <si>
     <t xml:space="preserve">1.90212297439575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90909028053284</t>
+    <t xml:space="preserve">1.90909075737</t>
   </si>
   <si>
     <t xml:space="preserve">1.84638321399689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82548081874847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79761075973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77670848369598</t>
+    <t xml:space="preserve">1.8254805803299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79761064052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7767082452774</t>
   </si>
   <si>
     <t xml:space="preserve">1.74883842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74187099933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73490369319916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75580585002899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793591022491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9717983007431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0205705165863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01360297203064</t>
+    <t xml:space="preserve">1.74187111854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73490333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75580608844757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76277327537537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97179806232452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02057075500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01360321044922</t>
   </si>
   <si>
     <t xml:space="preserve">2.0066351890564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97876584529877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696069717407</t>
+    <t xml:space="preserve">1.97876560688019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696045875549</t>
   </si>
   <si>
     <t xml:space="preserve">1.96483051776886</t>
@@ -554,55 +554,55 @@
     <t xml:space="preserve">1.95089554786682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76974093914032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432609081268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891160011292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096872329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981387615204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56071650981903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47013902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44923686981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4771066904068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48407411575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42833423614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44226920604706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43530142307281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104154109955</t>
+    <t xml:space="preserve">1.76974105834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432632923126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51891148090363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096848487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219603061676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981411457062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56071639060974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47013914585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44923675060272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47710657119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48407435417175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42833411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44226908683777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43530166149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104177951813</t>
   </si>
   <si>
     <t xml:space="preserve">1.50497663021088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46317160129547</t>
+    <t xml:space="preserve">1.46317172050476</t>
   </si>
   <si>
     <t xml:space="preserve">1.49800908565521</t>
@@ -614,106 +614,106 @@
     <t xml:space="preserve">1.54678153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55374920368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62342393398285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58161890506744</t>
+    <t xml:space="preserve">1.55374908447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62342369556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58161866664886</t>
   </si>
   <si>
     <t xml:space="preserve">1.53284657001495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57465159893036</t>
+    <t xml:space="preserve">1.57465136051178</t>
   </si>
   <si>
     <t xml:space="preserve">1.60252118110657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60948872566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58858621120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7070335149765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768393516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6164562702179</t>
+    <t xml:space="preserve">1.60948884487152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58858633041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70703363418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768405437469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61645638942719</t>
   </si>
   <si>
     <t xml:space="preserve">1.68613135814667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605830192566</t>
+    <t xml:space="preserve">1.91605806350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.06839728355408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00887537002563</t>
+    <t xml:space="preserve">2.00887513160706</t>
   </si>
   <si>
     <t xml:space="preserve">1.84518897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8303085565567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79310715198517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82286787033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8005473613739</t>
+    <t xml:space="preserve">1.83030819892883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79310703277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82286810874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80054748058319</t>
   </si>
   <si>
     <t xml:space="preserve">1.78566682338715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74846518039703</t>
+    <t xml:space="preserve">1.74846529960632</t>
   </si>
   <si>
     <t xml:space="preserve">1.83774888515472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81542789936066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262930393219</t>
+    <t xml:space="preserve">1.81542766094208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262906551361</t>
   </si>
   <si>
     <t xml:space="preserve">1.80798768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86006963253021</t>
+    <t xml:space="preserve">1.86006939411163</t>
   </si>
   <si>
     <t xml:space="preserve">1.87494993209839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88983035087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77078628540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73358464241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69638323783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6889431476593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70382356643677</t>
+    <t xml:space="preserve">1.88983058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77078640460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73358488082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69638347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68894302845001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70382332801819</t>
   </si>
   <si>
     <t xml:space="preserve">1.71870410442352</t>
@@ -722,64 +722,64 @@
     <t xml:space="preserve">1.72614443302155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7112637758255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75590550899506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76334547996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74102473258972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66662240028381</t>
+    <t xml:space="preserve">1.71126365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75590562820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76334583759308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74102509021759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66662228107452</t>
   </si>
   <si>
     <t xml:space="preserve">1.68150281906128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77822649478912</t>
+    <t xml:space="preserve">1.77822637557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.67406249046326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65918219089508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65174174308777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64430117607117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63686108589172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62942087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6071001291275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61454033851624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221947193146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5773389339447</t>
+    <t xml:space="preserve">1.65918207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65174162387848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64430129528046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6368613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62942099571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60710000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61454045772552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221959114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57733881473541</t>
   </si>
   <si>
     <t xml:space="preserve">1.51781666278839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48061549663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49549579620361</t>
+    <t xml:space="preserve">1.48061537742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4954959154129</t>
   </si>
   <si>
     <t xml:space="preserve">1.48805558681488</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">1.47317504882812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46945488452911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750936508179</t>
+    <t xml:space="preserve">1.4694550037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750960350037</t>
   </si>
   <si>
     <t xml:space="preserve">1.93447232246399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97167360782623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935262203217</t>
+    <t xml:space="preserve">1.97167384624481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935286045074</t>
   </si>
   <si>
     <t xml:space="preserve">1.94191265106201</t>
@@ -809,52 +809,49 @@
     <t xml:space="preserve">1.92703187465668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96423351764679</t>
+    <t xml:space="preserve">1.96423327922821</t>
   </si>
   <si>
     <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99399471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95679330825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00143504142761</t>
+    <t xml:space="preserve">1.99399447441101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95679306983948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00143480300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.03119564056396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06095671653748</t>
+    <t xml:space="preserve">2.06095719337463</t>
   </si>
   <si>
     <t xml:space="preserve">2.0758376121521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09071826934814</t>
+    <t xml:space="preserve">2.09071803092957</t>
   </si>
   <si>
     <t xml:space="preserve">2.10559868812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12791967391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14279985427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11303901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327770233154</t>
+    <t xml:space="preserve">2.1279194355011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14280009269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11303877830505</t>
   </si>
   <si>
     <t xml:space="preserve">2.04607629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1204788684845</t>
+    <t xml:space="preserve">2.12047910690308</t>
   </si>
   <si>
     <t xml:space="preserve">2.09815835952759</t>
@@ -869,16 +866,16 @@
     <t xml:space="preserve">2.22464299201965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21720290184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2395236492157</t>
+    <t xml:space="preserve">2.21720266342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23952388763428</t>
   </si>
   <si>
     <t xml:space="preserve">2.20976233482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20232200622559</t>
+    <t xml:space="preserve">2.20232224464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.23208355903625</t>
@@ -893,16 +890,16 @@
     <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27723073959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28492426872253</t>
+    <t xml:space="preserve">2.27723121643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28492450714111</t>
   </si>
   <si>
     <t xml:space="preserve">2.31569790840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26953768730164</t>
+    <t xml:space="preserve">2.26953792572021</t>
   </si>
   <si>
     <t xml:space="preserve">2.32339119911194</t>
@@ -911,19 +908,19 @@
     <t xml:space="preserve">2.29261779785156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30031132698059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30800461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34647130966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36185812950134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41571140289307</t>
+    <t xml:space="preserve">2.30031085014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30800437927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34647154808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36185765266418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41571164131165</t>
   </si>
   <si>
     <t xml:space="preserve">2.39263129234314</t>
@@ -935,16 +932,16 @@
     <t xml:space="preserve">2.45417833328247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43879151344299</t>
+    <t xml:space="preserve">2.43879127502441</t>
   </si>
   <si>
     <t xml:space="preserve">2.4080183506012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38493776321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42340493202209</t>
+    <t xml:space="preserve">2.38493800163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42340517044067</t>
   </si>
   <si>
     <t xml:space="preserve">2.43109822273254</t>
@@ -965,13 +962,13 @@
     <t xml:space="preserve">2.4926450252533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50803160667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51572489738464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52341794967651</t>
+    <t xml:space="preserve">2.50803136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51572513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52341818809509</t>
   </si>
   <si>
     <t xml:space="preserve">2.53111171722412</t>
@@ -980,10 +977,10 @@
     <t xml:space="preserve">2.50033831596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56957817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59265851974487</t>
+    <t xml:space="preserve">2.56957840919495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59265828132629</t>
   </si>
   <si>
     <t xml:space="preserve">2.5772716999054</t>
@@ -992,13 +989,13 @@
     <t xml:space="preserve">2.58496499061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60035228729248</t>
+    <t xml:space="preserve">2.60035181045532</t>
   </si>
   <si>
     <t xml:space="preserve">2.60804510116577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65420532226562</t>
+    <t xml:space="preserve">2.65420508384705</t>
   </si>
   <si>
     <t xml:space="preserve">2.63881850242615</t>
@@ -1007,7 +1004,7 @@
     <t xml:space="preserve">2.70805859565735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72344517707825</t>
+    <t xml:space="preserve">2.72344541549683</t>
   </si>
   <si>
     <t xml:space="preserve">2.8003785610199</t>
@@ -1019,7 +1016,7 @@
     <t xml:space="preserve">2.77729868888855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85423231124878</t>
+    <t xml:space="preserve">2.85423254966736</t>
   </si>
   <si>
     <t xml:space="preserve">2.84653902053833</t>
@@ -1028,19 +1025,19 @@
     <t xml:space="preserve">2.83115220069885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86192560195923</t>
+    <t xml:space="preserve">2.86192584037781</t>
   </si>
   <si>
     <t xml:space="preserve">2.80807209014893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81576538085938</t>
+    <t xml:space="preserve">2.81576561927795</t>
   </si>
   <si>
     <t xml:space="preserve">2.8388454914093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87731266021729</t>
+    <t xml:space="preserve">2.87731242179871</t>
   </si>
   <si>
     <t xml:space="preserve">2.88500571250916</t>
@@ -1064,7 +1061,7 @@
     <t xml:space="preserve">2.93885922431946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90808582305908</t>
+    <t xml:space="preserve">2.90808606147766</t>
   </si>
   <si>
     <t xml:space="preserve">2.96276879310608</t>
@@ -1073,7 +1070,7 @@
     <t xml:space="preserve">2.93906664848328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00227189064026</t>
+    <t xml:space="preserve">3.00227212905884</t>
   </si>
   <si>
     <t xml:space="preserve">3.04967641830444</t>
@@ -1085,7 +1082,7 @@
     <t xml:space="preserve">3.08127951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05757713317871</t>
+    <t xml:space="preserve">3.05757737159729</t>
   </si>
   <si>
     <t xml:space="preserve">3.04177570343018</t>
@@ -1094,15 +1091,12 @@
     <t xml:space="preserve">3.07337880134583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01807355880737</t>
+    <t xml:space="preserve">3.01807379722595</t>
   </si>
   <si>
     <t xml:space="preserve">2.95486783981323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93116617202759</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.98647093772888</t>
   </si>
   <si>
@@ -1118,10 +1112,10 @@
     <t xml:space="preserve">2.97066926956177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01017308235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06547808647156</t>
+    <t xml:space="preserve">3.01017284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06547784805298</t>
   </si>
   <si>
     <t xml:space="preserve">3.02597451210022</t>
@@ -1130,13 +1124,13 @@
     <t xml:space="preserve">3.03387498855591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99437165260315</t>
+    <t xml:space="preserve">2.99437141418457</t>
   </si>
   <si>
     <t xml:space="preserve">2.85215830802917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84425783157349</t>
+    <t xml:space="preserve">2.84425759315491</t>
   </si>
   <si>
     <t xml:space="preserve">2.89166212081909</t>
@@ -1145,7 +1139,7 @@
     <t xml:space="preserve">3.11288237571716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83635711669922</t>
+    <t xml:space="preserve">2.8363573551178</t>
   </si>
   <si>
     <t xml:space="preserve">2.77315139770508</t>
@@ -1154,16 +1148,16 @@
     <t xml:space="preserve">2.74944925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64673972129822</t>
+    <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
     <t xml:space="preserve">2.51242804527283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41761922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46502327919006</t>
+    <t xml:space="preserve">2.41761946678162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46502351760864</t>
   </si>
   <si>
     <t xml:space="preserve">2.60723638534546</t>
@@ -1172,16 +1166,16 @@
     <t xml:space="preserve">2.61513710021973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76525092124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8837616443634</t>
+    <t xml:space="preserve">2.76525068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88376140594482</t>
   </si>
   <si>
     <t xml:space="preserve">2.75735020637512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89956307411194</t>
+    <t xml:space="preserve">2.89956283569336</t>
   </si>
   <si>
     <t xml:space="preserve">3.1286838054657</t>
@@ -1193,22 +1187,22 @@
     <t xml:space="preserve">3.20769095420837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19188952445984</t>
+    <t xml:space="preserve">3.19188928604126</t>
   </si>
   <si>
     <t xml:space="preserve">3.22349214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19979023933411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16028666496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09708094596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23139333724976</t>
+    <t xml:space="preserve">3.19979047775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16028642654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09708070755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23139309883118</t>
   </si>
   <si>
     <t xml:space="preserve">3.21559166908264</t>
@@ -1220,7 +1214,7 @@
     <t xml:space="preserve">3.15238571166992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17608833312988</t>
+    <t xml:space="preserve">3.1760880947113</t>
   </si>
   <si>
     <t xml:space="preserve">3.31743216514587</t>
@@ -1797,6 +1791,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.76999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82999992370605</t>
   </si>
 </sst>
 </file>
@@ -23476,7 +23473,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23502,7 +23499,7 @@
         <v>2.75</v>
       </c>
       <c r="G822" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23528,7 +23525,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23554,7 +23551,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23606,7 +23603,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G826" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23684,7 +23681,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G829" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23788,7 +23785,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G833" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23814,7 +23811,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G834" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23866,7 +23863,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23892,7 +23889,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G837" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23918,7 +23915,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G838" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23944,7 +23941,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G839" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23970,7 +23967,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G840" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23996,7 +23993,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G841" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24022,7 +24019,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G842" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24048,7 +24045,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24074,7 +24071,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G844" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24100,7 +24097,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24126,7 +24123,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G846" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24152,7 +24149,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G847" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24178,7 +24175,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G848" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24204,7 +24201,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G849" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24230,7 +24227,7 @@
         <v>3</v>
       </c>
       <c r="G850" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24256,7 +24253,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24282,7 +24279,7 @@
         <v>3</v>
       </c>
       <c r="G852" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24308,7 +24305,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G853" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24334,7 +24331,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G854" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24360,7 +24357,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24386,7 +24383,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G856" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24412,7 +24409,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G857" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24438,7 +24435,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G858" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24464,7 +24461,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G859" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24490,7 +24487,7 @@
         <v>3</v>
       </c>
       <c r="G860" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24516,7 +24513,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G861" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24542,7 +24539,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24568,7 +24565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24594,7 +24591,7 @@
         <v>3</v>
       </c>
       <c r="G864" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24620,7 +24617,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24646,7 +24643,7 @@
         <v>3</v>
       </c>
       <c r="G866" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24672,7 +24669,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G867" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24698,7 +24695,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24724,7 +24721,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G869" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24750,7 +24747,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24776,7 +24773,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G871" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24802,7 +24799,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G872" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24828,7 +24825,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24854,7 +24851,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G874" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24880,7 +24877,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G875" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24906,7 +24903,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G876" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24932,7 +24929,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G877" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24958,7 +24955,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24984,7 +24981,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G879" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25010,7 +25007,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25036,7 +25033,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G881" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25062,7 +25059,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25088,7 +25085,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25114,7 +25111,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G884" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25140,7 +25137,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G885" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25166,7 +25163,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25192,7 +25189,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G887" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25218,7 +25215,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G888" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25244,7 +25241,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G889" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25270,7 +25267,7 @@
         <v>3</v>
       </c>
       <c r="G890" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25296,7 +25293,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25322,7 +25319,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G892" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25348,7 +25345,7 @@
         <v>3</v>
       </c>
       <c r="G893" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25374,7 +25371,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G894" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25400,7 +25397,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G895" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25426,7 +25423,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G896" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25452,7 +25449,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25478,7 +25475,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G898" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25504,7 +25501,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G899" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25530,7 +25527,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G900" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25556,7 +25553,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G901" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25582,7 +25579,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G902" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25608,7 +25605,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G903" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25634,7 +25631,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25660,7 +25657,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G905" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25686,7 +25683,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G906" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25712,7 +25709,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G907" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25738,7 +25735,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G908" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25764,7 +25761,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G909" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25790,7 +25787,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G910" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25816,7 +25813,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25842,7 +25839,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G912" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25868,7 +25865,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G913" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25894,7 +25891,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G914" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25920,7 +25917,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G915" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25946,7 +25943,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G916" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25972,7 +25969,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G917" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25998,7 +25995,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G918" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26024,7 +26021,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G919" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26050,7 +26047,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G920" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26076,7 +26073,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G921" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26102,7 +26099,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G922" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26128,7 +26125,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G923" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26154,7 +26151,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G924" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26180,7 +26177,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G925" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26206,7 +26203,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G926" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26232,7 +26229,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26258,7 +26255,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G928" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26284,7 +26281,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26310,7 +26307,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26336,7 +26333,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G931" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26362,7 +26359,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G932" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26388,7 +26385,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G933" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26414,7 +26411,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G934" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26440,7 +26437,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G935" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26466,7 +26463,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26492,7 +26489,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G937" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26518,7 +26515,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G938" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26544,7 +26541,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G939" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26570,7 +26567,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G940" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26596,7 +26593,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G941" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26622,7 +26619,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G942" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26648,7 +26645,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26674,7 +26671,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26700,7 +26697,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26726,7 +26723,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G946" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26752,7 +26749,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26778,7 +26775,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G948" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26804,7 +26801,7 @@
         <v>3.25</v>
       </c>
       <c r="G949" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26830,7 +26827,7 @@
         <v>3.25</v>
       </c>
       <c r="G950" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26856,7 +26853,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G951" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26882,7 +26879,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G952" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26908,7 +26905,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G953" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26934,7 +26931,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G954" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26960,7 +26957,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G955" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26986,7 +26983,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G956" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27012,7 +27009,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G957" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27038,7 +27035,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G958" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27064,7 +27061,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G959" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27090,7 +27087,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G960" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27116,7 +27113,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G961" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27142,7 +27139,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G962" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27168,7 +27165,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27194,7 +27191,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G964" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27220,7 +27217,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G965" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27246,7 +27243,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G966" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27272,7 +27269,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27298,7 +27295,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G968" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27324,7 +27321,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G969" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27350,7 +27347,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G970" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27376,7 +27373,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G971" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27402,7 +27399,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G972" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27428,7 +27425,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27454,7 +27451,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G974" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27480,7 +27477,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G975" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27506,7 +27503,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G976" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27532,7 +27529,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G977" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27558,7 +27555,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G978" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27584,7 +27581,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G979" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27610,7 +27607,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G980" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27636,7 +27633,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27662,7 +27659,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G982" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27688,7 +27685,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G983" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27714,7 +27711,7 @@
         <v>3.75</v>
       </c>
       <c r="G984" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27740,7 +27737,7 @@
         <v>3.75</v>
       </c>
       <c r="G985" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27766,7 +27763,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G986" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27792,7 +27789,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G987" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27818,7 +27815,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G988" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27844,7 +27841,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G989" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27870,7 +27867,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G990" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27896,7 +27893,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27922,7 +27919,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27948,7 +27945,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27974,7 +27971,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28000,7 +27997,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28026,7 +28023,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28052,7 +28049,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28078,7 +28075,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G998" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28104,7 +28101,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28130,7 +28127,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1000" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28156,7 +28153,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1001" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28182,7 +28179,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1002" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28208,7 +28205,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1003" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28234,7 +28231,7 @@
         <v>3.75</v>
       </c>
       <c r="G1004" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28260,7 +28257,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28286,7 +28283,7 @@
         <v>3.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28312,7 +28309,7 @@
         <v>3.75</v>
       </c>
       <c r="G1007" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28338,7 +28335,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1008" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28364,7 +28361,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1009" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28390,7 +28387,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28416,7 +28413,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1011" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28442,7 +28439,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1012" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28468,7 +28465,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1013" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28494,7 +28491,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28520,7 +28517,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1015" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28546,7 +28543,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1016" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28572,7 +28569,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1017" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28598,7 +28595,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1018" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28624,7 +28621,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1019" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28650,7 +28647,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28676,7 +28673,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1021" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28702,7 +28699,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1022" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28728,7 +28725,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1023" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28754,7 +28751,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1024" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28780,7 +28777,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1025" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28806,7 +28803,7 @@
         <v>3.75</v>
       </c>
       <c r="G1026" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28832,7 +28829,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1027" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28858,7 +28855,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1028" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28884,7 +28881,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1029" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28910,7 +28907,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1030" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28936,7 +28933,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28962,7 +28959,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1032" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28988,7 +28985,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29014,7 +29011,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1034" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29040,7 +29037,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1035" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29066,7 +29063,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1036" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29092,7 +29089,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1037" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29118,7 +29115,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1038" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29144,7 +29141,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1039" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29170,7 +29167,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29196,7 +29193,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1041" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29222,7 +29219,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1042" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29248,7 +29245,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1043" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29274,7 +29271,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1044" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29300,7 +29297,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1045" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29326,7 +29323,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1046" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29352,7 +29349,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29378,7 +29375,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1048" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29404,7 +29401,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29430,7 +29427,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1050" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29456,7 +29453,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1051" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29482,7 +29479,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29508,7 +29505,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29534,7 +29531,7 @@
         <v>3.75</v>
       </c>
       <c r="G1054" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29560,7 +29557,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1055" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29586,7 +29583,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1056" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29612,7 +29609,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1057" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29638,7 +29635,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1058" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29664,7 +29661,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29690,7 +29687,7 @@
         <v>3.75</v>
       </c>
       <c r="G1060" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29716,7 +29713,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1061" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29742,7 +29739,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1062" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29768,7 +29765,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1063" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29794,7 +29791,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1064" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29820,7 +29817,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1065" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29846,7 +29843,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29872,7 +29869,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29898,7 +29895,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1068" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29924,7 +29921,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1069" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29950,7 +29947,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1070" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29976,7 +29973,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1071" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30002,7 +29999,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1072" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30028,7 +30025,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1073" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30054,7 +30051,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1074" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30080,7 +30077,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1075" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30106,7 +30103,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1076" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30132,7 +30129,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1077" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30158,7 +30155,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1078" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30184,7 +30181,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1079" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30210,7 +30207,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30236,7 +30233,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1081" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30262,7 +30259,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1082" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30288,7 +30285,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1083" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30314,7 +30311,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1084" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30340,7 +30337,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1085" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30366,7 +30363,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1086" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30392,7 +30389,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1087" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30418,7 +30415,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1088" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30444,7 +30441,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1089" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30470,7 +30467,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1090" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30496,7 +30493,7 @@
         <v>3.5</v>
       </c>
       <c r="G1091" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30522,7 +30519,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1092" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30548,7 +30545,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1093" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30574,7 +30571,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1094" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30600,7 +30597,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30626,7 +30623,7 @@
         <v>3.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30652,7 +30649,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1097" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30678,7 +30675,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1098" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30704,7 +30701,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1099" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30730,7 +30727,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30756,7 +30753,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30782,7 +30779,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30808,7 +30805,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30834,7 +30831,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30860,7 +30857,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30886,7 +30883,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30912,7 +30909,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1107" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30938,7 +30935,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1108" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30964,7 +30961,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1109" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30990,7 +30987,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1110" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31016,7 +31013,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1111" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31042,7 +31039,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31068,7 +31065,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31094,7 +31091,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1114" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31120,7 +31117,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1115" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31146,7 +31143,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31172,7 +31169,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1117" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31198,7 +31195,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31224,7 +31221,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1119" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31250,7 +31247,7 @@
         <v>4</v>
       </c>
       <c r="G1120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31276,7 +31273,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31302,7 +31299,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1122" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31328,7 +31325,7 @@
         <v>4</v>
       </c>
       <c r="G1123" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31354,7 +31351,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31380,7 +31377,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1125" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31406,7 +31403,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31432,7 +31429,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1127" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31458,7 +31455,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31484,7 +31481,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1129" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31510,7 +31507,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31536,7 +31533,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31562,7 +31559,7 @@
         <v>4</v>
       </c>
       <c r="G1132" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31588,7 +31585,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1133" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31614,7 +31611,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1134" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31640,7 +31637,7 @@
         <v>4</v>
       </c>
       <c r="G1135" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31666,7 +31663,7 @@
         <v>4</v>
       </c>
       <c r="G1136" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31692,7 +31689,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31718,7 +31715,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1138" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31744,7 +31741,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31770,7 +31767,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1140" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31796,7 +31793,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31822,7 +31819,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1142" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31848,7 +31845,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1143" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31874,7 +31871,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1144" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31900,7 +31897,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31926,7 +31923,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1146" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31952,7 +31949,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31978,7 +31975,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1148" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32004,7 +32001,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32030,7 +32027,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1150" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32056,7 +32053,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1151" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32082,7 +32079,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1152" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32108,7 +32105,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1153" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32134,7 +32131,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1154" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32160,7 +32157,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32186,7 +32183,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32212,7 +32209,7 @@
         <v>3.5</v>
       </c>
       <c r="G1157" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32238,7 +32235,7 @@
         <v>3.5</v>
       </c>
       <c r="G1158" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32264,7 +32261,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32290,7 +32287,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1160" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32316,7 +32313,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1161" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32342,7 +32339,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1162" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32368,7 +32365,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1163" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32394,7 +32391,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32420,7 +32417,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1165" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32446,7 +32443,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1166" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32472,7 +32469,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1167" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32498,7 +32495,7 @@
         <v>3.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32524,7 +32521,7 @@
         <v>3.5</v>
       </c>
       <c r="G1169" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32550,7 +32547,7 @@
         <v>3.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32576,7 +32573,7 @@
         <v>3.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32602,7 +32599,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1172" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32628,7 +32625,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32654,7 +32651,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1174" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32680,7 +32677,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1175" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32706,7 +32703,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1176" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32732,7 +32729,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32758,7 +32755,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1178" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32784,7 +32781,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32810,7 +32807,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1180" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32836,7 +32833,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1181" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32862,7 +32859,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1182" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32888,7 +32885,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1183" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32914,7 +32911,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32940,7 +32937,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1185" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32966,7 +32963,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32992,7 +32989,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1187" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33018,7 +33015,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1188" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33044,7 +33041,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1189" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33070,7 +33067,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1190" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33096,7 +33093,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1191" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33122,7 +33119,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1192" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33148,7 +33145,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33174,7 +33171,7 @@
         <v>3.5</v>
       </c>
       <c r="G1194" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33200,7 +33197,7 @@
         <v>3.5</v>
       </c>
       <c r="G1195" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33226,7 +33223,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1196" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33252,7 +33249,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1197" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33278,7 +33275,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1198" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33304,7 +33301,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1199" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33330,7 +33327,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33356,7 +33353,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33382,7 +33379,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33408,7 +33405,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1203" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33434,7 +33431,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1204" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33460,7 +33457,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33486,7 +33483,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1206" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33512,7 +33509,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1207" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33538,7 +33535,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1208" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33564,7 +33561,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33590,7 +33587,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33616,7 +33613,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1211" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33642,7 +33639,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33668,7 +33665,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1213" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33694,7 +33691,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33720,7 +33717,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33746,7 +33743,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33772,7 +33769,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33798,7 +33795,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1218" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33824,7 +33821,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33850,7 +33847,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1220" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33876,7 +33873,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1221" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33902,7 +33899,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33928,7 +33925,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1223" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33954,7 +33951,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1224" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33980,7 +33977,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1225" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34006,7 +34003,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1226" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34032,7 +34029,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34058,7 +34055,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1228" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34084,7 +34081,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34110,7 +34107,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34136,7 +34133,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34162,7 +34159,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1232" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34188,7 +34185,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1233" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34214,7 +34211,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1234" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34240,7 +34237,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34266,7 +34263,7 @@
         <v>3.25</v>
       </c>
       <c r="G1236" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34292,7 +34289,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34318,7 +34315,7 @@
         <v>3.25</v>
       </c>
       <c r="G1238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34344,7 +34341,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1239" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34370,7 +34367,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34396,7 +34393,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1241" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34422,7 +34419,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1242" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34448,7 +34445,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1243" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34474,7 +34471,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1244" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34500,7 +34497,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1245" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34526,7 +34523,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34552,7 +34549,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34578,7 +34575,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1248" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34604,7 +34601,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1249" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34630,7 +34627,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1250" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34656,7 +34653,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34682,7 +34679,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34708,7 +34705,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1253" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34734,7 +34731,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34760,7 +34757,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1255" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34786,7 +34783,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1256" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34812,7 +34809,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1257" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34838,7 +34835,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1258" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34864,7 +34861,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1259" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34890,7 +34887,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1260" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34916,7 +34913,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1261" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34942,7 +34939,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34968,7 +34965,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1263" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34994,7 +34991,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1264" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35020,7 +35017,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1265" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35046,7 +35043,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1266" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35072,7 +35069,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1267" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35098,7 +35095,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1268" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35124,7 +35121,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1269" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35150,7 +35147,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1270" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35176,7 +35173,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1271" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35202,7 +35199,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1272" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35228,7 +35225,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1273" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35254,7 +35251,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1274" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35280,7 +35277,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1275" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35306,7 +35303,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1276" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35332,7 +35329,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35358,7 +35355,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1278" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35384,7 +35381,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1279" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35410,7 +35407,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1280" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35436,7 +35433,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35462,7 +35459,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1282" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35488,7 +35485,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1283" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35514,7 +35511,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35540,7 +35537,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1285" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35566,7 +35563,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35592,7 +35589,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35618,7 +35615,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1288" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35644,7 +35641,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1289" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35670,7 +35667,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35696,7 +35693,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35722,7 +35719,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1292" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35748,7 +35745,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1293" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35774,7 +35771,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35800,7 +35797,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1295" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35826,7 +35823,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1296" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35852,7 +35849,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35878,7 +35875,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35904,7 +35901,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35930,7 +35927,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35956,7 +35953,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35982,7 +35979,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36008,7 +36005,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36034,7 +36031,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36060,7 +36057,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36086,7 +36083,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36112,7 +36109,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36138,7 +36135,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36164,7 +36161,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36190,7 +36187,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36216,7 +36213,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36242,7 +36239,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36268,7 +36265,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36294,7 +36291,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36320,7 +36317,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36346,7 +36343,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1316" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36372,7 +36369,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36398,7 +36395,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36424,7 +36421,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36450,7 +36447,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36476,7 +36473,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36502,7 +36499,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36528,7 +36525,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36554,7 +36551,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36580,7 +36577,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36606,7 +36603,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36632,7 +36629,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36658,7 +36655,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36684,7 +36681,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36710,7 +36707,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36736,7 +36733,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36762,7 +36759,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36788,7 +36785,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36814,7 +36811,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36840,7 +36837,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36866,7 +36863,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36892,7 +36889,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36918,7 +36915,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36944,7 +36941,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36970,7 +36967,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36996,7 +36993,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37022,7 +37019,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37048,7 +37045,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37074,7 +37071,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37100,7 +37097,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37126,7 +37123,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37152,7 +37149,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37178,7 +37175,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1348" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37204,7 +37201,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37230,7 +37227,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37256,7 +37253,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37282,7 +37279,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37308,7 +37305,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37334,7 +37331,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37360,7 +37357,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37386,7 +37383,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37412,7 +37409,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37438,7 +37435,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37464,7 +37461,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37490,7 +37487,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37516,7 +37513,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37542,7 +37539,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37568,7 +37565,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37594,7 +37591,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37620,7 +37617,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37646,7 +37643,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37672,7 +37669,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37698,7 +37695,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37724,7 +37721,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37750,7 +37747,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37776,7 +37773,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37802,7 +37799,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37828,7 +37825,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37854,7 +37851,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37880,7 +37877,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37906,7 +37903,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37932,7 +37929,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37958,7 +37955,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37984,7 +37981,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38010,7 +38007,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38036,7 +38033,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38062,7 +38059,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38088,7 +38085,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38114,7 +38111,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38140,7 +38137,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38166,7 +38163,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38192,7 +38189,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38218,7 +38215,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38244,7 +38241,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38270,7 +38267,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38296,7 +38293,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38322,7 +38319,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38348,7 +38345,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38374,7 +38371,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38400,7 +38397,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38426,7 +38423,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38452,7 +38449,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38478,7 +38475,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38504,7 +38501,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38530,7 +38527,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38556,7 +38553,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38582,7 +38579,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38608,7 +38605,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38634,7 +38631,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38660,7 +38657,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38686,7 +38683,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38712,7 +38709,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38738,7 +38735,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38764,7 +38761,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38790,7 +38787,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38816,7 +38813,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38842,7 +38839,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38868,7 +38865,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38894,7 +38891,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38920,7 +38917,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38946,7 +38943,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38972,7 +38969,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38998,7 +38995,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39024,7 +39021,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39050,7 +39047,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39076,7 +39073,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39102,7 +39099,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39128,7 +39125,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39154,7 +39151,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39180,7 +39177,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39206,7 +39203,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39232,7 +39229,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39258,7 +39255,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39284,7 +39281,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39310,7 +39307,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39336,7 +39333,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39362,7 +39359,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39388,7 +39385,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39414,7 +39411,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39440,7 +39437,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39466,7 +39463,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39492,7 +39489,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39518,7 +39515,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39544,7 +39541,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39570,7 +39567,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39596,7 +39593,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39622,7 +39619,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39648,7 +39645,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39674,7 +39671,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39700,7 +39697,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39726,7 +39723,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39752,7 +39749,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39778,7 +39775,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39804,7 +39801,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39830,7 +39827,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39856,7 +39853,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39882,7 +39879,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39908,7 +39905,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39934,7 +39931,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39960,7 +39957,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39986,7 +39983,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40012,7 +40009,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40038,7 +40035,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40064,7 +40061,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40090,7 +40087,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40116,7 +40113,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40142,7 +40139,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40168,7 +40165,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40194,7 +40191,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40220,7 +40217,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40246,7 +40243,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40272,7 +40269,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40298,7 +40295,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40324,7 +40321,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40350,7 +40347,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40376,7 +40373,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40402,7 +40399,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40428,7 +40425,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40454,7 +40451,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40480,7 +40477,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40506,7 +40503,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40532,7 +40529,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40558,7 +40555,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40584,7 +40581,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40610,7 +40607,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40636,7 +40633,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40662,7 +40659,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40688,7 +40685,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40714,7 +40711,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40740,7 +40737,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40766,7 +40763,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40792,7 +40789,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40818,7 +40815,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40844,7 +40841,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40870,7 +40867,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40896,7 +40893,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40922,7 +40919,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40948,7 +40945,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40974,7 +40971,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41000,7 +40997,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41026,7 +41023,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41052,7 +41049,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41078,7 +41075,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41104,7 +41101,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41130,7 +41127,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41156,7 +41153,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41182,7 +41179,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41208,7 +41205,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41234,7 +41231,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41260,7 +41257,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41286,7 +41283,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41312,7 +41309,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41338,7 +41335,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41364,7 +41361,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41390,7 +41387,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41416,7 +41413,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41442,7 +41439,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41468,7 +41465,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41494,7 +41491,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41520,7 +41517,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41546,7 +41543,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41572,7 +41569,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41598,7 +41595,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41624,7 +41621,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41650,7 +41647,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41676,7 +41673,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41702,7 +41699,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41728,7 +41725,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41754,7 +41751,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41780,7 +41777,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41806,7 +41803,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41832,7 +41829,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41858,7 +41855,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41884,7 +41881,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41910,7 +41907,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41936,7 +41933,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41962,7 +41959,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41988,7 +41985,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42014,7 +42011,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42040,7 +42037,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42066,7 +42063,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42092,7 +42089,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42118,7 +42115,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42144,7 +42141,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42170,7 +42167,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42196,7 +42193,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42222,7 +42219,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42248,7 +42245,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42274,7 +42271,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42300,7 +42297,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42326,7 +42323,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42352,7 +42349,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42378,7 +42375,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42404,7 +42401,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42430,7 +42427,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42456,7 +42453,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42482,7 +42479,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42508,7 +42505,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42534,7 +42531,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42560,7 +42557,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42586,7 +42583,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42612,7 +42609,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42638,7 +42635,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42664,7 +42661,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42690,7 +42687,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42716,7 +42713,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42742,7 +42739,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42768,7 +42765,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42794,7 +42791,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42820,7 +42817,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42846,7 +42843,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42872,7 +42869,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42898,7 +42895,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42924,7 +42921,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42950,7 +42947,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42976,7 +42973,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43002,7 +42999,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43028,7 +43025,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43054,7 +43051,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43080,7 +43077,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43106,7 +43103,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43132,7 +43129,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43158,7 +43155,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43184,7 +43181,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43210,7 +43207,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43236,7 +43233,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43262,7 +43259,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43288,7 +43285,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43314,7 +43311,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43340,7 +43337,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43366,7 +43363,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43392,7 +43389,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43418,7 +43415,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43444,7 +43441,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43470,7 +43467,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43496,7 +43493,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43522,7 +43519,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43548,7 +43545,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43574,7 +43571,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43600,7 +43597,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43626,7 +43623,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43652,7 +43649,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43678,7 +43675,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43704,7 +43701,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43730,7 +43727,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43756,7 +43753,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43782,7 +43779,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43808,7 +43805,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43834,7 +43831,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43860,7 +43857,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43886,7 +43883,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43912,7 +43909,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43938,7 +43935,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43964,7 +43961,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43990,7 +43987,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44016,7 +44013,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44042,7 +44039,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44068,7 +44065,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44094,7 +44091,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44120,7 +44117,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44146,7 +44143,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44172,7 +44169,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44198,7 +44195,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44224,7 +44221,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44250,7 +44247,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44276,7 +44273,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44302,7 +44299,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44328,7 +44325,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44354,7 +44351,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44380,7 +44377,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44406,7 +44403,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44432,7 +44429,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44458,7 +44455,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44484,7 +44481,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44510,7 +44507,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44536,7 +44533,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44562,7 +44559,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44588,7 +44585,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44614,7 +44611,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44640,7 +44637,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44666,7 +44663,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44692,7 +44689,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44718,7 +44715,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44744,7 +44741,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44770,7 +44767,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44796,7 +44793,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44822,7 +44819,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44848,7 +44845,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44874,7 +44871,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44900,7 +44897,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44926,7 +44923,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44952,7 +44949,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44978,7 +44975,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45004,7 +45001,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45030,7 +45027,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45056,7 +45053,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45082,7 +45079,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45108,7 +45105,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45134,7 +45131,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45160,7 +45157,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45186,7 +45183,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45212,7 +45209,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45238,7 +45235,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45264,7 +45261,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45290,7 +45287,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45316,7 +45313,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45342,7 +45339,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45368,7 +45365,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45394,7 +45391,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1664" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45420,7 +45417,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45446,7 +45443,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1666" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45472,7 +45469,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1667" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45498,7 +45495,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1668" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45524,7 +45521,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45532,7 +45529,7 @@
     </row>
     <row r="1670">
       <c r="A1670" s="1" t="n">
-        <v>45462.6495023148</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B1670" t="n">
         <v>27179</v>
@@ -45544,15 +45541,41 @@
         <v>3.76999998092651</v>
       </c>
       <c r="E1670" t="n">
-        <v>3.72000002861023</v>
+        <v>3.77999997138977</v>
       </c>
       <c r="F1670" t="n">
         <v>3.76999998092651</v>
       </c>
       <c r="G1670" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1670" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="1" t="n">
+        <v>45463.6494560185</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>11227</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>3.8199999332428</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>3.75999999046326</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>3.82999992370605</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1671" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80205881595612</t>
+    <t xml:space="preserve">1.80205893516541</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
@@ -47,154 +47,154 @@
     <t xml:space="preserve">1.87729668617249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91127490997314</t>
+    <t xml:space="preserve">1.91127479076385</t>
   </si>
   <si>
     <t xml:space="preserve">1.90763425827026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90399384498596</t>
+    <t xml:space="preserve">1.90399372577667</t>
   </si>
   <si>
     <t xml:space="preserve">1.89307188987732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85909366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86394810676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88093709945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86637485027313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84574520587921</t>
+    <t xml:space="preserve">1.85909378528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86394798755646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8809369802475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86637496948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84574508666992</t>
   </si>
   <si>
     <t xml:space="preserve">1.84453177452087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84210431575775</t>
+    <t xml:space="preserve">1.84210479259491</t>
   </si>
   <si>
     <t xml:space="preserve">1.82268857955933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83239674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83967757225037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84089136123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83482348918915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84695875644684</t>
+    <t xml:space="preserve">1.83239662647247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83967745304108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84089124202728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83482396602631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84695851802826</t>
   </si>
   <si>
     <t xml:space="preserve">1.82511556148529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82875597476959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80934011936188</t>
+    <t xml:space="preserve">1.82875645160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80934000015259</t>
   </si>
   <si>
     <t xml:space="preserve">1.8336101770401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86273431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87972366809845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86880195140839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86758852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86030769348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86152064800262</t>
+    <t xml:space="preserve">1.86273443698883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87972378730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86880147457123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86758828163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86030721664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8615208864212</t>
   </si>
   <si>
     <t xml:space="preserve">1.89549911022186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89913976192474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88700449466705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8536331653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85666680335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89610588550568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87790322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87486934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85970056056976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94768011569977</t>
+    <t xml:space="preserve">1.89913964271545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88700437545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85363304615021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8566666841507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003813266754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8961056470871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87790334224701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87486910820007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85970044136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94767999649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.91734230518341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92340981960297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161248207092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92644357681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9355446100235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93857884407043</t>
+    <t xml:space="preserve">1.92341005802155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161212444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92644333839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93554496765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93857836723328</t>
   </si>
   <si>
     <t xml:space="preserve">2.00228762626648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97801744937897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97195029258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93251121044159</t>
+    <t xml:space="preserve">1.97801768779755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97194981575012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93251073360443</t>
   </si>
   <si>
     <t xml:space="preserve">1.99925398826599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99015247821808</t>
+    <t xml:space="preserve">1.99015283584595</t>
   </si>
   <si>
     <t xml:space="preserve">2.02352404594421</t>
@@ -203,121 +203,121 @@
     <t xml:space="preserve">2.02959156036377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00835514068604</t>
+    <t xml:space="preserve">2.00835537910461</t>
   </si>
   <si>
     <t xml:space="preserve">2.02049016952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01745629310608</t>
+    <t xml:space="preserve">2.01745700836182</t>
   </si>
   <si>
     <t xml:space="preserve">2.01442265510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99622011184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082821846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10274767875671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08327770233154</t>
+    <t xml:space="preserve">1.99621999263763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0508279800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10274815559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08327794075012</t>
   </si>
   <si>
     <t xml:space="preserve">2.09301257133484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05407309532166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02486824989319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03784799575806</t>
+    <t xml:space="preserve">2.05407285690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02486801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03784823417664</t>
   </si>
   <si>
     <t xml:space="preserve">2.07029795646667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08652257919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08976793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07354259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09625768661499</t>
+    <t xml:space="preserve">2.08652281761169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08976769447327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07354283332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09625792503357</t>
   </si>
   <si>
     <t xml:space="preserve">2.01188826560974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96645867824554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99890804290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00215315818787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98268353939056</t>
+    <t xml:space="preserve">1.96645832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99890792369843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00215339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98268342018127</t>
   </si>
   <si>
     <t xml:space="preserve">2.02811288833618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98592841625214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02162337303162</t>
+    <t xml:space="preserve">1.98592829704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02162313461304</t>
   </si>
   <si>
     <t xml:space="preserve">2.04109311103821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04433798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05731797218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08003306388855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06056308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705284118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12870717048645</t>
+    <t xml:space="preserve">2.04433822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05731821060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08003282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06056261062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705260276794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12870764732361</t>
   </si>
   <si>
     <t xml:space="preserve">2.10599279403687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09950232505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10923767089844</t>
+    <t xml:space="preserve">2.09950256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10923743247986</t>
   </si>
   <si>
     <t xml:space="preserve">2.04758286476135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06380772590637</t>
+    <t xml:space="preserve">2.06380820274353</t>
   </si>
   <si>
     <t xml:space="preserve">2.07678771018982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01513314247131</t>
+    <t xml:space="preserve">2.01513338088989</t>
   </si>
   <si>
     <t xml:space="preserve">2.11248278617859</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">2.20658731460571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18062734603882</t>
+    <t xml:space="preserve">2.18062710762024</t>
   </si>
   <si>
     <t xml:space="preserve">2.14493250846863</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">2.12546300888062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17738246917725</t>
+    <t xml:space="preserve">2.17738223075867</t>
   </si>
   <si>
     <t xml:space="preserve">2.23903703689575</t>
@@ -365,37 +365,37 @@
     <t xml:space="preserve">2.2260570526123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16440224647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16764712333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12221765518188</t>
+    <t xml:space="preserve">2.1644024848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16764736175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12221741676331</t>
   </si>
   <si>
     <t xml:space="preserve">2.1384425163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31367135047913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3006911277771</t>
+    <t xml:space="preserve">2.31367182731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30069136619568</t>
   </si>
   <si>
     <t xml:space="preserve">2.21307706832886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.219566822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19685244560242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15791249275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1481773853302</t>
+    <t xml:space="preserve">2.21956706047058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19685196876526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15791273117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14817762374878</t>
   </si>
   <si>
     <t xml:space="preserve">2.16115713119507</t>
@@ -416,64 +416,64 @@
     <t xml:space="preserve">2.03460311889648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25746440887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11811518669128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11114811897278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10418033599854</t>
+    <t xml:space="preserve">2.25746488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11811494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11114764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10418009757996</t>
   </si>
   <si>
     <t xml:space="preserve">2.09024524688721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02753758430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99270033836365</t>
+    <t xml:space="preserve">2.02753806114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99270021915436</t>
   </si>
   <si>
     <t xml:space="preserve">1.98573291301727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95786309242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94392824172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92999303340912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92302572727203</t>
+    <t xml:space="preserve">1.9578629732132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94392836093903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9299932718277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92302560806274</t>
   </si>
   <si>
     <t xml:space="preserve">1.8394159078598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8812210559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83244824409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79064357280731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81154572963715</t>
+    <t xml:space="preserve">1.88122069835663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83244860172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79064345359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81154561042786</t>
   </si>
   <si>
     <t xml:space="preserve">1.85335075855255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86728596687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8185133934021</t>
+    <t xml:space="preserve">1.86728584766388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81851363182068</t>
   </si>
   <si>
     <t xml:space="preserve">1.86031830310822</t>
@@ -485,97 +485,97 @@
     <t xml:space="preserve">1.78367578983307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87425303459167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89515578746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88818848133087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90212297439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90909075737</t>
+    <t xml:space="preserve">1.87425339221954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88818836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90212321281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90909051895142</t>
   </si>
   <si>
     <t xml:space="preserve">1.84638321399689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8254805803299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79761064052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7767082452774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74883842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74187111854553</t>
+    <t xml:space="preserve">1.82548105716705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79761075973511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77670848369598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74883854389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74187088012695</t>
   </si>
   <si>
     <t xml:space="preserve">1.73490333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75580608844757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72793579101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76277327537537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97179806232452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02057075500488</t>
+    <t xml:space="preserve">1.75580620765686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72793591022491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76277351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9717983007431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02057027816772</t>
   </si>
   <si>
     <t xml:space="preserve">2.01360321044922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0066351890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97876560688019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93696045875549</t>
+    <t xml:space="preserve">2.00663566589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97876536846161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93696057796478</t>
   </si>
   <si>
     <t xml:space="preserve">1.96483051776886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95089554786682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76974105834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64432632923126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51891148090363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72096848487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67219603061676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53981411457062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56071639060974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47013914585114</t>
+    <t xml:space="preserve">1.95089566707611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7697411775589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64432609081268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5189117193222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72096836566925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67219626903534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53981387615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56071650981903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47013902664185</t>
   </si>
   <si>
     <t xml:space="preserve">1.44923675060272</t>
@@ -584,31 +584,31 @@
     <t xml:space="preserve">1.47710657119751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48407435417175</t>
+    <t xml:space="preserve">1.48407423496246</t>
   </si>
   <si>
     <t xml:space="preserve">1.42833411693573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44226908683777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43530166149139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49104177951813</t>
+    <t xml:space="preserve">1.44226920604706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4353015422821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49104154109955</t>
   </si>
   <si>
     <t xml:space="preserve">1.50497663021088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46317172050476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49800908565521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59555387496948</t>
+    <t xml:space="preserve">1.46317160129547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49800896644592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59555351734161</t>
   </si>
   <si>
     <t xml:space="preserve">1.54678153991699</t>
@@ -617,40 +617,40 @@
     <t xml:space="preserve">1.55374908447266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62342369556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58161866664886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53284657001495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57465136051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60252118110657</t>
+    <t xml:space="preserve">1.62342381477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58161890506744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53284668922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57465147972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60252130031586</t>
   </si>
   <si>
     <t xml:space="preserve">1.60948884487152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58858633041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70703363418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56768405437469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61645638942719</t>
+    <t xml:space="preserve">1.58858621120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7070335149765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56768393516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61645650863647</t>
   </si>
   <si>
     <t xml:space="preserve">1.68613135814667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91605806350708</t>
+    <t xml:space="preserve">1.91605794429779</t>
   </si>
   <si>
     <t xml:space="preserve">2.06839728355408</t>
@@ -659,55 +659,55 @@
     <t xml:space="preserve">2.00887513160706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84518897533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83030819892883</t>
+    <t xml:space="preserve">1.84518873691559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83030831813812</t>
   </si>
   <si>
     <t xml:space="preserve">1.79310703277588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82286810874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80054748058319</t>
+    <t xml:space="preserve">1.8228679895401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8005473613739</t>
   </si>
   <si>
     <t xml:space="preserve">1.78566682338715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74846529960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83774888515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81542766094208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85262906551361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80798768997192</t>
+    <t xml:space="preserve">1.74846518039703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83774840831757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81542778015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85262894630432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80798745155334</t>
   </si>
   <si>
     <t xml:space="preserve">1.86006939411163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87494993209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88983058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77078640460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73358488082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69638347625732</t>
+    <t xml:space="preserve">1.87495017051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88983070850372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707861661911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73358464241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69638311862946</t>
   </si>
   <si>
     <t xml:space="preserve">1.68894302845001</t>
@@ -716,37 +716,37 @@
     <t xml:space="preserve">1.70382332801819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71870410442352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72614443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71126365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75590562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76334583759308</t>
+    <t xml:space="preserve">1.71870422363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72614455223083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71126389503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75590550899506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7633455991745</t>
   </si>
   <si>
     <t xml:space="preserve">1.74102509021759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66662228107452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68150281906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77822637557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67406249046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65918207168579</t>
+    <t xml:space="preserve">1.66662240028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68150293827057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77822649478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67406260967255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6591819524765</t>
   </si>
   <si>
     <t xml:space="preserve">1.65174162387848</t>
@@ -758,88 +758,88 @@
     <t xml:space="preserve">1.6368613243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62942099571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60710000991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61454045772552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221959114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57733881473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51781666278839</t>
+    <t xml:space="preserve">1.62942087650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6071001291275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61454033851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221947193146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57733869552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51781678199768</t>
   </si>
   <si>
     <t xml:space="preserve">1.48061537742615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4954959154129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48805558681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47317504882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4694550037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86750960350037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93447232246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97167384624481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94935286045074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94191265106201</t>
+    <t xml:space="preserve">1.49549567699432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48805546760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47317492961884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46945488452911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86750972270966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93447208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97167360782623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94935297966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94191288948059</t>
   </si>
   <si>
     <t xml:space="preserve">1.92703187465668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96423327922821</t>
+    <t xml:space="preserve">1.9642333984375</t>
   </si>
   <si>
     <t xml:space="preserve">1.98655426502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99399447441101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95679306983948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00143480300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03119564056396</t>
+    <t xml:space="preserve">1.9939945936203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95679330825806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00143504142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03119587898254</t>
   </si>
   <si>
     <t xml:space="preserve">2.06095719337463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0758376121521</t>
+    <t xml:space="preserve">2.07583785057068</t>
   </si>
   <si>
     <t xml:space="preserve">2.09071803092957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10559868812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1279194355011</t>
+    <t xml:space="preserve">2.10559892654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12791919708252</t>
   </si>
   <si>
     <t xml:space="preserve">2.14280009269714</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">2.11303877830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04607629776001</t>
+    <t xml:space="preserve">2.04607605934143</t>
   </si>
   <si>
     <t xml:space="preserve">2.12047910690308</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">2.09815835952759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13535952568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1874418258667</t>
+    <t xml:space="preserve">2.13535976409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18744158744812</t>
   </si>
   <si>
     <t xml:space="preserve">2.22464299201965</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">2.21720266342163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23952388763428</t>
+    <t xml:space="preserve">2.2395236492157</t>
   </si>
   <si>
     <t xml:space="preserve">2.20976233482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20232224464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23208355903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24696397781372</t>
+    <t xml:space="preserve">2.20232200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23208332061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24696373939514</t>
   </si>
   <si>
     <t xml:space="preserve">2.25440430641174</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27723121643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28492450714111</t>
+    <t xml:space="preserve">2.27723073959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28492426872253</t>
   </si>
   <si>
     <t xml:space="preserve">2.31569790840149</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">2.32339119911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29261779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30031085014343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30800437927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34647154808044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36185765266418</t>
+    <t xml:space="preserve">2.29261803627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30031156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30800461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34647107124329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36185812950134</t>
   </si>
   <si>
     <t xml:space="preserve">2.41571164131165</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">2.43879127502441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4080183506012</t>
+    <t xml:space="preserve">2.40801787376404</t>
   </si>
   <si>
     <t xml:space="preserve">2.38493800163269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42340517044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43109822273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40032458305359</t>
+    <t xml:space="preserve">2.42340493202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43109798431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40032434463501</t>
   </si>
   <si>
     <t xml:space="preserve">2.4772584438324</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">2.48495173454285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4926450252533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50803136825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51572513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52341818809509</t>
+    <t xml:space="preserve">2.49264478683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50803184509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51572489738464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52341794967651</t>
   </si>
   <si>
     <t xml:space="preserve">2.53111171722412</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">2.50033831596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56957840919495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59265828132629</t>
+    <t xml:space="preserve">2.56957817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59265851974487</t>
   </si>
   <si>
     <t xml:space="preserve">2.5772716999054</t>
@@ -989,43 +989,43 @@
     <t xml:space="preserve">2.58496499061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60035181045532</t>
+    <t xml:space="preserve">2.6003520488739</t>
   </si>
   <si>
     <t xml:space="preserve">2.60804510116577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65420508384705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63881850242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70805859565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72344541549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8003785610199</t>
+    <t xml:space="preserve">2.65420532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63881826400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70805883407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72344517707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80037903785706</t>
   </si>
   <si>
     <t xml:space="preserve">2.7696053981781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77729868888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85423254966736</t>
+    <t xml:space="preserve">2.77729892730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8542320728302</t>
   </si>
   <si>
     <t xml:space="preserve">2.84653902053833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83115220069885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86192584037781</t>
+    <t xml:space="preserve">2.83115243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86192560195923</t>
   </si>
   <si>
     <t xml:space="preserve">2.80807209014893</t>
@@ -1043,60 +1043,63 @@
     <t xml:space="preserve">2.88500571250916</t>
   </si>
   <si>
+    <t xml:space="preserve">2.93116569519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9234721660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95424580574036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94655251502991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91577911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93885898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90808582305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9627685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9390664100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00227212905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04967665672302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1049816608429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08127927780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05757713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04177570343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07337880134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01807379722595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95486807823181</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.93116593360901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92347240447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95424580574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94655251502991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91577911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93885922431946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90808606147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96276879310608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93906664848328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00227212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04967641830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10498142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08127951622009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05757737159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04177570343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07337880134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01807379722595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95486783981323</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.98647093772888</t>
   </si>
   <si>
@@ -1106,19 +1109,19 @@
     <t xml:space="preserve">2.94696712493896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97857022285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97066926956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01017284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06547784805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02597451210022</t>
+    <t xml:space="preserve">2.97856998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97066950798035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01017308235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06547832489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02597427368164</t>
   </si>
   <si>
     <t xml:space="preserve">3.03387498855591</t>
@@ -1127,34 +1130,34 @@
     <t xml:space="preserve">2.99437141418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85215830802917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84425759315491</t>
+    <t xml:space="preserve">2.85215854644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84425783157349</t>
   </si>
   <si>
     <t xml:space="preserve">2.89166212081909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11288237571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8363573551178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77315139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74944925308228</t>
+    <t xml:space="preserve">3.11288213729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83635711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77315163612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7494490146637</t>
   </si>
   <si>
     <t xml:space="preserve">2.6467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51242804527283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41761946678162</t>
+    <t xml:space="preserve">2.51242780685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41761922836304</t>
   </si>
   <si>
     <t xml:space="preserve">2.46502351760864</t>
@@ -1163,7 +1166,7 @@
     <t xml:space="preserve">2.60723638534546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61513710021973</t>
+    <t xml:space="preserve">2.61513733863831</t>
   </si>
   <si>
     <t xml:space="preserve">2.76525068283081</t>
@@ -1178,7 +1181,7 @@
     <t xml:space="preserve">2.89956283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1286838054657</t>
+    <t xml:space="preserve">3.12868356704712</t>
   </si>
   <si>
     <t xml:space="preserve">3.14448523521423</t>
@@ -1193,16 +1196,16 @@
     <t xml:space="preserve">3.22349214553833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19979047775269</t>
+    <t xml:space="preserve">3.19979023933411</t>
   </si>
   <si>
     <t xml:space="preserve">3.16028642654419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09708070755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23139309883118</t>
+    <t xml:space="preserve">3.09708094596863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23139333724976</t>
   </si>
   <si>
     <t xml:space="preserve">3.21559166908264</t>
@@ -1211,16 +1214,16 @@
     <t xml:space="preserve">3.13658452033997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15238571166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31743216514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28417468070984</t>
+    <t xml:space="preserve">3.1523859500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17608785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31743240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28417444229126</t>
   </si>
   <si>
     <t xml:space="preserve">3.30911779403687</t>
@@ -1229,10 +1232,10 @@
     <t xml:space="preserve">3.27586030960083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24260282516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20103096961975</t>
+    <t xml:space="preserve">3.24260306358337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20103073120117</t>
   </si>
   <si>
     <t xml:space="preserve">3.13451623916626</t>
@@ -1250,13 +1253,13 @@
     <t xml:space="preserve">2.91002798080444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90171408653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91834235191345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95159983634949</t>
+    <t xml:space="preserve">2.90171384811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91834282875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95160007476807</t>
   </si>
   <si>
     <t xml:space="preserve">2.92665696144104</t>
@@ -1265,22 +1268,22 @@
     <t xml:space="preserve">2.95991444587708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93497133255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86014199256897</t>
+    <t xml:space="preserve">2.93497109413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86014223098755</t>
   </si>
   <si>
     <t xml:space="preserve">2.87677073478699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86845636367798</t>
+    <t xml:space="preserve">2.86845660209656</t>
   </si>
   <si>
     <t xml:space="preserve">2.84351348876953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8102560043335</t>
+    <t xml:space="preserve">2.81025576591492</t>
   </si>
   <si>
     <t xml:space="preserve">2.885085105896</t>
@@ -1289,7 +1292,7 @@
     <t xml:space="preserve">2.83519887924194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78531289100647</t>
+    <t xml:space="preserve">2.78531265258789</t>
   </si>
   <si>
     <t xml:space="preserve">2.75205516815186</t>
@@ -1304,10 +1307,10 @@
     <t xml:space="preserve">2.74374079704285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76868414878845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76036953926086</t>
+    <t xml:space="preserve">2.76868391036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76036977767944</t>
   </si>
   <si>
     <t xml:space="preserve">2.8185703754425</t>
@@ -1316,7 +1319,7 @@
     <t xml:space="preserve">2.67722606658936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71048355102539</t>
+    <t xml:space="preserve">2.71048331260681</t>
   </si>
   <si>
     <t xml:space="preserve">2.64396858215332</t>
@@ -1325,25 +1328,25 @@
     <t xml:space="preserve">2.66059732437134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70216917991638</t>
+    <t xml:space="preserve">2.7021689414978</t>
   </si>
   <si>
     <t xml:space="preserve">2.71879768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68554043769836</t>
+    <t xml:space="preserve">2.68554019927979</t>
   </si>
   <si>
     <t xml:space="preserve">2.66891169548035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69385480880737</t>
+    <t xml:space="preserve">2.69385457038879</t>
   </si>
   <si>
     <t xml:space="preserve">2.94328570365906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02642917633057</t>
+    <t xml:space="preserve">3.02642965316772</t>
   </si>
   <si>
     <t xml:space="preserve">3.04305815696716</t>
@@ -1355,46 +1358,49 @@
     <t xml:space="preserve">3.06800103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05137228965759</t>
+    <t xml:space="preserve">3.05137276649475</t>
   </si>
   <si>
     <t xml:space="preserve">3.09294414520264</t>
   </si>
   <si>
+    <t xml:space="preserve">3.10957312583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13555812835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14422011375427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17020535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16154360771179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12689661979675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20485258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21351432800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22217583656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19619059562683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11823463439941</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.10957288742065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13555812835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14422011375427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17020535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16154360771179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12689638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20485234260559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21351408958435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22217607498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19619083404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11823463439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15288186073303</t>
+    <t xml:space="preserve">3.15288209915161</t>
   </si>
   <si>
     <t xml:space="preserve">3.18752884864807</t>
@@ -1403,7 +1409,7 @@
     <t xml:space="preserve">3.17886734008789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24816131591797</t>
+    <t xml:space="preserve">3.24816107749939</t>
   </si>
   <si>
     <t xml:space="preserve">3.25682306289673</t>
@@ -1415,22 +1421,22 @@
     <t xml:space="preserve">3.32611703872681</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35210204124451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34344053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27414655685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30879354476929</t>
+    <t xml:space="preserve">3.35210227966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34344077110291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27414631843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30879330635071</t>
   </si>
   <si>
     <t xml:space="preserve">3.23949956893921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28280830383301</t>
+    <t xml:space="preserve">3.28280806541443</t>
   </si>
   <si>
     <t xml:space="preserve">3.29147005081177</t>
@@ -1439,7 +1445,7 @@
     <t xml:space="preserve">3.37808775901794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33477902412415</t>
+    <t xml:space="preserve">3.33477854728699</t>
   </si>
   <si>
     <t xml:space="preserve">3.30013179779053</t>
@@ -1451,16 +1457,16 @@
     <t xml:space="preserve">3.39541125297546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36076426506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42139649391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36942577362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31745553016663</t>
+    <t xml:space="preserve">3.36076402664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42139625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36942601203918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31745529174805</t>
   </si>
   <si>
     <t xml:space="preserve">3.51667594909668</t>
@@ -1469,7 +1475,7 @@
     <t xml:space="preserve">3.43871998786926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4300582408905</t>
+    <t xml:space="preserve">3.43005847930908</t>
   </si>
   <si>
     <t xml:space="preserve">3.41273474693298</t>
@@ -1487,16 +1493,16 @@
     <t xml:space="preserve">3.48386192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45650172233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41090154647827</t>
+    <t xml:space="preserve">3.45650196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41090130805969</t>
   </si>
   <si>
     <t xml:space="preserve">3.42002153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43826174736023</t>
+    <t xml:space="preserve">3.43826150894165</t>
   </si>
   <si>
     <t xml:space="preserve">3.38354134559631</t>
@@ -1508,19 +1514,19 @@
     <t xml:space="preserve">3.39266133308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40178155899048</t>
+    <t xml:space="preserve">3.4017813205719</t>
   </si>
   <si>
     <t xml:space="preserve">3.35618114471436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36530137062073</t>
+    <t xml:space="preserve">3.36530113220215</t>
   </si>
   <si>
     <t xml:space="preserve">3.34706115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42914175987244</t>
+    <t xml:space="preserve">3.42914152145386</t>
   </si>
   <si>
     <t xml:space="preserve">3.33794116973877</t>
@@ -1544,13 +1550,13 @@
     <t xml:space="preserve">3.28322052955627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26498031616211</t>
+    <t xml:space="preserve">3.26498055458069</t>
   </si>
   <si>
     <t xml:space="preserve">3.22850036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25586032867432</t>
+    <t xml:space="preserve">3.2558605670929</t>
   </si>
   <si>
     <t xml:space="preserve">3.27410054206848</t>
@@ -1571,13 +1577,13 @@
     <t xml:space="preserve">3.10993981361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10081958770752</t>
+    <t xml:space="preserve">3.1008198261261</t>
   </si>
   <si>
     <t xml:space="preserve">3.11905980110168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07345914840698</t>
+    <t xml:space="preserve">3.07345938682556</t>
   </si>
   <si>
     <t xml:space="preserve">3.16465997695923</t>
@@ -1592,10 +1598,10 @@
     <t xml:space="preserve">3.23762035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1737802028656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21026039123535</t>
+    <t xml:space="preserve">3.17377996444702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21026015281677</t>
   </si>
   <si>
     <t xml:space="preserve">3.21938037872314</t>
@@ -1794,6 +1800,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.82999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78999996185303</t>
   </si>
 </sst>
 </file>
@@ -28647,7 +28656,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28673,7 +28682,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1021" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28725,7 +28734,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1023" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28829,7 +28838,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1027" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28933,7 +28942,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1031" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28959,7 +28968,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1032" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28985,7 +28994,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29011,7 +29020,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1034" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29115,7 +29124,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1038" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29141,7 +29150,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1039" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29167,7 +29176,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29219,7 +29228,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1042" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29271,7 +29280,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1044" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29323,7 +29332,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1046" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29349,7 +29358,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29375,7 +29384,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1048" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29401,7 +29410,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1049" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29427,7 +29436,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1050" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29453,7 +29462,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1051" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29505,7 +29514,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29557,7 +29566,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1055" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29609,7 +29618,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1057" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29635,7 +29644,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1058" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29661,7 +29670,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29713,7 +29722,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1061" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29791,7 +29800,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1064" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29817,7 +29826,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1065" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29843,7 +29852,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1066" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29869,7 +29878,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29895,7 +29904,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1068" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29999,7 +30008,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1072" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30025,7 +30034,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1073" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30051,7 +30060,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1074" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30077,7 +30086,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1075" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30155,7 +30164,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1078" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30207,7 +30216,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30233,7 +30242,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1081" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30259,7 +30268,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1082" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30285,7 +30294,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1083" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30311,7 +30320,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1084" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30337,7 +30346,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1085" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30363,7 +30372,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1086" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30389,7 +30398,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1087" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30415,7 +30424,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1088" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30441,7 +30450,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1089" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30467,7 +30476,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1090" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30493,7 +30502,7 @@
         <v>3.5</v>
       </c>
       <c r="G1091" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30519,7 +30528,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1092" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30545,7 +30554,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1093" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30571,7 +30580,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1094" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30597,7 +30606,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1095" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30649,7 +30658,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1097" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30753,7 +30762,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1101" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30857,7 +30866,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1105" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30883,7 +30892,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30909,7 +30918,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30935,7 +30944,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30961,7 +30970,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30987,7 +30996,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1110" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31013,7 +31022,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1111" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31065,7 +31074,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31091,7 +31100,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31117,7 +31126,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1115" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31143,7 +31152,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31169,7 +31178,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31195,7 +31204,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31221,7 +31230,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31247,7 +31256,7 @@
         <v>4</v>
       </c>
       <c r="G1120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31273,7 +31282,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1121" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31299,7 +31308,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1122" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31325,7 +31334,7 @@
         <v>4</v>
       </c>
       <c r="G1123" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31351,7 +31360,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31377,7 +31386,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31403,7 +31412,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1126" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31429,7 +31438,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1127" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31455,7 +31464,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31481,7 +31490,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1129" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31559,7 +31568,7 @@
         <v>4</v>
       </c>
       <c r="G1132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31585,7 +31594,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31611,7 +31620,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1134" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31637,7 +31646,7 @@
         <v>4</v>
       </c>
       <c r="G1135" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31663,7 +31672,7 @@
         <v>4</v>
       </c>
       <c r="G1136" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31689,7 +31698,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31715,7 +31724,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1138" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31741,7 +31750,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1139" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31767,7 +31776,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31793,7 +31802,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1141" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31819,7 +31828,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1142" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31845,7 +31854,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1143" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31871,7 +31880,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1144" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31897,7 +31906,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31923,7 +31932,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1146" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31949,7 +31958,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1147" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31975,7 +31984,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1148" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32001,7 +32010,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32027,7 +32036,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1150" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32053,7 +32062,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1151" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32079,7 +32088,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1152" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32105,7 +32114,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1153" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32131,7 +32140,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1154" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32157,7 +32166,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1155" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32183,7 +32192,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32209,7 +32218,7 @@
         <v>3.5</v>
       </c>
       <c r="G1157" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32235,7 +32244,7 @@
         <v>3.5</v>
       </c>
       <c r="G1158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32261,7 +32270,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32287,7 +32296,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1160" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32313,7 +32322,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1161" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32339,7 +32348,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32365,7 +32374,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1163" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32391,7 +32400,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32417,7 +32426,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1165" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32443,7 +32452,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1166" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32469,7 +32478,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1167" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32495,7 +32504,7 @@
         <v>3.5</v>
       </c>
       <c r="G1168" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32521,7 +32530,7 @@
         <v>3.5</v>
       </c>
       <c r="G1169" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32547,7 +32556,7 @@
         <v>3.5</v>
       </c>
       <c r="G1170" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32573,7 +32582,7 @@
         <v>3.5</v>
       </c>
       <c r="G1171" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32599,7 +32608,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1172" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32625,7 +32634,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32651,7 +32660,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1174" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32677,7 +32686,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1175" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32703,7 +32712,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1176" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32729,7 +32738,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32755,7 +32764,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1178" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32781,7 +32790,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32807,7 +32816,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1180" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32833,7 +32842,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1181" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32859,7 +32868,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1182" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32885,7 +32894,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1183" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32911,7 +32920,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32937,7 +32946,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1185" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32963,7 +32972,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1186" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32989,7 +32998,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1187" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33015,7 +33024,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1188" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33041,7 +33050,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1189" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33067,7 +33076,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1190" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33093,7 +33102,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1191" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33119,7 +33128,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1192" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33145,7 +33154,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33171,7 +33180,7 @@
         <v>3.5</v>
       </c>
       <c r="G1194" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33197,7 +33206,7 @@
         <v>3.5</v>
       </c>
       <c r="G1195" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33223,7 +33232,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1196" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33249,7 +33258,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1197" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33275,7 +33284,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1198" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33301,7 +33310,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1199" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33327,7 +33336,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33353,7 +33362,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33379,7 +33388,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33405,7 +33414,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1203" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33431,7 +33440,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1204" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33457,7 +33466,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33483,7 +33492,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1206" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33509,7 +33518,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1207" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33535,7 +33544,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1208" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33561,7 +33570,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33587,7 +33596,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33613,7 +33622,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1211" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33639,7 +33648,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33665,7 +33674,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1213" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33691,7 +33700,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1214" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33717,7 +33726,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1215" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33743,7 +33752,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1216" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33769,7 +33778,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1217" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33795,7 +33804,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1218" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33821,7 +33830,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33847,7 +33856,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1220" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33873,7 +33882,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1221" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33899,7 +33908,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1222" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33925,7 +33934,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1223" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33951,7 +33960,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1224" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33977,7 +33986,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1225" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34003,7 +34012,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1226" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34029,7 +34038,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1227" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34055,7 +34064,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1228" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34081,7 +34090,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1229" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34107,7 +34116,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34133,7 +34142,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34159,7 +34168,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1232" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34185,7 +34194,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1233" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34211,7 +34220,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1234" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34237,7 +34246,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34263,7 +34272,7 @@
         <v>3.25</v>
       </c>
       <c r="G1236" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34289,7 +34298,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1237" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34315,7 +34324,7 @@
         <v>3.25</v>
       </c>
       <c r="G1238" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34341,7 +34350,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1239" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34367,7 +34376,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34393,7 +34402,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1241" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34419,7 +34428,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1242" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34445,7 +34454,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1243" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34471,7 +34480,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1244" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34497,7 +34506,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1245" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34523,7 +34532,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34549,7 +34558,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34575,7 +34584,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1248" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34601,7 +34610,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1249" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34627,7 +34636,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1250" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34653,7 +34662,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1251" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34679,7 +34688,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34705,7 +34714,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1253" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34731,7 +34740,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34757,7 +34766,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1255" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34783,7 +34792,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1256" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34809,7 +34818,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1257" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34835,7 +34844,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1258" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34861,7 +34870,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1259" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34887,7 +34896,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1260" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34913,7 +34922,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1261" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34939,7 +34948,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34965,7 +34974,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1263" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34991,7 +35000,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1264" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35017,7 +35026,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1265" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35043,7 +35052,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1266" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35069,7 +35078,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1267" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35095,7 +35104,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1268" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35121,7 +35130,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1269" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35147,7 +35156,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1270" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35173,7 +35182,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1271" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35199,7 +35208,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1272" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35225,7 +35234,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1273" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35251,7 +35260,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1274" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35277,7 +35286,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1275" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35303,7 +35312,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1276" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35329,7 +35338,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35355,7 +35364,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1278" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35381,7 +35390,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1279" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35407,7 +35416,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1280" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35433,7 +35442,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35459,7 +35468,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1282" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35485,7 +35494,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1283" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35511,7 +35520,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35537,7 +35546,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1285" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35563,7 +35572,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35589,7 +35598,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35615,7 +35624,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1288" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35641,7 +35650,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1289" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35667,7 +35676,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35693,7 +35702,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35719,7 +35728,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1292" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35745,7 +35754,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1293" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35771,7 +35780,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35797,7 +35806,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1295" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35823,7 +35832,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1296" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35849,7 +35858,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35875,7 +35884,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35901,7 +35910,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1299" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35927,7 +35936,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35953,7 +35962,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35979,7 +35988,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36005,7 +36014,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36031,7 +36040,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36057,7 +36066,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36083,7 +36092,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36109,7 +36118,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36135,7 +36144,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36161,7 +36170,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36187,7 +36196,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36213,7 +36222,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36239,7 +36248,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36265,7 +36274,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36291,7 +36300,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36317,7 +36326,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36343,7 +36352,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1316" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36369,7 +36378,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36395,7 +36404,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36421,7 +36430,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36447,7 +36456,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36473,7 +36482,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36499,7 +36508,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36525,7 +36534,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36551,7 +36560,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36577,7 +36586,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36603,7 +36612,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36629,7 +36638,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36655,7 +36664,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36681,7 +36690,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36707,7 +36716,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36733,7 +36742,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36759,7 +36768,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36785,7 +36794,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36811,7 +36820,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36837,7 +36846,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36863,7 +36872,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36889,7 +36898,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36915,7 +36924,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36941,7 +36950,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36967,7 +36976,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36993,7 +37002,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37019,7 +37028,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37045,7 +37054,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37071,7 +37080,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37097,7 +37106,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37123,7 +37132,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37149,7 +37158,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37175,7 +37184,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1348" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37201,7 +37210,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37227,7 +37236,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37253,7 +37262,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37279,7 +37288,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37305,7 +37314,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37331,7 +37340,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37357,7 +37366,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37383,7 +37392,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37409,7 +37418,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37435,7 +37444,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37461,7 +37470,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37487,7 +37496,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37513,7 +37522,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37539,7 +37548,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37565,7 +37574,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37591,7 +37600,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37617,7 +37626,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37643,7 +37652,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37669,7 +37678,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37695,7 +37704,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37721,7 +37730,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37747,7 +37756,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37773,7 +37782,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37799,7 +37808,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37825,7 +37834,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37851,7 +37860,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37877,7 +37886,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37903,7 +37912,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37929,7 +37938,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37955,7 +37964,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37981,7 +37990,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38007,7 +38016,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38033,7 +38042,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38059,7 +38068,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38085,7 +38094,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38111,7 +38120,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38137,7 +38146,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38163,7 +38172,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38189,7 +38198,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38215,7 +38224,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38241,7 +38250,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38267,7 +38276,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38293,7 +38302,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38319,7 +38328,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38345,7 +38354,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38371,7 +38380,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38397,7 +38406,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38423,7 +38432,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38449,7 +38458,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38475,7 +38484,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38501,7 +38510,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38527,7 +38536,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38553,7 +38562,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38579,7 +38588,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38605,7 +38614,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38631,7 +38640,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38657,7 +38666,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38683,7 +38692,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38709,7 +38718,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38735,7 +38744,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38761,7 +38770,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38787,7 +38796,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38813,7 +38822,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38839,7 +38848,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38865,7 +38874,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38891,7 +38900,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38917,7 +38926,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38943,7 +38952,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38969,7 +38978,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38995,7 +39004,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39021,7 +39030,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39047,7 +39056,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39073,7 +39082,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39099,7 +39108,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39125,7 +39134,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39151,7 +39160,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39177,7 +39186,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39203,7 +39212,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39229,7 +39238,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39255,7 +39264,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39281,7 +39290,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39307,7 +39316,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39333,7 +39342,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39359,7 +39368,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39385,7 +39394,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39411,7 +39420,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39437,7 +39446,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39463,7 +39472,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39489,7 +39498,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39515,7 +39524,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39541,7 +39550,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39567,7 +39576,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39593,7 +39602,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39619,7 +39628,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39645,7 +39654,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39671,7 +39680,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39697,7 +39706,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39723,7 +39732,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39749,7 +39758,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39775,7 +39784,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39801,7 +39810,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39827,7 +39836,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39853,7 +39862,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39879,7 +39888,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39905,7 +39914,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39931,7 +39940,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39957,7 +39966,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39983,7 +39992,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40009,7 +40018,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40035,7 +40044,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40061,7 +40070,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40087,7 +40096,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40113,7 +40122,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40139,7 +40148,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40165,7 +40174,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40191,7 +40200,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40217,7 +40226,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40243,7 +40252,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40269,7 +40278,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40295,7 +40304,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40321,7 +40330,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40347,7 +40356,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40373,7 +40382,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40399,7 +40408,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40425,7 +40434,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40451,7 +40460,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40477,7 +40486,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40503,7 +40512,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40529,7 +40538,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40555,7 +40564,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40581,7 +40590,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40607,7 +40616,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40633,7 +40642,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40659,7 +40668,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40685,7 +40694,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40711,7 +40720,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40737,7 +40746,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40763,7 +40772,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40789,7 +40798,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40815,7 +40824,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40841,7 +40850,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40867,7 +40876,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40893,7 +40902,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40919,7 +40928,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40945,7 +40954,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40971,7 +40980,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40997,7 +41006,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41023,7 +41032,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41049,7 +41058,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41075,7 +41084,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41101,7 +41110,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41127,7 +41136,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41153,7 +41162,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41179,7 +41188,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41205,7 +41214,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41231,7 +41240,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41257,7 +41266,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41283,7 +41292,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41309,7 +41318,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41335,7 +41344,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41361,7 +41370,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41387,7 +41396,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41413,7 +41422,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41439,7 +41448,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41465,7 +41474,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41491,7 +41500,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41517,7 +41526,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41543,7 +41552,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41569,7 +41578,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41595,7 +41604,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41621,7 +41630,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41647,7 +41656,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41673,7 +41682,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41699,7 +41708,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41725,7 +41734,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41751,7 +41760,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41777,7 +41786,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41803,7 +41812,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41829,7 +41838,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41855,7 +41864,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41881,7 +41890,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41907,7 +41916,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41933,7 +41942,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41959,7 +41968,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41985,7 +41994,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42011,7 +42020,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42037,7 +42046,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42063,7 +42072,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42089,7 +42098,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42115,7 +42124,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42141,7 +42150,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42167,7 +42176,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42193,7 +42202,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42219,7 +42228,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42245,7 +42254,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42271,7 +42280,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42297,7 +42306,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42323,7 +42332,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42349,7 +42358,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42375,7 +42384,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42401,7 +42410,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42427,7 +42436,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42453,7 +42462,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42479,7 +42488,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42505,7 +42514,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42531,7 +42540,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42557,7 +42566,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42583,7 +42592,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42609,7 +42618,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42635,7 +42644,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42661,7 +42670,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42687,7 +42696,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42713,7 +42722,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42739,7 +42748,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42765,7 +42774,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42791,7 +42800,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42817,7 +42826,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42843,7 +42852,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42869,7 +42878,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42895,7 +42904,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42921,7 +42930,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42947,7 +42956,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42973,7 +42982,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42999,7 +43008,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43025,7 +43034,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43051,7 +43060,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43077,7 +43086,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43103,7 +43112,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43129,7 +43138,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43155,7 +43164,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43181,7 +43190,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43207,7 +43216,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43233,7 +43242,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43259,7 +43268,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43285,7 +43294,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43311,7 +43320,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43337,7 +43346,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43363,7 +43372,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43389,7 +43398,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43415,7 +43424,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43441,7 +43450,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43467,7 +43476,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43493,7 +43502,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43519,7 +43528,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43545,7 +43554,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43571,7 +43580,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43597,7 +43606,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43623,7 +43632,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43649,7 +43658,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43675,7 +43684,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43701,7 +43710,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43727,7 +43736,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43753,7 +43762,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43779,7 +43788,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43805,7 +43814,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43831,7 +43840,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43857,7 +43866,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43883,7 +43892,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43909,7 +43918,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43935,7 +43944,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43961,7 +43970,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43987,7 +43996,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44013,7 +44022,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44039,7 +44048,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44065,7 +44074,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44091,7 +44100,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44117,7 +44126,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44143,7 +44152,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44169,7 +44178,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44195,7 +44204,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44221,7 +44230,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44247,7 +44256,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44273,7 +44282,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44299,7 +44308,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44325,7 +44334,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44351,7 +44360,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44377,7 +44386,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44403,7 +44412,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44429,7 +44438,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44455,7 +44464,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44481,7 +44490,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44507,7 +44516,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44533,7 +44542,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44559,7 +44568,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44585,7 +44594,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44611,7 +44620,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44637,7 +44646,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44663,7 +44672,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44689,7 +44698,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44715,7 +44724,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44741,7 +44750,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44767,7 +44776,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44793,7 +44802,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44819,7 +44828,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44845,7 +44854,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44871,7 +44880,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44897,7 +44906,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44923,7 +44932,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44949,7 +44958,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44975,7 +44984,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45001,7 +45010,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45027,7 +45036,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45053,7 +45062,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45079,7 +45088,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45105,7 +45114,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45131,7 +45140,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45157,7 +45166,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45183,7 +45192,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45209,7 +45218,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45235,7 +45244,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45261,7 +45270,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45287,7 +45296,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45313,7 +45322,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45339,7 +45348,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45365,7 +45374,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45391,7 +45400,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1664" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45417,7 +45426,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45443,7 +45452,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1666" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45469,7 +45478,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1667" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45495,7 +45504,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1668" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45521,7 +45530,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45547,7 +45556,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1670" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45555,13 +45564,13 @@
     </row>
     <row r="1671">
       <c r="A1671" s="1" t="n">
-        <v>45463.6494560185</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B1671" t="n">
         <v>11227</v>
       </c>
       <c r="C1671" t="n">
-        <v>3.8199999332428</v>
+        <v>3.82999992370605</v>
       </c>
       <c r="D1671" t="n">
         <v>3.75999999046326</v>
@@ -45573,9 +45582,35 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H1671" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="1" t="n">
+        <v>45464.6494791667</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>27024</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>3.82999992370605</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1672" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57472324371338</t>
+    <t xml:space="preserve">1.57472312450409</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64046931266785</t>
+    <t xml:space="preserve">1.64046895503998</t>
   </si>
   <si>
     <t xml:space="preserve">1.67016077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66697990894318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66379833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65425443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62456274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62880456447601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64365041255951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63092541694641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61289846897125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61183786392212</t>
+    <t xml:space="preserve">1.66697955131531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66379845142365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6542546749115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62456285953522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62880444526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64365029335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63092494010925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61289823055267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61183798313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.60971701145172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59274995326996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60123372077942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6075963973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60865640640259</t>
+    <t xml:space="preserve">1.59275019168854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60123360157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60759615898132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6086562871933</t>
   </si>
   <si>
     <t xml:space="preserve">1.60335433483124</t>
@@ -98,265 +98,265 @@
     <t xml:space="preserve">1.61395859718323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59487092494965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59805238246918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58108568191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229384899139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62774384021759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64259004592896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63304603099823</t>
+    <t xml:space="preserve">1.59487104415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59805250167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58108556270599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229408740997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62774407863617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258992671967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63304591178894</t>
   </si>
   <si>
     <t xml:space="preserve">1.63198590278625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62562322616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6266838312149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6563755273819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65955686569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64895248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61979103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62244188785553</t>
+    <t xml:space="preserve">1.62562334537506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62668371200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65637564659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65955698490143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64895260334015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61979079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62244212627411</t>
   </si>
   <si>
     <t xml:space="preserve">1.65160346031189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65690577030182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64099907875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63834857940674</t>
+    <t xml:space="preserve">1.65690565109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64099943637848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63834798336029</t>
   </si>
   <si>
     <t xml:space="preserve">1.62509310245514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70197367668152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6754629611969</t>
+    <t xml:space="preserve">1.70197343826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67546319961548</t>
   </si>
   <si>
     <t xml:space="preserve">1.68076515197754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69667148590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68341600894928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69136929512024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69402039051056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74969232082367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72848391532898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72318208217621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68871808052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74704122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73908817768097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76824986934662</t>
+    <t xml:space="preserve">1.69667136669159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68341588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69136917591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69402050971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74969220161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72848415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72318184375763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68871831893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74704134464264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73908829689026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76824963092804</t>
   </si>
   <si>
     <t xml:space="preserve">1.77355182170868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75499451160431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76559853553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76294732093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76029694080353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74439036846161</t>
+    <t xml:space="preserve">1.75499415397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76559865474701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76294767856598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76029658317566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74439024925232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79210925102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83747887611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82046520709991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82897198200226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79494452476501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76942431926727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78076660633087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80912292003632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82330083847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.826136469841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81195855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8318076133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75808155536652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71838283538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74673902988434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74957513809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256123065948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77225983142853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73539698123932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76658844947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78360223770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78643786907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79778015613556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81762957572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80061566829681</t>
   </si>
   <si>
     <t xml:space="preserve">1.79210937023163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83747923374176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8204653263092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82897233963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79494452476501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76942420005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78076672554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80912292003632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82330083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82613670825958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81195831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8318076133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7580817937851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71838331222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74673914909363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74957513809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7325611114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77225995063782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73539662361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76658880710602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78360235691071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78643798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79778051376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81762957572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80061590671539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79210913181305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80628740787506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86016392707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84031450748444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83464312553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84315037727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7892735004425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80345177650452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81479394435883</t>
+    <t xml:space="preserve">1.80628728866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86016380786896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84031462669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83464324474335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84315025806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78927361965179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80345153808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81479430198669</t>
   </si>
   <si>
     <t xml:space="preserve">1.76091742515564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84598612785339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86299979686737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.899862408638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90836918354034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87150633335114</t>
+    <t xml:space="preserve">1.84598588943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8629994392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89986217021942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90836942195892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87150621414185</t>
   </si>
   <si>
     <t xml:space="preserve">1.91120505332947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95090401172638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95373892784119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92821872234344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90553343296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8743417263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85732817649841</t>
+    <t xml:space="preserve">1.9509037733078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95373940467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92821896076202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90553379058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87434208393097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8573282957077</t>
   </si>
   <si>
     <t xml:space="preserve">1.90269827842712</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">1.95657479763031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94523239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89135599136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89419138431549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85449230670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86867070198059</t>
+    <t xml:space="preserve">1.94523251056671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89135563373566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8941912651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85449290275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86867082118988</t>
   </si>
   <si>
     <t xml:space="preserve">2.02179408073425</t>
@@ -389,112 +389,112 @@
     <t xml:space="preserve">1.93388998508453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93956112861633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9197119474411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88568449020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87717747688293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88851976394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85165691375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77509558200836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76375293731689</t>
+    <t xml:space="preserve">1.93956100940704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91971182823181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88568472862244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87717735767365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8885201215744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8516571521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77509582042694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76375305652618</t>
   </si>
   <si>
     <t xml:space="preserve">1.74106788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77793073654175</t>
+    <t xml:space="preserve">1.77793121337891</t>
   </si>
   <si>
     <t xml:space="preserve">1.9726779460907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85090792179108</t>
+    <t xml:space="preserve">1.85090780258179</t>
   </si>
   <si>
     <t xml:space="preserve">1.84481918811798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83873093128204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82655382156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77175724506378</t>
+    <t xml:space="preserve">1.83873081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82655358314514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77175736427307</t>
   </si>
   <si>
     <t xml:space="preserve">1.74131453037262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73522639274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71087181568146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69869494438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68651819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68042945861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60736703872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64389848709106</t>
+    <t xml:space="preserve">1.73522591590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71087205410004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.698695063591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68651783466339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68042957782745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60736739635468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64389860630035</t>
   </si>
   <si>
     <t xml:space="preserve">1.60127890110016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56474769115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58301329612732</t>
+    <t xml:space="preserve">1.56474781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58301305770874</t>
   </si>
   <si>
     <t xml:space="preserve">1.61954438686371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63172161579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58910179138184</t>
+    <t xml:space="preserve">1.63172125816345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58910167217255</t>
   </si>
   <si>
     <t xml:space="preserve">1.62563276290894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57692468166351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55865919589996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63780963420868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6560754776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64998698234558</t>
+    <t xml:space="preserve">1.5769248008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55865943431854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63780999183655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65607523918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64998722076416</t>
   </si>
   <si>
     <t xml:space="preserve">1.66216385364532</t>
@@ -503,37 +503,37 @@
     <t xml:space="preserve">1.66825246810913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61345613002777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59518992900848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57083594799042</t>
+    <t xml:space="preserve">1.61345589160919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59519016742706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57083606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.55257070064545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52821671962738</t>
+    <t xml:space="preserve">1.52821660041809</t>
   </si>
   <si>
     <t xml:space="preserve">1.52212810516357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51603937149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53430497646332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50995123386383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039394855499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72304904460907</t>
+    <t xml:space="preserve">1.51603960990906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5343052148819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50995111465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039359092712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72304916381836</t>
   </si>
   <si>
     <t xml:space="preserve">1.76566863059998</t>
@@ -545,34 +545,34 @@
     <t xml:space="preserve">1.75349164009094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72913765907288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69260668754578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71696043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70478367805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43688905239105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32729578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50386250019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46124315261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34556138515472</t>
+    <t xml:space="preserve">1.72913777828217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6926064491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71696031093597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70478343963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648220539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43688869476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32729589939117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50386261940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46124291419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34556126594543</t>
   </si>
   <si>
     <t xml:space="preserve">1.36382687091827</t>
@@ -581,133 +581,136 @@
     <t xml:space="preserve">1.28467607498169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26641035079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29076480865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2968533039093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2481449842453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26032197475433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25423359870911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30294191837311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31511878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27858734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30903005599976</t>
+    <t xml:space="preserve">1.26641047000885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29076457023621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29685306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24814522266388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26032209396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25423336029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30294167995453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31511867046356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27858769893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30903041362762</t>
   </si>
   <si>
     <t xml:space="preserve">1.39426946640015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35164976119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35773837566376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4186235666275</t>
+    <t xml:space="preserve">1.35164988040924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35773825645447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41862332820892</t>
   </si>
   <si>
     <t xml:space="preserve">1.38209235668182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33947288990021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37600374221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40035796165466</t>
+    <t xml:space="preserve">1.33947277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37600362300873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40035784244537</t>
   </si>
   <si>
     <t xml:space="preserve">1.40644645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38818085193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49168539047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3699152469635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41253471374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47342002391815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67434096336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80746221542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75544881820679</t>
+    <t xml:space="preserve">1.38818097114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49168574810028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36991536617279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4125349521637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47342026233673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67434084415436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82046544551849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.807461977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7554486989975</t>
   </si>
   <si>
     <t xml:space="preserve">1.61241221427917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59940898418427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56690037250519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5929069519043</t>
+    <t xml:space="preserve">1.59940910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56690049171448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59290754795074</t>
   </si>
   <si>
     <t xml:space="preserve">1.57340216636658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56039893627167</t>
+    <t xml:space="preserve">1.56039869785309</t>
   </si>
   <si>
     <t xml:space="preserve">1.52789032459259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60591042041779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58640551567078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6189136505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57990396022797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62541556358337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63841843605042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65142202377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54739546775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51488733291626</t>
+    <t xml:space="preserve">1.60591053962708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58640563488007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61891376972198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57990384101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62541544437408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63841867446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65142178535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54739570617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51488721370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.48237884044647</t>
@@ -716,46 +719,46 @@
     <t xml:space="preserve">1.47587716579437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48888063430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50188386440277</t>
+    <t xml:space="preserve">1.48888051509857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50188362598419</t>
   </si>
   <si>
     <t xml:space="preserve">1.50838541984558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49538230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53439223766327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54089367389679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52138900756836</t>
+    <t xml:space="preserve">1.49538218975067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5343918800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54089379310608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52138876914978</t>
   </si>
   <si>
     <t xml:space="preserve">1.45637226104736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46937561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55389714241028</t>
+    <t xml:space="preserve">1.46937572956085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55389726161957</t>
   </si>
   <si>
     <t xml:space="preserve">1.46287381649017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44987070560455</t>
+    <t xml:space="preserve">1.44987058639526</t>
   </si>
   <si>
     <t xml:space="preserve">1.44336891174316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43686735630035</t>
+    <t xml:space="preserve">1.43686723709106</t>
   </si>
   <si>
     <t xml:space="preserve">1.43036568164825</t>
@@ -767,28 +770,28 @@
     <t xml:space="preserve">1.40435898303986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41086089611053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39135587215424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37835228443146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32633900642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29383063316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30683410167694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30033230781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28732895851135</t>
+    <t xml:space="preserve">1.41086065769196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39135551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37835216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32633912563324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29383075237274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30683398246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30033242702484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28732907772064</t>
   </si>
   <si>
     <t xml:space="preserve">1.28407824039459</t>
@@ -800,73 +803,70 @@
     <t xml:space="preserve">1.69043207168579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72294068336487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70343506336212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69693374633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68393015861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71643841266632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73594355583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74244546890259</t>
+    <t xml:space="preserve">1.72294044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7034353017807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69693350791931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68393039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71643888950348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7359436750412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7424453496933</t>
   </si>
   <si>
     <t xml:space="preserve">1.70993709564209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74894678592682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7749537229538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80096042156219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81396353244781</t>
+    <t xml:space="preserve">1.74894690513611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77495360374451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80095994472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8139636516571</t>
   </si>
   <si>
     <t xml:space="preserve">1.82696676254272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83997011184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85947525501251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87247860431671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8464720249176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82046544551849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78795695304871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85297393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334686756134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86597692966461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9114887714386</t>
+    <t xml:space="preserve">1.83997046947479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85947501659393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87247836589813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84647178649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.787957072258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85297346115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83346855640411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8659770488739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91148853302002</t>
   </si>
   <si>
     <t xml:space="preserve">1.94399690628052</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">1.93749511241913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95699977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93099391460419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92449176311493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350193023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97000336647034</t>
+    <t xml:space="preserve">1.95700025558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93099355697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92449164390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049846172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350169181824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97000348567963</t>
   </si>
   <si>
     <t xml:space="preserve">1.97650527954102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98995089530945</t>
+    <t xml:space="preserve">1.98995053768158</t>
   </si>
   <si>
     <t xml:space="preserve">1.99667358398438</t>
@@ -905,43 +905,43 @@
     <t xml:space="preserve">2.02356481552124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98322820663452</t>
+    <t xml:space="preserve">1.98322784900665</t>
   </si>
   <si>
     <t xml:space="preserve">2.03028750419617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00339603424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01011896133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01684212684631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05045628547668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06390166282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11096119880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09079265594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13785243034363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14457535743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1311297416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10423851013184</t>
+    <t xml:space="preserve">2.0033962726593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01011919975281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01684188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05045604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06390142440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11096143722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09079313278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13785266876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14457559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13112950325012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10423874855042</t>
   </si>
   <si>
     <t xml:space="preserve">2.0840699672699</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">2.11768412590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12440705299377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09751534461975</t>
+    <t xml:space="preserve">2.1244068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09751582145691</t>
   </si>
   <si>
     <t xml:space="preserve">2.16474366188049</t>
@@ -965,25 +965,25 @@
     <t xml:space="preserve">2.171466588974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1781895160675</t>
+    <t xml:space="preserve">2.17818927764893</t>
   </si>
   <si>
     <t xml:space="preserve">2.19163489341736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19835805892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20508098602295</t>
+    <t xml:space="preserve">2.19835782051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20508050918579</t>
   </si>
   <si>
     <t xml:space="preserve">2.2118034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18491220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24541711807251</t>
+    <t xml:space="preserve">2.18491244316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24541759490967</t>
   </si>
   <si>
     <t xml:space="preserve">2.26558566093445</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.25886297225952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27230858802795</t>
+    <t xml:space="preserve">2.27230834960938</t>
   </si>
   <si>
     <t xml:space="preserve">2.27903151512146</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">2.31936812400818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3059229850769</t>
+    <t xml:space="preserve">2.30592250823975</t>
   </si>
   <si>
     <t xml:space="preserve">2.36642789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37987375259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44710159301758</t>
+    <t xml:space="preserve">2.37987351417542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.447101354599</t>
   </si>
   <si>
     <t xml:space="preserve">2.42021012306213</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">2.42693305015564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49416136741638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48743867874146</t>
+    <t xml:space="preserve">2.4941611289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48743891716003</t>
   </si>
   <si>
     <t xml:space="preserve">2.47399282455444</t>
@@ -1034,106 +1034,106 @@
     <t xml:space="preserve">2.50088405609131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45382404327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46054720878601</t>
+    <t xml:space="preserve">2.45382452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46054744720459</t>
   </si>
   <si>
     <t xml:space="preserve">2.48071575164795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5143301486969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52105236053467</t>
+    <t xml:space="preserve">2.51432967185974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52105212211609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56138968467712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55466651916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5815577507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57483458518982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54794383049011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56811213493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54122114181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5890052318573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56829333305359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62352538108826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66494941711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71327781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69256544113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67185354232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65804553031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68566179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6373336315155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58210134506226</t>
   </si>
   <si>
     <t xml:space="preserve">2.56138920783997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55466675758362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5815577507019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5748348236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54794359207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56811213493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54122090339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5890052318573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56829333305359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62352561950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66494965553284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71327781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69256544113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6718533039093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65804576873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68566203117371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63733339309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58210182189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56138944625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60971736907959</t>
+    <t xml:space="preserve">2.60971760749817</t>
   </si>
   <si>
     <t xml:space="preserve">2.5544855594635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57519769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281324386597</t>
+    <t xml:space="preserve">2.57519745826721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281372070312</t>
   </si>
   <si>
     <t xml:space="preserve">2.59590935707092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6304292678833</t>
+    <t xml:space="preserve">2.63042974472046</t>
   </si>
   <si>
     <t xml:space="preserve">2.6787576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64423751831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65114164352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61662125587463</t>
+    <t xml:space="preserve">2.64423727989197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65114140510559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61662149429321</t>
   </si>
   <si>
     <t xml:space="preserve">2.49234914779663</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">2.48544502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52686929702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7201817035675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47854137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42330932617188</t>
+    <t xml:space="preserve">2.52686953544617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72018194198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47854113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4233090877533</t>
   </si>
   <si>
     <t xml:space="preserve">2.40259718894958</t>
@@ -1163,82 +1163,82 @@
     <t xml:space="preserve">2.19547653198242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11262845993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15405225753784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27832460403442</t>
+    <t xml:space="preserve">2.11262822151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.154052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.278324842453</t>
   </si>
   <si>
     <t xml:space="preserve">2.28522849082947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41640496253967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51996493339539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40950083732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53377318382263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73398995399475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74779748916626</t>
+    <t xml:space="preserve">2.41640520095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51996541023254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40950107574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53377342224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73398971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74779796600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.80302977561951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78922176361084</t>
+    <t xml:space="preserve">2.78922152519226</t>
   </si>
   <si>
     <t xml:space="preserve">2.81683802604675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79612612724304</t>
+    <t xml:space="preserve">2.79612565040588</t>
   </si>
   <si>
     <t xml:space="preserve">2.76160573959351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70637345314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8237419128418</t>
+    <t xml:space="preserve">2.70637369155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82374215126038</t>
   </si>
   <si>
     <t xml:space="preserve">2.80993413925171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74089360237122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470185279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89135813713074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0200309753418</t>
+    <t xml:space="preserve">2.74089384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89135789871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02003121376038</t>
   </si>
   <si>
     <t xml:space="preserve">2.98975491523743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01246190071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98218584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95191025733948</t>
+    <t xml:space="preserve">3.01246213912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98218607902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9519100189209</t>
   </si>
   <si>
     <t xml:space="preserve">2.91406512260437</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">2.73997783660889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63401222229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64915013313293</t>
+    <t xml:space="preserve">2.63401198387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64914989471436</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415810585022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65671920776367</t>
+    <t xml:space="preserve">2.65671896934509</t>
   </si>
   <si>
     <t xml:space="preserve">2.68699502944946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66428804397583</t>
+    <t xml:space="preserve">2.66428780555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.69456386566162</t>
@@ -1277,58 +1277,58 @@
     <t xml:space="preserve">2.67185688018799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60373592376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61887431144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61130499839783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58859801292419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5583221912384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62644290924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58102893829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53561520576477</t>
+    <t xml:space="preserve">2.60373616218567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61887407302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61130523681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58859825134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55832195281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62644338607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58102941513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53561496734619</t>
   </si>
   <si>
     <t xml:space="preserve">2.50533866882324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4902012348175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52804565429688</t>
+    <t xml:space="preserve">2.49020075798035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52804589271545</t>
   </si>
   <si>
     <t xml:space="preserve">2.49776983261108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5204770565033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51290798187256</t>
+    <t xml:space="preserve">2.52047681808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5129075050354</t>
   </si>
   <si>
     <t xml:space="preserve">2.56589102745056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4372181892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46749401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40694212913513</t>
+    <t xml:space="preserve">2.43721795082092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46749377250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40694189071655</t>
   </si>
   <si>
     <t xml:space="preserve">2.42208003997803</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">2.45992493629456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47506308555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44478702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42964887619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4523561000824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67942571640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75511622428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77025365829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78539204597473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79296088218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77782297134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8156681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83080625534058</t>
+    <t xml:space="preserve">2.47506284713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44478726387024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42964911460876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45235586166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67942595481873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75511598587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77025389671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78539228439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77782320976257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81566786766052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.830806016922</t>
   </si>
   <si>
     <t xml:space="preserve">2.85446166992188</t>
@@ -1379,67 +1379,64 @@
     <t xml:space="preserve">2.86234712600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88600254058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87811732292175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84657669067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91754388809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92542910575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93331432342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90965843200684</t>
+    <t xml:space="preserve">2.88600277900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87811756134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84657645225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91754412651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92542886734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93331408500671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90965867042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.83869123458862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.830806016922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87023258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90177321434021</t>
+    <t xml:space="preserve">2.87023234367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90177345275879</t>
   </si>
   <si>
     <t xml:space="preserve">2.89388799667358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95696997642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96485543251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9411997795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02793741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05159306526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04370760917664</t>
+    <t xml:space="preserve">2.95696973800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96485495567322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94119930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02793717384338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05159282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04370784759521</t>
   </si>
   <si>
     <t xml:space="preserve">2.98062586784363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01216673851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94908499717712</t>
+    <t xml:space="preserve">3.01216697692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94908475875854</t>
   </si>
   <si>
     <t xml:space="preserve">2.98851108551025</t>
@@ -1454,40 +1451,40 @@
     <t xml:space="preserve">3.03582262992859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00428152084351</t>
+    <t xml:space="preserve">3.00428175926208</t>
   </si>
   <si>
     <t xml:space="preserve">3.08313417434692</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09101939201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05947828292847</t>
+    <t xml:space="preserve">3.09101963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05947852134705</t>
   </si>
   <si>
     <t xml:space="preserve">3.11467504501343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06736373901367</t>
+    <t xml:space="preserve">3.06736397743225</t>
   </si>
   <si>
     <t xml:space="preserve">3.02005195617676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20141315460205</t>
+    <t xml:space="preserve">3.20141291618347</t>
   </si>
   <si>
     <t xml:space="preserve">3.13044548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12256050109863</t>
+    <t xml:space="preserve">3.12256026268005</t>
   </si>
   <si>
     <t xml:space="preserve">3.1067898273468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09890484809875</t>
+    <t xml:space="preserve">3.09890460968018</t>
   </si>
   <si>
     <t xml:space="preserve">3.30570840835571</t>
@@ -1499,16 +1496,16 @@
     <t xml:space="preserve">3.34068942070007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31445360183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27072739601135</t>
+    <t xml:space="preserve">3.31445384025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27072715759277</t>
   </si>
   <si>
     <t xml:space="preserve">3.2794725894928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29696321487427</t>
+    <t xml:space="preserve">3.29696297645569</t>
   </si>
   <si>
     <t xml:space="preserve">3.24449157714844</t>
@@ -1520,19 +1517,19 @@
     <t xml:space="preserve">3.25323677062988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26198220252991</t>
+    <t xml:space="preserve">3.26198196411133</t>
   </si>
   <si>
     <t xml:space="preserve">3.2182559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22700095176697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20951080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28821802139282</t>
+    <t xml:space="preserve">3.22700119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20951056480408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28821778297424</t>
   </si>
   <si>
     <t xml:space="preserve">3.20076537132263</t>
@@ -1559,7 +1556,7 @@
     <t xml:space="preserve">3.13080310821533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09582233428955</t>
+    <t xml:space="preserve">3.09582209587097</t>
   </si>
   <si>
     <t xml:space="preserve">3.12205791473389</t>
@@ -1568,16 +1565,16 @@
     <t xml:space="preserve">3.13954830169678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06958651542664</t>
+    <t xml:space="preserve">3.06958627700806</t>
   </si>
   <si>
     <t xml:space="preserve">3.06084108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99962425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02586007118225</t>
+    <t xml:space="preserve">2.99962449073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02586030960083</t>
   </si>
   <si>
     <t xml:space="preserve">2.98213410377502</t>
@@ -1586,25 +1583,25 @@
     <t xml:space="preserve">2.973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99087905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94715261459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0346052646637</t>
+    <t xml:space="preserve">2.99087929725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94715285301208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03460550308228</t>
   </si>
   <si>
     <t xml:space="preserve">3.05209589004517</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00836944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.104567527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04335069656372</t>
+    <t xml:space="preserve">3.00836968421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10456728935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04335045814514</t>
   </si>
   <si>
     <t xml:space="preserve">3.07833170890808</t>
@@ -18762,7 +18759,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18788,7 +18785,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G640" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18814,7 +18811,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G641" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18840,7 +18837,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18866,7 +18863,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G643" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18892,7 +18889,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G644" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18918,7 +18915,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18944,7 +18941,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18970,7 +18967,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G647" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18996,7 +18993,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G648" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19022,7 +19019,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19048,7 +19045,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G650" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19074,7 +19071,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19100,7 +19097,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G652" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19126,7 +19123,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19152,7 +19149,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19178,7 +19175,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G655" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19204,7 +19201,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G656" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19230,7 +19227,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G657" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19256,7 +19253,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G658" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19282,7 +19279,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G659" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19308,7 +19305,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G660" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19334,7 +19331,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G661" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19360,7 +19357,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G662" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19386,7 +19383,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G663" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19412,7 +19409,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G664" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19438,7 +19435,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G665" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19464,7 +19461,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G666" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19490,7 +19487,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G667" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19516,7 +19513,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19542,7 +19539,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G669" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19568,7 +19565,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19594,7 +19591,7 @@
         <v>2.5</v>
       </c>
       <c r="G671" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19620,7 +19617,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19646,7 +19643,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G673" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19672,7 +19669,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19698,7 +19695,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19724,7 +19721,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G676" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19750,7 +19747,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G677" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19776,7 +19773,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G678" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19802,7 +19799,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G679" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19828,7 +19825,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G680" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19854,7 +19851,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19880,7 +19877,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G682" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19906,7 +19903,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G683" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19932,7 +19929,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19958,7 +19955,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19984,7 +19981,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G686" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20010,7 +20007,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20036,7 +20033,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20062,7 +20059,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G689" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20088,7 +20085,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G690" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20114,7 +20111,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G691" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20140,7 +20137,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20166,7 +20163,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G693" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20192,7 +20189,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G694" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20218,7 +20215,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G695" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20244,7 +20241,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20270,7 +20267,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G697" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20296,7 +20293,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G698" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20322,7 +20319,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G699" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20348,7 +20345,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20374,7 +20371,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G701" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20400,7 +20397,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G702" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20426,7 +20423,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20452,7 +20449,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G704" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20478,7 +20475,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20504,7 +20501,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20530,7 +20527,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G707" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20556,7 +20553,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G708" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20582,7 +20579,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G709" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20608,7 +20605,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20634,7 +20631,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G711" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20660,7 +20657,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G712" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20686,7 +20683,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G713" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20712,7 +20709,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G714" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20738,7 +20735,7 @@
         <v>2.25</v>
       </c>
       <c r="G715" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20764,7 +20761,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G716" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20790,7 +20787,7 @@
         <v>2.25</v>
       </c>
       <c r="G717" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20816,7 +20813,7 @@
         <v>2.25</v>
       </c>
       <c r="G718" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20842,7 +20839,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G719" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20868,7 +20865,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20894,7 +20891,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G721" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20920,7 +20917,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G722" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20946,7 +20943,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20972,7 +20969,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G724" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20998,7 +20995,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G725" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21024,7 +21021,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G726" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21050,7 +21047,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G727" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21076,7 +21073,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21102,7 +21099,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G729" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21128,7 +21125,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G730" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21154,7 +21151,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G731" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21180,7 +21177,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21206,7 +21203,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21232,7 +21229,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G734" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21258,7 +21255,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G735" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21284,7 +21281,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21310,7 +21307,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21336,7 +21333,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G738" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21362,7 +21359,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G739" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21388,7 +21385,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G740" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21414,7 +21411,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21440,7 +21437,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21466,7 +21463,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G743" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21492,7 +21489,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G744" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21518,7 +21515,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G745" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21544,7 +21541,7 @@
         <v>2</v>
       </c>
       <c r="G746" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21570,7 +21567,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G747" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21596,7 +21593,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G748" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21622,7 +21619,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G749" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21648,7 +21645,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G750" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21674,7 +21671,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21700,7 +21697,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G752" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21726,7 +21723,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21752,7 +21749,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21778,7 +21775,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21804,7 +21801,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21830,7 +21827,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G757" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21856,7 +21853,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G758" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21882,7 +21879,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G759" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21908,7 +21905,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G760" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21934,7 +21931,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G761" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21960,7 +21957,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G762" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21986,7 +21983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G763" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22012,7 +22009,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22038,7 +22035,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G765" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22064,7 +22061,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G766" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22090,7 +22087,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G767" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22116,7 +22113,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G768" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22142,7 +22139,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22168,7 +22165,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G770" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22194,7 +22191,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G771" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22220,7 +22217,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22246,7 +22243,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22272,7 +22269,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G774" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22298,7 +22295,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22324,7 +22321,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22350,7 +22347,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G777" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22376,7 +22373,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G778" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22402,7 +22399,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22428,7 +22425,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G780" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22454,7 +22451,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G781" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22480,7 +22477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22506,7 +22503,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G783" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22532,7 +22529,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G784" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22558,7 +22555,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22584,7 +22581,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G786" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22610,7 +22607,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G787" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22636,7 +22633,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G788" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22662,7 +22659,7 @@
         <v>2.5</v>
       </c>
       <c r="G789" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22688,7 +22685,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22714,7 +22711,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G791" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22740,7 +22737,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G792" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22766,7 +22763,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G793" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22792,7 +22789,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G794" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22818,7 +22815,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G795" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22844,7 +22841,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G796" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22870,7 +22867,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22896,7 +22893,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G798" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22922,7 +22919,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22948,7 +22945,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G800" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22974,7 +22971,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G801" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23000,7 +22997,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23026,7 +23023,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23052,7 +23049,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G804" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23078,7 +23075,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G805" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23104,7 +23101,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23130,7 +23127,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23156,7 +23153,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G808" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23182,7 +23179,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23208,7 +23205,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23234,7 +23231,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23260,7 +23257,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23286,7 +23283,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G813" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23312,7 +23309,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G814" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23338,7 +23335,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23364,7 +23361,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G816" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23390,7 +23387,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G817" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23416,7 +23413,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23442,7 +23439,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23468,7 +23465,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23494,7 +23491,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23546,7 +23543,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23572,7 +23569,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23598,7 +23595,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G825" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23650,7 +23647,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G827" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23676,7 +23673,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G828" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23728,7 +23725,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G830" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23754,7 +23751,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G831" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23780,7 +23777,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G832" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23858,7 +23855,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G835" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -35532,7 +35529,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35584,7 +35581,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35610,7 +35607,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35688,7 +35685,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35792,7 +35789,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35870,7 +35867,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35948,7 +35945,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35974,7 +35971,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36000,7 +35997,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36026,7 +36023,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36052,7 +36049,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36078,7 +36075,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36104,7 +36101,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36130,7 +36127,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36156,7 +36153,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36208,7 +36205,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36234,7 +36231,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36260,7 +36257,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36286,7 +36283,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36312,7 +36309,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36416,7 +36413,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36442,7 +36439,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36468,7 +36465,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36494,7 +36491,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36520,7 +36517,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36546,7 +36543,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36572,7 +36569,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36598,7 +36595,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36624,7 +36621,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36650,7 +36647,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36676,7 +36673,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36702,7 +36699,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36728,7 +36725,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36754,7 +36751,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36780,7 +36777,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36806,7 +36803,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36832,7 +36829,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36858,7 +36855,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36884,7 +36881,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36910,7 +36907,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36936,7 +36933,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36962,7 +36959,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36988,7 +36985,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37014,7 +37011,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37040,7 +37037,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37066,7 +37063,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37092,7 +37089,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37118,7 +37115,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37144,7 +37141,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37170,7 +37167,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37222,7 +37219,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37248,7 +37245,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37274,7 +37271,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37300,7 +37297,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37326,7 +37323,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37352,7 +37349,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37378,7 +37375,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37404,7 +37401,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37430,7 +37427,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37456,7 +37453,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37482,7 +37479,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37508,7 +37505,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37534,7 +37531,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37560,7 +37557,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37586,7 +37583,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37612,7 +37609,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37638,7 +37635,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37664,7 +37661,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37690,7 +37687,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37716,7 +37713,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37742,7 +37739,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37768,7 +37765,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37794,7 +37791,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37820,7 +37817,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37846,7 +37843,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37872,7 +37869,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37898,7 +37895,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37924,7 +37921,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37950,7 +37947,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37976,7 +37973,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38002,7 +37999,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38028,7 +38025,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38054,7 +38051,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38080,7 +38077,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38106,7 +38103,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38132,7 +38129,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38158,7 +38155,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38184,7 +38181,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38210,7 +38207,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38236,7 +38233,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38262,7 +38259,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38288,7 +38285,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38314,7 +38311,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38340,7 +38337,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38366,7 +38363,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38392,7 +38389,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38418,7 +38415,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38444,7 +38441,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38470,7 +38467,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38496,7 +38493,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38522,7 +38519,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38548,7 +38545,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38574,7 +38571,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38600,7 +38597,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38626,7 +38623,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38652,7 +38649,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38678,7 +38675,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38704,7 +38701,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38730,7 +38727,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38756,7 +38753,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38782,7 +38779,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38808,7 +38805,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38834,7 +38831,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38860,7 +38857,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38886,7 +38883,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38912,7 +38909,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38938,7 +38935,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38964,7 +38961,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38990,7 +38987,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39016,7 +39013,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39042,7 +39039,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39068,7 +39065,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39094,7 +39091,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39120,7 +39117,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39146,7 +39143,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39172,7 +39169,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39198,7 +39195,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39224,7 +39221,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39250,7 +39247,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39276,7 +39273,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39302,7 +39299,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39328,7 +39325,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39354,7 +39351,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39380,7 +39377,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39406,7 +39403,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39432,7 +39429,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39458,7 +39455,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39484,7 +39481,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39510,7 +39507,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39536,7 +39533,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39562,7 +39559,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39588,7 +39585,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39614,7 +39611,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39640,7 +39637,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39666,7 +39663,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39692,7 +39689,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39718,7 +39715,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39744,7 +39741,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39770,7 +39767,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39796,7 +39793,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39822,7 +39819,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39848,7 +39845,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39874,7 +39871,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39900,7 +39897,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39926,7 +39923,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39952,7 +39949,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39978,7 +39975,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40004,7 +40001,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40030,7 +40027,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40056,7 +40053,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40082,7 +40079,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40108,7 +40105,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40134,7 +40131,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40160,7 +40157,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40186,7 +40183,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40212,7 +40209,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40238,7 +40235,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40264,7 +40261,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40290,7 +40287,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40316,7 +40313,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40342,7 +40339,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40368,7 +40365,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40394,7 +40391,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40420,7 +40417,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40446,7 +40443,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40472,7 +40469,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40498,7 +40495,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40524,7 +40521,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40550,7 +40547,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40576,7 +40573,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40602,7 +40599,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40628,7 +40625,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40654,7 +40651,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40680,7 +40677,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40706,7 +40703,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40732,7 +40729,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40758,7 +40755,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40784,7 +40781,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40810,7 +40807,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40836,7 +40833,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40862,7 +40859,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40888,7 +40885,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40914,7 +40911,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40940,7 +40937,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40966,7 +40963,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40992,7 +40989,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41018,7 +41015,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41044,7 +41041,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41070,7 +41067,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41096,7 +41093,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41122,7 +41119,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41148,7 +41145,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41174,7 +41171,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41200,7 +41197,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41226,7 +41223,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41252,7 +41249,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41278,7 +41275,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41304,7 +41301,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41330,7 +41327,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41356,7 +41353,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41382,7 +41379,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41408,7 +41405,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41434,7 +41431,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41460,7 +41457,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41486,7 +41483,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41512,7 +41509,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41538,7 +41535,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41564,7 +41561,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41590,7 +41587,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41616,7 +41613,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41642,7 +41639,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41668,7 +41665,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41694,7 +41691,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41720,7 +41717,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41746,7 +41743,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41772,7 +41769,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41798,7 +41795,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41824,7 +41821,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41850,7 +41847,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41876,7 +41873,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41902,7 +41899,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41928,7 +41925,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41954,7 +41951,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41980,7 +41977,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42006,7 +42003,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42032,7 +42029,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42058,7 +42055,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42084,7 +42081,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42110,7 +42107,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42136,7 +42133,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42162,7 +42159,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42188,7 +42185,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42214,7 +42211,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42240,7 +42237,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42266,7 +42263,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42292,7 +42289,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42318,7 +42315,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42344,7 +42341,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42370,7 +42367,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42396,7 +42393,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42422,7 +42419,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42448,7 +42445,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42474,7 +42471,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42500,7 +42497,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42526,7 +42523,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42552,7 +42549,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42578,7 +42575,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42604,7 +42601,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42630,7 +42627,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42656,7 +42653,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42682,7 +42679,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42708,7 +42705,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42734,7 +42731,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42760,7 +42757,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42786,7 +42783,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42812,7 +42809,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42838,7 +42835,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42864,7 +42861,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42890,7 +42887,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42916,7 +42913,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42942,7 +42939,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42968,7 +42965,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42994,7 +42991,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43020,7 +43017,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43046,7 +43043,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43072,7 +43069,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43098,7 +43095,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43124,7 +43121,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43150,7 +43147,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43176,7 +43173,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43202,7 +43199,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43228,7 +43225,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43254,7 +43251,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43280,7 +43277,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43306,7 +43303,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43332,7 +43329,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43358,7 +43355,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43384,7 +43381,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43410,7 +43407,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43436,7 +43433,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43462,7 +43459,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43488,7 +43485,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43514,7 +43511,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43540,7 +43537,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43566,7 +43563,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43592,7 +43589,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43618,7 +43615,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43644,7 +43641,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43670,7 +43667,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43696,7 +43693,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43722,7 +43719,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43748,7 +43745,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43774,7 +43771,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43800,7 +43797,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43826,7 +43823,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43852,7 +43849,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43878,7 +43875,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43904,7 +43901,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43930,7 +43927,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43956,7 +43953,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43982,7 +43979,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44008,7 +44005,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44034,7 +44031,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44060,7 +44057,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44086,7 +44083,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44112,7 +44109,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44138,7 +44135,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44164,7 +44161,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44190,7 +44187,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44216,7 +44213,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44242,7 +44239,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44268,7 +44265,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44294,7 +44291,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44320,7 +44317,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44346,7 +44343,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44372,7 +44369,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44398,7 +44395,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44424,7 +44421,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44450,7 +44447,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44476,7 +44473,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44502,7 +44499,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44528,7 +44525,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44554,7 +44551,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44580,7 +44577,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44606,7 +44603,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44632,7 +44629,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44658,7 +44655,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44684,7 +44681,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44710,7 +44707,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44736,7 +44733,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44762,7 +44759,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44788,7 +44785,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44814,7 +44811,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44840,7 +44837,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44866,7 +44863,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44892,7 +44889,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44918,7 +44915,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44944,7 +44941,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44970,7 +44967,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44996,7 +44993,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45022,7 +45019,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45048,7 +45045,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45074,7 +45071,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45100,7 +45097,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45126,7 +45123,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45152,7 +45149,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45178,7 +45175,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45204,7 +45201,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45230,7 +45227,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1657" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45256,7 +45253,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1658" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45282,7 +45279,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45308,7 +45305,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1660" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45334,7 +45331,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45360,7 +45357,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45386,7 +45383,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45412,7 +45409,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1664" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45438,7 +45435,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45464,7 +45461,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1666" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45490,7 +45487,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1667" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45516,7 +45513,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1668" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45542,7 +45539,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1669" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45568,7 +45565,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1670" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45594,7 +45591,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1671" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45620,7 +45617,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1672" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45646,7 +45643,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1673" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45654,7 +45651,7 @@
     </row>
     <row r="1674">
       <c r="A1674" s="1" t="n">
-        <v>45468.6495023148</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B1674" t="n">
         <v>30743</v>
@@ -45672,9 +45669,35 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1674" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="1" t="n">
+        <v>45469.6493518519</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>23383</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>599</v>
+      </c>
+      <c r="H1675" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/EQUI.MI.xlsx
+++ b/data/EQUI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57472336292267</t>
+    <t xml:space="preserve">1.57472324371338</t>
   </si>
   <si>
     <t xml:space="preserve">EQUI.MI</t>
@@ -47,157 +47,157 @@
     <t xml:space="preserve">1.64046931266785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67016088962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66697943210602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66379845142365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65425479412079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62456262111664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62880492210388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64365017414093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63092505931854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61289846897125</t>
+    <t xml:space="preserve">1.67016100883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66698002815247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66379857063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65425443649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62456285953522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62880456447601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6436505317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63092529773712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61289834976196</t>
   </si>
   <si>
     <t xml:space="preserve">1.61183798313141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60971689224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59275043010712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60123360157013</t>
+    <t xml:space="preserve">1.60971713066101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59274995326996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60123348236084</t>
   </si>
   <si>
     <t xml:space="preserve">1.60759615898132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6086562871933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60335469245911</t>
+    <t xml:space="preserve">1.60865676403046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60335421562195</t>
   </si>
   <si>
     <t xml:space="preserve">1.61395835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59487080574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59805226325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5810854434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62774395942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64259016513824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6330463886261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63198590278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62562322616577</t>
+    <t xml:space="preserve">1.59487104415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5980521440506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58108568191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229420661926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62774407863617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258992671967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63304626941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63198578357697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62562334537506</t>
   </si>
   <si>
     <t xml:space="preserve">1.62668371200562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65637564659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65955674648285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64895272254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61979103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6224422454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65160369873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65690565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6409991979599</t>
+    <t xml:space="preserve">1.65637528896332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65955650806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64895248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6197909116745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62244212627411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65160393714905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65690541267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64099955558777</t>
   </si>
   <si>
     <t xml:space="preserve">1.63834834098816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62509310245514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70197331905365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67546284198761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68076527118683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6966712474823</t>
+    <t xml:space="preserve">1.62509298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70197355747223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67546308040619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68076515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69667160511017</t>
   </si>
   <si>
     <t xml:space="preserve">1.68341600894928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69136917591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69402039051056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74969220161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72848415374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72318208217621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68871819972992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74704110622406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73908817768097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76824963092804</t>
+    <t xml:space="preserve">1.69136941432953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69402050971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74969244003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72848379611969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72318172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68871831893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74704134464264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73908841609955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76824986934662</t>
   </si>
   <si>
     <t xml:space="preserve">1.77355146408081</t>
@@ -206,79 +206,79 @@
     <t xml:space="preserve">1.75499439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76559829711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76294767856598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76029658317566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74439024925232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79210901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8374787569046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8204653263092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82897198200226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79494476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76942431926727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78076660633087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80912256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8233003616333</t>
+    <t xml:space="preserve">1.76559841632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76294779777527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76029682159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74439001083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79210948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83747899532318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82046544551849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82897210121155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79494500160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76942408084869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78076648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80912292003632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82330131530762</t>
   </si>
   <si>
     <t xml:space="preserve">1.82613658905029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81195843219757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83180809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75808155536652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71838331222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74673962593079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74957501888275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256134986877</t>
+    <t xml:space="preserve">1.81195855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83180749416351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7580817937851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71838319301605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74673938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74957489967346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7325611114502</t>
   </si>
   <si>
     <t xml:space="preserve">1.77225959300995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73539686203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76658856868744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78360199928284</t>
+    <t xml:space="preserve">1.73539698123932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7665890455246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78360223770142</t>
   </si>
   <si>
     <t xml:space="preserve">1.78643798828125</t>
@@ -287,166 +287,166 @@
     <t xml:space="preserve">1.79778051376343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81762981414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80061602592468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79210877418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80628705024719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86016404628754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84031450748444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83464312553406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84315061569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78927361965179</t>
+    <t xml:space="preserve">1.81762945652008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80061590671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79210925102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80628716945648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86016416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84031462669373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83464348316193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84315013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7892735004425</t>
   </si>
   <si>
     <t xml:space="preserve">1.80345153808594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81479406356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76091742515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84598624706268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86299991607666</t>
+    <t xml:space="preserve">1.81479430198669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76091730594635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84598577022552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86299955844879</t>
   </si>
   <si>
     <t xml:space="preserve">1.89986217021942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90836918354034</t>
+    <t xml:space="preserve">1.90836930274963</t>
   </si>
   <si>
     <t xml:space="preserve">1.87150645256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91120505332947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95090341567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95373916625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9282191991806</t>
+    <t xml:space="preserve">1.91120457649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95090353488922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95373928546906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92821884155273</t>
   </si>
   <si>
     <t xml:space="preserve">1.90553367137909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87434220314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85732841491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90269804000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95657479763031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.945232629776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89135563373566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8941912651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85449266433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8686705827713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02179408073425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0104513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93389010429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93956112861633</t>
+    <t xml:space="preserve">1.8743417263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85732817649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90269827842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9565749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94523251056671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89135587215424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89419138431549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85449278354645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86867070198059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02179431915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01045155525208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93388974666595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93956124782562</t>
   </si>
   <si>
     <t xml:space="preserve">1.91971182823181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88568437099457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87717759609222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88852000236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85165727138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77509558200836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76375293731689</t>
+    <t xml:space="preserve">1.88568460941315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87717747688293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88851988315582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85165691375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77509534358978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76375305652618</t>
   </si>
   <si>
     <t xml:space="preserve">1.74106800556183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77793097496033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97267758846283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85090756416321</t>
+    <t xml:space="preserve">1.77793121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97267818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85090780258179</t>
   </si>
   <si>
     <t xml:space="preserve">1.84481942653656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83873069286346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82655394077301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77175712585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74131464958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73522591590881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71087205410004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.698695063591</t>
+    <t xml:space="preserve">1.83873057365417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82655382156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77175760269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74131453037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73522627353668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69869518280029</t>
   </si>
   <si>
     <t xml:space="preserve">1.68651783466339</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">1.64389848709106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60127890110016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56474769115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58301317691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61954426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63172125816345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58910191059113</t>
+    <t xml:space="preserve">1.60127866268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56474792957306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58301329612732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.619544506073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63172137737274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58910167217255</t>
   </si>
   <si>
     <t xml:space="preserve">1.62563276290894</t>
@@ -485,43 +485,43 @@
     <t xml:space="preserve">1.57692492008209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55865943431854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63780975341797</t>
+    <t xml:space="preserve">1.55865907669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63780987262726</t>
   </si>
   <si>
     <t xml:space="preserve">1.6560754776001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64998698234558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66216397285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66825246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61345589160919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59519016742706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57083642482758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55257058143616</t>
+    <t xml:space="preserve">1.649986743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66216385364532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66825234889984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61345601081848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59519040584564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.570836186409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55257070064545</t>
   </si>
   <si>
     <t xml:space="preserve">1.52821660041809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212822437286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51603960990906</t>
+    <t xml:space="preserve">1.52212810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51603949069977</t>
   </si>
   <si>
     <t xml:space="preserve">1.5343052148819</t>
@@ -530,64 +530,64 @@
     <t xml:space="preserve">1.50995111465454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54039359092712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72304904460907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76566886901855</t>
+    <t xml:space="preserve">1.54039371013641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72304892539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76566874980927</t>
   </si>
   <si>
     <t xml:space="preserve">1.75958013534546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75349152088165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72913753986359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69260656833649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71696054935455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70478367805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648220539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43688881397247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32729578018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50386250019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46124291419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34556138515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36382663249969</t>
+    <t xml:space="preserve">1.75349175930023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7291374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69260668754578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71696066856384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70478320121765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648208618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43688893318176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3272956609726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50386273860931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46124303340912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34556126594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36382710933685</t>
   </si>
   <si>
     <t xml:space="preserve">1.28467607498169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26641047000885</t>
+    <t xml:space="preserve">1.26641070842743</t>
   </si>
   <si>
     <t xml:space="preserve">1.29076457023621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29685306549072</t>
+    <t xml:space="preserve">1.29685318470001</t>
   </si>
   <si>
     <t xml:space="preserve">1.24814510345459</t>
@@ -599,67 +599,70 @@
     <t xml:space="preserve">1.25423347949982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30294156074524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31511890888214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27858734130859</t>
+    <t xml:space="preserve">1.30294167995453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31511878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27858746051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.30903029441833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39426934719086</t>
+    <t xml:space="preserve">1.39426946640015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35164964199066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35773801803589</t>
+    <t xml:space="preserve">1.35773837566376</t>
   </si>
   <si>
     <t xml:space="preserve">1.41862344741821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38209211826324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33947288990021</t>
+    <t xml:space="preserve">1.38209247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33947277069092</t>
   </si>
   <si>
     <t xml:space="preserve">1.37600374221802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40035796165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40644633769989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38818085193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49168574810028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36991548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41253519058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47342014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67434072494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.807461977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7554486989975</t>
+    <t xml:space="preserve">1.40035784244537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38818097114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49168562889099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36991536617279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41253483295441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47342002391815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67434108257294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82046520709991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80746221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75544881820679</t>
   </si>
   <si>
     <t xml:space="preserve">1.61241209506989</t>
@@ -671,34 +674,34 @@
     <t xml:space="preserve">1.56690061092377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59290730953217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57340228557587</t>
+    <t xml:space="preserve">1.59290719032288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57340216636658</t>
   </si>
   <si>
     <t xml:space="preserve">1.56039881706238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52789044380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60591042041779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58640563488007</t>
+    <t xml:space="preserve">1.52789056301117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60591053962708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58640551567078</t>
   </si>
   <si>
     <t xml:space="preserve">1.6189136505127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57990396022797</t>
+    <t xml:space="preserve">1.57990372180939</t>
   </si>
   <si>
     <t xml:space="preserve">1.62541544437408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63841867446899</t>
+    <t xml:space="preserve">1.63841879367828</t>
   </si>
   <si>
     <t xml:space="preserve">1.65142202377319</t>
@@ -707,37 +710,37 @@
     <t xml:space="preserve">1.54739558696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51488733291626</t>
+    <t xml:space="preserve">1.51488721370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.48237895965576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47587716579437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48888051509857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50188374519348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50838565826416</t>
+    <t xml:space="preserve">1.47587740421295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48888063430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50188386440277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50838541984558</t>
   </si>
   <si>
     <t xml:space="preserve">1.49538218975067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53439199924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54089367389679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52138864994049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45637202262878</t>
+    <t xml:space="preserve">1.53439211845398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54089379310608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52138876914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45637249946594</t>
   </si>
   <si>
     <t xml:space="preserve">1.46937549114227</t>
@@ -746,82 +749,82 @@
     <t xml:space="preserve">1.55389714241028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46287381649017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44987046718597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44336891174316</t>
+    <t xml:space="preserve">1.46287393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44987058639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44336879253387</t>
   </si>
   <si>
     <t xml:space="preserve">1.43686723709106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43036544322968</t>
+    <t xml:space="preserve">1.43036556243896</t>
   </si>
   <si>
     <t xml:space="preserve">1.42386400699615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40435910224915</t>
+    <t xml:space="preserve">1.40435898303986</t>
   </si>
   <si>
     <t xml:space="preserve">1.41086077690125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39135551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37835228443146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32633912563324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29383075237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30683410167694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30033230781555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28732895851135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28407835960388</t>
+    <t xml:space="preserve">1.39135563373566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37835216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32633900642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29383063316345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30683386325836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30033242702484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28732907772064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28407824039459</t>
   </si>
   <si>
     <t xml:space="preserve">1.63191699981689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69043171405792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72294044494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7034353017807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69693386554718</t>
+    <t xml:space="preserve">1.69043207168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72294056415558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70343554019928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6969336271286</t>
   </si>
   <si>
     <t xml:space="preserve">1.68393051624298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71643888950348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7359436750412</t>
+    <t xml:space="preserve">1.71643877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73594355583191</t>
   </si>
   <si>
     <t xml:space="preserve">1.7424453496933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70993709564209</t>
+    <t xml:space="preserve">1.70993685722351</t>
   </si>
   <si>
     <t xml:space="preserve">1.7489470243454</t>
@@ -830,52 +833,52 @@
     <t xml:space="preserve">1.77495360374451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80095994472504</t>
+    <t xml:space="preserve">1.80096018314362</t>
   </si>
   <si>
     <t xml:space="preserve">1.81396377086639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82696688175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997023105621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8594753742218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87247860431671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8464720249176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82046508789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78795659542084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85297358036041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8334686756134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86597681045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91148841381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94399702548981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93749523162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95700037479401</t>
+    <t xml:space="preserve">1.82696664333344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85947513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.872478723526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84647178649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82046496868134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.787957072258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85297381877899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83346879482269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8659770488739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91148853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94399678707123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93749499320984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95700001716614</t>
   </si>
   <si>
     <t xml:space="preserve">1.93099367618561</t>
@@ -884,34 +887,34 @@
     <t xml:space="preserve">1.92449188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95049834251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350181102753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97000336647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97650492191315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98995089530945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99667382240295</t>
+    <t xml:space="preserve">1.95049858093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350157260895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97000360488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97650516033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98995077610016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99667370319366</t>
   </si>
   <si>
     <t xml:space="preserve">2.02356457710266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98322784900665</t>
+    <t xml:space="preserve">1.98322808742523</t>
   </si>
   <si>
     <t xml:space="preserve">2.03028750419617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00339651107788</t>
+    <t xml:space="preserve">2.0033962726593</t>
   </si>
   <si>
     <t xml:space="preserve">2.01011943817139</t>
@@ -923,13 +926,13 @@
     <t xml:space="preserve">2.05045580863953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06390118598938</t>
+    <t xml:space="preserve">2.06390190124512</t>
   </si>
   <si>
     <t xml:space="preserve">2.11096119880676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09079313278198</t>
+    <t xml:space="preserve">2.09079265594482</t>
   </si>
   <si>
     <t xml:space="preserve">2.13785243034363</t>
@@ -944,34 +947,34 @@
     <t xml:space="preserve">2.10423851013184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08406972885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11768412590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12440705299377</t>
+    <t xml:space="preserve">2.08407020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11768388748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12440752983093</t>
   </si>
   <si>
     <t xml:space="preserve">2.09751558303833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16474366188049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15129804611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17146682739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17818903923035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19163537025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19835782051086</t>
+    <t xml:space="preserve">2.16474390029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15129852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17146635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17818927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19163489341736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19835758209229</t>
   </si>
   <si>
     <t xml:space="preserve">2.20508074760437</t>
@@ -980,25 +983,25 @@
     <t xml:space="preserve">2.2118034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18491220474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24541735649109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26558542251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25214004516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25886297225952</t>
+    <t xml:space="preserve">2.18491196632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24541711807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26558589935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25214028358459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25886273384094</t>
   </si>
   <si>
     <t xml:space="preserve">2.27230882644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27903151512146</t>
+    <t xml:space="preserve">2.27903175354004</t>
   </si>
   <si>
     <t xml:space="preserve">2.31936860084534</t>
@@ -1007,19 +1010,19 @@
     <t xml:space="preserve">2.30592274665833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36642813682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37987327575684</t>
+    <t xml:space="preserve">2.36642789840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37987351417542</t>
   </si>
   <si>
     <t xml:space="preserve">2.44710159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42021036148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42693305015564</t>
+    <t xml:space="preserve">2.42021012306213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42693281173706</t>
   </si>
   <si>
     <t xml:space="preserve">2.49416136741638</t>
@@ -1028,16 +1031,16 @@
     <t xml:space="preserve">2.48743844032288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47399306297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50088405609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45382452011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46054744720459</t>
+    <t xml:space="preserve">2.47399282455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50088429450989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4538242816925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46054768562317</t>
   </si>
   <si>
     <t xml:space="preserve">2.48071575164795</t>
@@ -1046,37 +1049,37 @@
     <t xml:space="preserve">2.51432943344116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52105283737183</t>
+    <t xml:space="preserve">2.52105259895325</t>
   </si>
   <si>
     <t xml:space="preserve">2.56138944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55466628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58155751228333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57483506202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54794359207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56811237335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54122090339661</t>
+    <t xml:space="preserve">2.55466651916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58155798912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57483530044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54794406890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56811213493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54122114181519</t>
   </si>
   <si>
     <t xml:space="preserve">2.58900547027588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56829357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62352561950684</t>
+    <t xml:space="preserve">2.56829333305359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62352538108826</t>
   </si>
   <si>
     <t xml:space="preserve">2.66494965553284</t>
@@ -1088,7 +1091,7 @@
     <t xml:space="preserve">2.69256567955017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67185354232788</t>
+    <t xml:space="preserve">2.6718533039093</t>
   </si>
   <si>
     <t xml:space="preserve">2.65804553031921</t>
@@ -1097,13 +1100,10 @@
     <t xml:space="preserve">2.68566155433655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6373336315155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58210110664368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56138920783997</t>
+    <t xml:space="preserve">2.63733339309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58210134506226</t>
   </si>
   <si>
     <t xml:space="preserve">2.60971736907959</t>
@@ -1112,19 +1112,19 @@
     <t xml:space="preserve">2.55448532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57519769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60281324386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59590911865234</t>
+    <t xml:space="preserve">2.57519745826721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60281372070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59590935707092</t>
   </si>
   <si>
     <t xml:space="preserve">2.63042950630188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6787576675415</t>
+    <t xml:space="preserve">2.67875742912292</t>
   </si>
   <si>
     <t xml:space="preserve">2.64423775672913</t>
@@ -1133,52 +1133,52 @@
     <t xml:space="preserve">2.65114140510559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61662125587463</t>
+    <t xml:space="preserve">2.61662173271179</t>
   </si>
   <si>
     <t xml:space="preserve">2.49234914779663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48544526100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52686953544617</t>
+    <t xml:space="preserve">2.48544478416443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52686905860901</t>
   </si>
   <si>
     <t xml:space="preserve">2.7201817035675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47854089736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42330884933472</t>
+    <t xml:space="preserve">2.47854113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4233090877533</t>
   </si>
   <si>
     <t xml:space="preserve">2.40259695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31284475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.195476770401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.112628698349</t>
+    <t xml:space="preserve">2.3128445148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19547653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11262822151184</t>
   </si>
   <si>
     <t xml:space="preserve">2.15405249595642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.278324842453</t>
+    <t xml:space="preserve">2.27832460403442</t>
   </si>
   <si>
     <t xml:space="preserve">2.28522896766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41640472412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51996517181396</t>
+    <t xml:space="preserve">2.41640496253967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51996541023254</t>
   </si>
   <si>
     <t xml:space="preserve">2.40950107574463</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">2.53377366065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73398971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74779796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80302953720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78922176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81683802604675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79612612724304</t>
+    <t xml:space="preserve">2.73398995399475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74779772758484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80302977561951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78922200202942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81683778762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79612588882446</t>
   </si>
   <si>
     <t xml:space="preserve">2.76160550117493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70637392997742</t>
+    <t xml:space="preserve">2.70637345314026</t>
   </si>
   <si>
     <t xml:space="preserve">2.82374215126038</t>
@@ -1217,37 +1217,37 @@
     <t xml:space="preserve">2.80993413925171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74089384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470185279846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89135813713074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0200309753418</t>
+    <t xml:space="preserve">2.74089336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89135789871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02003121376038</t>
   </si>
   <si>
     <t xml:space="preserve">2.98975491523743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01246190071106</t>
+    <t xml:space="preserve">3.01246213912964</t>
   </si>
   <si>
     <t xml:space="preserve">2.98218607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95190978050232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91406488418579</t>
+    <t xml:space="preserve">2.9519100189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91406512260437</t>
   </si>
   <si>
     <t xml:space="preserve">2.85351300239563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87621974945068</t>
+    <t xml:space="preserve">2.87621998786926</t>
   </si>
   <si>
     <t xml:space="preserve">2.73997783660889</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">2.63401222229004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64915013313293</t>
+    <t xml:space="preserve">2.64914989471436</t>
   </si>
   <si>
     <t xml:space="preserve">2.6415810585022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65671896934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68699502944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66428804397583</t>
+    <t xml:space="preserve">2.65671920776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68699479103088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66428780555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.69456386566162</t>
@@ -1280,43 +1280,43 @@
     <t xml:space="preserve">2.60373592376709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61887431144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61130475997925</t>
+    <t xml:space="preserve">2.61887383460999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61130523681641</t>
   </si>
   <si>
     <t xml:space="preserve">2.58859801292419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55832195281982</t>
+    <t xml:space="preserve">2.5583221912384</t>
   </si>
   <si>
     <t xml:space="preserve">2.62644290924072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58102893829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53561496734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5053391456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4902012348175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52804613113403</t>
+    <t xml:space="preserve">2.58102917671204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53561472892761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50533890724182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49020099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52804589271545</t>
   </si>
   <si>
     <t xml:space="preserve">2.49776983261108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5204770565033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51290774345398</t>
+    <t xml:space="preserve">2.52047681808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51290798187256</t>
   </si>
   <si>
     <t xml:space="preserve">2.56589102745056</t>
@@ -1328,34 +1328,34 @@
     <t xml:space="preserve">2.46749401092529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40694189071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45992469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47506308555603</t>
+    <t xml:space="preserve">2.40694212913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42208027839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45992493629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47506260871887</t>
   </si>
   <si>
     <t xml:space="preserve">2.44478702545166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42964911460876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4523561000824</t>
+    <t xml:space="preserve">2.42964887619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45235586166382</t>
   </si>
   <si>
     <t xml:space="preserve">2.67942595481873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75511622428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77025413513184</t>
+    <t xml:space="preserve">2.75511598587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77025389671326</t>
   </si>
   <si>
     <t xml:space="preserve">2.78539204597473</t>
@@ -1367,34 +1367,34 @@
     <t xml:space="preserve">2.77782320976257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81566834449768</t>
+    <t xml:space="preserve">2.8156681060791</t>
   </si>
   <si>
     <t xml:space="preserve">2.830806016922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85446166992188</t>
+    <t xml:space="preserve">2.8544614315033</t>
   </si>
   <si>
     <t xml:space="preserve">2.86234712600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88600301742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87811779975891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84657621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91754388809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92542886734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93331456184387</t>
+    <t xml:space="preserve">2.88600277900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87811732292175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84657645225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91754364967346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92542910575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93331432342529</t>
   </si>
   <si>
     <t xml:space="preserve">2.90965867042542</t>
@@ -1403,19 +1403,16 @@
     <t xml:space="preserve">2.83869099617004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83080577850342</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.87023258209229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90177321434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89388823509216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95696997642517</t>
+    <t xml:space="preserve">2.90177345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89388799667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95697021484375</t>
   </si>
   <si>
     <t xml:space="preserve">2.9648551940918</t>
@@ -1427,7 +1424,7 @@
     <t xml:space="preserve">3.02793741226196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05159306526184</t>
+    <t xml:space="preserve">3.05159282684326</t>
   </si>
   <si>
     <t xml:space="preserve">3.04370784759521</t>
@@ -1439,19 +1436,19 @@
     <t xml:space="preserve">3.01216697692871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94908475875854</t>
+    <t xml:space="preserve">2.94908499717712</t>
   </si>
   <si>
     <t xml:space="preserve">2.98851108551025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9963960647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03582239151001</t>
+    <t xml:space="preserve">2.99639630317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0752489566803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03582286834717</t>
   </si>
   <si>
     <t xml:space="preserve">3.00428152084351</t>
@@ -1466,16 +1463,16 @@
     <t xml:space="preserve">3.05947828292847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11467504501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06736373901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02005219459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20141315460205</t>
+    <t xml:space="preserve">3.11467528343201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06736350059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02005195617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20141291618347</t>
   </si>
   <si>
     <t xml:space="preserve">3.13044548034668</t>
@@ -1484,13 +1481,13 @@
     <t xml:space="preserve">3.12256050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10679006576538</t>
+    <t xml:space="preserve">3.1067898273468</t>
   </si>
   <si>
     <t xml:space="preserve">3.09890484809875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30570864677429</t>
+    <t xml:space="preserve">3.30570840835571</t>
   </si>
   <si>
     <t xml:space="preserve">3.32319903373718</t>
@@ -1499,13 +1496,13 @@
     <t xml:space="preserve">3.34068942070007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31445360183716</t>
+    <t xml:space="preserve">3.31445384025574</t>
   </si>
   <si>
     <t xml:space="preserve">3.27072739601135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2794725894928</t>
+    <t xml:space="preserve">3.27947282791138</t>
   </si>
   <si>
     <t xml:space="preserve">3.29696321487427</t>
@@ -1523,7 +1520,7 @@
     <t xml:space="preserve">3.26198220252991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21825575828552</t>
+    <t xml:space="preserve">3.2182559967041</t>
   </si>
   <si>
     <t xml:space="preserve">3.22700119018555</t>
@@ -1532,13 +1529,13 @@
     <t xml:space="preserve">3.20951056480408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28821802139282</t>
+    <t xml:space="preserve">3.28821778297424</t>
   </si>
   <si>
     <t xml:space="preserve">3.20076537132263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19201993942261</t>
+    <t xml:space="preserve">3.19202017784119</t>
   </si>
   <si>
     <t xml:space="preserve">3.17452955245972</t>
@@ -1550,16 +1547,16 @@
     <t xml:space="preserve">3.15703868865967</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18327474594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14829349517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13080286979675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09582209587097</t>
+    <t xml:space="preserve">3.18327498435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1482937335968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09582233428955</t>
   </si>
   <si>
     <t xml:space="preserve">3.12205767631531</t>
@@ -1568,7 +1565,7 @@
     <t xml:space="preserve">3.13954830169678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06958627700806</t>
+    <t xml:space="preserve">3.06958651542664</t>
   </si>
   <si>
     <t xml:space="preserve">3.06084108352661</t>
@@ -1577,16 +1574,16 @@
     <t xml:space="preserve">2.99962449073792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02586030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98213410377502</t>
+    <t xml:space="preserve">3.02586007118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98213386535645</t>
   </si>
   <si>
     <t xml:space="preserve">2.973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99087929725647</t>
+    <t xml:space="preserve">2.99087905883789</t>
   </si>
   <si>
     <t xml:space="preserve">2.94715261459351</t>
@@ -1595,13 +1592,13 @@
     <t xml:space="preserve">3.03460550308228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05209589004517</t>
+    <t xml:space="preserve">3.05209612846375</t>
   </si>
   <si>
     <t xml:space="preserve">3.00836968421936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10456728935242</t>
+    <t xml:space="preserve">3.104567527771</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335069656372</t>
@@ -1610,7 +1607,7 @@
     <t xml:space="preserve">3.07833170890808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08707690238953</t>
+    <t xml:space="preserve">3.08707714080811</t>
   </si>
   <si>
     <t xml:space="preserve">3.11331248283386</t>
@@ -18762,7 +18759,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G639" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18788,7 +18785,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G640" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18814,7 +18811,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G641" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18840,7 +18837,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18866,7 +18863,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G643" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18892,7 +18889,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G644" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18918,7 +18915,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18944,7 +18941,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18970,7 +18967,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G647" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18996,7 +18993,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G648" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19022,7 +19019,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G649" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19048,7 +19045,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G650" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19074,7 +19071,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G651" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19100,7 +19097,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G652" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19126,7 +19123,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19152,7 +19149,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G654" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19178,7 +19175,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G655" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19204,7 +19201,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G656" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19230,7 +19227,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G657" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19256,7 +19253,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G658" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19282,7 +19279,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G659" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19308,7 +19305,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G660" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19334,7 +19331,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G661" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19360,7 +19357,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G662" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19386,7 +19383,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G663" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19412,7 +19409,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G664" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19438,7 +19435,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G665" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19464,7 +19461,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G666" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19490,7 +19487,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G667" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19516,7 +19513,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G668" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19542,7 +19539,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G669" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19568,7 +19565,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G670" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19594,7 +19591,7 @@
         <v>2.5</v>
       </c>
       <c r="G671" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19620,7 +19617,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19646,7 +19643,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G673" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19672,7 +19669,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G674" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19698,7 +19695,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19724,7 +19721,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G676" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19750,7 +19747,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G677" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19776,7 +19773,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G678" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19802,7 +19799,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G679" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19828,7 +19825,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G680" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19854,7 +19851,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19880,7 +19877,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G682" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19906,7 +19903,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G683" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19932,7 +19929,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G684" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19958,7 +19955,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19984,7 +19981,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G686" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20010,7 +20007,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G687" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20036,7 +20033,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20062,7 +20059,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G689" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20088,7 +20085,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G690" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20114,7 +20111,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G691" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20140,7 +20137,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G692" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20166,7 +20163,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G693" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20192,7 +20189,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G694" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20218,7 +20215,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G695" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20244,7 +20241,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20270,7 +20267,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G697" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20296,7 +20293,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G698" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20322,7 +20319,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G699" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20348,7 +20345,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20374,7 +20371,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G701" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20400,7 +20397,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G702" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20426,7 +20423,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20452,7 +20449,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G704" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20478,7 +20475,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G705" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20504,7 +20501,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20530,7 +20527,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G707" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20556,7 +20553,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G708" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20582,7 +20579,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G709" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20608,7 +20605,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20634,7 +20631,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G711" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20660,7 +20657,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G712" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20686,7 +20683,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G713" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20712,7 +20709,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G714" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20738,7 +20735,7 @@
         <v>2.25</v>
       </c>
       <c r="G715" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20764,7 +20761,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G716" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20790,7 +20787,7 @@
         <v>2.25</v>
       </c>
       <c r="G717" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20816,7 +20813,7 @@
         <v>2.25</v>
       </c>
       <c r="G718" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20842,7 +20839,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G719" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20868,7 +20865,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20894,7 +20891,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G721" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20920,7 +20917,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G722" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20946,7 +20943,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G723" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20972,7 +20969,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G724" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20998,7 +20995,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G725" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21024,7 +21021,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G726" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21050,7 +21047,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G727" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21076,7 +21073,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G728" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21102,7 +21099,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G729" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21128,7 +21125,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G730" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21154,7 +21151,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G731" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21180,7 +21177,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21206,7 +21203,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21232,7 +21229,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G734" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21258,7 +21255,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G735" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21284,7 +21281,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21310,7 +21307,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G737" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21336,7 +21333,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G738" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21362,7 +21359,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G739" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21388,7 +21385,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G740" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21414,7 +21411,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G741" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21440,7 +21437,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G742" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21466,7 +21463,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G743" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21492,7 +21489,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G744" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21518,7 +21515,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G745" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21544,7 +21541,7 @@
         <v>2</v>
       </c>
       <c r="G746" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21570,7 +21567,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G747" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21596,7 +21593,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G748" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21622,7 +21619,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G749" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21648,7 +21645,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G750" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21674,7 +21671,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21700,7 +21697,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G752" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21726,7 +21723,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G753" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21752,7 +21749,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G754" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21778,7 +21775,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21804,7 +21801,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21830,7 +21827,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G757" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21856,7 +21853,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G758" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21882,7 +21879,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G759" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21908,7 +21905,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G760" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21934,7 +21931,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G761" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21960,7 +21957,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G762" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21986,7 +21983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G763" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22012,7 +22009,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22038,7 +22035,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G765" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22064,7 +22061,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G766" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22090,7 +22087,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G767" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22116,7 +22113,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G768" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22142,7 +22139,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G769" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22168,7 +22165,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G770" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22194,7 +22191,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G771" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22220,7 +22217,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22246,7 +22243,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22272,7 +22269,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G774" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22298,7 +22295,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G775" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22324,7 +22321,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22350,7 +22347,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G777" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22376,7 +22373,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G778" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22402,7 +22399,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22428,7 +22425,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G780" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22454,7 +22451,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G781" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22480,7 +22477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G782" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22506,7 +22503,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G783" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22532,7 +22529,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G784" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22558,7 +22555,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G785" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22584,7 +22581,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G786" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22610,7 +22607,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G787" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22636,7 +22633,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G788" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22662,7 +22659,7 @@
         <v>2.5</v>
       </c>
       <c r="G789" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22688,7 +22685,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22714,7 +22711,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G791" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22740,7 +22737,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G792" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22766,7 +22763,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G793" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22792,7 +22789,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G794" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22818,7 +22815,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G795" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22844,7 +22841,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G796" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22870,7 +22867,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G797" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22896,7 +22893,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G798" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22922,7 +22919,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G799" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22948,7 +22945,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G800" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22974,7 +22971,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G801" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23000,7 +22997,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23026,7 +23023,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G803" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23052,7 +23049,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G804" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23078,7 +23075,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G805" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23104,7 +23101,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23130,7 +23127,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G807" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23156,7 +23153,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G808" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23182,7 +23179,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G809" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23208,7 +23205,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G810" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23234,7 +23231,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23260,7 +23257,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G812" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23286,7 +23283,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G813" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23312,7 +23309,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G814" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23338,7 +23335,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G815" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23364,7 +23361,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G816" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23390,7 +23387,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G817" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23416,7 +23413,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G818" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23442,7 +23439,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23468,7 +23465,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G820" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23494,7 +23491,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G821" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23520,7 +23517,7 @@
         <v>2.75</v>
       </c>
       <c r="G822" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23546,7 +23543,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G823" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23572,7 +23569,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G824" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23598,7 +23595,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G825" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23624,7 +23621,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G826" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23650,7 +23647,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G827" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23676,7 +23673,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G828" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23702,7 +23699,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G829" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23728,7 +23725,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G830" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23754,7 +23751,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G831" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23780,7 +23777,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G832" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23806,7 +23803,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G833" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23832,7 +23829,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G834" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23858,7 +23855,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G835" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23884,7 +23881,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23910,7 +23907,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G837" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23936,7 +23933,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G838" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23962,7 +23959,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G839" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23988,7 +23985,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G840" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24014,7 +24011,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G841" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24040,7 +24037,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G842" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24066,7 +24063,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24092,7 +24089,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G844" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24118,7 +24115,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24144,7 +24141,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G846" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24170,7 +24167,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G847" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24196,7 +24193,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G848" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24222,7 +24219,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G849" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24248,7 +24245,7 @@
         <v>3</v>
       </c>
       <c r="G850" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24274,7 +24271,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G851" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24300,7 +24297,7 @@
         <v>3</v>
       </c>
       <c r="G852" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24326,7 +24323,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G853" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24352,7 +24349,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G854" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24378,7 +24375,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G855" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24404,7 +24401,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G856" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24430,7 +24427,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G857" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24456,7 +24453,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G858" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24482,7 +24479,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G859" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24508,7 +24505,7 @@
         <v>3</v>
       </c>
       <c r="G860" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24534,7 +24531,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G861" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24560,7 +24557,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G862" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24586,7 +24583,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24612,7 +24609,7 @@
         <v>3</v>
       </c>
       <c r="G864" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24638,7 +24635,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G865" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24664,7 +24661,7 @@
         <v>3</v>
       </c>
       <c r="G866" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24690,7 +24687,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G867" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24716,7 +24713,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G868" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24742,7 +24739,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G869" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24768,7 +24765,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24794,7 +24791,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G871" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24820,7 +24817,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G872" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24846,7 +24843,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G873" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24872,7 +24869,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G874" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24898,7 +24895,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G875" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24924,7 +24921,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G876" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24950,7 +24947,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G877" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24976,7 +24973,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G878" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25002,7 +24999,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G879" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25028,7 +25025,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25054,7 +25051,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G881" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25080,7 +25077,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25106,7 +25103,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25132,7 +25129,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G884" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25158,7 +25155,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G885" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25184,7 +25181,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25210,7 +25207,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G887" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25236,7 +25233,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G888" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25262,7 +25259,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G889" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25288,7 +25285,7 @@
         <v>3</v>
       </c>
       <c r="G890" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25314,7 +25311,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G891" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25340,7 +25337,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G892" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25366,7 +25363,7 @@
         <v>3</v>
       </c>
       <c r="G893" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25392,7 +25389,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G894" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25418,7 +25415,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G895" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25444,7 +25441,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G896" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25470,7 +25467,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25496,7 +25493,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G898" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25522,7 +25519,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G899" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25548,7 +25545,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G900" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25574,7 +25571,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G901" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25600,7 +25597,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G902" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25626,7 +25623,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G903" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25652,7 +25649,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25678,7 +25675,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G905" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25704,7 +25701,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G906" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25730,7 +25727,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G907" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25756,7 +25753,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G908" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25782,7 +25779,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G909" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25808,7 +25805,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G910" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25834,7 +25831,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G911" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25860,7 +25857,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G912" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25886,7 +25883,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G913" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25912,7 +25909,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G914" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25938,7 +25935,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G915" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25964,7 +25961,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G916" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25990,7 +25987,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G917" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26016,7 +26013,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G918" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26042,7 +26039,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G919" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26068,7 +26065,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G920" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26094,7 +26091,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G921" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26120,7 +26117,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G922" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26146,7 +26143,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G923" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26172,7 +26169,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G924" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26198,7 +26195,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G925" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26224,7 +26221,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G926" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26250,7 +26247,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26276,7 +26273,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G928" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26302,7 +26299,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26328,7 +26325,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26354,7 +26351,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G931" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26380,7 +26377,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G932" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26406,7 +26403,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G933" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26432,7 +26429,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G934" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26458,7 +26455,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G935" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26484,7 +26481,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26510,7 +26507,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G937" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26536,7 +26533,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G938" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26562,7 +26559,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G939" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26588,7 +26585,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G940" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26614,7 +26611,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G941" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26640,7 +26637,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G942" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26666,7 +26663,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26692,7 +26689,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26718,7 +26715,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G945" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26744,7 +26741,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G946" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26770,7 +26767,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G947" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26796,7 +26793,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G948" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26822,7 +26819,7 @@
         <v>3.25</v>
       </c>
       <c r="G949" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26848,7 +26845,7 @@
         <v>3.25</v>
       </c>
       <c r="G950" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26874,7 +26871,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G951" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26900,7 +26897,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G952" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26926,7 +26923,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G953" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26952,7 +26949,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G954" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26978,7 +26975,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G955" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27004,7 +27001,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G956" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27030,7 +27027,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G957" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27056,7 +27053,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G958" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27082,7 +27079,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G959" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27108,7 +27105,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G960" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27134,7 +27131,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G961" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27160,7 +27157,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G962" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27186,7 +27183,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27212,7 +27209,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G964" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27238,7 +27235,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G965" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27264,7 +27261,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G966" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27290,7 +27287,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27316,7 +27313,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G968" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27342,7 +27339,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G969" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27368,7 +27365,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G970" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27394,7 +27391,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G971" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27420,7 +27417,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G972" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27446,7 +27443,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27472,7 +27469,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G974" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27498,7 +27495,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G975" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27524,7 +27521,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G976" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27550,7 +27547,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G977" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27576,7 +27573,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G978" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27602,7 +27599,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G979" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27628,7 +27625,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G980" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27654,7 +27651,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G981" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27680,7 +27677,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G982" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27706,7 +27703,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G983" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27732,7 +27729,7 @@
         <v>3.75</v>
       </c>
       <c r="G984" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27758,7 +27755,7 @@
         <v>3.75</v>
       </c>
       <c r="G985" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27784,7 +27781,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G986" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27810,7 +27807,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G987" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27836,7 +27833,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G988" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -27862,7 +27859,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G989" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27888,7 +27885,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G990" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27914,7 +27911,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27940,7 +27937,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27966,7 +27963,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G993" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27992,7 +27989,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28018,7 +28015,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G995" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28044,7 +28041,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G996" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28070,7 +28067,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G997" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28096,7 +28093,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G998" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28122,7 +28119,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28148,7 +28145,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1000" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28174,7 +28171,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1001" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28200,7 +28197,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1002" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28226,7 +28223,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1003" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28252,7 +28249,7 @@
         <v>3.75</v>
       </c>
       <c r="G1004" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28278,7 +28275,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28304,7 +28301,7 @@
         <v>3.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28330,7 +28327,7 @@
         <v>3.75</v>
       </c>
       <c r="G1007" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28356,7 +28353,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1008" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28382,7 +28379,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1009" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28408,7 +28405,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28434,7 +28431,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1011" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28460,7 +28457,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1012" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28486,7 +28483,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1013" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28512,7 +28509,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28538,7 +28535,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1015" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28564,7 +28561,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1016" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28590,7 +28587,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1017" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28616,7 +28613,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1018" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28642,7 +28639,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1019" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28668,7 +28665,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28720,7 +28717,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1022" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28772,7 +28769,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1024" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28798,7 +28795,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1025" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28824,7 +28821,7 @@
         <v>3.75</v>
       </c>
       <c r="G1026" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28850,7 +28847,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1027" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28876,7 +28873,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1028" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28902,7 +28899,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1029" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28928,7 +28925,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1030" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29058,7 +29055,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1035" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29084,7 +29081,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1036" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29110,7 +29107,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1037" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29214,7 +29211,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1041" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29266,7 +29263,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1043" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29318,7 +29315,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1045" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29370,7 +29367,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1047" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29500,7 +29497,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29552,7 +29549,7 @@
         <v>3.75</v>
       </c>
       <c r="G1054" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29604,7 +29601,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1056" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29682,7 +29679,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1059" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29708,7 +29705,7 @@
         <v>3.75</v>
       </c>
       <c r="G1060" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29760,7 +29757,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1062" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29786,7 +29783,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1063" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29838,7 +29835,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1065" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29942,7 +29939,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1069" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29968,7 +29965,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1070" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29994,7 +29991,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1071" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30124,7 +30121,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1076" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30150,7 +30147,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1077" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30202,7 +30199,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1079" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30644,7 +30641,7 @@
         <v>3.75</v>
       </c>
       <c r="G1096" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30696,7 +30693,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1098" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30722,7 +30719,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1099" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30748,7 +30745,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1100" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30800,7 +30797,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30826,7 +30823,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30852,7 +30849,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31060,7 +31057,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31528,7 +31525,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31554,7 +31551,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1131" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -35532,7 +35529,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1284" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35584,7 +35581,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35610,7 +35607,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1287" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35688,7 +35685,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1290" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35792,7 +35789,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1294" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35870,7 +35867,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1297" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35948,7 +35945,7 @@
         <v>3.75</v>
       </c>
       <c r="G1300" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35974,7 +35971,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36000,7 +35997,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36026,7 +36023,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1303" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36052,7 +36049,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1304" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36078,7 +36075,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1305" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36104,7 +36101,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1306" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36130,7 +36127,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1307" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36156,7 +36153,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36208,7 +36205,7 @@
         <v>3.75</v>
       </c>
       <c r="G1310" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36234,7 +36231,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36260,7 +36257,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1312" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36286,7 +36283,7 @@
         <v>3.75</v>
       </c>
       <c r="G1313" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36312,7 +36309,7 @@
         <v>3.75</v>
       </c>
       <c r="G1314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36416,7 +36413,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36442,7 +36439,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36468,7 +36465,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36494,7 +36491,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1321" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36520,7 +36517,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1322" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36546,7 +36543,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1323" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36572,7 +36569,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1324" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36598,7 +36595,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36624,7 +36621,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36650,7 +36647,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1327" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36676,7 +36673,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1328" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36702,7 +36699,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1329" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36728,7 +36725,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36754,7 +36751,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1331" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36780,7 +36777,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1332" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36806,7 +36803,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36832,7 +36829,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1334" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36858,7 +36855,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1335" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36884,7 +36881,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36910,7 +36907,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1337" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36936,7 +36933,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1338" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36962,7 +36959,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1339" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36988,7 +36985,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1340" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37014,7 +37011,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1341" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37040,7 +37037,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1342" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37066,7 +37063,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1343" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37092,7 +37089,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1344" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37118,7 +37115,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1345" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37144,7 +37141,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1346" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37170,7 +37167,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1347" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37222,7 +37219,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1349" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37248,7 +37245,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1350" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37274,7 +37271,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1351" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37300,7 +37297,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1352" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37326,7 +37323,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1353" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37352,7 +37349,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37378,7 +37375,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1355" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37404,7 +37401,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1356" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37430,7 +37427,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1357" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37456,7 +37453,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1358" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37482,7 +37479,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1359" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37508,7 +37505,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1360" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37534,7 +37531,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1361" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37560,7 +37557,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37586,7 +37583,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1363" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37612,7 +37609,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1364" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37638,7 +37635,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1365" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37664,7 +37661,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1366" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37690,7 +37687,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1367" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37716,7 +37713,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1368" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37742,7 +37739,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1369" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37768,7 +37765,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1370" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37794,7 +37791,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1371" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37820,7 +37817,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37846,7 +37843,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37872,7 +37869,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37898,7 +37895,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1375" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37924,7 +37921,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37950,7 +37947,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1377" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37976,7 +37973,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1378" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38002,7 +37999,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1379" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38028,7 +38025,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1380" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38054,7 +38051,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38080,7 +38077,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1382" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38106,7 +38103,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1383" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38132,7 +38129,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1384" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38158,7 +38155,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1385" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38184,7 +38181,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1386" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38210,7 +38207,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38236,7 +38233,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1388" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38262,7 +38259,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38288,7 +38285,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1390" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38314,7 +38311,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1391" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38340,7 +38337,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38366,7 +38363,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1393" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38392,7 +38389,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1394" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38418,7 +38415,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1395" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38444,7 +38441,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1396" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38470,7 +38467,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1397" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38496,7 +38493,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1398" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38522,7 +38519,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1399" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38548,7 +38545,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1400" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38574,7 +38571,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1401" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38600,7 +38597,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1402" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38626,7 +38623,7 @@
         <v>3.75</v>
       </c>
       <c r="G1403" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38652,7 +38649,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1404" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38678,7 +38675,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1405" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38704,7 +38701,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1406" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38730,7 +38727,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1407" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38756,7 +38753,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1408" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38782,7 +38779,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1409" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38808,7 +38805,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1410" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38834,7 +38831,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1411" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38860,7 +38857,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1412" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38886,7 +38883,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1413" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38912,7 +38909,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1414" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38938,7 +38935,7 @@
         <v>3.75</v>
       </c>
       <c r="G1415" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38964,7 +38961,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1416" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38990,7 +38987,7 @@
         <v>3.75</v>
       </c>
       <c r="G1417" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39016,7 +39013,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1418" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39042,7 +39039,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39068,7 +39065,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1420" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39094,7 +39091,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1421" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39120,7 +39117,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39146,7 +39143,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39172,7 +39169,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1424" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39198,7 +39195,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1425" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39224,7 +39221,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1426" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39250,7 +39247,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1427" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39276,7 +39273,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1428" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39302,7 +39299,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1429" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39328,7 +39325,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39354,7 +39351,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39380,7 +39377,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39406,7 +39403,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1433" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39432,7 +39429,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39458,7 +39455,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1435" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39484,7 +39481,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39510,7 +39507,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1437" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39536,7 +39533,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1438" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39562,7 +39559,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1439" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39588,7 +39585,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39614,7 +39611,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1441" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39640,7 +39637,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1442" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39666,7 +39663,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39692,7 +39689,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1444" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39718,7 +39715,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1445" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39744,7 +39741,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1446" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39770,7 +39767,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1447" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39796,7 +39793,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1448" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39822,7 +39819,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1449" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39848,7 +39845,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39874,7 +39871,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39900,7 +39897,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1452" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39926,7 +39923,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39952,7 +39949,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1454" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39978,7 +39975,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40004,7 +40001,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1456" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40030,7 +40027,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1457" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40056,7 +40053,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1458" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40082,7 +40079,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1459" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40108,7 +40105,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40134,7 +40131,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1461" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40160,7 +40157,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1462" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40186,7 +40183,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40212,7 +40209,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40238,7 +40235,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40264,7 +40261,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1466" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40290,7 +40287,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1467" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40316,7 +40313,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1468" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40342,7 +40339,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1469" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40368,7 +40365,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1470" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40394,7 +40391,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1471" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40420,7 +40417,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1472" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40446,7 +40443,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1473" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40472,7 +40469,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40498,7 +40495,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1475" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40524,7 +40521,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1476" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40550,7 +40547,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1477" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40576,7 +40573,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1478" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40602,7 +40599,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1479" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40628,7 +40625,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1480" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40654,7 +40651,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40680,7 +40677,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40706,7 +40703,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1483" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40732,7 +40729,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40758,7 +40755,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1485" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40784,7 +40781,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1486" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40810,7 +40807,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1487" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40836,7 +40833,7 @@
         <v>3.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40862,7 +40859,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1489" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40888,7 +40885,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40914,7 +40911,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1491" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40940,7 +40937,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1492" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40966,7 +40963,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1493" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40992,7 +40989,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1494" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41018,7 +41015,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41044,7 +41041,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1496" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41070,7 +41067,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1497" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41096,7 +41093,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1498" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41122,7 +41119,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1499" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41148,7 +41145,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1500" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41174,7 +41171,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1501" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41200,7 +41197,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41226,7 +41223,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1503" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41252,7 +41249,7 @@
         <v>3.5</v>
       </c>
       <c r="G1504" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41278,7 +41275,7 @@
         <v>3.5</v>
       </c>
       <c r="G1505" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41304,7 +41301,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1506" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41330,7 +41327,7 @@
         <v>3.5</v>
       </c>
       <c r="G1507" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41356,7 +41353,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1508" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41382,7 +41379,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1509" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41408,7 +41405,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1510" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41434,7 +41431,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1511" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41460,7 +41457,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1512" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41486,7 +41483,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1513" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41512,7 +41509,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41538,7 +41535,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41564,7 +41561,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1516" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41590,7 +41587,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1517" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41616,7 +41613,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1518" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41642,7 +41639,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1519" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41668,7 +41665,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1520" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41694,7 +41691,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41720,7 +41717,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41746,7 +41743,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1523" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41772,7 +41769,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1524" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41798,7 +41795,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1525" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41824,7 +41821,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1526" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41850,7 +41847,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1527" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41876,7 +41873,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41902,7 +41899,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1529" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41928,7 +41925,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1530" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41954,7 +41951,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41980,7 +41977,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1532" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42006,7 +42003,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42032,7 +42029,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1534" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42058,7 +42055,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1535" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42084,7 +42081,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1536" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42110,7 +42107,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1537" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42136,7 +42133,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1538" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42162,7 +42159,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1539" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42188,7 +42185,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42214,7 +42211,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42240,7 +42237,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42266,7 +42263,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1543" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42292,7 +42289,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1544" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42318,7 +42315,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1545" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42344,7 +42341,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1546" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42370,7 +42367,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1547" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42396,7 +42393,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42422,7 +42419,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1549" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42448,7 +42445,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1550" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42474,7 +42471,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1551" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42500,7 +42497,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1552" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42526,7 +42523,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1553" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42552,7 +42549,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1554" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42578,7 +42575,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1555" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42604,7 +42601,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1556" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42630,7 +42627,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1557" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42656,7 +42653,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1558" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42682,7 +42679,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1559" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42708,7 +42705,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1560" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42734,7 +42731,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42760,7 +42757,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1562" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42786,7 +42783,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1563" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42812,7 +42809,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1564" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42838,7 +42835,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1565" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42864,7 +42861,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1566" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42890,7 +42887,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1567" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42916,7 +42913,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42942,7 +42939,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1569" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42968,7 +42965,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1570" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42994,7 +42991,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1571" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43020,7 +43017,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43046,7 +43043,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1573" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43072,7 +43069,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1574" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43098,7 +43095,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43124,7 +43121,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1576" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43150,7 +43147,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1577" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43176,7 +43173,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1578" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43202,7 +43199,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1579" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43228,7 +43225,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1580" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43254,7 +43251,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1581" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43280,7 +43277,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1582" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43306,7 +43303,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1583" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43332,7 +43329,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1584" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43358,7 +43355,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1585" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43384,7 +43381,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1586" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43410,7 +43407,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43436,7 +43433,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1588" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43462,7 +43459,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1589" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43488,7 +43485,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1590" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43514,7 +43511,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1591" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43540,7 +43537,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43566,7 +43563,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1593" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43592,7 +43589,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1594" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43618,7 +43615,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1595" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43644,7 +43641,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1596" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43670,7 +43667,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1597" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43696,7 +43693,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43722,7 +43719,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43748,7 +43745,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1600" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43774,7 +43771,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1601" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43800,7 +43797,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1602" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43826,7 +43823,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1603" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43852,7 +43849,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1604" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43878,7 +43875,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1605" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43904,7 +43901,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43930,7 +43927,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43956,7 +43953,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43982,7 +43979,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1609" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44008,7 +44005,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1610" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44034,7 +44031,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1611" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44060,7 +44057,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1612" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44086,7 +44083,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1613" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44112,7 +44109,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1614" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44138,7 +44135,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1615" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44164,7 +44161,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1616" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44190,7 +44187,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1617" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44216,7 +44213,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1618" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44242,7 +44239,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1619" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44268,7 +44265,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1620" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44294,7 +44291,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1621" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44320,7 +44317,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1622" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44346,7 +44343,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1623" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44372,7 +44369,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44398,7 +44395,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1625" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44424,7 +44421,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1626" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44450,7 +44447,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1627" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44476,7 +44473,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1628" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44502,7 +44499,7 @@
         <v>4</v>
       </c>
       <c r="G1629" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44528,7 +44525,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1630" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44554,7 +44551,7 @@
         <v>4</v>
       </c>
       <c r="G1631" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44580,7 +44577,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1632" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44606,7 +44603,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44632,7 +44629,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44658,7 +44655,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44684,7 +44681,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44710,7 +44707,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1637" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44736,7 +44733,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1638" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44762,7 +44759,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1639" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44788,7 +44785,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1640" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44814,7 +44811,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1641" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44840,7 +44837,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1642" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44866,7 +44863,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1643" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44892,7 +44889,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1644" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44918,7 +44915,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1645" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44944,7 +44941,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44970,7 +44967,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1647" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44996,7 +44993,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1648" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45022,7 +45019,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1649" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45048,7 +45045,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1650" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45074,7 +45071,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45100,7 +45097,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1652" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45126,7 +45123,7 @@
         <v>4</v>
       </c>
       <c r="G1653" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45152,7 +45149,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1654" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45178,7 +45175,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1655" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45204,7 +45201,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1656" t="s">
-        <